--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D499654-5D0F-4EAB-9A14-EDDE9D2477BF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FD9D35-8070-4A5B-87D1-4FCAEBBC3E31}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,10 @@
     <sheet name="准备" sheetId="1" r:id="rId1"/>
     <sheet name="饮食计划" sheetId="2" r:id="rId2"/>
     <sheet name="黄帝内经" sheetId="3" r:id="rId3"/>
+    <sheet name="月经" sheetId="4" r:id="rId4"/>
+    <sheet name="血型" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,15 +23,98 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{70AF2053-C16D-4468-B2B9-A0A891F005E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+补血</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{87EFADC0-0E3E-4959-B005-057142143B28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+活血化瘀</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{585F2A34-6F15-4FC2-A924-FD4A41C0FC3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+散寒</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="272">
   <si>
     <t>病毒四项</t>
   </si>
   <si>
-    <t>torch检查</t>
-  </si>
-  <si>
     <t>木耳姜红糖粥</t>
   </si>
   <si>
@@ -43,15 +127,9 @@
     <t>豆浆</t>
   </si>
   <si>
-    <t>牛奶</t>
-  </si>
-  <si>
     <t>红花煮鸡蛋</t>
   </si>
   <si>
-    <t>花生 核桃 枣 阿娇红枣 煮黑豆 冬瓜</t>
-  </si>
-  <si>
     <t>芦笋虾仁</t>
   </si>
   <si>
@@ -145,122 +223,1086 @@
     <t>叶酸</t>
   </si>
   <si>
+    <t>艾灸</t>
+  </si>
+  <si>
+    <t>热水袋敷小腹</t>
+  </si>
+  <si>
+    <t>孕前检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素炒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏炒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炖品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物多样化，每天至少12种，每周至少25种。</t>
+  </si>
+  <si>
+    <t>多吃蔬菜(深绿色蔬菜占1/2)、水果、奶类和大豆及其制品，吃适量的坚果。</t>
+  </si>
+  <si>
+    <t>多吃含铁丰富的食物（动物血、肝脏及红肉），同时摄入含VC较多的蔬菜和水果。缺铁或贫血的育龄女性需在医生的指导下补充铁剂。</t>
+  </si>
+  <si>
+    <t>每周至少食用一次富含碘的食物，如海带，紫菜、贻贝(淡菜)。</t>
+  </si>
+  <si>
+    <t>上古天真论</t>
+  </si>
+  <si>
+    <t>皇帝外经 32卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁冬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国学堂  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文兵</t>
+  </si>
+  <si>
+    <t>黄帝内经 18卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素问 81篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵枢 81篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正气 邪气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫气 贼风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟睡惊醒 伤神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经络 腧穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真 至 圣 贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗汗 流失肾精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾主志 孩子肾气最足 记忆好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志 对过去的记忆 对将来的愿景 不在当下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安 三面环山 保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心胞/心主 守卫心神的安全 不惧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神封 神藏 灵虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健 - 气 康 - 通畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六欲：饮食男女、温饱、安危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲 - 身体本能的需要 愿 - 心愿非物质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣 - 外衣、上衣 服 - 内衣 裳 - 下衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲不带心 生理感官的满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风 寒 暑 湿 燥 火 六淫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淫 过度 惑 不确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚 想不通想不开 智 通达开明 贤 开慧的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惧 - 惊吓恐 触动心神后的状态 恐 - 心被勒紧的状态 巩 - 拿牛皮绳捆东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋 - 心神的寄托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾叶红花煮鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾叶红花泡脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当归羊肉生姜汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋瘦肉粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山楂蒲公英生姜泡茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当归煎水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂王浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四物汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的情况大概是：子宫内膜薄，雌激素孕激素低，雄激素偏高，黄体功能不足，体质偏寒（不稳定，有时会偏湿或偏燥），瘦，肠胃不好影响消化吸收，情致不畅容易肝气郁结。</t>
+  </si>
+  <si>
+    <t>一、日常：</t>
+  </si>
+  <si>
+    <t>1、豆浆/米糊（黑豆、黄豆、黑芝麻、小米、红枣、花生/核桃，补充雌激素）——用豆浆机一起打了做早餐</t>
+  </si>
+  <si>
+    <t>2、复合维生素+维B+大豆异黄酮（逐渐减量，经期停）——睡前</t>
+  </si>
+  <si>
+    <t>3、薄荷（2g）枸杞泡水（薄荷是降雄关键）一一分时段喝，每天保证一大杯（经期停）</t>
+  </si>
+  <si>
+    <t>4、甘草、白芍、当归（各12g）熬水（降雄补血）。煮15分钟，早晚各1杯，连续21天（经期不喝）——早晚餐后</t>
+  </si>
+  <si>
+    <t>5、艾草泡脚（祛寒湿，一周2次）</t>
+  </si>
+  <si>
+    <t>二、周期添补</t>
+  </si>
+  <si>
+    <t>**期：（经结束后的前10天，补雌，升体温）</t>
+  </si>
+  <si>
+    <t>6、红糖生姜汤——早上空腹（喝7天）</t>
+  </si>
+  <si>
+    <t>7、乌鸡白凤丸（补血，吃一周）+葛根粉（除烦热、生津止渴，与乌鸡白凤丸同吃同停，不能与薄荷同吃）——餐后</t>
+  </si>
+  <si>
+    <t>排卵期：（经后第7——14天，补雌）</t>
+  </si>
+  <si>
+    <t>8、逍遥丸（补肾活血疏肝，乌鸡白凤丸后吃15到20天）——餐后</t>
+  </si>
+  <si>
+    <t>黄体期：（经前10天，补孕）</t>
+  </si>
+  <si>
+    <t>9、红糖鸡蛋（补充甜酒、枸杞、红枣，经前一周）</t>
+  </si>
+  <si>
+    <t>10、六味地黄丸（养血，提高黄体功能）——餐后</t>
+  </si>
+  <si>
+    <t>11、山楂红枣水（帮助排经）</t>
+  </si>
+  <si>
+    <t>经期：（补雌）</t>
+  </si>
+  <si>
+    <t>12、红糖姜茶+红枣+钙片</t>
+  </si>
+  <si>
+    <t>注意：</t>
+  </si>
+  <si>
+    <t>1、三个月后停掉4，7、8、10可以根据自己的状况来减。</t>
+  </si>
+  <si>
+    <t>2、大豆异黄酮的影响应该很大，除了经期没有吃其他时候都在吃，但是要慎重，因为我是常年内膜薄，这个对增厚内膜和提高孕酮有帮助，但是因为不知道怀孕了也一直吃，导致后来子宫出现肌瘤，后来没吃就没有了。</t>
+  </si>
+  <si>
+    <t>另外我比较服逍遥丸，因为肝肾功能差。这两项在后面还要找食物替代，随着月经的恢复逐渐减少依赖。根据内膜厚薄来减量。</t>
+  </si>
+  <si>
+    <t>3、加上运动、饮食调节，生活规律，心情愉快（这很重要，以前和前男友爱吵架生闷气，现在和老公相处和谐幸福，应该说对这个病起了三分之一的帮助），不吃公鸡，我肠胃不好平时还吃香砂养胃丸或六君丸。</t>
+  </si>
+  <si>
+    <t>随时关注自己的身体状况，观察舌苔、气色、体温、情绪等。</t>
+  </si>
+  <si>
+    <t>4、每三到六个月去医院做一次检查，只检查激素六项和B超，自己看报告单，根据身体变化再次调整方案。</t>
+  </si>
+  <si>
+    <t>不建议西药治疗，有的人不严重的吃了有效果，能恢复月经，但像我这种不排卵且常年闭经的人，根本就是治标不治本，有了依赖性后不吃就更不会来，而中药吃多了身体也会积累毒素，对肠胃有损伤。</t>
+  </si>
+  <si>
+    <t>我的好孕经验:</t>
+  </si>
+  <si>
+    <t>1，早上测基础体温，</t>
+  </si>
+  <si>
+    <t>2，每天自己磨黑豆浆喝不加糖.</t>
+  </si>
+  <si>
+    <t>3，下班后每天跑步加跳绳一个小时。</t>
+  </si>
+  <si>
+    <t>4，晚上每天泡脚。</t>
+  </si>
+  <si>
+    <t>5.月经后开始测排卵试纸，强阳转弱同房。</t>
+  </si>
+  <si>
+    <t>6，买了很多红枣每天当零食吃，来月经时喝红糖姜水。</t>
+  </si>
+  <si>
+    <t>7，经常吃糙米饭，红米饭。</t>
+  </si>
+  <si>
+    <t>紫菜蛋花汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.保持好心情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑木耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑葚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红枣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木耳花红枣山药汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川穹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白芍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当归羊肉汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四乌鸡汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄芪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿茸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕红花炖排骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血化瘀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴胡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香附</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元胡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越鞠丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益母草炖牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生姜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉桂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川穹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枸杞子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炙甘草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜仲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补血取阳明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小建中汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饴糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红枣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄芪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白芍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补血取少阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六味地黄汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天葵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四君子汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">天癸 - 激素 任脉 - </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇经八脉 - 丹田- 腹部 督脉 -阳脉 任脉 - 嘴唇 太冲脉 - 散布于胸中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28天</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增生期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排卵前期、卵泡期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5～14天</t>
+  </si>
+  <si>
+    <t>雌性激素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⬆</t>
+  </si>
+  <si>
+    <t>分泌期</t>
+  </si>
+  <si>
+    <t>第15～28天</t>
+  </si>
+  <si>
+    <t>孕激素和雌性激素</t>
+  </si>
+  <si>
+    <t>内膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经期</t>
+  </si>
+  <si>
+    <t>3～5天</t>
+  </si>
+  <si>
+    <t>流血量50～100毫升</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>A型血</t>
+  </si>
+  <si>
+    <t>B型血</t>
+  </si>
+  <si>
+    <t>AB型血</t>
+  </si>
+  <si>
+    <t>O型血</t>
+  </si>
+  <si>
+    <t>Rh阳性</t>
+  </si>
+  <si>
+    <t>Rh阴性</t>
+  </si>
+  <si>
+    <t>熊猫血</t>
+  </si>
+  <si>
+    <t>Rh抗原/D抗原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟买血型</t>
+  </si>
+  <si>
+    <t>hh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CisAB血型/顺式AB血型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卵泡直径达&gt;18mm</t>
+  </si>
+  <si>
+    <t>成熟卵泡</t>
+  </si>
+  <si>
+    <t>优势卵泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积2.5～8.5mm³</t>
+  </si>
+  <si>
+    <t>28mm&gt;卵泡直径&gt;18mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20条经络 12正经 - 6脏 6腑 脏属阴 腑属阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳明 - 六腑 - 胆、膀胱、胃、大肠、小肠、三焦 首阳明 - 大肠 足阳明 - 胃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火克金 心 - 火 胃 - 金 肺 - 金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳 太阳 少阳 阳明 首太阳 - 小肠 足太阳 - 膀胱 手少阳 - 三焦 足少阳 - 胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃 - 消 小肠 - 化（转化吸收）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血 奶 - 寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾叶煮鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘草白芍当归水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾叶泡脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾灸肚子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北大一院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醒来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿促</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄体酮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达比佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳绳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸡白凤丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优思明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿胎膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>运动</t>
-  </si>
-  <si>
-    <t>艾灸</t>
-  </si>
-  <si>
-    <t>热水袋敷小腹</t>
-  </si>
-  <si>
-    <t>泡脚 + 搓脚心</t>
-  </si>
-  <si>
-    <t>孕前检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素炒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昏炒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炖品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饮品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物多样化，每天至少12种，每周至少25种。</t>
-  </si>
-  <si>
-    <t>多吃蔬菜(深绿色蔬菜占1/2)、水果、奶类和大豆及其制品，吃适量的坚果。</t>
-  </si>
-  <si>
-    <t>多吃含铁丰富的食物（动物血、肝脏及红肉），同时摄入含VC较多的蔬菜和水果。缺铁或贫血的育龄女性需在医生的指导下补充铁剂。</t>
-  </si>
-  <si>
-    <t>每周至少食用一次富含碘的食物，如海带，紫菜、贻贝(淡菜)。</t>
-  </si>
-  <si>
-    <t>上古天真论</t>
-  </si>
-  <si>
-    <t>皇帝外经 32卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁冬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国学堂  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐文兵</t>
-  </si>
-  <si>
-    <t>黄帝内经 18卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素问 81篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵枢 81篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风 寒 暑 湿 燥 火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正气 邪气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torch检查/唐筛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳绳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搓脚心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>昔在皇帝，生而神灵，弱而能言，幼而徇齐，长而敦敏，成而登天。
 乃问于天师曰：余问上古之人，春秋皆度百岁，而动作不衰；今时之人，年半百而动作皆衰，时世异耶？人将失之耶？
-岐伯对曰：上古之人，其知道者，法于阴阳，和于术数，食饮有节，起居有常，不妄作劳，故能形与神俱，而尽终其天年，度百岁乃去。今时之人不然也，以酒为浆，以妄为常，醉以入房，以欲竭其精，以耗散其真，不知持满，不时御神，务快其心，逆于生乐，起居无节，故半百而衰也。夫上古圣人之教下也，皆谓之虚邪贼风，避之有时，恬惔虚无，真气从之，精神内守，病安从来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫气 贼风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟睡惊醒 伤神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经络 腧穴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真 至 圣 贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盗汗 流失肾精</t>
+岐伯对曰：上古之人，其知道者，法于阴阳，和于术数，食饮有节，起居有常，不妄作劳，故能形与神俱，而尽终其天年，度百岁乃去。今时之人不然也，以酒为浆，以妄为常，醉以入房，以欲竭其精，以耗散其真，不知持满，不时御神，务快其心，逆于生乐，起居无节，故半百而衰也。
+夫上古圣人之教下也，皆谓之虚邪贼风，避之有时，恬惔虚无，真气从之，精神内守，病安从来。是以志闲而少欲，心安而不惧，形劳而不倦，气从以顺，各从其欲，皆得所愿。故美其食，任其服，乐其俗，高下不相慕，其民故曰朴。是以嗜欲不能劳其目，淫邪不能惑其心，愚智贤不肖不惧于物，故合于道。所以能年皆度百岁，而动作不衰者，以其德全不危也。
+帝曰：人年老而无子者，材力尽耶，将天数然也。
+岐伯曰：女子七岁。肾气盛，齿更发长； 二七而天癸至，任脉通，太冲脉盛，月事以时下，故有子； 三七，肾气平均，故真牙生而长极； 四七，筋骨坚，发长极，身体盛壮； 五七，阳明脉衰，面始焦，发始堕； 六七，三阳脉衰于上，面皆焦，发始白； 七七，任脉虚，太冲脉衰少，天癸竭，地道不通，故形坏而无子也。 丈夫八岁，肾气实，发长齿更； 二八，肾气盛，天癸至，精气溢泻，阴阳和，故能有子； 三八，肾气平均，筋骨劲强，故真牙生而长极； 四八，筋骨隆盛，肌肉满壮； 五八，肾气衰，发堕齿槁； 六八，阳气衰竭于上，面焦，发鬓颁白； 七八，肝气衰，筋不能动，天癸竭，精少，肾藏衰，形体皆极； 八八，则齿发去。肾者主水，受五藏六府之精而藏之，故五藏盛，乃能泻。 今五藏皆衰，筋骨解堕，天癸尽矣。故发鬓白，身体重，行步不正，而无子耳。
+帝曰：有其年已老而有子者何也。
+岐伯曰：此其天寿过度，气脉常通，而肾气有余也。此虽有子，男不过尽八八，女不过尽七七，而天地之精气皆竭矣。
+帝曰：夫道者年皆百数，能有子乎。
+岐伯曰：夫道者能却老而全形，身年虽寿，能生子也。
+黄帝曰：余闻上古有真人者，提挈天地，把握阴阳，呼吸精气，独立守神，肌肉若一，故能寿敝天地，无有终时，此其道生。中古之时，有至人者，淳德全道，和于阴阳，调于四时，去世离俗，积精全神，游行天地之间，视听八达之外，此盖益其寿命而强者也，亦归于真人。其次有圣人者，处天地之和，从八风之理，适嗜欲于世俗之间。无恚嗔之心，行不欲离于世，被服章，举不欲观于俗，外不劳形于事，内无思想之患，以恬愉为务，以自得为功，形体不敝，精神不散，亦可以百数。其次有贤人者，法则天地，象似日月，辨列星辰，逆从阴阳，分别四时，将从上古合同于道，亦可使益寿而有极时。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +1310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,13 +1333,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF5D5D5D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +1419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,18 +1441,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,241 +1741,862 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="N5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>55</v>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" t="s">
+        <v>160</v>
+      </c>
+      <c r="G82" t="s">
+        <v>161</v>
+      </c>
+      <c r="H82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I82" t="s">
+        <v>162</v>
+      </c>
+      <c r="J82" t="s">
+        <v>163</v>
+      </c>
+      <c r="K82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" t="s">
+        <v>173</v>
+      </c>
+      <c r="G85" t="s">
+        <v>174</v>
+      </c>
+      <c r="H85" t="s">
+        <v>175</v>
+      </c>
+      <c r="I85" t="s">
+        <v>176</v>
+      </c>
+      <c r="J85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" t="s">
+        <v>185</v>
+      </c>
+      <c r="F88" t="s">
+        <v>186</v>
+      </c>
+      <c r="G88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B527B3-1877-4AC0-96A1-C708A05F6529}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -860,10 +2605,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CDBFD4-5C89-44B0-BE5F-EE93F9FBB48E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,73 +2621,186 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -953,4 +2811,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60843F9-65E4-43A5-BAE4-A4739EDBA1D7}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF33506-1E2C-4D60-8608-E4F9F9BE2A2C}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FD9D35-8070-4A5B-87D1-4FCAEBBC3E31}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A736BA12-ADC1-40E7-8E53-49C15E726091}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="准备" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="黄帝内经" sheetId="3" r:id="rId3"/>
     <sheet name="月经" sheetId="4" r:id="rId4"/>
     <sheet name="血型" sheetId="5" r:id="rId5"/>
+    <sheet name="日记" sheetId="6" r:id="rId6"/>
+    <sheet name="体温检测" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -110,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="302">
   <si>
     <t>病毒四项</t>
   </si>
@@ -1305,12 +1307,132 @@
 黄帝曰：余闻上古有真人者，提挈天地，把握阴阳，呼吸精气，独立守神，肌肉若一，故能寿敝天地，无有终时，此其道生。中古之时，有至人者，淳德全道，和于阴阳，调于四时，去世离俗，积精全神，游行天地之间，视听八达之外，此盖益其寿命而强者也，亦归于真人。其次有圣人者，处天地之和，从八风之理，适嗜欲于世俗之间。无恚嗔之心，行不欲离于世，被服章，举不欲观于俗，外不劳形于事，内无思想之患，以恬愉为务，以自得为功，形体不敝，精神不散，亦可以百数。其次有贤人者，法则天地，象似日月，辨列星辰，逆从阴阳，分别四时，将从上古合同于道，亦可使益寿而有极时。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床洗体温计后平躺2分钟开始测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5-7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.05-7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20-7.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便通畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡前吃维E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：蛋炒饭+黄豆棒骨汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动：间断微量跑跳半小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空腹喝薄荷红糖水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：红烧带鱼+炒合菜+冬瓜肉丸子+清炒油麦菜+菠菜蛋花汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾灸腹部，温热程度好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半空腹喝酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭后立即吃橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1408,8 +1530,43 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1428,6 +1585,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1441,7 +1604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1462,6 +1625,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2607,7 +2781,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2997,4 +3171,285 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390E6AE-AB45-4D07-8F94-2DCA91963E49}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>43402</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="C3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="C4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="C6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="C9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="C10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="C11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="C12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="C13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="C14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>43403</v>
+      </c>
+      <c r="B16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="C19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0412F6-C085-4595-8794-713B9BE3E090}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>43403</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2">
+        <v>36.46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A736BA12-ADC1-40E7-8E53-49C15E726091}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB35F4-037F-4751-98ED-D4C350C40A25}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="379">
   <si>
     <t>病毒四项</t>
   </si>
@@ -1396,18 +1396,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>艾灸腹部，温热程度好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>涂脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洗漱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1425,6 +1417,322 @@
   </si>
   <si>
     <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：龙眼丸子+小葱拌豆腐+虾皮小白菜+蒜苔炒鸡蛋+黄瓜蛋花汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.50-12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30-7.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.40-7.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35-3.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半空腹吃维C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.50-4.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-6.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.40-6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.50-7.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑车去公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝薄荷红糖水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.00-7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.10-7.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.40-8.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐+打卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30-9.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.30-9.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10-2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30-12.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.00-5.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡+骑车回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.00-7.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30-8.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.00-9.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10-9.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂脚丫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.30-10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂脚丫+艾灸+学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.30-11.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维E+睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝水+穿衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃水果+坚果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10-6.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10-6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.00-8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎熬白芍当归水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝白芍当归水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.00-9.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.40-11.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.00-11.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.10-12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩耍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维C+午休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30-1.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃水果+学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00-2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10-3.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.00-2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10-4.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.30-5.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买菜回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+洗头+洗澡+护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30-9.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六 周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一 至 周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三：洗头+洗澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日：红糖生姜水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.42-5.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1604,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1622,13 +1930,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1636,6 +1938,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1918,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2808,7 +3123,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2822,7 +3137,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -3175,167 +3490,355 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390E6AE-AB45-4D07-8F94-2DCA91963E49}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="G1" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
         <v>43402</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="G2" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
       <c r="C3" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
       <c r="C4" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
-        <v>294</v>
+      <c r="G4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="G5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" t="s">
+        <v>312</v>
+      </c>
+      <c r="L5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
       <c r="C6" t="s">
         <v>284</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="G6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" t="s">
+        <v>316</v>
+      </c>
+      <c r="L6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
       <c r="C7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+        <v>298</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
       <c r="C8" t="s">
         <v>289</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>313</v>
+      </c>
+      <c r="K8" t="s">
+        <v>304</v>
+      </c>
+      <c r="L8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
       <c r="C9" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="G9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K9" t="s">
+        <v>318</v>
+      </c>
+      <c r="L9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
       <c r="C10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="G10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" t="s">
+        <v>314</v>
+      </c>
+      <c r="K10" t="s">
+        <v>349</v>
+      </c>
+      <c r="L10" t="s">
+        <v>351</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
       <c r="C11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K11" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="C12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H12" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" t="s">
+        <v>353</v>
+      </c>
+      <c r="L12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="C13" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="C12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="C13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="G13" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" t="s">
+        <v>285</v>
+      </c>
+      <c r="K13" t="s">
+        <v>321</v>
+      </c>
+      <c r="L13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
       <c r="C14" t="s">
         <v>283</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="G14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" t="s">
+        <v>354</v>
+      </c>
+      <c r="L14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
       <c r="C15" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
         <v>43403</v>
       </c>
       <c r="B16" t="s">
@@ -3344,59 +3847,287 @@
       <c r="C16" t="s">
         <v>287</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="20" t="s">
+      <c r="G16" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" t="s">
+        <v>357</v>
+      </c>
+      <c r="L16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="C18" t="s">
+      <c r="G17" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" t="s">
+        <v>342</v>
+      </c>
+      <c r="K17" t="s">
+        <v>301</v>
+      </c>
+      <c r="L17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" t="s">
+        <v>346</v>
+      </c>
+      <c r="H18" t="s">
+        <v>343</v>
+      </c>
+      <c r="K18" t="s">
+        <v>358</v>
+      </c>
+      <c r="L18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" t="s">
+        <v>330</v>
+      </c>
+      <c r="H19" t="s">
+        <v>344</v>
+      </c>
+      <c r="K19" t="s">
+        <v>361</v>
+      </c>
+      <c r="L19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="C19" t="s">
+      <c r="G20" t="s">
+        <v>332</v>
+      </c>
+      <c r="H20" t="s">
+        <v>331</v>
+      </c>
+      <c r="K20" t="s">
+        <v>363</v>
+      </c>
+      <c r="L20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="C21" t="s">
         <v>292</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D21" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" t="s">
+        <v>333</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="K21" t="s">
+        <v>365</v>
+      </c>
+      <c r="L21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
+      <c r="C22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="K22" t="s">
+        <v>364</v>
+      </c>
+      <c r="L22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="G23" t="s">
+        <v>335</v>
+      </c>
+      <c r="H23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="K23" t="s">
+        <v>367</v>
+      </c>
+      <c r="L23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" t="s">
+        <v>337</v>
+      </c>
+      <c r="H24" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" t="s">
+        <v>368</v>
+      </c>
+      <c r="L24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="G25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" t="s">
+        <v>340</v>
+      </c>
+      <c r="K25" t="s">
+        <v>345</v>
+      </c>
+      <c r="L25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="K26" t="s">
+        <v>346</v>
+      </c>
+      <c r="L26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="K27" t="s">
+        <v>330</v>
+      </c>
+      <c r="L27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="K28" t="s">
+        <v>332</v>
+      </c>
+      <c r="L28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="K29" t="s">
+        <v>371</v>
+      </c>
+      <c r="L29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>337</v>
+      </c>
+      <c r="L30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>339</v>
+      </c>
+      <c r="L31" t="s">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="M10:M11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3409,7 +4140,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3435,10 +4166,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>43403</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>277</v>
       </c>
       <c r="C2">

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB35F4-037F-4751-98ED-D4C350C40A25}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B60EA-5C17-4F0B-90E1-5BF5741387AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="准备" sheetId="1" r:id="rId1"/>
-    <sheet name="饮食计划" sheetId="2" r:id="rId2"/>
+    <sheet name="饮食" sheetId="2" r:id="rId2"/>
     <sheet name="黄帝内经" sheetId="3" r:id="rId3"/>
     <sheet name="月经" sheetId="4" r:id="rId4"/>
-    <sheet name="血型" sheetId="5" r:id="rId5"/>
+    <sheet name="作息" sheetId="8" r:id="rId5"/>
     <sheet name="日记" sheetId="6" r:id="rId6"/>
-    <sheet name="体温检测" sheetId="7" r:id="rId7"/>
+    <sheet name="体温" sheetId="7" r:id="rId7"/>
+    <sheet name="血型" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="382">
   <si>
     <t>病毒四项</t>
   </si>
@@ -1154,58 +1155,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾叶煮鸡蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘草白芍当归水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾叶泡脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾灸肚子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆浆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北大一院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>醒来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测体温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>克米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1230,10 +1183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乌鸡白凤丸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>达英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1242,7 +1191,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鹿胎膏</t>
+    <t>torch检查/唐筛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳绳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1250,30 +1207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跑步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>torch检查/唐筛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳绳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1283,14 +1216,6 @@
   </si>
   <si>
     <t>搓脚心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1364,18 +1289,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>量体温：36.46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运动：间断微量跑跳半小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1384,10 +1301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空腹喝薄荷红糖水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1396,7 +1309,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艾灸腹部，温热程度好</t>
+    <t>半空腹喝酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭后立即吃橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：龙眼丸子+小葱拌豆腐+虾皮小白菜+蒜苔炒鸡蛋+黄瓜蛋花汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.50-12.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1404,143 +1329,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30-7.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35-3.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半空腹吃维C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.50-4.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-6.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.40-6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.50-7.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑车去公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝薄荷红糖水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.00-7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.10-7.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.40-8.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐+打卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30-9.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.30-9.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10-2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.00-5.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡+骑车回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.00-7.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30-8.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.00-9.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10-9.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.30-10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂脚丫+艾灸+学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.30-11.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维E+睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝水+穿衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃水果+坚果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10-6.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10-6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>半空腹喝酸奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭后立即吃橘子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐：龙眼丸子+小葱拌豆腐+虾皮小白菜+蒜苔炒鸡蛋+黄瓜蛋花汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.50-12.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护肤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.30-7.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.40-7.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35-3.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半空腹吃维C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.50-4.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.30-6.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>量体温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.40-6.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.50-7.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑车去公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喝薄荷红糖水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.00-7.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.10-7.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.40-8.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早餐+打卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.30-9.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.30-9.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.10-2.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喝酸奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.30-12.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.00-5.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打卡+骑车回家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.00-7.30</t>
+    <t>做早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.00-8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝白芍当归水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.10-12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩耍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维C+午休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30-1.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买菜回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+洗头+洗澡+护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30-9.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六 周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一 至 周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三：洗头+洗澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.00-5.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡+骑车买菜回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.50-6.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炖肉+泡面+烤红薯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：泡面+烤红薯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.40-7.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.00-8.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1548,7 +1597,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.30-8.00</t>
+    <t>7.50-8.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃坚果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.30-11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.30-12.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45-6.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作日体温刻度未清零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+涂脚丫+艾灸腹部、足三里、肾俞，温度不够热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂脚丫+学习+艾灸腹部，温热程度好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1556,23 +1633,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.00-9.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.10-9.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂脚丫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.30-10.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂脚丫+艾灸+学习</t>
+    <t>6.45-6.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.00-8.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：玉米面糊+小咸菜+火腿烤饼+包子+鸡蛋+豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00-1.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10-2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.20-3.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.20-4.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.50-5.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熬白芍当归水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.00-10.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00-10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10-11.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.10-11.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小腹微微痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃胀气
+肚子难受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炖肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1580,159 +1738,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃维E+睡觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喝水+穿衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃水果+坚果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.10-6.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.10-6.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做早餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.00-8.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃早餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煎熬白芍当归水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喝白芍当归水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.00-9.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.40-11.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.00-11.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.10-12.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩耍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃维C+午休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.30-1.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃水果+学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.00-2.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.10-3.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.00-2.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.10-4.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.30-5.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买菜回家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱+洗头+洗澡+护肤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.30-9.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>do things</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周六 周日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一 至 周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三：洗头+洗澡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周日：红糖生姜水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.42-5.00</t>
+    <t>饱腹喝薄荷红糖水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.10-11.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃健胃消食片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1740,7 +1754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1839,33 +1853,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="7"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="等线"/>
@@ -1874,7 +1861,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1896,6 +1883,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,13 +1930,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1947,9 +1948,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2231,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2280,10 +2283,10 @@
         <v>46</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2315,7 +2318,7 @@
         <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="N2" t="s">
         <v>37</v>
@@ -2323,7 +2326,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2350,7 +2353,7 @@
         <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -2376,10 +2379,10 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="N4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2958,6 +2961,35 @@
         <v>193</v>
       </c>
     </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>236</v>
+      </c>
+      <c r="B101" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" t="s">
+        <v>240</v>
+      </c>
+      <c r="F101" t="s">
+        <v>241</v>
+      </c>
+      <c r="G101" t="s">
+        <v>242</v>
+      </c>
+      <c r="H101" t="s">
+        <v>243</v>
+      </c>
+      <c r="I101" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2968,10 +3000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B527B3-1877-4AC0-96A1-C708A05F6529}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2982,109 +3014,7 @@
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H3" t="s">
-        <v>254</v>
-      </c>
-      <c r="I3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" t="s">
-        <v>254</v>
-      </c>
-      <c r="H13" t="s">
-        <v>256</v>
-      </c>
-      <c r="I13" t="s">
-        <v>257</v>
-      </c>
-    </row>
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3096,8 +3026,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3133,7 +3063,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3307,7 +3237,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3395,11 +3325,1107 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903A5BE-8F8C-439C-9993-8B5A75EE48A8}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" t="s">
+        <v>321</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>370</v>
+      </c>
+      <c r="F15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="E22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="E23" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" t="s">
+        <v>363</v>
+      </c>
+      <c r="F24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>365</v>
+      </c>
+      <c r="F26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>315</v>
+      </c>
+      <c r="F27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>330</v>
+      </c>
+      <c r="F31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390E6AE-AB45-4D07-8F94-2DCA91963E49}">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>43402</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="D2" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="D3" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="D6" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="D7" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="D8" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="D9" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="D10" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="D11" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="D12" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="D13" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="D14" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>43403</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="D18" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="D22" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="20"/>
+      <c r="C24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="20"/>
+      <c r="C26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="20"/>
+      <c r="C27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="20"/>
+      <c r="C28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="D30" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>43404</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" t="s">
+        <v>378</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" s="20"/>
+      <c r="C38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" s="20"/>
+      <c r="D39" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="20"/>
+      <c r="C40" t="s">
+        <v>336</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+      <c r="B41" s="20"/>
+      <c r="C41" t="s">
+        <v>338</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="B43" s="20"/>
+      <c r="C43" t="s">
+        <v>344</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="B44" s="20"/>
+      <c r="C44" t="s">
+        <v>342</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+      <c r="B45" s="20"/>
+      <c r="C45" t="s">
+        <v>346</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="B46" s="20"/>
+      <c r="C46" t="s">
+        <v>347</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A16:A30"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B34:B36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0412F6-C085-4595-8794-713B9BE3E090}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>43403</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2">
+        <v>36.46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>43404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3">
+        <v>36.44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>43407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>43410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>43415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>43422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>43434</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF33506-1E2C-4D60-8608-E4F9F9BE2A2C}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3486,701 +4512,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390E6AE-AB45-4D07-8F94-2DCA91963E49}">
-  <dimension ref="A1:M31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>43402</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="C3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K4" t="s">
-        <v>311</v>
-      </c>
-      <c r="L4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" t="s">
-        <v>312</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K5" t="s">
-        <v>312</v>
-      </c>
-      <c r="L5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="C6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" t="s">
-        <v>316</v>
-      </c>
-      <c r="L6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="C7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="C8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>313</v>
-      </c>
-      <c r="K8" t="s">
-        <v>304</v>
-      </c>
-      <c r="L8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="C9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G9" t="s">
-        <v>318</v>
-      </c>
-      <c r="H9" t="s">
-        <v>319</v>
-      </c>
-      <c r="K9" t="s">
-        <v>318</v>
-      </c>
-      <c r="L9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="C10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" t="s">
-        <v>314</v>
-      </c>
-      <c r="K10" t="s">
-        <v>349</v>
-      </c>
-      <c r="L10" t="s">
-        <v>351</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="C11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" t="s">
-        <v>321</v>
-      </c>
-      <c r="H11" t="s">
-        <v>323</v>
-      </c>
-      <c r="K11" t="s">
-        <v>320</v>
-      </c>
-      <c r="L11" t="s">
-        <v>352</v>
-      </c>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="C12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G12" t="s">
-        <v>301</v>
-      </c>
-      <c r="H12" t="s">
-        <v>324</v>
-      </c>
-      <c r="K12" t="s">
-        <v>353</v>
-      </c>
-      <c r="L12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="C13" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" t="s">
-        <v>327</v>
-      </c>
-      <c r="H13" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" t="s">
-        <v>321</v>
-      </c>
-      <c r="L13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="C14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H14" t="s">
-        <v>326</v>
-      </c>
-      <c r="K14" t="s">
-        <v>354</v>
-      </c>
-      <c r="L14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="C15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <v>43403</v>
-      </c>
-      <c r="B16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G16" t="s">
-        <v>328</v>
-      </c>
-      <c r="H16" t="s">
-        <v>329</v>
-      </c>
-      <c r="K16" t="s">
-        <v>357</v>
-      </c>
-      <c r="L16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="G17" t="s">
-        <v>345</v>
-      </c>
-      <c r="H17" t="s">
-        <v>342</v>
-      </c>
-      <c r="K17" t="s">
-        <v>301</v>
-      </c>
-      <c r="L17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" t="s">
-        <v>346</v>
-      </c>
-      <c r="H18" t="s">
-        <v>343</v>
-      </c>
-      <c r="K18" t="s">
-        <v>358</v>
-      </c>
-      <c r="L18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="G19" t="s">
-        <v>330</v>
-      </c>
-      <c r="H19" t="s">
-        <v>344</v>
-      </c>
-      <c r="K19" t="s">
-        <v>361</v>
-      </c>
-      <c r="L19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G20" t="s">
-        <v>332</v>
-      </c>
-      <c r="H20" t="s">
-        <v>331</v>
-      </c>
-      <c r="K20" t="s">
-        <v>363</v>
-      </c>
-      <c r="L20" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="C21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G21" t="s">
-        <v>320</v>
-      </c>
-      <c r="H21" t="s">
-        <v>333</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="K21" t="s">
-        <v>365</v>
-      </c>
-      <c r="L21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" t="s">
-        <v>301</v>
-      </c>
-      <c r="C22" t="s">
-        <v>300</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="G22" t="s">
-        <v>334</v>
-      </c>
-      <c r="H22" t="s">
-        <v>302</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="K22" t="s">
-        <v>364</v>
-      </c>
-      <c r="L22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G23" t="s">
-        <v>335</v>
-      </c>
-      <c r="H23" t="s">
-        <v>303</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="K23" t="s">
-        <v>367</v>
-      </c>
-      <c r="L23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" t="s">
-        <v>378</v>
-      </c>
-      <c r="C24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G24" t="s">
-        <v>337</v>
-      </c>
-      <c r="H24" t="s">
-        <v>338</v>
-      </c>
-      <c r="K24" t="s">
-        <v>368</v>
-      </c>
-      <c r="L24" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="G25" t="s">
-        <v>339</v>
-      </c>
-      <c r="H25" t="s">
-        <v>340</v>
-      </c>
-      <c r="K25" t="s">
-        <v>345</v>
-      </c>
-      <c r="L25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="K26" t="s">
-        <v>346</v>
-      </c>
-      <c r="L26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="K27" t="s">
-        <v>330</v>
-      </c>
-      <c r="L27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="K28" t="s">
-        <v>332</v>
-      </c>
-      <c r="L28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="K29" t="s">
-        <v>371</v>
-      </c>
-      <c r="L29" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K30" t="s">
-        <v>337</v>
-      </c>
-      <c r="L30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K31" t="s">
-        <v>339</v>
-      </c>
-      <c r="L31" t="s">
-        <v>340</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="M10:M11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0412F6-C085-4595-8794-713B9BE3E090}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>43403</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2">
-        <v>36.46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,20 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B60EA-5C17-4F0B-90E1-5BF5741387AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5615C08-F08C-4883-9339-36DCD47E0FAB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="准备" sheetId="1" r:id="rId1"/>
-    <sheet name="饮食" sheetId="2" r:id="rId2"/>
-    <sheet name="黄帝内经" sheetId="3" r:id="rId3"/>
-    <sheet name="月经" sheetId="4" r:id="rId4"/>
-    <sheet name="作息" sheetId="8" r:id="rId5"/>
-    <sheet name="日记" sheetId="6" r:id="rId6"/>
-    <sheet name="体温" sheetId="7" r:id="rId7"/>
-    <sheet name="血型" sheetId="5" r:id="rId8"/>
+    <sheet name="饮食" sheetId="1" r:id="rId1"/>
+    <sheet name="作息" sheetId="8" r:id="rId2"/>
+    <sheet name="日记" sheetId="6" r:id="rId3"/>
+    <sheet name="体温" sheetId="7" r:id="rId4"/>
+    <sheet name="月经" sheetId="4" r:id="rId5"/>
+    <sheet name="血型" sheetId="5" r:id="rId6"/>
+    <sheet name="黄帝内经" sheetId="3" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">体温!$C$1:$C$34</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -112,8 +114,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{F49E0EBA-35D4-40C2-85D4-946727779A2D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+紧身裤子？</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="418">
   <si>
     <t>病毒四项</t>
   </si>
@@ -264,18 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食物多样化，每天至少12种，每周至少25种。</t>
-  </si>
-  <si>
-    <t>多吃蔬菜(深绿色蔬菜占1/2)、水果、奶类和大豆及其制品，吃适量的坚果。</t>
-  </si>
-  <si>
-    <t>多吃含铁丰富的食物（动物血、肝脏及红肉），同时摄入含VC较多的蔬菜和水果。缺铁或贫血的育龄女性需在医生的指导下补充铁剂。</t>
-  </si>
-  <si>
-    <t>每周至少食用一次富含碘的食物，如海带，紫菜、贻贝(淡菜)。</t>
-  </si>
-  <si>
     <t>上古天真论</t>
   </si>
   <si>
@@ -445,9 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的情况大概是：子宫内膜薄，雌激素孕激素低，雄激素偏高，黄体功能不足，体质偏寒（不稳定，有时会偏湿或偏燥），瘦，肠胃不好影响消化吸收，情致不畅容易肝气郁结。</t>
-  </si>
-  <si>
     <t>一、日常：</t>
   </si>
   <si>
@@ -526,9 +549,6 @@
     <t>不建议西药治疗，有的人不严重的吃了有效果，能恢复月经，但像我这种不排卵且常年闭经的人，根本就是治标不治本，有了依赖性后不吃就更不会来，而中药吃多了身体也会积累毒素，对肠胃有损伤。</t>
   </si>
   <si>
-    <t>我的好孕经验:</t>
-  </si>
-  <si>
     <t>1，早上测基础体温，</t>
   </si>
   <si>
@@ -541,9 +561,6 @@
     <t>4，晚上每天泡脚。</t>
   </si>
   <si>
-    <t>5.月经后开始测排卵试纸，强阳转弱同房。</t>
-  </si>
-  <si>
     <t>6，买了很多红枣每天当零食吃，来月经时喝红糖姜水。</t>
   </si>
   <si>
@@ -551,10 +568,6 @@
   </si>
   <si>
     <t>紫菜蛋花汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.保持好心情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1241,10 +1254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>起床洗体温计后平躺2分钟开始测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1629,10 +1638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泡脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.45-6.55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1653,10 +1658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>good job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1709,44 +1710,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小腹微微痛</t>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.30-11.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱腹喝薄荷红糖水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.10-11.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃健胃消食片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：猪肉白菜馅饼+疙瘩汤+小咸菜+豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡+步行回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：咖喱牛肉+青椒炒腐竹+双耳炒芹菜+番茄炒白菜+薏米粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒饭热菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.50-6.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：蛋炒饭+芸豆棒骨汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.20-6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.30-11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+涂脚丫+艾灸腹部，温度够热</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>胃胀气
-肚子难受</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炖肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.30-11.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饱腹喝薄荷红糖水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.10-11.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃健胃消食片</t>
+胃难受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.30-3.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去301医院就医，开了地屈孕酮片，让吃完来月经后查输卵管造影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪低落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00-10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+敷面膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-6.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话了，让树帮我清零体温计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小腹微微痛
+不易察觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情尚好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.00-7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的情况大概是：子宫内膜薄，雌激素孕激素低，雄激素偏高，黄体功能不足，体质偏寒（不稳定，有时会偏湿或偏燥），瘦，肠胃不好影响消化吸收，情致不畅容易肝气郁结。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好孕经验:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，月经后开始测排卵试纸，强阳转弱同房。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8，保持好心情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促卵泡成熟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补雌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促卵泡成熟素</t>
+  </si>
+  <si>
+    <t>孕酮激素、黄体激素，孕激素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕激素屈螺酮</t>
+  </si>
+  <si>
+    <t>促排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（口腔舌苔下测量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半空腹喝薄荷红糖水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：香酥鸡跟+煮猪肝+鱼香茄子+炒豆角+菠菜蛋花汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.30-1.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝玫瑰薄荷水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.40-1.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.00-2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：蛋炒饭+芝麻红枣豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10-5.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒饭，煮豆子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30-6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃坚果+水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+洗头+洗澡+护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30-9.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维E+搓脚心+睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃胀气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1754,7 +1942,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1860,6 +2048,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5D5D5D"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1911,7 +2106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1939,20 +2134,33 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2234,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2245,7 +2453,7 @@
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
@@ -2262,7 +2470,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>43</v>
@@ -2283,10 +2491,10 @@
         <v>46</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2297,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -2318,7 +2526,7 @@
         <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="N2" t="s">
         <v>37</v>
@@ -2326,13 +2534,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -2350,10 +2558,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -2379,10 +2587,10 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="N4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2396,7 +2604,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
@@ -2405,7 +2613,7 @@
         <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2416,7 +2624,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -2427,7 +2635,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -2441,7 +2649,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -2458,7 +2666,7 @@
         <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2466,50 +2674,48 @@
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I14" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2524,9 +2730,7 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="A21" s="23"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2541,12 +2745,6 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -2558,9 +2756,7 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A23" s="23"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2576,418 +2772,441 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F76" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" t="s">
+        <v>135</v>
+      </c>
+      <c r="F82" t="s">
+        <v>152</v>
+      </c>
+      <c r="G82" t="s">
+        <v>153</v>
+      </c>
+      <c r="H82" t="s">
+        <v>137</v>
+      </c>
+      <c r="I82" t="s">
+        <v>154</v>
+      </c>
+      <c r="J82" t="s">
+        <v>155</v>
+      </c>
+      <c r="K82" t="s">
         <v>156</v>
-      </c>
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" t="s">
-        <v>143</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
-      </c>
-      <c r="G82" t="s">
-        <v>161</v>
-      </c>
-      <c r="H82" t="s">
-        <v>145</v>
-      </c>
-      <c r="I82" t="s">
-        <v>162</v>
-      </c>
-      <c r="J82" t="s">
-        <v>163</v>
-      </c>
-      <c r="K82" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" t="s">
+        <v>166</v>
+      </c>
+      <c r="H85" t="s">
+        <v>167</v>
+      </c>
+      <c r="I85" t="s">
         <v>168</v>
       </c>
-      <c r="B85" t="s">
+      <c r="J85" t="s">
         <v>169</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D85" t="s">
-        <v>171</v>
-      </c>
-      <c r="E85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F85" t="s">
-        <v>173</v>
-      </c>
-      <c r="G85" t="s">
-        <v>174</v>
-      </c>
-      <c r="H85" t="s">
-        <v>175</v>
-      </c>
-      <c r="I85" t="s">
-        <v>176</v>
-      </c>
-      <c r="J85" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E88" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F88" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G88" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D92" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" t="s">
+        <v>229</v>
+      </c>
+      <c r="C101" t="s">
+        <v>230</v>
+      </c>
+      <c r="D101" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" t="s">
+        <v>232</v>
+      </c>
+      <c r="F101" t="s">
+        <v>233</v>
+      </c>
+      <c r="G101" t="s">
+        <v>234</v>
+      </c>
+      <c r="H101" t="s">
+        <v>235</v>
+      </c>
+      <c r="I101" t="s">
         <v>236</v>
       </c>
-      <c r="B101" t="s">
-        <v>237</v>
-      </c>
-      <c r="C101" t="s">
-        <v>238</v>
-      </c>
-      <c r="D101" t="s">
-        <v>239</v>
-      </c>
-      <c r="E101" t="s">
-        <v>240</v>
-      </c>
-      <c r="F101" t="s">
-        <v>241</v>
-      </c>
-      <c r="G101" t="s">
-        <v>242</v>
-      </c>
-      <c r="H101" t="s">
-        <v>243</v>
-      </c>
-      <c r="I101" t="s">
-        <v>244</v>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>400</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E102" t="s">
+        <v>395</v>
+      </c>
+      <c r="F102" t="s">
+        <v>394</v>
+      </c>
+      <c r="H102" t="s">
+        <v>398</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -2999,29 +3218,1399 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B527B3-1877-4AC0-96A1-C708A05F6529}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903A5BE-8F8C-439C-9993-8B5A75EE48A8}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="E22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="E23" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" t="s">
+        <v>353</v>
+      </c>
+      <c r="F25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>354</v>
+      </c>
+      <c r="F26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>294</v>
+      </c>
+      <c r="F30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>321</v>
+      </c>
+      <c r="F31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390E6AE-AB45-4D07-8F94-2DCA91963E49}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
+        <v>43402</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="D2" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="D5" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="D8" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="D10" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="D11" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>43403</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="20"/>
+      <c r="C18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="20"/>
+      <c r="C19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="20"/>
+      <c r="C20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="20"/>
+      <c r="C21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="20"/>
+      <c r="C22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="20"/>
+      <c r="C23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="20"/>
+      <c r="C24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <v>43404</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="20"/>
+      <c r="C37" t="s">
+        <v>374</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="20"/>
+      <c r="C38" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="25">
+        <v>43405</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="22"/>
+      <c r="C42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="25"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="25"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="25"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="B54" s="20"/>
+      <c r="C54" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0412F6-C085-4595-8794-713B9BE3E090}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>43403</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2">
+        <v>36.46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>43404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3">
+        <v>36.44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>43405</v>
+      </c>
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4">
+        <v>36.54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>43407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>43410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>43415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>43422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>43434</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60843F9-65E4-43A5-BAE4-A4739EDBA1D7}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF33506-1E2C-4D60-8608-E4F9F9BE2A2C}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CDBFD4-5C89-44B0-BE5F-EE93F9FBB48E}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>
@@ -3040,186 +4629,186 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3230,1286 +4819,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60843F9-65E4-43A5-BAE4-A4739EDBA1D7}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903A5BE-8F8C-439C-9993-8B5A75EE48A8}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F11" t="s">
-        <v>367</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" t="s">
-        <v>321</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" t="s">
-        <v>368</v>
-      </c>
-      <c r="F13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" t="s">
-        <v>298</v>
-      </c>
-      <c r="E14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>370</v>
-      </c>
-      <c r="F15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>299</v>
-      </c>
-      <c r="B16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" t="s">
-        <v>312</v>
-      </c>
-      <c r="E17" t="s">
-        <v>371</v>
-      </c>
-      <c r="F17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B18" t="s">
-        <v>313</v>
-      </c>
-      <c r="E18" t="s">
-        <v>275</v>
-      </c>
-      <c r="F18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>301</v>
-      </c>
-      <c r="B19" t="s">
-        <v>314</v>
-      </c>
-      <c r="E19" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" t="s">
-        <v>302</v>
-      </c>
-      <c r="E20" t="s">
-        <v>327</v>
-      </c>
-      <c r="F20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>293</v>
-      </c>
-      <c r="B21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E21" t="s">
-        <v>360</v>
-      </c>
-      <c r="F21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>305</v>
-      </c>
-      <c r="B22" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="E22" t="s">
-        <v>297</v>
-      </c>
-      <c r="F22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>306</v>
-      </c>
-      <c r="B23" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="E23" t="s">
-        <v>362</v>
-      </c>
-      <c r="F23" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>307</v>
-      </c>
-      <c r="B24" t="s">
-        <v>308</v>
-      </c>
-      <c r="E24" t="s">
-        <v>363</v>
-      </c>
-      <c r="F24" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>309</v>
-      </c>
-      <c r="B25" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25" t="s">
-        <v>364</v>
-      </c>
-      <c r="F25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>365</v>
-      </c>
-      <c r="F26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>315</v>
-      </c>
-      <c r="F27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>316</v>
-      </c>
-      <c r="F28" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>301</v>
-      </c>
-      <c r="F29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
-        <v>303</v>
-      </c>
-      <c r="F30" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
-        <v>330</v>
-      </c>
-      <c r="F31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
-        <v>307</v>
-      </c>
-      <c r="F32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
-        <v>309</v>
-      </c>
-      <c r="F33" t="s">
-        <v>310</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390E6AE-AB45-4D07-8F94-2DCA91963E49}">
-  <dimension ref="A1:E47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
-        <v>43402</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="D2" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="D3" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="D6" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="D7" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="D8" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="D9" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="D10" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="D11" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="D12" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="D13" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="D14" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <v>43403</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="20"/>
-      <c r="D18" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="D22" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="20"/>
-      <c r="C23" t="s">
-        <v>336</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="20"/>
-      <c r="C24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="20"/>
-      <c r="C25" t="s">
-        <v>341</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="20"/>
-      <c r="C26" t="s">
-        <v>344</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="20"/>
-      <c r="C27" t="s">
-        <v>342</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="20"/>
-      <c r="C28" t="s">
-        <v>346</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="20"/>
-      <c r="C29" t="s">
-        <v>347</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="20"/>
-      <c r="D30" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
-        <v>43404</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="25"/>
-      <c r="C35" t="s">
-        <v>378</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="25"/>
-      <c r="C36" t="s">
-        <v>380</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="20"/>
-      <c r="C38" t="s">
-        <v>279</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="20"/>
-      <c r="D39" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="20"/>
-      <c r="C40" t="s">
-        <v>336</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="20"/>
-      <c r="C41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
-      <c r="B42" s="20"/>
-      <c r="C42" t="s">
-        <v>341</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="20"/>
-      <c r="C43" t="s">
-        <v>344</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="20"/>
-      <c r="C44" t="s">
-        <v>342</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="23"/>
-      <c r="B45" s="20"/>
-      <c r="C45" t="s">
-        <v>346</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="23"/>
-      <c r="B46" s="20"/>
-      <c r="C46" t="s">
-        <v>347</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D47" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A16:A30"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B34:B36"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0412F6-C085-4595-8794-713B9BE3E090}">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>43403</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2">
-        <v>36.46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>43404</v>
-      </c>
-      <c r="B3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C3">
-        <v>36.44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>43405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>43406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>43407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>43408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>43409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>43410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>43411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>43412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>43413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>43414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>43415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>43416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>43417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>43418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>43419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>43420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>43421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
-        <v>43422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
-        <v>43423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
-        <v>43424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
-        <v>43425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
-        <v>43426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>43427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>43428</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
-        <v>43429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
-        <v>43430</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
-        <v>43431</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
-        <v>43432</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
-        <v>43433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
-        <v>43434</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF33506-1E2C-4D60-8608-E4F9F9BE2A2C}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5615C08-F08C-4883-9339-36DCD47E0FAB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F61B6-FD06-4FE7-8B0C-2310AF2B185C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="451">
   <si>
     <t>病毒四项</t>
   </si>
@@ -1654,10 +1654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1707,10 +1703,6 @@
   </si>
   <si>
     <t>11.10-11.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1902,10 +1894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚餐：蛋炒饭+芝麻红枣豆浆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.10-5.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1918,10 +1906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃坚果+水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洗漱+洗头+洗澡+护肤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1930,11 +1914,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>胃胀气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：蛋汤饭+苹果（饭后即食）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.00-8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃轻微不适感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：葱花饼+小咸菜+小油条+豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-6.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看不清，过了几分钟读取温度值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.33-6.43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前有AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.33-6.43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：火腿烧饼+小咸菜+蛋糕+玉米面糊+豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒饭+热菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30-6.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：蛋炒饭+芸豆山药炖棒骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.00-5.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15-5.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-7.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.00-10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>吃维E+搓脚心+睡觉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胃胀气</t>
+    <t>午餐：猪蹄+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床前YY未遂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30-5.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10-7.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：白菜鸡蛋汤+红烧茄子炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30-8.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.40-9.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00-11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15-9.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15-9.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1942,6 +2074,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2056,7 +2191,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2093,6 +2228,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2106,7 +2247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2141,11 +2282,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2158,9 +2318,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2444,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2772,7 +2929,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2907,7 +3064,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
@@ -2932,7 +3089,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2947,7 +3104,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3188,25 +3345,25 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C102" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E102" t="s">
+        <v>393</v>
+      </c>
+      <c r="F102" t="s">
+        <v>392</v>
+      </c>
+      <c r="H102" t="s">
         <v>396</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="I102" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="E102" t="s">
-        <v>395</v>
-      </c>
-      <c r="F102" t="s">
-        <v>394</v>
-      </c>
-      <c r="H102" t="s">
-        <v>398</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3236,17 +3393,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -3294,7 +3451,7 @@
         <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3378,7 +3535,7 @@
         <v>310</v>
       </c>
       <c r="F11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -3405,7 +3562,7 @@
         <v>287</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F13" t="s">
         <v>308</v>
@@ -3419,15 +3576,15 @@
         <v>289</v>
       </c>
       <c r="E14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F15" t="s">
         <v>308</v>
@@ -3449,7 +3606,7 @@
         <v>303</v>
       </c>
       <c r="E17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F17" t="s">
         <v>313</v>
@@ -3508,10 +3665,10 @@
         <v>325</v>
       </c>
       <c r="E21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" t="s">
         <v>349</v>
-      </c>
-      <c r="F21" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3538,7 +3695,7 @@
       </c>
       <c r="C23" s="17"/>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F23" t="s">
         <v>316</v>
@@ -3552,7 +3709,7 @@
         <v>299</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F24" t="s">
         <v>308</v>
@@ -3566,7 +3723,7 @@
         <v>301</v>
       </c>
       <c r="E25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F25" t="s">
         <v>316</v>
@@ -3574,7 +3731,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F26" t="s">
         <v>319</v>
@@ -3649,20 +3806,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390E6AE-AB45-4D07-8F94-2DCA91963E49}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
@@ -3671,12 +3828,12 @@
     <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>252</v>
@@ -3685,21 +3842,24 @@
         <v>260</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+        <v>425</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="31">
         <v>43402</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="20"/>
       <c r="D2" s="19" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
       </c>
@@ -3707,9 +3867,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
       </c>
@@ -3717,57 +3877,57 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -3777,8 +3937,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -3787,21 +3947,21 @@
         <v>254</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27" t="s">
-        <v>386</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="34" t="s">
+        <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -3810,8 +3970,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="35"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -3820,7 +3980,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -3830,7 +3990,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -3840,7 +4000,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -3850,7 +4010,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>335</v>
@@ -3860,7 +4020,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>333</v>
@@ -3870,7 +4030,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>337</v>
@@ -3880,7 +4040,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>338</v>
@@ -3890,7 +4050,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+      <c r="A26" s="31">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -3901,9 +4061,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26" t="s">
-        <v>376</v>
+      <c r="A27" s="31"/>
+      <c r="B27" s="33" t="s">
+        <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>345</v>
@@ -3913,110 +4073,110 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="33"/>
       <c r="C28" t="s">
+        <v>360</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="33"/>
+      <c r="C29" t="s">
         <v>362</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" t="s">
-        <v>364</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>365</v>
-      </c>
-    </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
       <c r="D32" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="33"/>
+      <c r="C33" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+      <c r="B34" s="33"/>
+      <c r="C34" t="s">
         <v>371</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>338</v>
@@ -4026,86 +4186,86 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
+      <c r="A40" s="31">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>273</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="22"/>
       <c r="C41" s="15" t="s">
         <v>345</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="22"/>
       <c r="C42" t="s">
         <v>300</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="31"/>
+      <c r="B45" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="D44" s="15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>407</v>
-      </c>
       <c r="D45" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -4115,37 +4275,37 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="31"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="31"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="31"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -4154,8 +4314,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="31"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>415</v>
@@ -4164,35 +4324,659 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="31"/>
       <c r="B53" s="20"/>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="31"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="20"/>
-      <c r="C54" t="s">
+      <c r="D54" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="31"/>
+      <c r="B55" s="20"/>
+      <c r="C55" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="31">
+        <v>43406</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="31"/>
+      <c r="B59" s="22"/>
+      <c r="C59" t="s">
         <v>300</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D59" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="31"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="31"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="31"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="31"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="31"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="31"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="31"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="31"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="31"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="31"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="31"/>
+      <c r="B70" s="20"/>
+      <c r="C70" t="s">
+        <v>338</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="30">
+        <v>43407</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>416</v>
       </c>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="30"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="30"/>
+      <c r="B74" s="22"/>
+      <c r="C74" t="s">
+        <v>300</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="30"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="30"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="30"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="30"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="30"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="30"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="30"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="30"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="30"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="30"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="30"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="30"/>
+      <c r="B86" s="20"/>
+      <c r="C86" t="s">
+        <v>372</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="30">
+        <v>43408</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="30"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="30"/>
+      <c r="B90" s="22"/>
+      <c r="C90" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="30"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="30"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="30"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="30"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="30"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="30"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="30"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="30"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="30"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="30"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="30"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="30"/>
+      <c r="B102" s="20"/>
+      <c r="C102" t="s">
+        <v>372</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="31">
+        <v>43409</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="F104" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="31"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="31"/>
+      <c r="B106" s="22"/>
+      <c r="C106" t="s">
+        <v>450</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="31"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="31"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="31"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="31"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="31"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="31"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="31"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="31"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="31"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="31"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="31"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="31"/>
+      <c r="B118" s="20"/>
+      <c r="C118" t="s">
+        <v>300</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A40:A54"/>
+  <mergeCells count="11">
+    <mergeCell ref="A40:A55"/>
     <mergeCell ref="B27:B34"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B2:B11"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A88:A102"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4206,29 +4990,29 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D1" t="s">
-        <v>401</v>
+      <c r="D1" s="16" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4238,7 +5022,7 @@
       <c r="B2" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="26">
         <v>36.46</v>
       </c>
       <c r="D2" t="s">
@@ -4252,7 +5036,7 @@
       <c r="B3" t="s">
         <v>339</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="26">
         <v>36.44</v>
       </c>
       <c r="D3" t="s">
@@ -4264,19 +5048,28 @@
         <v>43405</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4">
+        <v>380</v>
+      </c>
+      <c r="C4" s="26">
         <v>36.54</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>43406</v>
       </c>
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="26">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -4292,6 +5085,15 @@
       <c r="A8" s="13">
         <v>43409</v>
       </c>
+      <c r="B8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="26">
+        <v>36.6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -4421,6 +5223,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4429,7 +5232,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4642,7 +5445,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4656,7 +5459,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
+      <c r="A3" s="36"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F61B6-FD06-4FE7-8B0C-2310AF2B185C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD1258-13F1-4A65-9A14-5BDE7A1BDB60}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="466">
   <si>
     <t>病毒四项</t>
   </si>
@@ -1942,10 +1942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>午餐：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>做饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2067,6 +2063,70 @@
   </si>
   <si>
     <t>9.15-9.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.60，量着体温睡着了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.55-8.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：土豆丝卷饼+小咸菜+小米粥+豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：焦溜丸子+麻婆豆腐+小白菜+茄盒+番茄鸡蛋汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00-6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00-10.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20-11.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.40-12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10-10.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30-8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：菠萝咕咾肉+小鸡炖蘑菇+炒菠菜+虾皮冬瓜+蕨根粉+薏米粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10-1.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡脚+吃橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.35-2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便，湿粘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2247,7 +2307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2295,17 +2355,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2314,6 +2374,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3393,17 +3456,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -3806,10 +3869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390E6AE-AB45-4D07-8F94-2DCA91963E49}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3833,7 +3896,7 @@
         <v>251</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>252</v>
@@ -3842,14 +3905,14 @@
         <v>260</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="A2" s="32">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -3858,7 +3921,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -3868,7 +3931,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -3878,56 +3941,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="32">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -3938,7 +4001,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -3951,7 +4014,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="34" t="s">
         <v>384</v>
       </c>
@@ -3960,7 +4023,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="35"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
@@ -3970,7 +4033,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="35"/>
       <c r="C17" t="s">
         <v>270</v>
@@ -3980,7 +4043,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -3990,7 +4053,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -4000,7 +4063,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -4010,7 +4073,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>335</v>
@@ -4020,7 +4083,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>333</v>
@@ -4030,7 +4093,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>337</v>
@@ -4040,7 +4103,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>338</v>
@@ -4050,7 +4113,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
+      <c r="A26" s="32">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4061,7 +4124,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="33" t="s">
         <v>374</v>
       </c>
@@ -4073,7 +4136,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="33"/>
       <c r="C28" t="s">
         <v>360</v>
@@ -4083,7 +4146,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="33"/>
       <c r="C29" t="s">
         <v>362</v>
@@ -4093,7 +4156,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="33"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
@@ -4103,7 +4166,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="33"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
@@ -4113,7 +4176,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="33"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
@@ -4126,7 +4189,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="33"/>
       <c r="C33" t="s">
         <v>369</v>
@@ -4136,7 +4199,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="33"/>
       <c r="C34" t="s">
         <v>371</v>
@@ -4146,7 +4209,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
         <v>386</v>
@@ -4156,7 +4219,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
         <v>378</v>
@@ -4166,7 +4229,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>372</v>
@@ -4176,7 +4239,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>338</v>
@@ -4186,7 +4249,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="31">
+      <c r="A40" s="32">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -4203,7 +4266,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="22"/>
       <c r="C41" s="15" t="s">
         <v>345</v>
@@ -4213,7 +4276,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="22"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -4223,7 +4286,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -4233,7 +4296,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>403</v>
@@ -4243,7 +4306,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="24" t="s">
         <v>412</v>
       </c>
@@ -4255,7 +4318,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>406</v>
@@ -4265,7 +4328,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -4275,7 +4338,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>407</v>
@@ -4285,7 +4348,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>409</v>
@@ -4295,7 +4358,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -4305,7 +4368,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -4315,7 +4378,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>415</v>
@@ -4325,7 +4388,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>411</v>
@@ -4335,7 +4398,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -4345,7 +4408,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>372</v>
@@ -4355,10 +4418,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="31">
+      <c r="A57" s="32">
         <v>43406</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="31" t="s">
         <v>417</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -4370,8 +4433,8 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="15" t="s">
         <v>345</v>
       </c>
@@ -4380,7 +4443,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="22"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -4390,17 +4453,17 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>403</v>
@@ -4410,7 +4473,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="31"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>406</v>
@@ -4420,77 +4483,77 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="31"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="31"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="31"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>338</v>
@@ -4500,7 +4563,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="30">
+      <c r="A72" s="36">
         <v>43407</v>
       </c>
       <c r="B72" s="25" t="s">
@@ -4514,7 +4577,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="25"/>
       <c r="C73" s="15" t="s">
         <v>345</v>
@@ -4524,7 +4587,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="22"/>
       <c r="C74" t="s">
         <v>300</v>
@@ -4534,17 +4597,17 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="30"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="20"/>
       <c r="C75" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="30"/>
+      <c r="A76" s="36"/>
       <c r="B76" s="20"/>
       <c r="C76" s="15" t="s">
         <v>403</v>
@@ -4554,7 +4617,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="30"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="20"/>
       <c r="C77" s="15" t="s">
         <v>406</v>
@@ -4564,7 +4627,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="30"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="20"/>
       <c r="C78" s="15" t="s">
         <v>290</v>
@@ -4574,27 +4637,27 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="30"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="20"/>
       <c r="C79" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="30"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="20"/>
       <c r="C80" s="15" t="s">
         <v>409</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="30"/>
+      <c r="A81" s="36"/>
       <c r="B81" s="20"/>
       <c r="C81" s="15" t="s">
         <v>292</v>
@@ -4604,7 +4667,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="30"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>294</v>
@@ -4614,7 +4677,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="30"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="20"/>
       <c r="C83" s="15" t="s">
         <v>415</v>
@@ -4624,17 +4687,17 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="30"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="20"/>
       <c r="C84" s="15" t="s">
         <v>321</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="30"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="20"/>
       <c r="C85" s="3" t="s">
         <v>298</v>
@@ -4644,7 +4707,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="30"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="20"/>
       <c r="C86" t="s">
         <v>372</v>
@@ -4654,7 +4717,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="30">
+      <c r="A88" s="36">
         <v>43408</v>
       </c>
       <c r="B88" s="25" t="s">
@@ -4668,8 +4731,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="30"/>
-      <c r="B89" s="25"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="15" t="s">
         <v>345</v>
       </c>
@@ -4678,7 +4741,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="30"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="22"/>
       <c r="C90" t="s">
         <v>300</v>
@@ -4688,17 +4751,17 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="30"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="20"/>
       <c r="C91" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="30"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="20"/>
       <c r="C92" s="15" t="s">
         <v>403</v>
@@ -4708,7 +4771,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="30"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="20"/>
       <c r="C93" s="15" t="s">
         <v>406</v>
@@ -4718,7 +4781,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="30"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="20"/>
       <c r="C94" s="15" t="s">
         <v>290</v>
@@ -4728,27 +4791,27 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="30"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="20"/>
       <c r="C95" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="30"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="20"/>
       <c r="C96" s="15" t="s">
         <v>409</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="30"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -4758,7 +4821,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="30"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -4768,7 +4831,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="30"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>415</v>
@@ -4778,17 +4841,17 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="30"/>
+      <c r="A100" s="36"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="30"/>
+      <c r="A101" s="36"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>298</v>
@@ -4798,7 +4861,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="30"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>372</v>
@@ -4808,175 +4871,318 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="31">
+      <c r="A104" s="32">
         <v>43409</v>
       </c>
       <c r="B104" s="27" t="s">
         <v>417</v>
       </c>
       <c r="C104" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="D104" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="F104" t="s">
-        <v>442</v>
+      <c r="F104" s="18" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="31"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="28"/>
       <c r="C105" s="15" t="s">
         <v>345</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="31"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="22"/>
-      <c r="C106" t="s">
-        <v>450</v>
+      <c r="C106" s="15" t="s">
+        <v>449</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="31"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="20"/>
       <c r="C107" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="31"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="20"/>
-      <c r="C108" s="15" t="s">
-        <v>403</v>
-      </c>
+      <c r="C108" s="3"/>
       <c r="D108" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="31"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="31"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="20"/>
       <c r="C110" s="15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>291</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="31"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="31"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="D112" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="32"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="32"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="32"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="32"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="32">
+        <v>43410</v>
+      </c>
+      <c r="B118" s="28"/>
+      <c r="C118" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="32"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="32"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="32"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="32"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="32"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="32"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="32"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="32"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="15" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="31"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="15" t="s">
+      <c r="D126" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="32"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="32"/>
+      <c r="B128" s="20"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="32"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="32"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="32"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="32"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="32"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D113" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="31"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="31"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="31"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="31"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="3" t="s">
+      <c r="D133" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="32"/>
+      <c r="B134" s="20"/>
+      <c r="C134" t="s">
+        <v>300</v>
+      </c>
+      <c r="D134" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D117" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="31"/>
-      <c r="B118" s="20"/>
-      <c r="C118" t="s">
-        <v>300</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>439</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A118:A134"/>
+    <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A104:A116"/>
+    <mergeCell ref="A88:A102"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B57:B58"/>
     <mergeCell ref="A40:A55"/>
     <mergeCell ref="B27:B34"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A88:A102"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5062,13 +5268,13 @@
         <v>43406</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C5" s="26">
         <v>36.700000000000003</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5086,13 +5292,13 @@
         <v>43409</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C8" s="26">
         <v>36.6</v>
       </c>
       <c r="D8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5445,7 +5651,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -5459,7 +5665,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD1258-13F1-4A65-9A14-5BDE7A1BDB60}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="520" windowWidth="25840" windowHeight="17480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -19,9 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">体温!$C$1:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{70AF2053-C16D-4468-B2B9-A0A891F005E4}">
+    <comment ref="I13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{87EFADC0-0E3E-4959-B005-057142143B28}">
+    <comment ref="H14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{585F2A34-6F15-4FC2-A924-FD4A41C0FC3F}">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,6 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -103,6 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -115,12 +124,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{F49E0EBA-35D4-40C2-85D4-946727779A2D}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="514">
   <si>
     <t>病毒四项</t>
   </si>
@@ -1946,10 +1955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚餐：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洗漱+护肤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2002,142 +2007,442 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.00-5.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.15-5.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9.00-10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维E+搓脚心+睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：猪蹄+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床前YY未遂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30-5.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10-7.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：白菜鸡蛋汤+红烧茄子炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30-8.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.40-9.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00-11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15-9.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15-9.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.60，量着体温睡着了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.55-8.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：土豆丝卷饼+小咸菜+小米粥+豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：焦溜丸子+麻婆豆腐+小白菜+茄盒+番茄鸡蛋汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00-6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00-10.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20-11.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.40-12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10-10.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30-8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：菠萝咕咾肉+小鸡炖蘑菇+炒菠菜+虾皮冬瓜+蕨根粉+薏米粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10-1.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡脚+吃橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.35-2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便，湿粘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.20-6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维C</t>
+    <rPh sb="0" eb="1">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei sheng su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.40-6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃苹果</t>
+    <rPh sb="0" eb="1">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ping guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.00-7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃坚果</t>
+    <rPh sb="0" eb="1">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jian guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30-8.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑跳</t>
+    <rPh sb="0" eb="1">
+      <t>pao tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.25-9.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃不舒服</t>
+    <rPh sb="0" eb="1">
+      <t>wei bu shu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱爱</t>
+    <rPh sb="0" eb="1">
+      <t>ai ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝当归水</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dang gui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.55-1.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.20-1.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.50-2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10-2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.69，6点醒来，有点燥热盗汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30-7.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便，蹲的时间长排出的一点</t>
+    <rPh sb="0" eb="1">
+      <t>pai bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：豆浆+红花艾叶鸡蛋+酱肉包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：麻辣鮰鱼+焦糖豆花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
+    <t>3.00-6.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：炒饭+鸡蛋汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+涂脚丫+艾灸腹部，温度微烫</t>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维E+挫脚+睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.35-10.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.05-11.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.35-12.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-6.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.40-11.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：红花艾叶鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：白菜鸡蛋汤+洋葱花菜炒肉+香肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10-5.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.50-6.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6.30-7.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.00-10.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃维E+搓脚心+睡觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐：猪蹄+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起床前YY未遂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.30-5.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.10-7.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐：白菜鸡蛋汤+红烧茄子炒肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.30-8.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.40-9.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.00-11.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.15-9.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.15-9.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.30-6.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>量体温：36.60，量着体温睡着了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.55-8.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早餐：土豆丝卷饼+小咸菜+小米粥+豆浆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐：焦溜丸子+麻婆豆腐+小白菜+茄盒+番茄鸡蛋汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.00-6.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.00-10.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.20-11.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.40-12.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.10-10.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.30-8.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐：菠萝咕咾肉+小鸡炖蘑菇+炒菠菜+虾皮冬瓜+蕨根粉+薏米粥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.10-1.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡脚+吃橘子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.35-2.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排便，湿粘</t>
+    <t>晚餐：油泼刀削面</t>
+    <rPh sb="3" eb="4">
+      <t>you po mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao xiao m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃坚果</t>
+    <rPh sb="0" eb="1">
+      <t>chi jian guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便，小腹微微有感</t>
+    <rPh sb="0" eb="1">
+      <t>pai bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20-12.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃山楂制品</t>
+    <rPh sb="0" eb="1">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shan z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.50，测着体温差点睡着</t>
+    <rPh sb="10" eb="11">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti wen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cha dian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shui zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：芸豆炖棒骨</t>
+    <rPh sb="3" eb="4">
+      <t>yun dou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bang gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.00-8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30-8.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+洗头+洗澡+护肤</t>
+    <rPh sb="3" eb="4">
+      <t>xi z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.30-11.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.00-12.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20-7.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃柚子</t>
+    <rPh sb="0" eb="1">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>you zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.50-8.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2185,19 +2490,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2307,7 +2599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2320,15 +2612,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -2341,12 +2633,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2358,14 +2647,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2376,11 +2671,11 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2661,24 +2956,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2934,7 +3229,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2949,7 +3244,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2964,7 +3259,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -2975,7 +3270,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3438,21 +3733,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903A5BE-8F8C-439C-9993-8B5A75EE48A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3868,27 +4163,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390E6AE-AB45-4D07-8F94-2DCA91963E49}">
-  <dimension ref="A1:F134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3896,7 +4191,7 @@
         <v>251</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>252</v>
@@ -3905,14 +4200,14 @@
         <v>260</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -3921,7 +4216,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -3931,7 +4226,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -3941,56 +4236,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4001,7 +4296,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -4014,8 +4309,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4023,8 +4318,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -4033,8 +4328,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="36"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -4043,7 +4338,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -4053,7 +4348,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -4063,7 +4358,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -4073,7 +4368,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>335</v>
@@ -4083,7 +4378,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>333</v>
@@ -4093,7 +4388,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>337</v>
@@ -4103,7 +4398,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>338</v>
@@ -4113,7 +4408,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4124,8 +4419,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="34" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4136,8 +4431,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -4146,8 +4441,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -4156,8 +4451,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -4166,8 +4461,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -4176,8 +4471,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -4189,8 +4484,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="34"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -4199,8 +4494,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="34"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -4209,7 +4504,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
         <v>386</v>
@@ -4219,7 +4514,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
         <v>378</v>
@@ -4229,7 +4524,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>372</v>
@@ -4239,7 +4534,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>338</v>
@@ -4249,7 +4544,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="32">
+      <c r="A40" s="31">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -4266,7 +4561,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="22"/>
       <c r="C41" s="15" t="s">
         <v>345</v>
@@ -4276,7 +4571,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="22"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -4286,7 +4581,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -4296,7 +4591,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>403</v>
@@ -4306,7 +4601,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="24" t="s">
         <v>412</v>
       </c>
@@ -4318,7 +4613,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>406</v>
@@ -4328,7 +4623,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -4338,7 +4633,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>407</v>
@@ -4348,7 +4643,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>409</v>
@@ -4358,7 +4653,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -4368,7 +4663,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -4378,7 +4673,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>415</v>
@@ -4388,7 +4683,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="32"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>411</v>
@@ -4398,7 +4693,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -4408,7 +4703,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>372</v>
@@ -4418,10 +4713,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="32">
+      <c r="A57" s="31">
         <v>43406</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="33" t="s">
         <v>417</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -4433,8 +4728,8 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="15" t="s">
         <v>345</v>
       </c>
@@ -4443,7 +4738,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="22"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -4453,17 +4748,17 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>403</v>
@@ -4473,7 +4768,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>406</v>
@@ -4483,77 +4778,77 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="32"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="32"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="31"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="32"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="31"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="32"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="31"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="32"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="31"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="32"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="31"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="32"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="31"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>338</v>
@@ -4562,256 +4857,243 @@
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="36">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="32">
         <v>43407</v>
       </c>
-      <c r="B72" s="25" t="s">
-        <v>417</v>
-      </c>
+      <c r="B72" s="28"/>
       <c r="C72" s="15" t="s">
         <v>273</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
-      <c r="B73" s="25"/>
+        <v>479</v>
+      </c>
+      <c r="I72" s="38"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="32"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="36"/>
-      <c r="B74" s="22"/>
-      <c r="C74" t="s">
-        <v>300</v>
+        <v>480</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="I73" s="38"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="32"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="32"/>
       <c r="B75" s="20"/>
-      <c r="C75" s="15" t="s">
-        <v>266</v>
-      </c>
+      <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="32"/>
       <c r="B76" s="20"/>
-      <c r="C76" s="15" t="s">
-        <v>403</v>
+      <c r="C76" s="18" t="s">
+        <v>485</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="36"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="32"/>
       <c r="B77" s="20"/>
-      <c r="C77" s="15" t="s">
-        <v>406</v>
+      <c r="C77" t="s">
+        <v>463</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="36"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="32"/>
       <c r="B78" s="20"/>
-      <c r="C78" s="15" t="s">
-        <v>290</v>
+      <c r="C78" t="s">
+        <v>465</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="36"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="32"/>
       <c r="B79" s="20"/>
-      <c r="C79" s="15" t="s">
-        <v>407</v>
+      <c r="C79" t="s">
+        <v>467</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="36"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="32"/>
       <c r="B80" s="20"/>
-      <c r="C80" s="15" t="s">
-        <v>409</v>
+      <c r="C80" t="s">
+        <v>469</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="36"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="32"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="15" t="s">
-        <v>292</v>
+      <c r="C81" s="18" t="s">
+        <v>471</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="36"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="32"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
-        <v>294</v>
+        <v>489</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="36"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="32"/>
       <c r="B83" s="20"/>
-      <c r="C83" s="15" t="s">
-        <v>415</v>
+      <c r="C83" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36"/>
+        <v>487</v>
+      </c>
+      <c r="I83" s="38"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="32"/>
       <c r="B84" s="20"/>
-      <c r="C84" s="15" t="s">
-        <v>321</v>
+      <c r="C84" t="s">
+        <v>491</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="36"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="36"/>
-      <c r="B86" s="20"/>
-      <c r="C86" t="s">
-        <v>372</v>
+        <v>488</v>
+      </c>
+      <c r="I84" s="38"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="32">
+        <v>43408</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="36">
-        <v>43408</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>417</v>
-      </c>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="32"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="32"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
-        <v>273</v>
+        <v>493</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="36"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="36"/>
-      <c r="B90" s="22"/>
-      <c r="C90" t="s">
-        <v>300</v>
-      </c>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="32"/>
+      <c r="B89" s="22"/>
+      <c r="D89" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="32"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="36"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="32"/>
       <c r="B91" s="20"/>
-      <c r="C91" s="15" t="s">
-        <v>266</v>
+      <c r="C91" s="3" t="s">
+        <v>502</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="36"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="32"/>
       <c r="B92" s="20"/>
-      <c r="C92" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="36"/>
+      <c r="C92" t="s">
+        <v>475</v>
+      </c>
+      <c r="D92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="32"/>
       <c r="B93" s="20"/>
-      <c r="C93" s="15" t="s">
-        <v>406</v>
+      <c r="C93" t="s">
+        <v>476</v>
       </c>
       <c r="D93" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="32"/>
+      <c r="B94" s="20"/>
+      <c r="C94" t="s">
+        <v>477</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="32"/>
+      <c r="B95" s="20"/>
+      <c r="C95" t="s">
+        <v>478</v>
+      </c>
+      <c r="D95" s="15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="36"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="36"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="36"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="32"/>
       <c r="B96" s="20"/>
-      <c r="C96" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="36"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -4821,104 +5103,104 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="36"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
-        <v>294</v>
+        <v>507</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="36"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
-        <v>415</v>
+        <v>506</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>414</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="36"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>421</v>
+        <v>508</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="36"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
-        <v>298</v>
+        <v>509</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="36"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
-        <v>372</v>
+        <v>510</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="32">
+      <c r="A104" s="31">
         <v>43409</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="26" t="s">
         <v>417</v>
       </c>
       <c r="C104" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="D104" s="15" t="s">
-        <v>429</v>
-      </c>
       <c r="F104" s="18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="32"/>
-      <c r="B105" s="28"/>
+      <c r="A105" s="31"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="15" t="s">
         <v>345</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="32"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="22"/>
       <c r="C106" s="15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="32"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="20"/>
       <c r="C107" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="32"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="20"/>
       <c r="C108" s="3"/>
       <c r="D108" s="15" t="s">
@@ -4926,109 +5208,109 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="32"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="32"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="20"/>
       <c r="C110" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="32"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="32"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="32"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="20"/>
       <c r="C113" s="18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="32"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="20"/>
       <c r="C114" s="18" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="32"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="32"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="32">
+      <c r="A118" s="31">
         <v>43410</v>
       </c>
-      <c r="B118" s="28"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="31"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D119" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="D118" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="32"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>453</v>
-      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="32"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="22"/>
       <c r="C120" s="15" t="s">
         <v>296</v>
@@ -5038,7 +5320,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="32"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="22"/>
       <c r="C121" s="15"/>
       <c r="D121" s="15" t="s">
@@ -5046,27 +5328,27 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="32"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="20"/>
       <c r="C122" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="32"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="20"/>
       <c r="C123" s="15" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="32"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>406</v>
@@ -5076,61 +5358,67 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="32"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="32"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="32"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>420</v>
+        <v>336</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="32"/>
+      <c r="A128" s="31"/>
       <c r="B128" s="20"/>
+      <c r="C128" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="32"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>336</v>
+        <v>512</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="32"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
-        <v>292</v>
+        <v>513</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="32"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>310</v>
@@ -5140,42 +5428,37 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="32"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>284</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="32"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="20"/>
       <c r="C133" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="32"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="20"/>
       <c r="C134" t="s">
         <v>300</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A118:A134"/>
-    <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A104:A116"/>
-    <mergeCell ref="A88:A102"/>
-    <mergeCell ref="A57:A70"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A40:A55"/>
     <mergeCell ref="B27:B34"/>
@@ -5183,6 +5466,11 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A118:A134"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A104:A116"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A57:A70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5192,19 +5480,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0412F6-C085-4595-8794-713B9BE3E090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5228,7 +5516,7 @@
       <c r="B2" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>36.46</v>
       </c>
       <c r="D2" t="s">
@@ -5242,7 +5530,7 @@
       <c r="B3" t="s">
         <v>339</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>36.44</v>
       </c>
       <c r="D3" t="s">
@@ -5256,7 +5544,7 @@
       <c r="B4" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>36.54</v>
       </c>
       <c r="D4" t="s">
@@ -5268,13 +5556,13 @@
         <v>43406</v>
       </c>
       <c r="B5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="25">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D5" t="s">
         <v>422</v>
-      </c>
-      <c r="C5" s="26">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="D5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5292,13 +5580,13 @@
         <v>43409</v>
       </c>
       <c r="B8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="25">
+        <v>36.6</v>
+      </c>
+      <c r="D8" t="s">
         <v>426</v>
-      </c>
-      <c r="C8" s="26">
-        <v>36.6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5434,19 +5722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60843F9-65E4-43A5-BAE4-A4739EDBA1D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5496,7 +5784,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
@@ -5507,7 +5795,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -5515,7 +5803,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
     </row>
   </sheetData>
@@ -5526,20 +5814,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF33506-1E2C-4D60-8608-E4F9F9BE2A2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>205</v>
       </c>
@@ -5547,7 +5835,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>206</v>
       </c>
@@ -5555,7 +5843,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>207</v>
       </c>
@@ -5563,7 +5851,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>208</v>
       </c>
@@ -5571,11 +5859,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -5583,18 +5871,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -5602,7 +5890,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>
@@ -5620,20 +5908,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CDBFD4-5C89-44B0-BE5F-EE93F9FBB48E}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.625" customWidth="1"/>
+    <col min="4" max="4" width="113.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5650,7 +5938,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>52</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0241999-7C10-42EF-9142-CF4B9C48DA70}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="520" windowWidth="25840" windowHeight="17480" activeTab="2"/>
+    <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -25,23 +21,23 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -124,12 +120,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="527">
   <si>
     <t>病毒四项</t>
   </si>
@@ -2434,11 +2430,65 @@
     <t>7.50-8.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>早餐：葱花饼+小咸菜+薏米腰豆粥+豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-6.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量着体温睡着了</t>
+  </si>
+  <si>
+    <t>6点醒来，有点燥热盗汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测着体温差点睡着</t>
+    <rPh sb="0" eb="8">
+      <t>cezheti wencha dianshui zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6点醒来，量着体温打盹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.60，6点醒来，量着体温打盹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.20-11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：香菇肉片+青笋炒鸡蛋+炒包菜+小葱拌豆腐+鸡肝+黄瓜鸡蛋汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20-12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45-6.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -2651,12 +2701,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2671,11 +2721,11 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2956,24 +3006,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3229,7 +3279,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3244,7 +3294,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3259,7 +3309,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -3270,7 +3320,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3733,35 +3783,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -4163,27 +4213,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4207,7 +4257,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="A2" s="32">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -4216,7 +4266,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -4226,7 +4276,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -4236,56 +4286,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="32">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4296,7 +4346,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -4309,7 +4359,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="35" t="s">
         <v>384</v>
       </c>
@@ -4318,7 +4368,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="36"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
@@ -4328,7 +4378,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="36"/>
       <c r="C17" t="s">
         <v>270</v>
@@ -4338,7 +4388,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -4348,7 +4398,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -4358,7 +4408,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -4368,7 +4418,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>335</v>
@@ -4378,7 +4428,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>333</v>
@@ -4388,7 +4438,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>337</v>
@@ -4398,7 +4448,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>338</v>
@@ -4408,7 +4458,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
+      <c r="A26" s="32">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4419,7 +4469,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="34" t="s">
         <v>374</v>
       </c>
@@ -4431,7 +4481,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="34"/>
       <c r="C28" t="s">
         <v>360</v>
@@ -4441,7 +4491,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="34"/>
       <c r="C29" t="s">
         <v>362</v>
@@ -4451,7 +4501,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="34"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
@@ -4461,7 +4511,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="34"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
@@ -4471,7 +4521,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="34"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
@@ -4484,7 +4534,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="34"/>
       <c r="C33" t="s">
         <v>369</v>
@@ -4494,7 +4544,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="34"/>
       <c r="C34" t="s">
         <v>371</v>
@@ -4504,7 +4554,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
         <v>386</v>
@@ -4514,7 +4564,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
         <v>378</v>
@@ -4524,7 +4574,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>372</v>
@@ -4534,7 +4584,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>338</v>
@@ -4544,7 +4594,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="31">
+      <c r="A40" s="32">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -4561,7 +4611,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="22"/>
       <c r="C41" s="15" t="s">
         <v>345</v>
@@ -4571,7 +4621,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="22"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -4581,7 +4631,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -4591,7 +4641,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>403</v>
@@ -4601,7 +4651,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="24" t="s">
         <v>412</v>
       </c>
@@ -4613,7 +4663,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>406</v>
@@ -4623,7 +4673,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -4633,7 +4683,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>407</v>
@@ -4643,7 +4693,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>409</v>
@@ -4653,7 +4703,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -4663,7 +4713,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -4673,7 +4723,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>415</v>
@@ -4683,7 +4733,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>411</v>
@@ -4693,7 +4743,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -4703,7 +4753,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>372</v>
@@ -4713,7 +4763,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="31">
+      <c r="A57" s="32">
         <v>43406</v>
       </c>
       <c r="B57" s="33" t="s">
@@ -4728,7 +4778,7 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="33"/>
       <c r="C58" s="15" t="s">
         <v>345</v>
@@ -4738,7 +4788,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="22"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -4748,7 +4798,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -4758,7 +4808,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>403</v>
@@ -4768,7 +4818,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="31"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>406</v>
@@ -4778,7 +4828,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>439</v>
@@ -4788,7 +4838,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>440</v>
@@ -4798,7 +4848,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -4808,7 +4858,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>442</v>
@@ -4818,7 +4868,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="31"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>443</v>
@@ -4828,7 +4878,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>445</v>
@@ -4838,7 +4888,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="31"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>444</v>
@@ -4848,7 +4898,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="31"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>338</v>
@@ -4858,7 +4908,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="32">
+      <c r="A72" s="37">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -4868,10 +4918,10 @@
       <c r="D72" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="I72" s="38"/>
+      <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="32"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
         <v>480</v>
@@ -4879,10 +4929,10 @@
       <c r="D73" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="I73" s="38"/>
+      <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -4892,7 +4942,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -4900,7 +4950,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>485</v>
@@ -4910,7 +4960,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="32"/>
+      <c r="A77" s="37"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>463</v>
@@ -4920,7 +4970,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="32"/>
+      <c r="A78" s="37"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>465</v>
@@ -4930,7 +4980,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="32"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>467</v>
@@ -4940,7 +4990,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>469</v>
@@ -4950,7 +5000,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>471</v>
@@ -4960,7 +5010,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>489</v>
@@ -4970,7 +5020,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>490</v>
@@ -4978,10 +5028,10 @@
       <c r="D83" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="I83" s="38"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>491</v>
@@ -4989,10 +5039,10 @@
       <c r="D84" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="I84" s="38"/>
+      <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="32">
+      <c r="A86" s="37">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
@@ -5006,7 +5056,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
+      <c r="A87" s="37"/>
       <c r="B87" s="29"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5014,7 +5064,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="32"/>
+      <c r="A88" s="37"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
         <v>493</v>
@@ -5024,14 +5074,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="32"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="32"/>
+      <c r="A90" s="37"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -5039,7 +5089,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="32"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>502</v>
@@ -5049,7 +5099,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="32"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>475</v>
@@ -5059,7 +5109,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="32"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>476</v>
@@ -5069,7 +5119,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="32"/>
+      <c r="A94" s="37"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>477</v>
@@ -5079,7 +5129,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="32"/>
+      <c r="A95" s="37"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>478</v>
@@ -5089,11 +5139,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="32"/>
+      <c r="A96" s="37"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="32"/>
+      <c r="A97" s="37"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5103,7 +5153,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
+      <c r="A98" s="37"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>507</v>
@@ -5113,7 +5163,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="32"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>506</v>
@@ -5123,7 +5173,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="32"/>
+      <c r="A100" s="37"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -5133,7 +5183,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="32"/>
+      <c r="A101" s="37"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>509</v>
@@ -5143,7 +5193,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="32"/>
+      <c r="A102" s="37"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>510</v>
@@ -5153,7 +5203,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="31">
+      <c r="A104" s="32">
         <v>43409</v>
       </c>
       <c r="B104" s="26" t="s">
@@ -5170,7 +5220,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="31"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="27"/>
       <c r="C105" s="15" t="s">
         <v>345</v>
@@ -5180,7 +5230,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="31"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="22"/>
       <c r="C106" s="15" t="s">
         <v>446</v>
@@ -5190,7 +5240,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="31"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="20"/>
       <c r="C107" s="15" t="s">
         <v>266</v>
@@ -5200,7 +5250,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="31"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="20"/>
       <c r="C108" s="3"/>
       <c r="D108" s="15" t="s">
@@ -5208,7 +5258,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="31"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>433</v>
@@ -5218,7 +5268,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="31"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="20"/>
       <c r="C110" s="15" t="s">
         <v>431</v>
@@ -5228,7 +5278,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="31"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>452</v>
@@ -5238,7 +5288,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="31"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>457</v>
@@ -5248,7 +5298,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="31"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="20"/>
       <c r="C113" s="18" t="s">
         <v>456</v>
@@ -5258,7 +5308,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="31"/>
+      <c r="A114" s="32"/>
       <c r="B114" s="20"/>
       <c r="C114" s="18" t="s">
         <v>453</v>
@@ -5268,7 +5318,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="31"/>
+      <c r="A115" s="32"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>454</v>
@@ -5278,7 +5328,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="31"/>
+      <c r="A116" s="32"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>455</v>
@@ -5288,7 +5338,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="31">
+      <c r="A118" s="32">
         <v>43410</v>
       </c>
       <c r="B118" s="27"/>
@@ -5300,7 +5350,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="31"/>
+      <c r="A119" s="32"/>
       <c r="B119" s="27"/>
       <c r="C119" s="15" t="s">
         <v>449</v>
@@ -5310,7 +5360,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="31"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="22"/>
       <c r="C120" s="15" t="s">
         <v>296</v>
@@ -5320,7 +5370,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="31"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="22"/>
       <c r="C121" s="15"/>
       <c r="D121" s="15" t="s">
@@ -5328,7 +5378,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="31"/>
+      <c r="A122" s="32"/>
       <c r="B122" s="20"/>
       <c r="C122" s="15" t="s">
         <v>266</v>
@@ -5338,7 +5388,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="31"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="20"/>
       <c r="C123" s="15" t="s">
         <v>459</v>
@@ -5348,7 +5398,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="31"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>406</v>
@@ -5358,7 +5408,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="31"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>461</v>
@@ -5368,7 +5418,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="31"/>
+      <c r="A126" s="32"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>496</v>
@@ -5378,7 +5428,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="31"/>
+      <c r="A127" s="32"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>497</v>
@@ -5388,7 +5438,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="31"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>498</v>
@@ -5398,7 +5448,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="31"/>
+      <c r="A129" s="32"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>511</v>
@@ -5408,7 +5458,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="31"/>
+      <c r="A130" s="32"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>513</v>
@@ -5418,7 +5468,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="31"/>
+      <c r="A131" s="32"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>310</v>
@@ -5428,7 +5478,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="31"/>
+      <c r="A132" s="32"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>284</v>
@@ -5438,7 +5488,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="31"/>
+      <c r="A133" s="32"/>
       <c r="B133" s="20"/>
       <c r="C133" s="3" t="s">
         <v>434</v>
@@ -5448,17 +5498,203 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="31"/>
+      <c r="A134" s="32"/>
       <c r="B134" s="20"/>
       <c r="C134" t="s">
         <v>300</v>
       </c>
       <c r="D134" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="32">
+        <v>43411</v>
+      </c>
+      <c r="B136" s="27"/>
+      <c r="C136" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="32"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="32"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="32"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="32"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="32"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="32"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="32"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="32"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="32"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="32"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="32"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="32"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="32"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="32"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="32"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="32"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="32"/>
+      <c r="B153" s="20"/>
+      <c r="C153" t="s">
+        <v>300</v>
+      </c>
+      <c r="D153" s="15" t="s">
         <v>435</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A136:A153"/>
+    <mergeCell ref="A118:A134"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A104:A116"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A57:A70"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A40:A55"/>
     <mergeCell ref="B27:B34"/>
@@ -5466,11 +5702,6 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A118:A134"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A104:A116"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A57:A70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5480,19 +5711,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5569,11 +5800,29 @@
       <c r="A6" s="13">
         <v>43407</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="25">
+        <v>36.69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>43408</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" s="25">
+        <v>36.5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -5593,10 +5842,28 @@
       <c r="A9" s="13">
         <v>43410</v>
       </c>
+      <c r="B9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="25">
+        <v>36.6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43411</v>
+      </c>
+      <c r="B10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="25">
+        <v>36.6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5722,19 +5989,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5784,7 +6051,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
@@ -5795,7 +6062,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -5803,7 +6070,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
     </row>
   </sheetData>
@@ -5814,20 +6081,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>205</v>
       </c>
@@ -5835,7 +6102,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>206</v>
       </c>
@@ -5843,7 +6110,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>207</v>
       </c>
@@ -5851,7 +6118,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>208</v>
       </c>
@@ -5859,11 +6126,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -5871,18 +6138,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -5890,7 +6157,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>
@@ -5908,20 +6175,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.6640625" customWidth="1"/>
+    <col min="4" max="4" width="113.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5938,8 +6205,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -5953,7 +6220,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0241999-7C10-42EF-9142-CF4B9C48DA70}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B4AA54-8300-4DE1-B76A-A4FBABF6F8CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="536">
   <si>
     <t>病毒四项</t>
   </si>
@@ -2187,13 +2187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爱爱</t>
-    <rPh sb="0" eb="1">
-      <t>ai ai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>喝当归水</t>
     <rPh sb="0" eb="1">
       <t>he</t>
@@ -2482,6 +2475,61 @@
   </si>
   <si>
     <t>6.45-6.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：牛油果拌面</t>
+    <rPh sb="3" eb="4">
+      <t>you po mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao xiao m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑跳</t>
+    <rPh sb="0" eb="1">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>you zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30-8.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.50，量着体温差点睡着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10-9.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-6.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <rPh sb="0" eb="1">
+      <t>ai ai</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2709,6 +2757,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2719,9 +2770,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4214,10 +4262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4360,7 +4408,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4369,7 +4417,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
-      <c r="B16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -4379,7 +4427,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -4470,7 +4518,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4482,7 +4530,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
-      <c r="B28" s="34"/>
+      <c r="B28" s="35"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -4492,7 +4540,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
-      <c r="B29" s="34"/>
+      <c r="B29" s="35"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -4502,7 +4550,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
-      <c r="B30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -4512,7 +4560,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
-      <c r="B31" s="34"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -4522,7 +4570,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
-      <c r="B32" s="34"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -4535,7 +4583,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
-      <c r="B33" s="34"/>
+      <c r="B33" s="35"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -4545,7 +4593,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
-      <c r="B34" s="34"/>
+      <c r="B34" s="35"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -4766,7 +4814,7 @@
       <c r="A57" s="32">
         <v>43406</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="34" t="s">
         <v>417</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -4779,7 +4827,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="15" t="s">
         <v>345</v>
       </c>
@@ -4908,7 +4956,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="37">
+      <c r="A72" s="33">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -4916,51 +4964,51 @@
         <v>273</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>481</v>
-      </c>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="37"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="37"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>463</v>
@@ -4970,7 +5018,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="37"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>465</v>
@@ -4980,7 +5028,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="37"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>467</v>
@@ -4990,7 +5038,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>469</v>
@@ -5000,150 +5048,150 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>471</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="37"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="37"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="37">
+      <c r="A86" s="33">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>472</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="37"/>
-      <c r="B87" s="29"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="37"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="D88" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="D88" s="15" t="s">
-        <v>494</v>
-      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="37"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="37"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="37"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5153,50 +5201,50 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="37"/>
+      <c r="A98" s="33"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
+      <c r="A99" s="33"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
+      <c r="A100" s="33"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
+      <c r="A101" s="33"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
+      <c r="A102" s="33"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>301</v>
@@ -5206,193 +5254,185 @@
       <c r="A104" s="32">
         <v>43409</v>
       </c>
-      <c r="B104" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>438</v>
+      <c r="D104" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="32"/>
-      <c r="B105" s="27"/>
+      <c r="B105" s="26" t="s">
+        <v>417</v>
+      </c>
       <c r="C105" s="15" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="32"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>278</v>
-      </c>
+      <c r="B106" s="27"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="32"/>
-      <c r="B107" s="20"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="15" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="32"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="3"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="15" t="s">
+        <v>446</v>
+      </c>
       <c r="D108" s="15" t="s">
-        <v>404</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="32"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
-        <v>433</v>
+        <v>266</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>291</v>
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="32"/>
       <c r="B110" s="20"/>
-      <c r="C110" s="15" t="s">
-        <v>431</v>
-      </c>
+      <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="32"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>432</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="32"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>293</v>
+        <v>430</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="32"/>
       <c r="B113" s="20"/>
-      <c r="C113" s="18" t="s">
-        <v>456</v>
+      <c r="C113" s="15" t="s">
+        <v>452</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="32"/>
       <c r="B114" s="20"/>
-      <c r="C114" s="18" t="s">
-        <v>453</v>
+      <c r="C114" s="15" t="s">
+        <v>457</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>420</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="32"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>373</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="32"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="32"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="32"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D118" s="15" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="32">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="32">
         <v>43410</v>
       </c>
-      <c r="B118" s="27"/>
-      <c r="C118" s="15" t="s">
+      <c r="B120" s="27"/>
+      <c r="C120" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D118" s="15" t="s">
+      <c r="D120" s="15" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="32"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="32"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="32"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="15"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="15" t="s">
+        <v>449</v>
+      </c>
       <c r="D121" s="15" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="32"/>
-      <c r="B122" s="20"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="15" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>458</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="32"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="15" t="s">
-        <v>459</v>
-      </c>
+      <c r="B123" s="22"/>
+      <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
         <v>404</v>
       </c>
@@ -5401,169 +5441,169 @@
       <c r="A124" s="32"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
-        <v>406</v>
+        <v>266</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>257</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="32"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>462</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="32"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
-        <v>496</v>
+        <v>406</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="32"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="32"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>499</v>
+        <v>291</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="32"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>512</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="32"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>293</v>
+        <v>498</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="32"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>295</v>
+        <v>511</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="32"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
-        <v>284</v>
+        <v>512</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>420</v>
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="32"/>
       <c r="B133" s="20"/>
-      <c r="C133" s="3" t="s">
-        <v>434</v>
+      <c r="C133" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>373</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="32"/>
       <c r="B134" s="20"/>
-      <c r="C134" t="s">
+      <c r="C134" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="32"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="32"/>
+      <c r="B136" s="20"/>
+      <c r="C136" t="s">
         <v>300</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="D136" s="15" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="32">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="32">
         <v>43411</v>
       </c>
-      <c r="B136" s="27"/>
-      <c r="C136" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="32"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="32"/>
       <c r="B138" s="27"/>
       <c r="C138" s="15" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="32"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>278</v>
+      <c r="B139" s="27"/>
+      <c r="C139" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="32"/>
-      <c r="B140" s="22"/>
+      <c r="B140" s="27"/>
       <c r="C140" s="15" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="32"/>
-      <c r="B141" s="20"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>278</v>
@@ -5571,129 +5611,306 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="32"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="3"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="D142" s="15" t="s">
-        <v>404</v>
+        <v>522</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="32"/>
       <c r="B143" s="20"/>
-      <c r="C143" s="15" t="s">
-        <v>461</v>
+      <c r="C143" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="32"/>
       <c r="B144" s="20"/>
-      <c r="C144" s="15" t="s">
-        <v>461</v>
-      </c>
+      <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
-        <v>462</v>
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="32"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="32"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="32"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="32"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
-        <v>511</v>
+        <v>452</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="32"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="32"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>295</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="32"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
-        <v>284</v>
+        <v>529</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>420</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="32"/>
       <c r="B152" s="20"/>
-      <c r="C152" s="3" t="s">
-        <v>434</v>
+      <c r="C152" s="15" t="s">
+        <v>453</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="32"/>
       <c r="B153" s="20"/>
-      <c r="C153" t="s">
+      <c r="C153" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="32"/>
+      <c r="B154" s="20"/>
+      <c r="C154" t="s">
+        <v>338</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="32">
+        <v>43412</v>
+      </c>
+      <c r="B156" s="27"/>
+      <c r="C156" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="32"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="32"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="32"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="32"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="32"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="32"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="32"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="32"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="32"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="32"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="32"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="32"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="32"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="32"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="32"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D171" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="32"/>
+      <c r="B172" s="20"/>
+      <c r="C172" t="s">
         <v>300</v>
       </c>
-      <c r="D153" s="15" t="s">
+      <c r="D172" s="15" t="s">
         <v>435</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A136:A153"/>
-    <mergeCell ref="A118:A134"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A104:A116"/>
-    <mergeCell ref="A86:A102"/>
+  <mergeCells count="14">
+    <mergeCell ref="A156:A172"/>
+    <mergeCell ref="A104:A118"/>
     <mergeCell ref="A57:A70"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A40:A55"/>
@@ -5702,6 +5919,10 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5715,7 +5936,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5807,7 +6028,7 @@
         <v>36.69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5815,13 +6036,13 @@
         <v>43408</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C7" s="25">
         <v>36.5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5843,13 +6064,13 @@
         <v>43410</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C9" s="25">
         <v>36.6</v>
       </c>
       <c r="D9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5857,18 +6078,27 @@
         <v>43411</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C10" s="25">
         <v>36.6</v>
       </c>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>43412</v>
+      </c>
+      <c r="B11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C11" s="25">
+        <v>36.5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B4AA54-8300-4DE1-B76A-A4FBABF6F8CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90C56C5-079F-4AE0-AECE-D0A934FD9383}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="542">
   <si>
     <t>病毒四项</t>
   </si>
@@ -2011,10 +2011,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃维E+搓脚心+睡觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>午餐：猪蹄+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2531,6 +2527,39 @@
       <t>ai ai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：芝麻糊</t>
+    <rPh sb="3" eb="4">
+      <t>you po mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao xiao m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+洗头洗澡+护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.65，量着体温差点睡着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：红烧排骨+土豆丝+宫保鸡丁+大白菜+番茄鸡蛋汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃牛肉干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-6.46</t>
   </si>
 </sst>
 </file>
@@ -2757,9 +2786,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2770,6 +2796,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4262,10 +4291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4301,7 +4330,7 @@
         <v>423</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4408,7 +4437,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4417,7 +4446,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
-      <c r="B16" s="37"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -4427,7 +4456,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
-      <c r="B17" s="37"/>
+      <c r="B17" s="36"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -4518,7 +4547,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4530,7 +4559,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
+      <c r="B28" s="34"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -4540,7 +4569,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
+      <c r="B29" s="34"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -4550,7 +4579,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -4560,7 +4589,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -4570,7 +4599,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -4583,7 +4612,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
+      <c r="B33" s="34"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -4593,7 +4622,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
-      <c r="B34" s="35"/>
+      <c r="B34" s="34"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -4814,7 +4843,7 @@
       <c r="A57" s="32">
         <v>43406</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
         <v>417</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -4827,7 +4856,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="32"/>
-      <c r="B58" s="34"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="15" t="s">
         <v>345</v>
       </c>
@@ -4852,7 +4881,7 @@
         <v>266</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -4879,7 +4908,7 @@
       <c r="A63" s="32"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>291</v>
@@ -4889,7 +4918,7 @@
       <c r="A64" s="32"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>419</v>
@@ -4902,14 +4931,14 @@
         <v>310</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="32"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>336</v>
@@ -4919,7 +4948,7 @@
       <c r="A67" s="32"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>293</v>
@@ -4929,7 +4958,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>420</v>
@@ -4939,7 +4968,7 @@
       <c r="A69" s="32"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>373</v>
@@ -4956,7 +4985,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="33">
+      <c r="A72" s="37">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -4964,234 +4993,234 @@
         <v>273</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="33"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>480</v>
-      </c>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="33"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
+      <c r="A77" s="37"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
+        <v>462</v>
+      </c>
+      <c r="D77" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="D77" s="15" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
+      <c r="A78" s="37"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
+        <v>464</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>466</v>
-      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
+        <v>466</v>
+      </c>
+      <c r="D79" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="D79" s="15" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
+        <v>468</v>
+      </c>
+      <c r="D80" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="D80" s="15" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="33"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
+        <v>489</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="37">
+        <v>43408</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="D84" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="I84" s="30"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="33">
-        <v>43408</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>491</v>
-      </c>
       <c r="D86" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="33"/>
+      <c r="A87" s="37"/>
       <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="33"/>
+      <c r="A88" s="37"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D88" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="D88" s="15" t="s">
-        <v>493</v>
-      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
+      <c r="A90" s="37"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="33"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D92" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="33"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="33"/>
+      <c r="A94" s="37"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="33"/>
+      <c r="A95" s="37"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="33"/>
+      <c r="A96" s="37"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="33"/>
+      <c r="A97" s="37"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5201,50 +5230,50 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="33"/>
+      <c r="A98" s="37"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="33"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="33"/>
+      <c r="A100" s="37"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="33"/>
+      <c r="A101" s="37"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="33"/>
+      <c r="A102" s="37"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>301</v>
@@ -5255,7 +5284,7 @@
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -5275,7 +5304,7 @@
       <c r="B106" s="27"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F106" s="3"/>
     </row>
@@ -5293,7 +5322,7 @@
       <c r="A108" s="32"/>
       <c r="B108" s="22"/>
       <c r="C108" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>278</v>
@@ -5306,7 +5335,7 @@
         <v>266</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5341,7 +5370,7 @@
       <c r="A113" s="32"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>432</v>
@@ -5351,7 +5380,7 @@
       <c r="A114" s="32"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>293</v>
@@ -5361,17 +5390,17 @@
       <c r="A115" s="32"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="32"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>420</v>
@@ -5381,7 +5410,7 @@
       <c r="A117" s="32"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>373</v>
@@ -5391,7 +5420,7 @@
       <c r="A118" s="32"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>301</v>
@@ -5403,20 +5432,20 @@
       </c>
       <c r="B120" s="27"/>
       <c r="C120" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D120" s="15" t="s">
         <v>447</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="32"/>
       <c r="B121" s="27"/>
       <c r="C121" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D121" s="15" t="s">
         <v>449</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5444,14 +5473,14 @@
         <v>266</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="32"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>404</v>
@@ -5471,17 +5500,17 @@
       <c r="A127" s="32"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D127" s="15" t="s">
         <v>461</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="32"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>291</v>
@@ -5491,7 +5520,7 @@
       <c r="A129" s="32"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>336</v>
@@ -5501,27 +5530,27 @@
       <c r="A130" s="32"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D130" s="15" t="s">
         <v>497</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="32"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="D131" s="15" t="s">
         <v>510</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="32"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>293</v>
@@ -5576,17 +5605,17 @@
         <v>273</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="32"/>
       <c r="B139" s="27"/>
       <c r="C139" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5596,14 +5625,14 @@
         <v>345</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="32"/>
       <c r="B141" s="22"/>
       <c r="C141" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>278</v>
@@ -5616,14 +5645,14 @@
         <v>266</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="32"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>278</v>
@@ -5641,7 +5670,7 @@
       <c r="A145" s="32"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>257</v>
@@ -5651,7 +5680,7 @@
       <c r="A146" s="32"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>291</v>
@@ -5664,24 +5693,24 @@
         <v>431</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="32"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="32"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>336</v>
@@ -5694,24 +5723,24 @@
         <v>292</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="32"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="32"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>420</v>
@@ -5743,10 +5772,10 @@
       </c>
       <c r="B156" s="27"/>
       <c r="C156" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -5756,14 +5785,14 @@
         <v>280</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="32"/>
       <c r="B158" s="22"/>
       <c r="C158" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>261</v>
@@ -5776,14 +5805,14 @@
         <v>266</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="32"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>278</v>
@@ -5801,7 +5830,7 @@
       <c r="A162" s="32"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>257</v>
@@ -5810,18 +5839,16 @@
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="32"/>
       <c r="B163" s="20"/>
-      <c r="C163" s="15" t="s">
-        <v>461</v>
-      </c>
+      <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
-        <v>462</v>
+        <v>535</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="32"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>291</v>
@@ -5831,7 +5858,7 @@
       <c r="A165" s="32"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>336</v>
@@ -5841,27 +5868,27 @@
       <c r="A166" s="32"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="32"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="D167" s="15" t="s">
         <v>510</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="32"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>293</v>
@@ -5871,54 +5898,175 @@
       <c r="A169" s="32"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>295</v>
+        <v>537</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="32"/>
       <c r="B170" s="20"/>
-      <c r="C170" s="15" t="s">
-        <v>284</v>
+      <c r="C170" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="32"/>
       <c r="B171" s="20"/>
-      <c r="C171" s="3" t="s">
-        <v>434</v>
+      <c r="C171" t="s">
+        <v>338</v>
       </c>
       <c r="D171" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="32">
+        <v>43413</v>
+      </c>
+      <c r="B173" s="27"/>
+      <c r="C173" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="32"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="32"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="32"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="32"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="32"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="32"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="32"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="32"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="D181" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="32"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D182" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="32"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="32"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D184" s="15" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="32"/>
-      <c r="B172" s="20"/>
-      <c r="C172" t="s">
-        <v>300</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>435</v>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="32"/>
+      <c r="B185" s="20"/>
+      <c r="C185" t="s">
+        <v>338</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A156:A172"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A40:A55"/>
+  <mergeCells count="15">
+    <mergeCell ref="A173:A185"/>
     <mergeCell ref="B27:B34"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A40:A55"/>
     <mergeCell ref="A138:A154"/>
     <mergeCell ref="A120:A136"/>
     <mergeCell ref="A72:A84"/>
@@ -5935,8 +6083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6028,7 +6176,7 @@
         <v>36.69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6036,13 +6184,13 @@
         <v>43408</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C7" s="25">
         <v>36.5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6064,13 +6212,13 @@
         <v>43410</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C9" s="25">
         <v>36.6</v>
       </c>
       <c r="D9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6078,13 +6226,13 @@
         <v>43411</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C10" s="25">
         <v>36.6</v>
       </c>
       <c r="D10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6092,18 +6240,27 @@
         <v>43412</v>
       </c>
       <c r="B11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C11" s="25">
         <v>36.5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>43413</v>
+      </c>
+      <c r="B12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" s="25">
+        <v>36.65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90C56C5-079F-4AE0-AECE-D0A934FD9383}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="520" windowWidth="25840" windowHeight="17480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -21,23 +25,23 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,12 +124,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="544">
   <si>
     <t>病毒四项</t>
   </si>
@@ -2561,11 +2565,31 @@
   <si>
     <t>6.35-6.46</t>
   </si>
+  <si>
+    <t>6.35-6.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测着体温差点睡着，睡着容易张口</t>
+    <rPh sb="0" eb="8">
+      <t>cezheti wencha dianshui zhao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui zhao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>rong yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhang kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -2786,9 +2810,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2797,6 +2818,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3083,24 +3107,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3356,7 +3380,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3371,7 +3395,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3386,7 +3410,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -3397,7 +3421,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3860,21 +3884,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4290,27 +4314,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4437,7 +4461,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4446,7 +4470,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
-      <c r="B16" s="36"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -4456,7 +4480,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="35"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -4547,7 +4571,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4559,7 +4583,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
-      <c r="B28" s="34"/>
+      <c r="B28" s="33"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -4569,7 +4593,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
-      <c r="B29" s="34"/>
+      <c r="B29" s="33"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -4579,7 +4603,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
-      <c r="B30" s="34"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -4589,7 +4613,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
-      <c r="B31" s="34"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -4599,7 +4623,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
-      <c r="B32" s="34"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -4612,7 +4636,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
-      <c r="B33" s="34"/>
+      <c r="B33" s="33"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -4622,7 +4646,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
-      <c r="B34" s="34"/>
+      <c r="B34" s="33"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -4843,7 +4867,7 @@
       <c r="A57" s="32">
         <v>43406</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="36" t="s">
         <v>417</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -4856,7 +4880,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="15" t="s">
         <v>345</v>
       </c>
@@ -6080,19 +6104,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6267,11 +6291,29 @@
       <c r="A13" s="13">
         <v>43414</v>
       </c>
+      <c r="B13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" s="25">
+        <v>36.67</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>43415</v>
       </c>
+      <c r="B14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" s="25">
+        <v>36.6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -6370,25 +6412,37 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6438,7 +6492,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
@@ -6449,7 +6503,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -6457,7 +6511,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
     </row>
   </sheetData>
@@ -6468,20 +6522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>205</v>
       </c>
@@ -6489,7 +6543,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>206</v>
       </c>
@@ -6497,7 +6551,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>207</v>
       </c>
@@ -6505,7 +6559,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>208</v>
       </c>
@@ -6513,11 +6567,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -6525,18 +6579,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -6544,7 +6598,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>
@@ -6562,20 +6616,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.625" customWidth="1"/>
+    <col min="4" max="4" width="113.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6592,7 +6646,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>52</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B7D0EE-A6B1-4AFC-8E6D-C1764895D834}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="520" windowWidth="25840" windowHeight="17480" activeTab="3"/>
+    <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -25,23 +21,23 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -124,12 +120,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="559">
   <si>
     <t>病毒四项</t>
   </si>
@@ -2585,11 +2581,83 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>6.35-6.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.57，量着体温差点睡着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：木须肉+火腿肠+炒白菜+炒豆角+冬瓜蛋花汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：双椒烤鱼</t>
+    <rPh sb="3" eb="4">
+      <t>you po mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao xiao m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃山楂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+艾灸腹部+睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10-10.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.40-11.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逛街 没买东西/很累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.30-9.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：包子+豆浆+油饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：胡萝卜白菜炒腊肉+鸡蛋汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：花菜炒肉+鸡蛋汤</t>
+    <rPh sb="3" eb="4">
+      <t>you po mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao xiao m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：牛肉焗饭+榴莲披萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -2750,7 +2818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2807,6 +2875,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2821,9 +2895,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3107,24 +3178,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3380,7 +3451,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3395,7 +3466,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3410,7 +3481,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -3421,7 +3492,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3884,21 +3955,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4314,27 +4385,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D180" sqref="D180"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4358,7 +4429,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="32">
+      <c r="A2" s="34">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -4367,7 +4438,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -4377,7 +4448,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -4387,56 +4458,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+      <c r="A13" s="34">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4447,7 +4518,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -4460,8 +4531,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="36" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4469,8 +4540,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -4479,8 +4550,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="37"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -4489,7 +4560,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -4499,7 +4570,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -4509,7 +4580,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -4519,7 +4590,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>335</v>
@@ -4529,7 +4600,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>333</v>
@@ -4539,7 +4610,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>337</v>
@@ -4549,7 +4620,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>338</v>
@@ -4559,7 +4630,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+      <c r="A26" s="34">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4570,8 +4641,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4582,8 +4653,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -4592,8 +4663,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -4602,8 +4673,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -4612,8 +4683,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -4622,8 +4693,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -4635,8 +4706,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -4645,8 +4716,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -4655,7 +4726,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
         <v>386</v>
@@ -4665,7 +4736,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
         <v>378</v>
@@ -4675,7 +4746,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>372</v>
@@ -4685,7 +4756,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>338</v>
@@ -4695,7 +4766,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="32">
+      <c r="A40" s="34">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -4712,7 +4783,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="22"/>
       <c r="C41" s="15" t="s">
         <v>345</v>
@@ -4722,7 +4793,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="22"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -4732,7 +4803,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -4742,7 +4813,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>403</v>
@@ -4752,7 +4823,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="24" t="s">
         <v>412</v>
       </c>
@@ -4764,7 +4835,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>406</v>
@@ -4774,7 +4845,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -4784,7 +4855,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>407</v>
@@ -4794,7 +4865,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>409</v>
@@ -4804,7 +4875,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -4814,7 +4885,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -4824,7 +4895,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>415</v>
@@ -4834,7 +4905,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="32"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>411</v>
@@ -4844,7 +4915,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -4854,7 +4925,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>372</v>
@@ -4864,10 +4935,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="32">
+      <c r="A57" s="34">
         <v>43406</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="38" t="s">
         <v>417</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -4879,8 +4950,8 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="36"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="15" t="s">
         <v>345</v>
       </c>
@@ -4889,7 +4960,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="22"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -4899,7 +4970,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -4909,7 +4980,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>403</v>
@@ -4919,7 +4990,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>406</v>
@@ -4929,7 +5000,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>438</v>
@@ -4939,7 +5010,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="32"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>439</v>
@@ -4949,7 +5020,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="32"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -4959,7 +5030,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="32"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>441</v>
@@ -4969,7 +5040,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="32"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>442</v>
@@ -4979,7 +5050,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="32"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>444</v>
@@ -4989,7 +5060,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="32"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>443</v>
@@ -4999,7 +5070,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="32"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>338</v>
@@ -5009,7 +5080,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="37">
+      <c r="A72" s="32">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -5022,7 +5093,7 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
         <v>478</v>
@@ -5033,7 +5104,7 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5043,7 +5114,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5051,7 +5122,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="37"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>483</v>
@@ -5061,7 +5132,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="37"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>462</v>
@@ -5071,7 +5142,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="37"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>464</v>
@@ -5081,7 +5152,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="37"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>466</v>
@@ -5091,7 +5162,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>468</v>
@@ -5101,7 +5172,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>470</v>
@@ -5111,7 +5182,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>487</v>
@@ -5121,7 +5192,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="37"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>488</v>
@@ -5132,7 +5203,7 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="37"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>489</v>
@@ -5143,7 +5214,7 @@
       <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="37">
+      <c r="A86" s="32">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
@@ -5157,7 +5228,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="37"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5165,7 +5236,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="37"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
         <v>491</v>
@@ -5175,14 +5246,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -5190,7 +5261,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>500</v>
@@ -5200,7 +5271,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>473</v>
@@ -5210,7 +5281,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>474</v>
@@ -5220,7 +5291,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>475</v>
@@ -5230,7 +5301,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="37"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>476</v>
@@ -5240,11 +5311,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="37"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="37"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5254,7 +5325,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="37"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>505</v>
@@ -5264,7 +5335,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>504</v>
@@ -5274,7 +5345,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -5284,7 +5355,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>507</v>
@@ -5294,7 +5365,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>508</v>
@@ -5304,7 +5375,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="32">
+      <c r="A104" s="34">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -5312,7 +5383,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="32"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="26" t="s">
         <v>417</v>
       </c>
@@ -5324,7 +5395,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="32"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="27"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -5333,7 +5404,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="32"/>
+      <c r="A107" s="34"/>
       <c r="B107" s="27"/>
       <c r="C107" s="15" t="s">
         <v>345</v>
@@ -5343,7 +5414,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="32"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="22"/>
       <c r="C108" s="15" t="s">
         <v>445</v>
@@ -5353,7 +5424,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="32"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -5363,7 +5434,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="32"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -5371,7 +5442,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="32"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>433</v>
@@ -5381,7 +5452,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="32"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>431</v>
@@ -5391,7 +5462,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="32"/>
+      <c r="A113" s="34"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>451</v>
@@ -5401,7 +5472,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="32"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>456</v>
@@ -5411,7 +5482,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="32"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>455</v>
@@ -5421,7 +5492,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="32"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>452</v>
@@ -5431,7 +5502,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="32"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>453</v>
@@ -5441,7 +5512,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="32"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>454</v>
@@ -5451,7 +5522,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="32">
+      <c r="A120" s="34">
         <v>43410</v>
       </c>
       <c r="B120" s="27"/>
@@ -5463,7 +5534,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="32"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="27"/>
       <c r="C121" s="15" t="s">
         <v>448</v>
@@ -5473,7 +5544,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="32"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="22"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -5483,7 +5554,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="32"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="22"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -5491,7 +5562,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="32"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -5501,7 +5572,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="32"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>458</v>
@@ -5511,7 +5582,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="32"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>406</v>
@@ -5521,7 +5592,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="32"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>460</v>
@@ -5531,7 +5602,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="32"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>494</v>
@@ -5541,7 +5612,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="32"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>495</v>
@@ -5551,7 +5622,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="32"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>496</v>
@@ -5561,7 +5632,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="32"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>509</v>
@@ -5571,7 +5642,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="32"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>511</v>
@@ -5581,7 +5652,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="32"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -5591,7 +5662,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="32"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -5601,7 +5672,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="32"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>434</v>
@@ -5611,7 +5682,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="32"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -5621,7 +5692,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="32">
+      <c r="A138" s="34">
         <v>43411</v>
       </c>
       <c r="B138" s="27"/>
@@ -5633,7 +5704,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="32"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="27"/>
       <c r="C139" s="18" t="s">
         <v>524</v>
@@ -5643,7 +5714,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="32"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="27"/>
       <c r="C140" s="15" t="s">
         <v>345</v>
@@ -5653,7 +5724,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="32"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="22"/>
       <c r="C141" s="3" t="s">
         <v>520</v>
@@ -5663,7 +5734,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="32"/>
+      <c r="A142" s="34"/>
       <c r="B142" s="22"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -5673,7 +5744,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="32"/>
+      <c r="A143" s="34"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>522</v>
@@ -5683,7 +5754,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="32"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -5691,7 +5762,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="32"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>460</v>
@@ -5701,7 +5772,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="32"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>494</v>
@@ -5711,7 +5782,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="32"/>
+      <c r="A147" s="34"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>431</v>
@@ -5721,7 +5792,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="32"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>451</v>
@@ -5731,7 +5802,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="32"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>496</v>
@@ -5741,7 +5812,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="32"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -5751,7 +5822,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="32"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>528</v>
@@ -5761,7 +5832,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="32"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>452</v>
@@ -5771,7 +5842,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="32"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>372</v>
@@ -5781,7 +5852,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="32"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>338</v>
@@ -5791,7 +5862,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="32">
+      <c r="A156" s="34">
         <v>43412</v>
       </c>
       <c r="B156" s="27"/>
@@ -5803,7 +5874,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="32"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="27"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -5813,7 +5884,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="32"/>
+      <c r="A158" s="34"/>
       <c r="B158" s="22"/>
       <c r="C158" s="3" t="s">
         <v>530</v>
@@ -5823,7 +5894,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="32"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="22"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -5833,7 +5904,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="32"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>522</v>
@@ -5843,7 +5914,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="32"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -5851,7 +5922,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="32"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>460</v>
@@ -5861,7 +5932,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="32"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -5869,7 +5940,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="32"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>494</v>
@@ -5879,7 +5950,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="32"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>431</v>
@@ -5889,7 +5960,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="32"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>496</v>
@@ -5899,7 +5970,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="32"/>
+      <c r="A167" s="34"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>509</v>
@@ -5909,7 +5980,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="32"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>511</v>
@@ -5919,7 +5990,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="32"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>356</v>
@@ -5929,7 +6000,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="32"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>443</v>
@@ -5939,7 +6010,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="32"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>338</v>
@@ -5949,7 +6020,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="32">
+      <c r="A173" s="34">
         <v>43413</v>
       </c>
       <c r="B173" s="27"/>
@@ -5961,7 +6032,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="32"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="22"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -5971,7 +6042,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="32"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>522</v>
@@ -5981,7 +6052,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="32"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>460</v>
@@ -5991,7 +6062,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="32"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -5999,7 +6070,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="32"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>494</v>
@@ -6009,7 +6080,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="32"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>431</v>
@@ -6019,7 +6090,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="32"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>496</v>
@@ -6029,7 +6100,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="32"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>509</v>
@@ -6039,7 +6110,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="32"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>511</v>
@@ -6049,7 +6120,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="32"/>
+      <c r="A183" s="34"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>356</v>
@@ -6059,7 +6130,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="32"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>443</v>
@@ -6069,7 +6140,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="32"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>338</v>
@@ -6078,10 +6149,316 @@
         <v>301</v>
       </c>
     </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="32">
+        <v>43414</v>
+      </c>
+      <c r="B187" s="27"/>
+      <c r="C187" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="32"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="32"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="32"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="32"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="32"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="15" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="32"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="32"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="32"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="32"/>
+      <c r="B196" s="20"/>
+      <c r="C196" t="s">
+        <v>338</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="32">
+        <v>43415</v>
+      </c>
+      <c r="B198" s="27"/>
+      <c r="C198" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="32"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="32"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D200" s="15" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="32"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="32"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="32"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="32"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="32"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="32"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="32"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="33">
+        <v>43416</v>
+      </c>
+      <c r="B209" s="27"/>
+      <c r="C209" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D209" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="33"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D210" s="15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="33"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="33"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D212" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="33"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D213" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="33"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D214" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="33"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D215" s="15" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="33"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="D216" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="33"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D217" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="33"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D218" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="33"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D219" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="33"/>
+      <c r="B220" s="20"/>
+      <c r="C220" t="s">
+        <v>338</v>
+      </c>
+      <c r="D220" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="B27:B34"/>
+  <mergeCells count="18">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B15:B17"/>
@@ -6095,6 +6472,11 @@
     <mergeCell ref="A120:A136"/>
     <mergeCell ref="A72:A84"/>
     <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A220"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="B27:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6104,19 +6486,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6318,6 +6700,15 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>43416</v>
+      </c>
+      <c r="B15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15" s="25">
+        <v>36.57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6430,19 +6821,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6492,7 +6883,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
@@ -6503,7 +6894,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -6511,7 +6902,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
     </row>
   </sheetData>
@@ -6522,20 +6913,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>205</v>
       </c>
@@ -6543,7 +6934,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>206</v>
       </c>
@@ -6551,7 +6942,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>207</v>
       </c>
@@ -6559,7 +6950,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>208</v>
       </c>
@@ -6567,11 +6958,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -6579,18 +6970,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -6598,7 +6989,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>
@@ -6616,20 +7007,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.6640625" customWidth="1"/>
+    <col min="4" max="4" width="113.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6646,8 +7037,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6661,7 +7052,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B7D0EE-A6B1-4AFC-8E6D-C1764895D834}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04296113-5E67-432F-BAE9-E4A97811B1A0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="571">
   <si>
     <t>病毒四项</t>
   </si>
@@ -2590,10 +2590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>午餐：木须肉+火腿肠+炒白菜+炒豆角+冬瓜蛋花汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>晚餐：双椒烤鱼</t>
     <rPh sb="3" eb="4">
       <t>you po mian</t>
@@ -2651,6 +2647,76 @@
   </si>
   <si>
     <t>吃苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：黄豆棒骨汤+蛋炒饭</t>
+    <rPh sb="3" eb="4">
+      <t>you po mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao xiao m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+涂脚丫+艾灸腹部+睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 粘黏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-6.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.70，量着体温差点睡着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.05-8.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：米线+玉米糊+豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA+RHY+小便+冲洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：米粉肉+毛血旺+香菇冬瓜+清炒小白菜+菠菜蛋花汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：木须肉+火腿肠+清炒快菜+炒豆角+冬瓜蛋花汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：烤鸭+炒刀削</t>
+    <rPh sb="3" eb="4">
+      <t>you po mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao xiao m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.67，量着体温差点睡着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：</t>
+    <rPh sb="3" eb="4">
+      <t>you po mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao xiao m</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2875,10 +2941,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4386,10 +4452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G192" sqref="G192"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5080,7 +5146,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="32">
+      <c r="A72" s="33">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -5093,7 +5159,7 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="32"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
         <v>478</v>
@@ -5104,7 +5170,7 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5114,7 +5180,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5122,7 +5188,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>483</v>
@@ -5132,7 +5198,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="32"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>462</v>
@@ -5142,7 +5208,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="32"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>464</v>
@@ -5152,7 +5218,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="32"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>466</v>
@@ -5162,7 +5228,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>468</v>
@@ -5172,7 +5238,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>470</v>
@@ -5182,7 +5248,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>487</v>
@@ -5192,7 +5258,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>488</v>
@@ -5203,7 +5269,7 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>489</v>
@@ -5214,7 +5280,7 @@
       <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="32">
+      <c r="A86" s="33">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
@@ -5228,7 +5294,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5236,7 +5302,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="32"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
         <v>491</v>
@@ -5246,14 +5312,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="32"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="32"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -5261,7 +5327,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="32"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>500</v>
@@ -5271,7 +5337,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="32"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>473</v>
@@ -5281,7 +5347,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="32"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>474</v>
@@ -5291,7 +5357,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="32"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>475</v>
@@ -5301,7 +5367,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="32"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>476</v>
@@ -5311,11 +5377,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="32"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="32"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5325,7 +5391,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
+      <c r="A98" s="33"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>505</v>
@@ -5335,7 +5401,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="32"/>
+      <c r="A99" s="33"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>504</v>
@@ -5345,7 +5411,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="32"/>
+      <c r="A100" s="33"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -5355,7 +5421,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="32"/>
+      <c r="A101" s="33"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>507</v>
@@ -5365,7 +5431,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="32"/>
+      <c r="A102" s="33"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>508</v>
@@ -6150,7 +6216,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="32">
+      <c r="A187" s="33">
         <v>43414</v>
       </c>
       <c r="B187" s="27"/>
@@ -6162,23 +6228,23 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="32"/>
+      <c r="A188" s="33"/>
       <c r="B188" s="22"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="32"/>
+      <c r="A189" s="33"/>
       <c r="B189" s="22"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="32"/>
+      <c r="A190" s="33"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -6186,7 +6252,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="32"/>
+      <c r="A191" s="33"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -6194,15 +6260,15 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="32"/>
+      <c r="A192" s="33"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="32"/>
+      <c r="A193" s="33"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -6210,7 +6276,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="32"/>
+      <c r="A194" s="33"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -6218,7 +6284,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="32"/>
+      <c r="A195" s="33"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>443</v>
@@ -6228,7 +6294,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="32"/>
+      <c r="A196" s="33"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>338</v>
@@ -6238,7 +6304,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="32">
+      <c r="A198" s="33">
         <v>43415</v>
       </c>
       <c r="B198" s="27"/>
@@ -6250,25 +6316,25 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="32"/>
+      <c r="A199" s="33"/>
       <c r="B199" s="27"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="32"/>
+      <c r="A200" s="33"/>
       <c r="B200" s="22"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="32"/>
+      <c r="A201" s="33"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>460</v>
@@ -6278,7 +6344,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="32"/>
+      <c r="A202" s="33"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>494</v>
@@ -6288,57 +6354,57 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="32"/>
+      <c r="A203" s="33"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="32"/>
+      <c r="A204" s="33"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>496</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="32"/>
+      <c r="A205" s="33"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="32"/>
+      <c r="A206" s="33"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D206" s="15" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="32"/>
+      <c r="A207" s="33"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="33">
+      <c r="A209" s="32">
         <v>43416</v>
       </c>
       <c r="B209" s="27"/>
@@ -6350,17 +6416,17 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="33"/>
+      <c r="A210" s="32"/>
       <c r="B210" s="22"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="33"/>
+      <c r="A211" s="32"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -6368,101 +6434,263 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="33"/>
+      <c r="A212" s="32"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="33"/>
+      <c r="A213" s="32"/>
       <c r="B213" s="20"/>
-      <c r="C213" s="15" t="s">
-        <v>494</v>
-      </c>
+      <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
-        <v>291</v>
+        <v>558</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="33"/>
+      <c r="A214" s="32"/>
       <c r="B214" s="20"/>
-      <c r="C214" s="15" t="s">
-        <v>431</v>
-      </c>
+      <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="33"/>
+      <c r="A215" s="32"/>
       <c r="B215" s="20"/>
-      <c r="C215" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="D215" s="15" t="s">
-        <v>536</v>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="33"/>
+      <c r="A216" s="32"/>
       <c r="B216" s="20"/>
       <c r="C216" s="15" t="s">
-        <v>509</v>
+        <v>356</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="33"/>
+      <c r="A217" s="32"/>
       <c r="B217" s="20"/>
-      <c r="C217" s="15" t="s">
-        <v>511</v>
+      <c r="C217" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>293</v>
+        <v>559</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="33"/>
+      <c r="A218" s="32"/>
       <c r="B218" s="20"/>
-      <c r="C218" s="15" t="s">
+      <c r="D218" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="32">
+        <v>43417</v>
+      </c>
+      <c r="B220" s="27"/>
+      <c r="C220" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D220" s="15" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="32"/>
+      <c r="B221" s="27"/>
+      <c r="C221" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="D221" s="15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="32"/>
+      <c r="B222" s="27"/>
+      <c r="D222" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="32"/>
+      <c r="B223" s="22"/>
+      <c r="C223" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D223" s="15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="32"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="32"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D225" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="32"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D226" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="32"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D227" s="15" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="32"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D218" s="15" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="33"/>
-      <c r="B219" s="20"/>
-      <c r="C219" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D219" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="33"/>
-      <c r="B220" s="20"/>
-      <c r="C220" t="s">
+      <c r="D228" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="32"/>
+      <c r="B229" s="20"/>
+      <c r="C229" t="s">
         <v>338</v>
       </c>
-      <c r="D220" s="15" t="s">
-        <v>301</v>
+      <c r="D229" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="32">
+        <v>43418</v>
+      </c>
+      <c r="B231" s="27"/>
+      <c r="C231" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D231" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="32"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="32"/>
+      <c r="B233" s="27"/>
+      <c r="D233" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="32"/>
+      <c r="B234" s="22"/>
+      <c r="C234" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D234" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="32"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D235" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="32"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D236" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="32"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D237" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="32"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D238" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="32"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D239" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="32"/>
+      <c r="B240" s="20"/>
+      <c r="C240" t="s">
+        <v>338</v>
+      </c>
+      <c r="D240" s="15" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
+  <mergeCells count="20">
+    <mergeCell ref="A231:A240"/>
     <mergeCell ref="A156:A171"/>
     <mergeCell ref="A104:A118"/>
     <mergeCell ref="A57:A70"/>
@@ -6472,11 +6700,16 @@
     <mergeCell ref="A120:A136"/>
     <mergeCell ref="A72:A84"/>
     <mergeCell ref="A86:A102"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A220:A229"/>
     <mergeCell ref="A187:A196"/>
     <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A220"/>
+    <mergeCell ref="A209:A218"/>
     <mergeCell ref="A173:A185"/>
-    <mergeCell ref="B27:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6490,7 +6723,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6714,6 +6947,15 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>43417</v>
+      </c>
+      <c r="B16" t="s">
+        <v>561</v>
+      </c>
+      <c r="C16" s="25">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04296113-5E67-432F-BAE9-E4A97811B1A0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B20747-293D-4A11-BE23-D31FB6E0D697}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="574">
   <si>
     <t>病毒四项</t>
   </si>
@@ -2688,10 +2688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>午餐：米粉肉+毛血旺+香菇冬瓜+清炒小白菜+菠菜蛋花汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>午餐：木须肉+火腿肠+清炒快菜+炒豆角+冬瓜蛋花汤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2711,12 +2707,25 @@
   </si>
   <si>
     <t>晚餐：</t>
-    <rPh sb="3" eb="4">
-      <t>you po mian</t>
+    <rPh sb="0" eb="3">
+      <t>you po miandao xiao m</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>dao xiao m</t>
-    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-6.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：土豆炖牛肉+山药炖鸭汤+番茄炒圆白菜+炒千叶豆腐+番茄鸡蛋汤+玉米+小葱拌豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：米粉肉+毛血旺+香菇冬瓜+清炒小白菜+菠菜蛋花汤+蕨根粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2941,22 +2950,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4455,7 +4464,7 @@
   <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="E240" sqref="E240"/>
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4463,7 +4472,7 @@
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
@@ -4495,7 +4504,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
+      <c r="A2" s="33">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -4504,7 +4513,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -4514,7 +4523,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -4524,56 +4533,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4584,7 +4593,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -4597,8 +4606,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4606,8 +4615,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -4616,8 +4625,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="35"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -4626,7 +4635,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -4636,7 +4645,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -4646,7 +4655,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -4656,7 +4665,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>335</v>
@@ -4666,7 +4675,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>333</v>
@@ -4676,7 +4685,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>337</v>
@@ -4686,7 +4695,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>338</v>
@@ -4696,7 +4705,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4707,8 +4716,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="32" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4719,8 +4728,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="32"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -4729,8 +4738,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="32"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -4739,8 +4748,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -4749,8 +4758,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -4759,8 +4768,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -4772,8 +4781,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="32"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -4782,8 +4791,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="32"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -4792,7 +4801,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
         <v>386</v>
@@ -4802,7 +4811,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
         <v>378</v>
@@ -4812,7 +4821,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>372</v>
@@ -4822,7 +4831,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>338</v>
@@ -4832,7 +4841,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
+      <c r="A40" s="33">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -4849,7 +4858,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="22"/>
       <c r="C41" s="15" t="s">
         <v>345</v>
@@ -4859,7 +4868,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="22"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -4869,7 +4878,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -4879,7 +4888,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>403</v>
@@ -4889,7 +4898,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="24" t="s">
         <v>412</v>
       </c>
@@ -4901,7 +4910,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>406</v>
@@ -4911,7 +4920,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -4921,7 +4930,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>407</v>
@@ -4931,7 +4940,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>409</v>
@@ -4941,7 +4950,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -4951,7 +4960,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="34"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -4961,7 +4970,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>415</v>
@@ -4971,7 +4980,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>411</v>
@@ -4981,7 +4990,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -4991,7 +5000,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>372</v>
@@ -5001,7 +5010,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
+      <c r="A57" s="33">
         <v>43406</v>
       </c>
       <c r="B57" s="38" t="s">
@@ -5016,7 +5025,7 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="38"/>
       <c r="C58" s="15" t="s">
         <v>345</v>
@@ -5026,7 +5035,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="22"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -5036,7 +5045,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -5046,7 +5055,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>403</v>
@@ -5056,7 +5065,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>406</v>
@@ -5066,7 +5075,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>438</v>
@@ -5076,7 +5085,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="34"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>439</v>
@@ -5086,7 +5095,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="34"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -5096,7 +5105,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="34"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>441</v>
@@ -5106,7 +5115,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>442</v>
@@ -5116,7 +5125,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="34"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>444</v>
@@ -5126,7 +5135,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="34"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>443</v>
@@ -5136,7 +5145,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="34"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>338</v>
@@ -5146,7 +5155,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="33">
+      <c r="A72" s="36">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -5159,7 +5168,7 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="33"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
         <v>478</v>
@@ -5170,7 +5179,7 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="33"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5180,7 +5189,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5188,7 +5197,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
+      <c r="A76" s="36"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>483</v>
@@ -5198,7 +5207,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>462</v>
@@ -5208,7 +5217,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>464</v>
@@ -5218,7 +5227,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>466</v>
@@ -5228,7 +5237,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>468</v>
@@ -5238,7 +5247,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
+      <c r="A81" s="36"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>470</v>
@@ -5248,7 +5257,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="33"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>487</v>
@@ -5258,7 +5267,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>488</v>
@@ -5269,7 +5278,7 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>489</v>
@@ -5280,7 +5289,7 @@
       <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="33">
+      <c r="A86" s="36">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
@@ -5294,7 +5303,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="33"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5302,7 +5311,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="33"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
         <v>491</v>
@@ -5312,14 +5321,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -5327,7 +5336,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>500</v>
@@ -5337,7 +5346,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="33"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>473</v>
@@ -5347,7 +5356,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="33"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>474</v>
@@ -5357,7 +5366,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="33"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>475</v>
@@ -5367,7 +5376,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="33"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>476</v>
@@ -5377,11 +5386,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="33"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="33"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5391,7 +5400,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="33"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>505</v>
@@ -5401,7 +5410,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="33"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>504</v>
@@ -5411,7 +5420,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="33"/>
+      <c r="A100" s="36"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -5421,7 +5430,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="33"/>
+      <c r="A101" s="36"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>507</v>
@@ -5431,7 +5440,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="33"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>508</v>
@@ -5441,7 +5450,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="34">
+      <c r="A104" s="33">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -5449,7 +5458,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="34"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="26" t="s">
         <v>417</v>
       </c>
@@ -5461,7 +5470,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="34"/>
+      <c r="A106" s="33"/>
       <c r="B106" s="27"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -5470,7 +5479,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="34"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="27"/>
       <c r="C107" s="15" t="s">
         <v>345</v>
@@ -5480,7 +5489,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="34"/>
+      <c r="A108" s="33"/>
       <c r="B108" s="22"/>
       <c r="C108" s="15" t="s">
         <v>445</v>
@@ -5490,7 +5499,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="34"/>
+      <c r="A109" s="33"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -5500,7 +5509,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="34"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -5508,7 +5517,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="34"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>433</v>
@@ -5518,7 +5527,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="34"/>
+      <c r="A112" s="33"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>431</v>
@@ -5528,7 +5537,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="34"/>
+      <c r="A113" s="33"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>451</v>
@@ -5538,7 +5547,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="34"/>
+      <c r="A114" s="33"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>456</v>
@@ -5548,7 +5557,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="34"/>
+      <c r="A115" s="33"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>455</v>
@@ -5558,7 +5567,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="34"/>
+      <c r="A116" s="33"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>452</v>
@@ -5568,7 +5577,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="34"/>
+      <c r="A117" s="33"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>453</v>
@@ -5578,7 +5587,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="34"/>
+      <c r="A118" s="33"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>454</v>
@@ -5588,7 +5597,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="34">
+      <c r="A120" s="33">
         <v>43410</v>
       </c>
       <c r="B120" s="27"/>
@@ -5600,7 +5609,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="34"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="27"/>
       <c r="C121" s="15" t="s">
         <v>448</v>
@@ -5610,7 +5619,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="34"/>
+      <c r="A122" s="33"/>
       <c r="B122" s="22"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -5620,7 +5629,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="34"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="22"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -5628,7 +5637,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="34"/>
+      <c r="A124" s="33"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -5638,7 +5647,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="34"/>
+      <c r="A125" s="33"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>458</v>
@@ -5648,7 +5657,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="34"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>406</v>
@@ -5658,7 +5667,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="34"/>
+      <c r="A127" s="33"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>460</v>
@@ -5668,7 +5677,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="34"/>
+      <c r="A128" s="33"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>494</v>
@@ -5678,7 +5687,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="34"/>
+      <c r="A129" s="33"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>495</v>
@@ -5688,7 +5697,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="34"/>
+      <c r="A130" s="33"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>496</v>
@@ -5698,7 +5707,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="34"/>
+      <c r="A131" s="33"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>509</v>
@@ -5708,7 +5717,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="34"/>
+      <c r="A132" s="33"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>511</v>
@@ -5718,7 +5727,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="34"/>
+      <c r="A133" s="33"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -5728,7 +5737,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="34"/>
+      <c r="A134" s="33"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -5738,7 +5747,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="34"/>
+      <c r="A135" s="33"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>434</v>
@@ -5748,7 +5757,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="34"/>
+      <c r="A136" s="33"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -5758,7 +5767,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="34">
+      <c r="A138" s="33">
         <v>43411</v>
       </c>
       <c r="B138" s="27"/>
@@ -5770,7 +5779,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="34"/>
+      <c r="A139" s="33"/>
       <c r="B139" s="27"/>
       <c r="C139" s="18" t="s">
         <v>524</v>
@@ -5780,7 +5789,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="34"/>
+      <c r="A140" s="33"/>
       <c r="B140" s="27"/>
       <c r="C140" s="15" t="s">
         <v>345</v>
@@ -5790,7 +5799,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="34"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="22"/>
       <c r="C141" s="3" t="s">
         <v>520</v>
@@ -5800,7 +5809,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="34"/>
+      <c r="A142" s="33"/>
       <c r="B142" s="22"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -5810,7 +5819,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="34"/>
+      <c r="A143" s="33"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>522</v>
@@ -5820,7 +5829,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="34"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -5828,7 +5837,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="34"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>460</v>
@@ -5838,7 +5847,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="34"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>494</v>
@@ -5848,7 +5857,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="34"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>431</v>
@@ -5858,7 +5867,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="34"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>451</v>
@@ -5868,7 +5877,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="34"/>
+      <c r="A149" s="33"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>496</v>
@@ -5878,7 +5887,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="34"/>
+      <c r="A150" s="33"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -5888,7 +5897,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="34"/>
+      <c r="A151" s="33"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>528</v>
@@ -5898,7 +5907,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="34"/>
+      <c r="A152" s="33"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>452</v>
@@ -5908,7 +5917,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="34"/>
+      <c r="A153" s="33"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>372</v>
@@ -5918,7 +5927,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="34"/>
+      <c r="A154" s="33"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>338</v>
@@ -5928,7 +5937,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="34">
+      <c r="A156" s="33">
         <v>43412</v>
       </c>
       <c r="B156" s="27"/>
@@ -5940,7 +5949,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="34"/>
+      <c r="A157" s="33"/>
       <c r="B157" s="27"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -5950,7 +5959,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="34"/>
+      <c r="A158" s="33"/>
       <c r="B158" s="22"/>
       <c r="C158" s="3" t="s">
         <v>530</v>
@@ -5960,7 +5969,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="34"/>
+      <c r="A159" s="33"/>
       <c r="B159" s="22"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -5970,7 +5979,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="34"/>
+      <c r="A160" s="33"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>522</v>
@@ -5980,7 +5989,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="34"/>
+      <c r="A161" s="33"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -5988,7 +5997,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="34"/>
+      <c r="A162" s="33"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>460</v>
@@ -5998,7 +6007,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="34"/>
+      <c r="A163" s="33"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -6006,7 +6015,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="34"/>
+      <c r="A164" s="33"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>494</v>
@@ -6016,7 +6025,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="34"/>
+      <c r="A165" s="33"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>431</v>
@@ -6026,7 +6035,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="34"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>496</v>
@@ -6036,7 +6045,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="34"/>
+      <c r="A167" s="33"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>509</v>
@@ -6046,7 +6055,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="34"/>
+      <c r="A168" s="33"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>511</v>
@@ -6056,7 +6065,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="34"/>
+      <c r="A169" s="33"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>356</v>
@@ -6066,7 +6075,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="34"/>
+      <c r="A170" s="33"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>443</v>
@@ -6076,7 +6085,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="34"/>
+      <c r="A171" s="33"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>338</v>
@@ -6086,7 +6095,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="34">
+      <c r="A173" s="33">
         <v>43413</v>
       </c>
       <c r="B173" s="27"/>
@@ -6098,7 +6107,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="34"/>
+      <c r="A174" s="33"/>
       <c r="B174" s="22"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -6108,7 +6117,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="34"/>
+      <c r="A175" s="33"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>522</v>
@@ -6118,7 +6127,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="34"/>
+      <c r="A176" s="33"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>460</v>
@@ -6128,7 +6137,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="34"/>
+      <c r="A177" s="33"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -6136,7 +6145,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="34"/>
+      <c r="A178" s="33"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>494</v>
@@ -6146,7 +6155,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="34"/>
+      <c r="A179" s="33"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>431</v>
@@ -6156,7 +6165,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="34"/>
+      <c r="A180" s="33"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>496</v>
@@ -6166,7 +6175,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="34"/>
+      <c r="A181" s="33"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>509</v>
@@ -6176,7 +6185,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="34"/>
+      <c r="A182" s="33"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>511</v>
@@ -6186,7 +6195,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="34"/>
+      <c r="A183" s="33"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>356</v>
@@ -6196,7 +6205,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="34"/>
+      <c r="A184" s="33"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>443</v>
@@ -6206,7 +6215,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="34"/>
+      <c r="A185" s="33"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>338</v>
@@ -6216,7 +6225,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="33">
+      <c r="A187" s="36">
         <v>43414</v>
       </c>
       <c r="B187" s="27"/>
@@ -6228,7 +6237,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="33"/>
+      <c r="A188" s="36"/>
       <c r="B188" s="22"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -6236,7 +6245,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="33"/>
+      <c r="A189" s="36"/>
       <c r="B189" s="22"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -6244,7 +6253,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="33"/>
+      <c r="A190" s="36"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -6252,7 +6261,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="33"/>
+      <c r="A191" s="36"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -6260,7 +6269,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="33"/>
+      <c r="A192" s="36"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -6268,7 +6277,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="33"/>
+      <c r="A193" s="36"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -6276,7 +6285,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="33"/>
+      <c r="A194" s="36"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -6284,7 +6293,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="33"/>
+      <c r="A195" s="36"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>443</v>
@@ -6294,7 +6303,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="33"/>
+      <c r="A196" s="36"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>338</v>
@@ -6304,7 +6313,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="33">
+      <c r="A198" s="36">
         <v>43415</v>
       </c>
       <c r="B198" s="27"/>
@@ -6316,7 +6325,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="33"/>
+      <c r="A199" s="36"/>
       <c r="B199" s="27"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -6324,7 +6333,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="33"/>
+      <c r="A200" s="36"/>
       <c r="B200" s="22"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -6334,7 +6343,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="33"/>
+      <c r="A201" s="36"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>460</v>
@@ -6344,7 +6353,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="33"/>
+      <c r="A202" s="36"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>494</v>
@@ -6354,7 +6363,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="33"/>
+      <c r="A203" s="36"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -6364,7 +6373,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="33"/>
+      <c r="A204" s="36"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>496</v>
@@ -6374,7 +6383,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="33"/>
+      <c r="A205" s="36"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>552</v>
@@ -6384,7 +6393,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="33"/>
+      <c r="A206" s="36"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>549</v>
@@ -6394,7 +6403,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="33"/>
+      <c r="A207" s="36"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>550</v>
@@ -6404,7 +6413,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="32">
+      <c r="A209" s="37">
         <v>43416</v>
       </c>
       <c r="B209" s="27"/>
@@ -6416,17 +6425,17 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="32"/>
+      <c r="A210" s="37"/>
       <c r="B210" s="22"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="32"/>
+      <c r="A211" s="37"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -6434,7 +6443,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="32"/>
+      <c r="A212" s="37"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>494</v>
@@ -6444,7 +6453,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="32"/>
+      <c r="A213" s="37"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -6452,7 +6461,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="32"/>
+      <c r="A214" s="37"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -6460,7 +6469,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="32"/>
+      <c r="A215" s="37"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -6468,7 +6477,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="32"/>
+      <c r="A216" s="37"/>
       <c r="B216" s="20"/>
       <c r="C216" s="15" t="s">
         <v>356</v>
@@ -6478,7 +6487,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="32"/>
+      <c r="A217" s="37"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>443</v>
@@ -6488,14 +6497,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="32"/>
+      <c r="A218" s="37"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="32">
+      <c r="A220" s="37">
         <v>43417</v>
       </c>
       <c r="B220" s="27"/>
@@ -6507,7 +6516,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="32"/>
+      <c r="A221" s="37"/>
       <c r="B221" s="27"/>
       <c r="C221" s="15" t="s">
         <v>563</v>
@@ -6517,24 +6526,24 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="32"/>
+      <c r="A222" s="37"/>
       <c r="B222" s="27"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="32"/>
+      <c r="A223" s="37"/>
       <c r="B223" s="22"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="32"/>
+      <c r="A224" s="37"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>460</v>
@@ -6544,7 +6553,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="32"/>
+      <c r="A225" s="37"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>494</v>
@@ -6554,7 +6563,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="32"/>
+      <c r="A226" s="37"/>
       <c r="B226" s="20"/>
       <c r="C226" s="15" t="s">
         <v>431</v>
@@ -6564,17 +6573,17 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="32"/>
+      <c r="A227" s="37"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>496</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="32"/>
+      <c r="A228" s="37"/>
       <c r="B228" s="20"/>
       <c r="C228" s="15" t="s">
         <v>356</v>
@@ -6584,7 +6593,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="32"/>
+      <c r="A229" s="37"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>338</v>
@@ -6594,7 +6603,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="32">
+      <c r="A231" s="37">
         <v>43418</v>
       </c>
       <c r="B231" s="27"/>
@@ -6602,44 +6611,46 @@
         <v>490</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="32"/>
+      <c r="A232" s="37"/>
       <c r="B232" s="27"/>
-      <c r="C232" s="15"/>
-      <c r="D232" s="15"/>
+      <c r="D232" s="15" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="32"/>
-      <c r="B233" s="27"/>
+      <c r="A233" s="37"/>
+      <c r="B233" s="22"/>
+      <c r="C233" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="D233" s="15" t="s">
-        <v>278</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="32"/>
-      <c r="B234" s="22"/>
+      <c r="A234" s="37"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="15" t="s">
-        <v>266</v>
+        <v>460</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>531</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="32"/>
+      <c r="A235" s="37"/>
       <c r="B235" s="20"/>
-      <c r="C235" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="D235" s="15" t="s">
-        <v>257</v>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="32"/>
+      <c r="A236" s="37"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>494</v>
@@ -6649,7 +6660,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="32"/>
+      <c r="A237" s="37"/>
       <c r="B237" s="20"/>
       <c r="C237" s="15" t="s">
         <v>431</v>
@@ -6659,17 +6670,17 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="32"/>
+      <c r="A238" s="37"/>
       <c r="B238" s="20"/>
       <c r="C238" s="15" t="s">
         <v>496</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="32"/>
+      <c r="A239" s="37"/>
       <c r="B239" s="20"/>
       <c r="C239" s="15" t="s">
         <v>356</v>
@@ -6679,7 +6690,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="32"/>
+      <c r="A240" s="37"/>
       <c r="B240" s="20"/>
       <c r="C240" t="s">
         <v>338</v>
@@ -6695,6 +6706,11 @@
     <mergeCell ref="A104:A118"/>
     <mergeCell ref="A57:A70"/>
     <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A173:A185"/>
     <mergeCell ref="A40:A55"/>
     <mergeCell ref="A138:A154"/>
     <mergeCell ref="A120:A136"/>
@@ -6705,11 +6721,6 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A173:A185"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6723,7 +6734,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6958,82 +6969,91 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43418</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>570</v>
+      </c>
+      <c r="C17" s="25">
+        <v>36.67</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43419</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>43420</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>43421</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>43422</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>43423</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>43424</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>43425</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43426</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>43427</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>43428</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>43429</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>43430</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>43431</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>43432</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>43433</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B20747-293D-4A11-BE23-D31FB6E0D697}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B57DFB-715D-4DB4-9E38-64A0F967EE39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="579">
   <si>
     <t>病毒四项</t>
   </si>
@@ -2702,30 +2702,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>量体温：36.67，量着体温差点睡着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐：</t>
-    <rPh sb="0" eb="3">
-      <t>you po miandao xiao m</t>
+    <t>6.35-6.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：土豆炖牛肉+山药炖鸭汤+番茄炒圆白菜+炒千叶豆腐+番茄鸡蛋汤+玉米+小葱拌豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：米粉肉+毛血旺+香菇冬瓜+清炒小白菜+菠菜蛋花汤+蕨根粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃苹果+瓜子+梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测着体温差点睡着，睡着容易张口，后来看得体温</t>
+    <rPh sb="0" eb="8">
+      <t>cezheti wencha dianshui zhao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.35-6.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐：土豆炖牛肉+山药炖鸭汤+番茄炒圆白菜+炒千叶豆腐+番茄鸡蛋汤+玉米+小葱拌豆腐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐：米粉肉+毛血旺+香菇冬瓜+清炒小白菜+菠菜蛋花汤+蕨根粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排便</t>
+    <rPh sb="9" eb="10">
+      <t>shui zhao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>rong yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhang kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.75，量着体温差点睡着，后记体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.62，量着体温差点睡着，后记体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+涂脚丫+艾灸腹部+吃维E+睡觉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2950,6 +2979,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2963,9 +2995,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4461,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I240"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="D235" sqref="D235"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4504,7 +4533,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="33">
+      <c r="A2" s="34">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -4513,7 +4542,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -4523,7 +4552,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -4533,56 +4562,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+      <c r="A13" s="34">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4593,7 +4622,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -4606,8 +4635,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4615,8 +4644,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -4625,8 +4654,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -4635,7 +4664,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -4645,7 +4674,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -4655,7 +4684,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -4665,7 +4694,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>335</v>
@@ -4675,7 +4704,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>333</v>
@@ -4685,7 +4714,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>337</v>
@@ -4695,7 +4724,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>338</v>
@@ -4705,7 +4734,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33">
+      <c r="A26" s="34">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4716,8 +4745,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="33" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4728,8 +4757,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="33"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -4738,8 +4767,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="33"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -4748,8 +4777,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -4758,8 +4787,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -4768,8 +4797,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -4781,8 +4810,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="33"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -4791,8 +4820,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="33"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -4801,7 +4830,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
         <v>386</v>
@@ -4811,7 +4840,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
         <v>378</v>
@@ -4821,7 +4850,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>372</v>
@@ -4831,7 +4860,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>338</v>
@@ -4841,7 +4870,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="33">
+      <c r="A40" s="34">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -4858,7 +4887,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="22"/>
       <c r="C41" s="15" t="s">
         <v>345</v>
@@ -4868,7 +4897,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="22"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -4878,7 +4907,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -4888,7 +4917,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>403</v>
@@ -4898,7 +4927,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="24" t="s">
         <v>412</v>
       </c>
@@ -4910,7 +4939,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>406</v>
@@ -4920,7 +4949,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -4930,7 +4959,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>407</v>
@@ -4940,7 +4969,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>409</v>
@@ -4950,7 +4979,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -4960,7 +4989,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -4970,7 +4999,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>415</v>
@@ -4980,7 +5009,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>411</v>
@@ -4990,7 +5019,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -5000,7 +5029,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>372</v>
@@ -5010,7 +5039,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="33">
+      <c r="A57" s="34">
         <v>43406</v>
       </c>
       <c r="B57" s="38" t="s">
@@ -5025,7 +5054,7 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="38"/>
       <c r="C58" s="15" t="s">
         <v>345</v>
@@ -5035,7 +5064,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="33"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="22"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -5045,7 +5074,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -5055,7 +5084,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>403</v>
@@ -5065,7 +5094,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>406</v>
@@ -5075,7 +5104,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>438</v>
@@ -5085,7 +5114,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>439</v>
@@ -5095,7 +5124,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="33"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -5105,7 +5134,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="33"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>441</v>
@@ -5115,7 +5144,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="33"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>442</v>
@@ -5125,7 +5154,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="33"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>444</v>
@@ -5135,7 +5164,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="33"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>443</v>
@@ -5145,7 +5174,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="33"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>338</v>
@@ -5155,7 +5184,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="36">
+      <c r="A72" s="37">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -5168,7 +5197,7 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
         <v>478</v>
@@ -5179,7 +5208,7 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="36"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5189,7 +5218,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5197,7 +5226,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>483</v>
@@ -5207,7 +5236,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="36"/>
+      <c r="A77" s="37"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>462</v>
@@ -5217,7 +5246,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="36"/>
+      <c r="A78" s="37"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>464</v>
@@ -5227,7 +5256,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="36"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>466</v>
@@ -5237,7 +5266,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="36"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>468</v>
@@ -5247,7 +5276,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="36"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>470</v>
@@ -5257,7 +5286,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="36"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>487</v>
@@ -5267,7 +5296,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="36"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>488</v>
@@ -5278,7 +5307,7 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="36"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>489</v>
@@ -5289,7 +5318,7 @@
       <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="36">
+      <c r="A86" s="37">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
@@ -5303,7 +5332,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
+      <c r="A87" s="37"/>
       <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5311,7 +5340,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="36"/>
+      <c r="A88" s="37"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
         <v>491</v>
@@ -5321,14 +5350,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="36"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="36"/>
+      <c r="A90" s="37"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -5336,7 +5365,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="36"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>500</v>
@@ -5346,7 +5375,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="36"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>473</v>
@@ -5356,7 +5385,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="36"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>474</v>
@@ -5366,7 +5395,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="36"/>
+      <c r="A94" s="37"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>475</v>
@@ -5376,7 +5405,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="36"/>
+      <c r="A95" s="37"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>476</v>
@@ -5386,11 +5415,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="36"/>
+      <c r="A96" s="37"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="36"/>
+      <c r="A97" s="37"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5400,7 +5429,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="36"/>
+      <c r="A98" s="37"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>505</v>
@@ -5410,7 +5439,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="36"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>504</v>
@@ -5420,7 +5449,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="36"/>
+      <c r="A100" s="37"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -5430,7 +5459,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="36"/>
+      <c r="A101" s="37"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>507</v>
@@ -5440,7 +5469,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="36"/>
+      <c r="A102" s="37"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>508</v>
@@ -5450,7 +5479,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="33">
+      <c r="A104" s="34">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -5458,7 +5487,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="33"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="26" t="s">
         <v>417</v>
       </c>
@@ -5470,7 +5499,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="33"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="27"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -5479,7 +5508,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="33"/>
+      <c r="A107" s="34"/>
       <c r="B107" s="27"/>
       <c r="C107" s="15" t="s">
         <v>345</v>
@@ -5489,7 +5518,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="33"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="22"/>
       <c r="C108" s="15" t="s">
         <v>445</v>
@@ -5499,7 +5528,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="33"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -5509,7 +5538,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="33"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -5517,7 +5546,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="33"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>433</v>
@@ -5527,7 +5556,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="33"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>431</v>
@@ -5537,7 +5566,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="33"/>
+      <c r="A113" s="34"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>451</v>
@@ -5547,7 +5576,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="33"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>456</v>
@@ -5557,7 +5586,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="33"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>455</v>
@@ -5567,7 +5596,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="33"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>452</v>
@@ -5577,7 +5606,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="33"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>453</v>
@@ -5587,7 +5616,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="33"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>454</v>
@@ -5597,7 +5626,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="33">
+      <c r="A120" s="34">
         <v>43410</v>
       </c>
       <c r="B120" s="27"/>
@@ -5609,7 +5638,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="33"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="27"/>
       <c r="C121" s="15" t="s">
         <v>448</v>
@@ -5619,7 +5648,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="33"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="22"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -5629,7 +5658,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="33"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="22"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -5637,7 +5666,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="33"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -5647,7 +5676,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="33"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>458</v>
@@ -5657,7 +5686,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="33"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>406</v>
@@ -5667,7 +5696,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="33"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>460</v>
@@ -5677,7 +5706,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="33"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>494</v>
@@ -5687,7 +5716,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="33"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>495</v>
@@ -5697,7 +5726,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="33"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>496</v>
@@ -5707,7 +5736,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="33"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>509</v>
@@ -5717,7 +5746,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="33"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>511</v>
@@ -5727,7 +5756,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="33"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -5737,7 +5766,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="33"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -5747,7 +5776,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="33"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>434</v>
@@ -5757,7 +5786,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="33"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -5767,7 +5796,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="33">
+      <c r="A138" s="34">
         <v>43411</v>
       </c>
       <c r="B138" s="27"/>
@@ -5779,7 +5808,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="33"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="27"/>
       <c r="C139" s="18" t="s">
         <v>524</v>
@@ -5789,7 +5818,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="33"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="27"/>
       <c r="C140" s="15" t="s">
         <v>345</v>
@@ -5799,7 +5828,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="33"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="22"/>
       <c r="C141" s="3" t="s">
         <v>520</v>
@@ -5809,7 +5838,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="33"/>
+      <c r="A142" s="34"/>
       <c r="B142" s="22"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -5819,7 +5848,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="33"/>
+      <c r="A143" s="34"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>522</v>
@@ -5829,7 +5858,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="33"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -5837,7 +5866,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="33"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>460</v>
@@ -5847,7 +5876,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="33"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>494</v>
@@ -5857,7 +5886,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="33"/>
+      <c r="A147" s="34"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>431</v>
@@ -5867,7 +5896,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="33"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>451</v>
@@ -5877,7 +5906,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="33"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>496</v>
@@ -5887,7 +5916,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="33"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -5897,7 +5926,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="33"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>528</v>
@@ -5907,7 +5936,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="33"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>452</v>
@@ -5917,7 +5946,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="33"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>372</v>
@@ -5927,7 +5956,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="33"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>338</v>
@@ -5937,7 +5966,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="33">
+      <c r="A156" s="34">
         <v>43412</v>
       </c>
       <c r="B156" s="27"/>
@@ -5949,7 +5978,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="33"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="27"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -5959,7 +5988,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="33"/>
+      <c r="A158" s="34"/>
       <c r="B158" s="22"/>
       <c r="C158" s="3" t="s">
         <v>530</v>
@@ -5969,7 +5998,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="33"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="22"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -5979,7 +6008,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="33"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>522</v>
@@ -5989,7 +6018,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="33"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -5997,7 +6026,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="33"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>460</v>
@@ -6007,7 +6036,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="33"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -6015,7 +6044,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="33"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>494</v>
@@ -6025,7 +6054,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="33"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>431</v>
@@ -6035,7 +6064,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="33"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>496</v>
@@ -6045,7 +6074,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="33"/>
+      <c r="A167" s="34"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>509</v>
@@ -6055,7 +6084,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="33"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>511</v>
@@ -6065,7 +6094,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="33"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>356</v>
@@ -6075,7 +6104,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="33"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>443</v>
@@ -6085,7 +6114,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="33"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>338</v>
@@ -6095,7 +6124,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="33">
+      <c r="A173" s="34">
         <v>43413</v>
       </c>
       <c r="B173" s="27"/>
@@ -6107,7 +6136,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="33"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="22"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -6117,7 +6146,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="33"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>522</v>
@@ -6127,7 +6156,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="33"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>460</v>
@@ -6137,7 +6166,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="33"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -6145,7 +6174,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="33"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>494</v>
@@ -6155,7 +6184,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="33"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>431</v>
@@ -6165,7 +6194,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="33"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>496</v>
@@ -6175,7 +6204,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="33"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>509</v>
@@ -6185,7 +6214,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="33"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>511</v>
@@ -6195,7 +6224,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="33"/>
+      <c r="A183" s="34"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>356</v>
@@ -6205,7 +6234,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="33"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>443</v>
@@ -6215,7 +6244,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="33"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>338</v>
@@ -6225,7 +6254,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="36">
+      <c r="A187" s="37">
         <v>43414</v>
       </c>
       <c r="B187" s="27"/>
@@ -6237,7 +6266,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="36"/>
+      <c r="A188" s="37"/>
       <c r="B188" s="22"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -6245,7 +6274,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="36"/>
+      <c r="A189" s="37"/>
       <c r="B189" s="22"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -6253,7 +6282,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="36"/>
+      <c r="A190" s="37"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -6261,7 +6290,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="36"/>
+      <c r="A191" s="37"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -6269,7 +6298,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="36"/>
+      <c r="A192" s="37"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -6277,7 +6306,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="36"/>
+      <c r="A193" s="37"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -6285,7 +6314,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="36"/>
+      <c r="A194" s="37"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -6293,7 +6322,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="36"/>
+      <c r="A195" s="37"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>443</v>
@@ -6303,7 +6332,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="36"/>
+      <c r="A196" s="37"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>338</v>
@@ -6313,7 +6342,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="36">
+      <c r="A198" s="37">
         <v>43415</v>
       </c>
       <c r="B198" s="27"/>
@@ -6325,7 +6354,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="36"/>
+      <c r="A199" s="37"/>
       <c r="B199" s="27"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -6333,7 +6362,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="36"/>
+      <c r="A200" s="37"/>
       <c r="B200" s="22"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -6343,7 +6372,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="36"/>
+      <c r="A201" s="37"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>460</v>
@@ -6353,7 +6382,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="36"/>
+      <c r="A202" s="37"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>494</v>
@@ -6363,7 +6392,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="36"/>
+      <c r="A203" s="37"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -6373,7 +6402,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="36"/>
+      <c r="A204" s="37"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>496</v>
@@ -6383,7 +6412,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="36"/>
+      <c r="A205" s="37"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>552</v>
@@ -6393,7 +6422,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="36"/>
+      <c r="A206" s="37"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>549</v>
@@ -6403,7 +6432,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="36"/>
+      <c r="A207" s="37"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>550</v>
@@ -6413,7 +6442,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="37">
+      <c r="A209" s="32">
         <v>43416</v>
       </c>
       <c r="B209" s="27"/>
@@ -6425,7 +6454,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="37"/>
+      <c r="A210" s="32"/>
       <c r="B210" s="22"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -6435,7 +6464,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="37"/>
+      <c r="A211" s="32"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -6443,7 +6472,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="37"/>
+      <c r="A212" s="32"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>494</v>
@@ -6453,7 +6482,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="37"/>
+      <c r="A213" s="32"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -6461,7 +6490,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="37"/>
+      <c r="A214" s="32"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -6469,7 +6498,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="37"/>
+      <c r="A215" s="32"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -6477,7 +6506,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="37"/>
+      <c r="A216" s="32"/>
       <c r="B216" s="20"/>
       <c r="C216" s="15" t="s">
         <v>356</v>
@@ -6487,7 +6516,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="37"/>
+      <c r="A217" s="32"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>443</v>
@@ -6497,14 +6526,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="37"/>
+      <c r="A218" s="32"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="37">
+      <c r="A220" s="32">
         <v>43417</v>
       </c>
       <c r="B220" s="27"/>
@@ -6516,7 +6545,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="37"/>
+      <c r="A221" s="32"/>
       <c r="B221" s="27"/>
       <c r="C221" s="15" t="s">
         <v>563</v>
@@ -6526,24 +6555,24 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="37"/>
+      <c r="A222" s="32"/>
       <c r="B222" s="27"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="37"/>
+      <c r="A223" s="32"/>
       <c r="B223" s="22"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="37"/>
+      <c r="A224" s="32"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>460</v>
@@ -6553,7 +6582,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="37"/>
+      <c r="A225" s="32"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>494</v>
@@ -6563,7 +6592,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="37"/>
+      <c r="A226" s="32"/>
       <c r="B226" s="20"/>
       <c r="C226" s="15" t="s">
         <v>431</v>
@@ -6573,7 +6602,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="37"/>
+      <c r="A227" s="32"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>496</v>
@@ -6583,7 +6612,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="37"/>
+      <c r="A228" s="32"/>
       <c r="B228" s="20"/>
       <c r="C228" s="15" t="s">
         <v>356</v>
@@ -6593,7 +6622,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="37"/>
+      <c r="A229" s="32"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>338</v>
@@ -6603,7 +6632,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="37">
+      <c r="A231" s="32">
         <v>43418</v>
       </c>
       <c r="B231" s="27"/>
@@ -6611,46 +6640,44 @@
         <v>490</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="37"/>
+      <c r="A232" s="32"/>
       <c r="B232" s="27"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="37"/>
+      <c r="A233" s="32"/>
       <c r="B233" s="22"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="37"/>
+      <c r="A234" s="32"/>
       <c r="B234" s="20"/>
-      <c r="C234" s="15" t="s">
-        <v>460</v>
-      </c>
+      <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="37"/>
+      <c r="A235" s="32"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="37"/>
+      <c r="A236" s="32"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>494</v>
@@ -6660,67 +6687,175 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="37"/>
+      <c r="A237" s="32"/>
       <c r="B237" s="20"/>
-      <c r="C237" s="15" t="s">
-        <v>431</v>
-      </c>
+      <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="32"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="37"/>
-      <c r="B238" s="20"/>
-      <c r="C238" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="D238" s="15" t="s">
-        <v>569</v>
-      </c>
-    </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="37"/>
+      <c r="A239" s="32"/>
       <c r="B239" s="20"/>
-      <c r="C239" s="15" t="s">
-        <v>356</v>
-      </c>
+      <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="32"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="37"/>
-      <c r="B240" s="20"/>
-      <c r="C240" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="32"/>
+      <c r="B241" s="20"/>
+      <c r="C241" t="s">
         <v>338</v>
       </c>
-      <c r="D240" s="15" t="s">
+      <c r="D241" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="32"/>
+      <c r="B242" s="20"/>
+      <c r="D242" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="32">
+        <v>43419</v>
+      </c>
+      <c r="B244" s="27"/>
+      <c r="C244" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D244" s="15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="32"/>
+      <c r="B245" s="27"/>
+      <c r="D245" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="32"/>
+      <c r="B246" s="22"/>
+      <c r="C246" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D246" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="32"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="32"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="32"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D249" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="32"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="32"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="32"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="15"/>
+      <c r="D252" s="15"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="32"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="32"/>
+      <c r="B254" s="20"/>
+      <c r="C254" t="s">
+        <v>338</v>
+      </c>
+      <c r="D254" s="15" t="s">
         <v>559</v>
       </c>
     </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="32"/>
+      <c r="B255" s="20"/>
+      <c r="D255" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A231:A240"/>
+  <mergeCells count="21">
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A244:A255"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
     <mergeCell ref="A156:A171"/>
     <mergeCell ref="A104:A118"/>
     <mergeCell ref="A57:A70"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6734,7 +6869,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6742,7 +6877,7 @@
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6974,18 +7109,27 @@
         <v>43418</v>
       </c>
       <c r="B17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C17" s="25">
-        <v>36.67</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43419</v>
+      </c>
+      <c r="B18" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" s="25">
+        <v>36.75</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B57DFB-715D-4DB4-9E38-64A0F967EE39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE001364-C610-4631-8C6D-81C867512D0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="586">
   <si>
     <t>病毒四项</t>
   </si>
@@ -2755,6 +2755,34 @@
   </si>
   <si>
     <t>学习+涂脚丫+艾灸腹部+吃维E+睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：炸酱面+黄瓜蛋花汤+烤鸡+炒咸肉+西葫芦炒鸡蛋+清炒油菜+蛋炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：蒜蓉粉丝扇贝+炒盒菜+豆豉鳞鱼炒菠菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：烤鸡肉拌饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.67，量着体温差点睡着，后记体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-6.45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2979,22 +3007,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4490,10 +4518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:I266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4636,7 +4664,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4645,7 +4673,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -4655,7 +4683,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -4746,7 +4774,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="35" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4758,7 +4786,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
-      <c r="B28" s="33"/>
+      <c r="B28" s="35"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -4768,7 +4796,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="34"/>
-      <c r="B29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -4778,7 +4806,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
-      <c r="B30" s="33"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -4788,7 +4816,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
-      <c r="B31" s="33"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -4798,7 +4826,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
-      <c r="B32" s="33"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -4811,7 +4839,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
-      <c r="B33" s="33"/>
+      <c r="B33" s="35"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -4821,7 +4849,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
-      <c r="B34" s="33"/>
+      <c r="B34" s="35"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -5184,7 +5212,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="37">
+      <c r="A72" s="32">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -5197,7 +5225,7 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
         <v>478</v>
@@ -5208,7 +5236,7 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5218,7 +5246,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5226,7 +5254,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="37"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>483</v>
@@ -5236,7 +5264,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="37"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>462</v>
@@ -5246,7 +5274,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="37"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>464</v>
@@ -5256,7 +5284,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="37"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>466</v>
@@ -5266,7 +5294,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>468</v>
@@ -5276,7 +5304,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>470</v>
@@ -5286,7 +5314,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>487</v>
@@ -5296,7 +5324,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="37"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>488</v>
@@ -5307,7 +5335,7 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="37"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>489</v>
@@ -5318,7 +5346,7 @@
       <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="37">
+      <c r="A86" s="32">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
@@ -5332,7 +5360,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="37"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5340,7 +5368,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="37"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
         <v>491</v>
@@ -5350,14 +5378,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -5365,7 +5393,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>500</v>
@@ -5375,7 +5403,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>473</v>
@@ -5385,7 +5413,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>474</v>
@@ -5395,7 +5423,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>475</v>
@@ -5405,7 +5433,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="37"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>476</v>
@@ -5415,11 +5443,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="37"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="37"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5429,7 +5457,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="37"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>505</v>
@@ -5439,7 +5467,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>504</v>
@@ -5449,7 +5477,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -5459,7 +5487,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>507</v>
@@ -5469,7 +5497,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>508</v>
@@ -6254,7 +6282,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="37">
+      <c r="A187" s="32">
         <v>43414</v>
       </c>
       <c r="B187" s="27"/>
@@ -6266,7 +6294,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="37"/>
+      <c r="A188" s="32"/>
       <c r="B188" s="22"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -6274,7 +6302,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="37"/>
+      <c r="A189" s="32"/>
       <c r="B189" s="22"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -6282,7 +6310,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="37"/>
+      <c r="A190" s="32"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -6290,7 +6318,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="37"/>
+      <c r="A191" s="32"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -6298,7 +6326,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="37"/>
+      <c r="A192" s="32"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -6306,7 +6334,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="37"/>
+      <c r="A193" s="32"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -6314,7 +6342,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="37"/>
+      <c r="A194" s="32"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -6322,7 +6350,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="37"/>
+      <c r="A195" s="32"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>443</v>
@@ -6332,7 +6360,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="37"/>
+      <c r="A196" s="32"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>338</v>
@@ -6342,7 +6370,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="37">
+      <c r="A198" s="32">
         <v>43415</v>
       </c>
       <c r="B198" s="27"/>
@@ -6354,7 +6382,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="37"/>
+      <c r="A199" s="32"/>
       <c r="B199" s="27"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -6362,7 +6390,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="37"/>
+      <c r="A200" s="32"/>
       <c r="B200" s="22"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -6372,7 +6400,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="37"/>
+      <c r="A201" s="32"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>460</v>
@@ -6382,7 +6410,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="37"/>
+      <c r="A202" s="32"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>494</v>
@@ -6392,7 +6420,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="37"/>
+      <c r="A203" s="32"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -6402,7 +6430,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="37"/>
+      <c r="A204" s="32"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>496</v>
@@ -6412,7 +6440,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="37"/>
+      <c r="A205" s="32"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>552</v>
@@ -6422,7 +6450,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="37"/>
+      <c r="A206" s="32"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>549</v>
@@ -6432,7 +6460,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="37"/>
+      <c r="A207" s="32"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>550</v>
@@ -6442,7 +6470,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="32">
+      <c r="A209" s="33">
         <v>43416</v>
       </c>
       <c r="B209" s="27"/>
@@ -6454,7 +6482,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="32"/>
+      <c r="A210" s="33"/>
       <c r="B210" s="22"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -6464,7 +6492,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="32"/>
+      <c r="A211" s="33"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -6472,7 +6500,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="32"/>
+      <c r="A212" s="33"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>494</v>
@@ -6482,7 +6510,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="32"/>
+      <c r="A213" s="33"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -6490,7 +6518,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="32"/>
+      <c r="A214" s="33"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -6498,7 +6526,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="32"/>
+      <c r="A215" s="33"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -6506,9 +6534,9 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="32"/>
+      <c r="A216" s="33"/>
       <c r="B216" s="20"/>
-      <c r="C216" s="15" t="s">
+      <c r="C216" s="3" t="s">
         <v>356</v>
       </c>
       <c r="D216" s="15" t="s">
@@ -6516,7 +6544,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="32"/>
+      <c r="A217" s="33"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>443</v>
@@ -6526,14 +6554,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="32"/>
+      <c r="A218" s="33"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="32">
+      <c r="A220" s="33">
         <v>43417</v>
       </c>
       <c r="B220" s="27"/>
@@ -6545,7 +6573,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="32"/>
+      <c r="A221" s="33"/>
       <c r="B221" s="27"/>
       <c r="C221" s="15" t="s">
         <v>563</v>
@@ -6555,14 +6583,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="32"/>
+      <c r="A222" s="33"/>
       <c r="B222" s="27"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="32"/>
+      <c r="A223" s="33"/>
       <c r="B223" s="22"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -6572,7 +6600,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="32"/>
+      <c r="A224" s="33"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>460</v>
@@ -6582,7 +6610,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="32"/>
+      <c r="A225" s="33"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>494</v>
@@ -6592,9 +6620,9 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="32"/>
+      <c r="A226" s="33"/>
       <c r="B226" s="20"/>
-      <c r="C226" s="15" t="s">
+      <c r="C226" s="3" t="s">
         <v>431</v>
       </c>
       <c r="D226" s="15" t="s">
@@ -6602,7 +6630,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="32"/>
+      <c r="A227" s="33"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>496</v>
@@ -6612,9 +6640,9 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="32"/>
+      <c r="A228" s="33"/>
       <c r="B228" s="20"/>
-      <c r="C228" s="15" t="s">
+      <c r="C228" s="3" t="s">
         <v>356</v>
       </c>
       <c r="D228" s="15" t="s">
@@ -6622,7 +6650,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="32"/>
+      <c r="A229" s="33"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>338</v>
@@ -6632,7 +6660,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="32">
+      <c r="A231" s="33">
         <v>43418</v>
       </c>
       <c r="B231" s="27"/>
@@ -6644,14 +6672,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="32"/>
+      <c r="A232" s="33"/>
       <c r="B232" s="27"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="32"/>
+      <c r="A233" s="33"/>
       <c r="B233" s="22"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -6661,7 +6689,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="32"/>
+      <c r="A234" s="33"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -6669,7 +6697,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="32"/>
+      <c r="A235" s="33"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -6677,7 +6705,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="32"/>
+      <c r="A236" s="33"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>494</v>
@@ -6687,7 +6715,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="32"/>
+      <c r="A237" s="33"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -6695,7 +6723,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="32"/>
+      <c r="A238" s="33"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -6703,7 +6731,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="32"/>
+      <c r="A239" s="33"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -6711,7 +6739,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="32"/>
+      <c r="A240" s="33"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -6719,7 +6747,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="32"/>
+      <c r="A241" s="33"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>338</v>
@@ -6729,14 +6757,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="32"/>
+      <c r="A242" s="33"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="32">
+      <c r="A244" s="33">
         <v>43419</v>
       </c>
       <c r="B244" s="27"/>
@@ -6748,24 +6776,24 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="32"/>
+      <c r="A245" s="33"/>
       <c r="B245" s="27"/>
       <c r="D245" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="32"/>
+      <c r="A246" s="33"/>
       <c r="B246" s="22"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="32"/>
+      <c r="A247" s="33"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -6773,74 +6801,157 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="32"/>
+      <c r="A248" s="33"/>
       <c r="B248" s="20"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
+      <c r="C248" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D248" s="15" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="32"/>
+      <c r="A249" s="33"/>
       <c r="B249" s="20"/>
-      <c r="C249" s="15" t="s">
+      <c r="C249" s="3"/>
+      <c r="D249" s="15" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="33"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="15" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="33"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="33"/>
+      <c r="B252" s="20"/>
+      <c r="C252" t="s">
+        <v>338</v>
+      </c>
+      <c r="D252" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="33">
+        <v>43420</v>
+      </c>
+      <c r="B254" s="27"/>
+      <c r="C254" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D254" s="15" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="33"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="33"/>
+      <c r="B256" s="27"/>
+      <c r="D256" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="33"/>
+      <c r="B257" s="22"/>
+      <c r="C257" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D257" s="15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="33"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="15"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="33"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="33"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="D249" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="32"/>
-      <c r="B250" s="20"/>
-      <c r="C250" s="15"/>
-      <c r="D250" s="15" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="33"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="15" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="32"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="15"/>
-      <c r="D251" s="15" t="s">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="33"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="32"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="15"/>
-      <c r="D252" s="15"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="32"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="15"/>
-      <c r="D253" s="15" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="33"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="15"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="33"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="32"/>
-      <c r="B254" s="20"/>
-      <c r="C254" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="33"/>
+      <c r="B265" s="20"/>
+      <c r="C265" t="s">
         <v>338</v>
       </c>
-      <c r="D254" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="32"/>
-      <c r="B255" s="20"/>
-      <c r="D255" s="15"/>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="33"/>
+      <c r="B266" s="20"/>
+      <c r="D266" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A244:A255"/>
+  <mergeCells count="22">
+    <mergeCell ref="A254:A266"/>
+    <mergeCell ref="A244:A252"/>
     <mergeCell ref="B27:B34"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A24"/>
@@ -6856,6 +6967,11 @@
     <mergeCell ref="A57:A70"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A231:A242"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6868,8 +6984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7123,7 +7239,7 @@
         <v>43419</v>
       </c>
       <c r="B18" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="C18" s="25">
         <v>36.75</v>
@@ -7135,6 +7251,15 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>43420</v>
+      </c>
+      <c r="B19" t="s">
+        <v>585</v>
+      </c>
+      <c r="C19" s="25">
+        <v>36.67</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE001364-C610-4631-8C6D-81C867512D0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD120FEC-92F0-4E49-9BBA-65EB6C5EE8E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -2762,10 +2762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>午餐：蒜蓉粉丝扇贝+炒盒菜+豆豉鳞鱼炒菠菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃维C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2783,6 +2779,10 @@
   </si>
   <si>
     <t>6.35-6.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：蒜蓉粉丝扇贝+炒盒菜+豆豉鳞鱼炒菠菜+银耳汤+鸡米花+虎皮尖椒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3007,22 +3007,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4520,8 +4520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I266"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D259" sqref="D259"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4673,7 +4673,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
-      <c r="B16" s="37"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
-      <c r="B17" s="37"/>
+      <c r="B17" s="36"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="33" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4786,7 +4786,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
+      <c r="B28" s="33"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
+      <c r="B29" s="33"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
+      <c r="B33" s="33"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
+      <c r="B34" s="33"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -5212,7 +5212,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="32">
+      <c r="A72" s="37">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -5225,7 +5225,7 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="32"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
         <v>478</v>
@@ -5236,7 +5236,7 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5246,7 +5246,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5254,7 +5254,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>483</v>
@@ -5264,7 +5264,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="32"/>
+      <c r="A77" s="37"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>462</v>
@@ -5274,7 +5274,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="32"/>
+      <c r="A78" s="37"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>464</v>
@@ -5284,7 +5284,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="32"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>466</v>
@@ -5294,7 +5294,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>468</v>
@@ -5304,7 +5304,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>470</v>
@@ -5314,7 +5314,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>487</v>
@@ -5324,7 +5324,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>488</v>
@@ -5335,7 +5335,7 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>489</v>
@@ -5346,7 +5346,7 @@
       <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="32">
+      <c r="A86" s="37">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
@@ -5360,7 +5360,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
+      <c r="A87" s="37"/>
       <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5368,7 +5368,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="32"/>
+      <c r="A88" s="37"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
         <v>491</v>
@@ -5378,14 +5378,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="32"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="32"/>
+      <c r="A90" s="37"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -5393,7 +5393,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="32"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>500</v>
@@ -5403,7 +5403,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="32"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>473</v>
@@ -5413,7 +5413,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="32"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>474</v>
@@ -5423,7 +5423,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="32"/>
+      <c r="A94" s="37"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>475</v>
@@ -5433,7 +5433,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="32"/>
+      <c r="A95" s="37"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>476</v>
@@ -5443,11 +5443,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="32"/>
+      <c r="A96" s="37"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="32"/>
+      <c r="A97" s="37"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5457,7 +5457,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
+      <c r="A98" s="37"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>505</v>
@@ -5467,7 +5467,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="32"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>504</v>
@@ -5477,7 +5477,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="32"/>
+      <c r="A100" s="37"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -5487,7 +5487,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="32"/>
+      <c r="A101" s="37"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>507</v>
@@ -5497,7 +5497,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="32"/>
+      <c r="A102" s="37"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>508</v>
@@ -6282,7 +6282,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="32">
+      <c r="A187" s="37">
         <v>43414</v>
       </c>
       <c r="B187" s="27"/>
@@ -6294,7 +6294,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="32"/>
+      <c r="A188" s="37"/>
       <c r="B188" s="22"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -6302,7 +6302,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="32"/>
+      <c r="A189" s="37"/>
       <c r="B189" s="22"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -6310,7 +6310,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="32"/>
+      <c r="A190" s="37"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -6318,7 +6318,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="32"/>
+      <c r="A191" s="37"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -6326,7 +6326,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="32"/>
+      <c r="A192" s="37"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -6334,7 +6334,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="32"/>
+      <c r="A193" s="37"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -6342,7 +6342,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="32"/>
+      <c r="A194" s="37"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -6350,7 +6350,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="32"/>
+      <c r="A195" s="37"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>443</v>
@@ -6360,7 +6360,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="32"/>
+      <c r="A196" s="37"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>338</v>
@@ -6370,7 +6370,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="32">
+      <c r="A198" s="37">
         <v>43415</v>
       </c>
       <c r="B198" s="27"/>
@@ -6382,7 +6382,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="32"/>
+      <c r="A199" s="37"/>
       <c r="B199" s="27"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -6390,7 +6390,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="32"/>
+      <c r="A200" s="37"/>
       <c r="B200" s="22"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -6400,7 +6400,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="32"/>
+      <c r="A201" s="37"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>460</v>
@@ -6410,7 +6410,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="32"/>
+      <c r="A202" s="37"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>494</v>
@@ -6420,7 +6420,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="32"/>
+      <c r="A203" s="37"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -6430,7 +6430,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="32"/>
+      <c r="A204" s="37"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>496</v>
@@ -6440,7 +6440,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="32"/>
+      <c r="A205" s="37"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>552</v>
@@ -6450,7 +6450,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="32"/>
+      <c r="A206" s="37"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>549</v>
@@ -6460,7 +6460,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="32"/>
+      <c r="A207" s="37"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>550</v>
@@ -6470,7 +6470,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="33">
+      <c r="A209" s="32">
         <v>43416</v>
       </c>
       <c r="B209" s="27"/>
@@ -6482,7 +6482,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="33"/>
+      <c r="A210" s="32"/>
       <c r="B210" s="22"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -6492,7 +6492,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="33"/>
+      <c r="A211" s="32"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -6500,7 +6500,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="33"/>
+      <c r="A212" s="32"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>494</v>
@@ -6510,7 +6510,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="33"/>
+      <c r="A213" s="32"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -6518,7 +6518,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="33"/>
+      <c r="A214" s="32"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -6526,7 +6526,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="33"/>
+      <c r="A215" s="32"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -6534,7 +6534,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="33"/>
+      <c r="A216" s="32"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>356</v>
@@ -6544,7 +6544,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="33"/>
+      <c r="A217" s="32"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>443</v>
@@ -6554,14 +6554,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="33"/>
+      <c r="A218" s="32"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="33">
+      <c r="A220" s="32">
         <v>43417</v>
       </c>
       <c r="B220" s="27"/>
@@ -6573,7 +6573,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="33"/>
+      <c r="A221" s="32"/>
       <c r="B221" s="27"/>
       <c r="C221" s="15" t="s">
         <v>563</v>
@@ -6583,14 +6583,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="33"/>
+      <c r="A222" s="32"/>
       <c r="B222" s="27"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="33"/>
+      <c r="A223" s="32"/>
       <c r="B223" s="22"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -6600,7 +6600,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="33"/>
+      <c r="A224" s="32"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>460</v>
@@ -6610,7 +6610,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="33"/>
+      <c r="A225" s="32"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>494</v>
@@ -6620,7 +6620,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="33"/>
+      <c r="A226" s="32"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>431</v>
@@ -6630,7 +6630,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="33"/>
+      <c r="A227" s="32"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>496</v>
@@ -6640,7 +6640,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="33"/>
+      <c r="A228" s="32"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>356</v>
@@ -6650,7 +6650,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="33"/>
+      <c r="A229" s="32"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>338</v>
@@ -6660,7 +6660,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="33">
+      <c r="A231" s="32">
         <v>43418</v>
       </c>
       <c r="B231" s="27"/>
@@ -6672,14 +6672,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="33"/>
+      <c r="A232" s="32"/>
       <c r="B232" s="27"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="33"/>
+      <c r="A233" s="32"/>
       <c r="B233" s="22"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -6689,7 +6689,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="33"/>
+      <c r="A234" s="32"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -6697,7 +6697,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="33"/>
+      <c r="A235" s="32"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -6705,7 +6705,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="33"/>
+      <c r="A236" s="32"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>494</v>
@@ -6715,7 +6715,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="33"/>
+      <c r="A237" s="32"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -6723,7 +6723,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="33"/>
+      <c r="A238" s="32"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -6731,7 +6731,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="33"/>
+      <c r="A239" s="32"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -6739,7 +6739,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="33"/>
+      <c r="A240" s="32"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -6747,7 +6747,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="33"/>
+      <c r="A241" s="32"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>338</v>
@@ -6757,14 +6757,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="33"/>
+      <c r="A242" s="32"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="33">
+      <c r="A244" s="32">
         <v>43419</v>
       </c>
       <c r="B244" s="27"/>
@@ -6776,14 +6776,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="33"/>
+      <c r="A245" s="32"/>
       <c r="B245" s="27"/>
       <c r="D245" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="33"/>
+      <c r="A246" s="32"/>
       <c r="B246" s="22"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -6793,7 +6793,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="33"/>
+      <c r="A247" s="32"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -6801,7 +6801,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="33"/>
+      <c r="A248" s="32"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>494</v>
@@ -6811,23 +6811,23 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="33"/>
+      <c r="A249" s="32"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="33"/>
+      <c r="A250" s="32"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="33"/>
+      <c r="A251" s="32"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -6835,7 +6835,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="33"/>
+      <c r="A252" s="32"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>338</v>
@@ -6845,7 +6845,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="33">
+      <c r="A254" s="32">
         <v>43420</v>
       </c>
       <c r="B254" s="27"/>
@@ -6853,48 +6853,48 @@
         <v>490</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="33"/>
+      <c r="A255" s="32"/>
       <c r="B255" s="27"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="33"/>
+      <c r="A256" s="32"/>
       <c r="B256" s="27"/>
       <c r="D256" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="33"/>
+      <c r="A257" s="32"/>
       <c r="B257" s="22"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="33"/>
+      <c r="A258" s="32"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="33"/>
+      <c r="A259" s="32"/>
       <c r="B259" s="20"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="33"/>
+      <c r="A260" s="32"/>
       <c r="B260" s="20"/>
       <c r="C260" s="15" t="s">
         <v>494</v>
@@ -6904,7 +6904,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="33"/>
+      <c r="A261" s="32"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -6912,7 +6912,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="33"/>
+      <c r="A262" s="32"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -6920,13 +6920,13 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="33"/>
+      <c r="A263" s="32"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="33"/>
+      <c r="A264" s="32"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -6934,7 +6934,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="33"/>
+      <c r="A265" s="32"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>338</v>
@@ -6944,12 +6944,18 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="33"/>
+      <c r="A266" s="32"/>
       <c r="B266" s="20"/>
       <c r="D266" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A173:A185"/>
     <mergeCell ref="A254:A266"/>
     <mergeCell ref="A244:A252"/>
     <mergeCell ref="B27:B34"/>
@@ -6966,12 +6972,6 @@
     <mergeCell ref="A104:A118"/>
     <mergeCell ref="A57:A70"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A231:A242"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6984,7 +6984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -7239,7 +7239,7 @@
         <v>43419</v>
       </c>
       <c r="B18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C18" s="25">
         <v>36.75</v>
@@ -7253,7 +7253,7 @@
         <v>43420</v>
       </c>
       <c r="B19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C19" s="25">
         <v>36.67</v>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD120FEC-92F0-4E49-9BBA-65EB6C5EE8E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="525" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="440" windowWidth="25840" windowHeight="17480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -21,23 +25,23 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,12 +124,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="613">
   <si>
     <t>病毒四项</t>
   </si>
@@ -2785,11 +2789,356 @@
     <t>午餐：蒜蓉粉丝扇贝+炒盒菜+豆豉鳞鱼炒菠菜+银耳汤+鸡米花+虎皮尖椒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>6.35-6.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：芹菜胡萝卜炒肉+油菜鸡蛋汤+香肠</t>
+    <rPh sb="0" eb="1">
+      <t>wan can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qin cai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hu luo bo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>c</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>rou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you cai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji dan tang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiang chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便，费劲</t>
+    <rPh sb="0" eb="1">
+      <t>pai bian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fei jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃柚子</t>
+    <rPh sb="0" eb="1">
+      <t>chi you zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维C</t>
+    <rPh sb="0" eb="1">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+涂脚丫+艾灸腹部+足三里+睡觉</t>
+    <rPh sb="12" eb="13">
+      <t>zu san li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.67，量着体温差点睡着，起床上厕所后开始测</t>
+    <rPh sb="19" eb="20">
+      <t>qi chuang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shang ce suo</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：炒豆角+红烧肉+炒青菜</t>
+    <rPh sb="3" eb="4">
+      <t>chao dou jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hong shao rou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qing cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去空军总医院</t>
+    <rPh sb="0" eb="1">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kong jun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zong yi yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去航天中心医院做彩超，内膜厚度无变化</t>
+    <rPh sb="0" eb="1">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hang tian zhong xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi yuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cai ch</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei mo hou du</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wu bian hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：香肠+鸡蛋汤+炒油菜</t>
+    <rPh sb="0" eb="1">
+      <t>wan can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji dan tang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+艾灸腹部</t>
+    <rPh sb="0" eb="1">
+      <t>xue xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ai jiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂脚丫+睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失眠+做梦</t>
+    <rPh sb="0" eb="1">
+      <t>shi mian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo meng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去物美理头发</t>
+    <rPh sb="0" eb="1">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wu mei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li tou fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：包子+豆浆+油条</t>
+    <rPh sb="0" eb="1">
+      <t>zao can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou jiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：豆浆+卤鸡蛋+绿豆粥+烤馍</t>
+    <rPh sb="0" eb="1">
+      <t>zao can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dou jiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lu ji dan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lü dou zhou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kao mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 顺畅 沾粘</t>
+    <rPh sb="0" eb="1">
+      <t>pai bian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shun chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：棒骨汤+土豆炒胡萝卜</t>
+    <rPh sb="0" eb="1">
+      <t>wan can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bang gu tang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tu dou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hu luo bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：芹菜胡萝卜炒肉+鸡蛋汤</t>
+    <rPh sb="3" eb="4">
+      <t>qin cai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hu luo bo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chao r</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji dan tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY后测体温</t>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.05-7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.55-7.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：鱼+炒快菜+木耳肉丝+紫米粥</t>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuai cai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mu er rou si</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃橘子</t>
+    <rPh sb="0" eb="1">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ju zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：油泼刀削面</t>
+    <rPh sb="0" eb="1">
+      <t>wan can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -3010,19 +3359,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3310,24 +3659,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3583,7 +3932,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3598,7 +3947,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3613,7 +3962,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -3624,7 +3973,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4087,21 +4436,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4517,27 +4866,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I266"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4664,7 +5013,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4673,7 +5022,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -4683,7 +5032,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -4774,7 +5123,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="35" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4786,7 +5135,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
-      <c r="B28" s="33"/>
+      <c r="B28" s="35"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -4796,7 +5145,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="34"/>
-      <c r="B29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -4806,7 +5155,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
-      <c r="B30" s="33"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -4816,7 +5165,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
-      <c r="B31" s="33"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -4826,7 +5175,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
-      <c r="B32" s="33"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -4839,7 +5188,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
-      <c r="B33" s="33"/>
+      <c r="B33" s="35"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -4849,7 +5198,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
-      <c r="B34" s="33"/>
+      <c r="B34" s="35"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -5212,7 +5561,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="37">
+      <c r="A72" s="33">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -5225,7 +5574,7 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
         <v>478</v>
@@ -5236,7 +5585,7 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5246,7 +5595,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5254,7 +5603,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="37"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>483</v>
@@ -5264,7 +5613,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="37"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>462</v>
@@ -5274,7 +5623,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="37"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>464</v>
@@ -5284,7 +5633,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="37"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>466</v>
@@ -5294,7 +5643,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>468</v>
@@ -5304,7 +5653,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>470</v>
@@ -5314,7 +5663,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>487</v>
@@ -5324,7 +5673,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="37"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>488</v>
@@ -5335,7 +5684,7 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="37"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>489</v>
@@ -5346,7 +5695,7 @@
       <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="37">
+      <c r="A86" s="33">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
@@ -5360,7 +5709,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="37"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5368,7 +5717,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="37"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
         <v>491</v>
@@ -5378,14 +5727,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -5393,7 +5742,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>500</v>
@@ -5403,7 +5752,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>473</v>
@@ -5413,7 +5762,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>474</v>
@@ -5423,7 +5772,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>475</v>
@@ -5433,7 +5782,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="37"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>476</v>
@@ -5443,11 +5792,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="37"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="37"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5457,7 +5806,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="37"/>
+      <c r="A98" s="33"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>505</v>
@@ -5467,7 +5816,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
+      <c r="A99" s="33"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>504</v>
@@ -5477,7 +5826,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
+      <c r="A100" s="33"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -5487,7 +5836,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
+      <c r="A101" s="33"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>507</v>
@@ -5497,7 +5846,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
+      <c r="A102" s="33"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>508</v>
@@ -6282,7 +6631,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="37">
+      <c r="A187" s="33">
         <v>43414</v>
       </c>
       <c r="B187" s="27"/>
@@ -6294,7 +6643,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="37"/>
+      <c r="A188" s="33"/>
       <c r="B188" s="22"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -6302,7 +6651,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="37"/>
+      <c r="A189" s="33"/>
       <c r="B189" s="22"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -6310,7 +6659,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="37"/>
+      <c r="A190" s="33"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -6318,7 +6667,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="37"/>
+      <c r="A191" s="33"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -6326,7 +6675,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="37"/>
+      <c r="A192" s="33"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -6334,7 +6683,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="37"/>
+      <c r="A193" s="33"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -6342,7 +6691,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="37"/>
+      <c r="A194" s="33"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -6350,7 +6699,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="37"/>
+      <c r="A195" s="33"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>443</v>
@@ -6360,7 +6709,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="37"/>
+      <c r="A196" s="33"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>338</v>
@@ -6370,7 +6719,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="37">
+      <c r="A198" s="33">
         <v>43415</v>
       </c>
       <c r="B198" s="27"/>
@@ -6382,7 +6731,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="37"/>
+      <c r="A199" s="33"/>
       <c r="B199" s="27"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -6390,7 +6739,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="37"/>
+      <c r="A200" s="33"/>
       <c r="B200" s="22"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -6400,7 +6749,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="37"/>
+      <c r="A201" s="33"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>460</v>
@@ -6410,7 +6759,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="37"/>
+      <c r="A202" s="33"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>494</v>
@@ -6420,7 +6769,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="37"/>
+      <c r="A203" s="33"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -6430,7 +6779,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="37"/>
+      <c r="A204" s="33"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>496</v>
@@ -6440,7 +6789,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="37"/>
+      <c r="A205" s="33"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>552</v>
@@ -6450,7 +6799,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="37"/>
+      <c r="A206" s="33"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>549</v>
@@ -6460,7 +6809,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="37"/>
+      <c r="A207" s="33"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>550</v>
@@ -6885,22 +7234,25 @@
       <c r="A258" s="32"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
-      <c r="D258" s="15"/>
+      <c r="D258" s="15" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="32"/>
       <c r="B259" s="20"/>
-      <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
+      <c r="C259" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D259" s="15" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="32"/>
       <c r="B260" s="20"/>
-      <c r="C260" s="15" t="s">
-        <v>494</v>
-      </c>
       <c r="D260" s="15" t="s">
-        <v>291</v>
+        <v>589</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -6908,7 +7260,7 @@
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
-        <v>573</v>
+        <v>336</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -6916,14 +7268,16 @@
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
-        <v>336</v>
+        <v>587</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="32"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
-      <c r="D263" s="15"/>
+      <c r="D263" s="15" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="32"/>
@@ -6940,23 +7294,302 @@
         <v>338</v>
       </c>
       <c r="D265" s="15" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="33">
+        <v>43421</v>
+      </c>
+      <c r="B267" s="27"/>
+      <c r="C267" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D267" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="33"/>
+      <c r="B268" s="27"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="15" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="33"/>
+      <c r="B269" s="22"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="33"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="15" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="33"/>
+      <c r="B271" s="20"/>
+      <c r="D271" s="15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="33"/>
+      <c r="B272" s="20"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="33"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="33"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="15" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="33"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="33"/>
+      <c r="B276" s="20"/>
+      <c r="C276" t="s">
+        <v>338</v>
+      </c>
+      <c r="D276" s="15" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="33"/>
+      <c r="B277" s="20"/>
+      <c r="D277" s="15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="33">
+        <v>43422</v>
+      </c>
+      <c r="B279" s="27"/>
+      <c r="C279" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D279" s="15" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="33"/>
+      <c r="B280" s="27"/>
+      <c r="D280" s="15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="33"/>
+      <c r="B281" s="27"/>
+      <c r="D281" s="15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="33"/>
+      <c r="B282" s="27"/>
+      <c r="D282" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="33"/>
+      <c r="B283" s="22"/>
+      <c r="C283" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D283" s="15" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="33"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="15" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="33"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="33"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="15" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="33"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="33"/>
+      <c r="B288" s="20"/>
+      <c r="C288" t="s">
+        <v>338</v>
+      </c>
+      <c r="D288" s="15" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="32"/>
-      <c r="B266" s="20"/>
-      <c r="D266" s="15"/>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="32">
+        <v>43423</v>
+      </c>
+      <c r="B290" s="27"/>
+      <c r="C290" t="s">
+        <v>609</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="32"/>
+      <c r="B291" s="27"/>
+      <c r="C291" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="D291" s="15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="32"/>
+      <c r="B292" s="27"/>
+      <c r="D292" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="32"/>
+      <c r="B293" s="22"/>
+      <c r="C293" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D293" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="32"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="15" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="32"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D295" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="32"/>
+      <c r="B296" s="20"/>
+      <c r="D296" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="32"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="32"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="15" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="32"/>
+      <c r="B299" s="20"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="32"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="3"/>
+      <c r="D300" s="15"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="32"/>
+      <c r="B301" s="20"/>
+      <c r="C301" s="3"/>
+      <c r="D301" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="32"/>
+      <c r="B302" s="20"/>
+      <c r="C302" t="s">
+        <v>338</v>
+      </c>
+      <c r="D302" s="15" t="s">
+        <v>591</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
+  <mergeCells count="25">
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A267:A277"/>
+    <mergeCell ref="A279:A288"/>
+    <mergeCell ref="A290:A302"/>
     <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A254:A266"/>
+    <mergeCell ref="A254:A265"/>
     <mergeCell ref="A244:A252"/>
     <mergeCell ref="B27:B34"/>
     <mergeCell ref="A2:A11"/>
@@ -6971,7 +7604,11 @@
     <mergeCell ref="A156:A171"/>
     <mergeCell ref="A104:A118"/>
     <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6981,19 +7618,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -7266,15 +7903,42 @@
       <c r="A20" s="13">
         <v>43421</v>
       </c>
+      <c r="B20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C20" s="25">
+        <v>36.65</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>43422</v>
       </c>
+      <c r="B21" t="s">
+        <v>490</v>
+      </c>
+      <c r="C21" s="25">
+        <v>36.67</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>43423</v>
+      </c>
+      <c r="B22" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22" s="25">
+        <v>36.79</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7352,19 +8016,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -7414,7 +8078,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
@@ -7425,7 +8089,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -7433,7 +8097,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
     </row>
   </sheetData>
@@ -7444,20 +8108,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>205</v>
       </c>
@@ -7465,7 +8129,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>206</v>
       </c>
@@ -7473,7 +8137,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>207</v>
       </c>
@@ -7481,7 +8145,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>208</v>
       </c>
@@ -7489,11 +8153,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -7501,18 +8165,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -7520,7 +8184,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>
@@ -7538,20 +8202,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.625" customWidth="1"/>
+    <col min="4" max="4" width="113.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -7568,7 +8232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>52</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD020F4E-A859-427F-8245-FA9D6066394B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="440" windowWidth="25840" windowHeight="17480" activeTab="2"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -25,23 +21,23 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -124,12 +120,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="639">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3096,25 +3092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>午餐：鱼+炒快菜+木耳肉丝+紫米粥</t>
-    <rPh sb="3" eb="4">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>kuai cai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mu er rou si</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zi mi zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃橘子</t>
     <rPh sb="0" eb="1">
       <t>chi</t>
@@ -3132,13 +3109,196 @@
     <rPh sb="3" eb="4">
       <t>you po dao xiao</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+涂脚丫+艾灸腹部+吃维E+睡觉</t>
+    <rPh sb="12" eb="13">
+      <t>zu san li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 顺畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.55-8.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：黑芝麻核桃糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝红糖薄荷水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：鱼+炒快菜+木耳肉丝+紫米粥+地三鲜</t>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuai cai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mu er rou si</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：龙眼丸子+沙茶鸡丁+香干芹菜+炒包心白菜</t>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuai cai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mu er rou si</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.40-6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：辣鸡刀削面</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+涂脚丫+艾灸腹部+睡觉</t>
+    <rPh sb="12" eb="13">
+      <t>zu san li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏头疼，困顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去空总就医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：驴肉火烧+驴肉汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：涮羊肉+小炒肉+番茄菜花+小白菜+烤红薯+番茄蛋花汤</t>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuai cai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mu er rou si</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去空总就医，抽血+B超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.05-7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：芹菜土豆炒腊肉+鸡蛋汤</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.20-5.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：薄荷水泡黑芝麻核桃糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：虾球+小鸡炖蘑菇+番茄炒鸡蛋+醋溜白菜</t>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuai cai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mu er rou si</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 费劲 时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -3299,7 +3459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3359,10 +3519,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3659,24 +3822,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3932,7 +4095,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3947,7 +4110,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3962,7 +4125,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -3973,7 +4136,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4436,21 +4599,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4866,27 +5029,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="G295" sqref="G295"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -5013,7 +5176,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -5022,7 +5185,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
-      <c r="B16" s="37"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -5032,7 +5195,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
-      <c r="B17" s="37"/>
+      <c r="B17" s="38"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -5123,7 +5286,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -5135,7 +5298,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
+      <c r="B28" s="36"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -5145,7 +5308,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
+      <c r="B29" s="36"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -5155,7 +5318,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -5165,7 +5328,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -5175,7 +5338,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -5188,7 +5351,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
+      <c r="B33" s="36"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -5198,7 +5361,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
+      <c r="B34" s="36"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -5419,7 +5582,7 @@
       <c r="A57" s="34">
         <v>43406</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="39" t="s">
         <v>417</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -5432,7 +5595,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="34"/>
-      <c r="B58" s="38"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="15" t="s">
         <v>345</v>
       </c>
@@ -5561,7 +5724,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="33">
+      <c r="A72" s="35">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -5574,7 +5737,7 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="33"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
         <v>478</v>
@@ -5585,7 +5748,7 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="33"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5595,7 +5758,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5603,7 +5766,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>483</v>
@@ -5613,7 +5776,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>462</v>
@@ -5623,7 +5786,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>464</v>
@@ -5633,7 +5796,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>466</v>
@@ -5643,7 +5806,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>468</v>
@@ -5653,7 +5816,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>470</v>
@@ -5663,7 +5826,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="33"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>487</v>
@@ -5673,7 +5836,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>488</v>
@@ -5684,7 +5847,7 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>489</v>
@@ -5695,7 +5858,7 @@
       <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="33">
+      <c r="A86" s="35">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
@@ -5709,7 +5872,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="33"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5717,7 +5880,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="33"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
         <v>491</v>
@@ -5727,14 +5890,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -5742,7 +5905,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>500</v>
@@ -5752,7 +5915,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="33"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>473</v>
@@ -5762,7 +5925,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="33"/>
+      <c r="A93" s="35"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>474</v>
@@ -5772,7 +5935,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="33"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>475</v>
@@ -5782,7 +5945,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="33"/>
+      <c r="A95" s="35"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>476</v>
@@ -5792,11 +5955,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="33"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="33"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5806,7 +5969,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="33"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>505</v>
@@ -5816,7 +5979,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="33"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>504</v>
@@ -5826,7 +5989,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="33"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -5836,7 +5999,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="33"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>507</v>
@@ -5846,7 +6009,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="33"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>508</v>
@@ -6631,7 +6794,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="33">
+      <c r="A187" s="35">
         <v>43414</v>
       </c>
       <c r="B187" s="27"/>
@@ -6643,7 +6806,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="33"/>
+      <c r="A188" s="35"/>
       <c r="B188" s="22"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -6651,7 +6814,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="33"/>
+      <c r="A189" s="35"/>
       <c r="B189" s="22"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -6659,7 +6822,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="33"/>
+      <c r="A190" s="35"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -6667,7 +6830,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="33"/>
+      <c r="A191" s="35"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -6675,7 +6838,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="33"/>
+      <c r="A192" s="35"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -6683,7 +6846,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="33"/>
+      <c r="A193" s="35"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -6691,7 +6854,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="33"/>
+      <c r="A194" s="35"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -6699,7 +6862,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="33"/>
+      <c r="A195" s="35"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>443</v>
@@ -6709,7 +6872,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="33"/>
+      <c r="A196" s="35"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>338</v>
@@ -6719,7 +6882,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="33">
+      <c r="A198" s="35">
         <v>43415</v>
       </c>
       <c r="B198" s="27"/>
@@ -6731,7 +6894,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="33"/>
+      <c r="A199" s="35"/>
       <c r="B199" s="27"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -6739,7 +6902,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="33"/>
+      <c r="A200" s="35"/>
       <c r="B200" s="22"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -6749,7 +6912,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="33"/>
+      <c r="A201" s="35"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>460</v>
@@ -6759,7 +6922,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="33"/>
+      <c r="A202" s="35"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>494</v>
@@ -6769,7 +6932,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="33"/>
+      <c r="A203" s="35"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -6779,7 +6942,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="33"/>
+      <c r="A204" s="35"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>496</v>
@@ -6789,7 +6952,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="33"/>
+      <c r="A205" s="35"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>552</v>
@@ -6799,7 +6962,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="33"/>
+      <c r="A206" s="35"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>549</v>
@@ -6809,7 +6972,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="33"/>
+      <c r="A207" s="35"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>550</v>
@@ -7298,7 +7461,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="33">
+      <c r="A267" s="35">
         <v>43421</v>
       </c>
       <c r="B267" s="27"/>
@@ -7310,7 +7473,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="33"/>
+      <c r="A268" s="35"/>
       <c r="B268" s="27"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -7318,7 +7481,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="33"/>
+      <c r="A269" s="35"/>
       <c r="B269" s="22"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -7326,7 +7489,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="33"/>
+      <c r="A270" s="35"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -7334,14 +7497,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="33"/>
+      <c r="A271" s="35"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="33"/>
+      <c r="A272" s="35"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -7349,7 +7512,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="33"/>
+      <c r="A273" s="35"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -7357,7 +7520,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="33"/>
+      <c r="A274" s="35"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -7365,7 +7528,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="33"/>
+      <c r="A275" s="35"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -7373,7 +7536,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="33"/>
+      <c r="A276" s="35"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>338</v>
@@ -7383,14 +7546,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="33"/>
+      <c r="A277" s="35"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="33">
+      <c r="A279" s="35">
         <v>43422</v>
       </c>
       <c r="B279" s="27"/>
@@ -7402,28 +7565,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="33"/>
+      <c r="A280" s="35"/>
       <c r="B280" s="27"/>
       <c r="D280" s="15" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="33"/>
+      <c r="A281" s="35"/>
       <c r="B281" s="27"/>
       <c r="D281" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="33"/>
+      <c r="A282" s="35"/>
       <c r="B282" s="27"/>
       <c r="D282" s="15" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="33"/>
+      <c r="A283" s="35"/>
       <c r="B283" s="22"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -7433,7 +7596,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="33"/>
+      <c r="A284" s="35"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -7441,7 +7604,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="33"/>
+      <c r="A285" s="35"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -7449,7 +7612,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="33"/>
+      <c r="A286" s="35"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -7457,7 +7620,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="33"/>
+      <c r="A287" s="35"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -7465,7 +7628,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="33"/>
+      <c r="A288" s="35"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>338</v>
@@ -7510,7 +7673,7 @@
         <v>266</v>
       </c>
       <c r="D293" s="15" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -7518,7 +7681,7 @@
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -7535,7 +7698,7 @@
       <c r="A296" s="32"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -7557,58 +7720,384 @@
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="32"/>
       <c r="B299" s="20"/>
+      <c r="D299" s="15" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="32"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
-      <c r="D300" s="15"/>
+      <c r="D300" s="15" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="32"/>
       <c r="B301" s="20"/>
-      <c r="C301" s="3"/>
+      <c r="C301" t="s">
+        <v>338</v>
+      </c>
       <c r="D301" s="15" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="32">
+        <v>43424</v>
+      </c>
+      <c r="B303" s="27"/>
+      <c r="C303" t="s">
+        <v>490</v>
+      </c>
+      <c r="D303" s="15" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="32"/>
+      <c r="B304" s="27"/>
+      <c r="C304" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="D304" s="15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="32"/>
+      <c r="B305" s="27"/>
+      <c r="C305" s="15"/>
+      <c r="D305" s="15" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="32"/>
+      <c r="B306" s="27"/>
+      <c r="D306" s="15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="32"/>
+      <c r="B307" s="22"/>
+      <c r="C307" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D307" s="15" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="32"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="32"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D309" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="32"/>
+      <c r="B310" s="20"/>
+      <c r="D310" s="15" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="32"/>
+      <c r="B311" s="20"/>
+      <c r="D311" s="15"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="32"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="32"/>
+      <c r="B313" s="20"/>
+      <c r="D313" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="32"/>
+      <c r="B314" s="20"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="32"/>
+      <c r="B315" s="20"/>
+      <c r="C315" t="s">
+        <v>338</v>
+      </c>
+      <c r="D315" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="32">
+        <v>43425</v>
+      </c>
+      <c r="B317" s="33" t="s">
+        <v>625</v>
+      </c>
+      <c r="C317" t="s">
+        <v>275</v>
+      </c>
+      <c r="D317" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="32"/>
+      <c r="B318" s="33"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="15" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="32"/>
+      <c r="B319" s="33"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="15" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="32"/>
+      <c r="B320" s="33"/>
+      <c r="C320" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D320" s="15" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="32"/>
+      <c r="B321" s="33"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="32"/>
+      <c r="B322" s="33"/>
+      <c r="D322" s="15" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="32"/>
+      <c r="B323" s="33"/>
+      <c r="C323" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="D323" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="32"/>
+      <c r="B324" s="33"/>
+      <c r="D324" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="32"/>
+      <c r="B325" s="33"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="32"/>
+      <c r="B326" s="33"/>
+      <c r="D326" s="15" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="32"/>
+      <c r="B327" s="33"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="32"/>
-      <c r="B302" s="20"/>
-      <c r="C302" t="s">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="32"/>
+      <c r="B328" s="33"/>
+      <c r="C328" t="s">
         <v>338</v>
       </c>
-      <c r="D302" s="15" t="s">
-        <v>591</v>
+      <c r="D328" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="32">
+        <v>43426</v>
+      </c>
+      <c r="B330" s="27"/>
+      <c r="C330" t="s">
+        <v>250</v>
+      </c>
+      <c r="D330" s="15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="32"/>
+      <c r="B331" s="27"/>
+      <c r="C331" s="3"/>
+      <c r="D331" s="15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="32"/>
+      <c r="B332" s="27"/>
+      <c r="C332" s="3"/>
+      <c r="D332" s="15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="32"/>
+      <c r="B333" s="27"/>
+      <c r="C333" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D333" s="15" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="32"/>
+      <c r="B334" s="27"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="32"/>
+      <c r="B335" s="27"/>
+      <c r="D335" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="32"/>
+      <c r="B336" s="27"/>
+      <c r="D336" s="15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="32"/>
+      <c r="B337" s="27"/>
+      <c r="C337" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D337" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="32"/>
+      <c r="B338" s="20"/>
+      <c r="D338" s="15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="32"/>
+      <c r="B339" s="20"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="32"/>
+      <c r="B340" s="20"/>
+      <c r="D340" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="32"/>
+      <c r="B341" s="20"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="32"/>
+      <c r="B342" s="20"/>
+      <c r="C342" t="s">
+        <v>338</v>
+      </c>
+      <c r="D342" s="15" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A267:A277"/>
-    <mergeCell ref="A279:A288"/>
-    <mergeCell ref="A290:A302"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A254:A265"/>
+  <mergeCells count="29">
+    <mergeCell ref="A303:A315"/>
     <mergeCell ref="A244:A252"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
     <mergeCell ref="B27:B34"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="B317:B328"/>
     <mergeCell ref="A40:A55"/>
     <mergeCell ref="A138:A154"/>
     <mergeCell ref="A120:A136"/>
     <mergeCell ref="A72:A84"/>
     <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A156:A171"/>
     <mergeCell ref="A104:A118"/>
     <mergeCell ref="A57:A70"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A317:A328"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A267:A277"/>
+    <mergeCell ref="A279:A288"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A254:A265"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7618,19 +8107,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -7945,15 +8434,42 @@
       <c r="A23" s="13">
         <v>43424</v>
       </c>
+      <c r="B23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C23" s="25">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>43425</v>
       </c>
+      <c r="B24" t="s">
+        <v>622</v>
+      </c>
+      <c r="C24" s="25">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43426</v>
+      </c>
+      <c r="B25" t="s">
+        <v>630</v>
+      </c>
+      <c r="C25" s="25">
+        <v>36.82</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -8016,19 +8532,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -8078,7 +8594,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
@@ -8089,7 +8605,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -8097,7 +8613,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
     </row>
   </sheetData>
@@ -8108,20 +8624,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>205</v>
       </c>
@@ -8129,7 +8645,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>206</v>
       </c>
@@ -8137,7 +8653,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>207</v>
       </c>
@@ -8145,7 +8661,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>208</v>
       </c>
@@ -8153,11 +8669,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -8165,18 +8681,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -8184,7 +8700,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>
@@ -8202,20 +8718,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.6640625" customWidth="1"/>
+    <col min="4" max="4" width="113.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -8232,8 +8748,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -8247,7 +8763,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="440" windowWidth="25840" windowHeight="17480" activeTab="2"/>
+    <workbookView xWindow="1480" yWindow="440" windowWidth="25840" windowHeight="17480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
     <sheet name="作息" sheetId="8" r:id="rId2"/>
     <sheet name="日记" sheetId="6" r:id="rId3"/>
-    <sheet name="体温" sheetId="7" r:id="rId4"/>
-    <sheet name="月经" sheetId="4" r:id="rId5"/>
-    <sheet name="血型" sheetId="5" r:id="rId6"/>
-    <sheet name="黄帝内经" sheetId="3" r:id="rId7"/>
+    <sheet name="工作表1" sheetId="9" r:id="rId4"/>
+    <sheet name="体温" sheetId="7" r:id="rId5"/>
+    <sheet name="月经" sheetId="4" r:id="rId6"/>
+    <sheet name="血型" sheetId="5" r:id="rId7"/>
+    <sheet name="黄帝内经" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">体温!$C$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">体温!$C$1:$C$34</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -160,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="630">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3132,6 +3133,89 @@
     <rPh sb="3" eb="4">
       <t>you po dao xiao</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睾酮</t>
+  </si>
+  <si>
+    <t>雌二醇</t>
+  </si>
+  <si>
+    <t>孕酮</t>
+  </si>
+  <si>
+    <t>泌乳素</t>
+  </si>
+  <si>
+    <t>卵泡刺激素</t>
+  </si>
+  <si>
+    <t>促黄体生成素</t>
+  </si>
+  <si>
+    <t>空总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天</t>
+    <rPh sb="0" eb="1">
+      <t>hang t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <rPh sb="0" eb="1">
+      <t>yi yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值（女）</t>
+    <rPh sb="0" eb="1">
+      <t>can kao zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-76
+10-75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.4-398
+27-433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8-29.2
+3.34-26.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5-33.4
+1.8-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5-76.3
+1.2-103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15-28.03
+0.3-19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4869,7 +4953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+    <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
@@ -7619,6 +7703,195 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F3" t="s">
+        <v>615</v>
+      </c>
+      <c r="G3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H3" t="s">
+        <v>617</v>
+      </c>
+      <c r="I3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>20181013</v>
+      </c>
+      <c r="C5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D5">
+        <v>102.7</v>
+      </c>
+      <c r="E5">
+        <v>86</v>
+      </c>
+      <c r="F5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H5">
+        <v>8.08</v>
+      </c>
+      <c r="I5">
+        <v>27.46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>20181121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D6">
+        <v>52.91</v>
+      </c>
+      <c r="E6">
+        <v>56.97</v>
+      </c>
+      <c r="F6">
+        <v>0.24</v>
+      </c>
+      <c r="G6">
+        <v>13.93</v>
+      </c>
+      <c r="H6">
+        <v>6.77</v>
+      </c>
+      <c r="I6">
+        <v>28.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8015,7 +8288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -8107,7 +8380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -8201,7 +8474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D33"/>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD020F4E-A859-427F-8245-FA9D6066394B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8D637A1C-EA63-47C2-B582-6E78115CC4B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">体温!$C$1:$C$34</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="675">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3292,6 +3293,214 @@
   </si>
   <si>
     <t>排便 费劲 时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：芹菜腊肉蛋炒饭</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃坚果+山楂+维C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30-5.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：小米粥+鸡蛋+沙拉卷+蛋挞+豆浆+小咸菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.10-8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃地屈孕酮片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝铁观音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：烤鸭腿+肉焖扁豆+青椒土豆片+清炒油麦菜+黄瓜蛋花汤</t>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuai cai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mu er rou si</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-6.47</t>
+  </si>
+  <si>
+    <t>7.05-7.18</t>
+  </si>
+  <si>
+    <t>6.35-6.48</t>
+  </si>
+  <si>
+    <t>7.05-7.19</t>
+  </si>
+  <si>
+    <t>测着体温差点睡着，侧身流口水</t>
+    <rPh sb="0" eb="8">
+      <t>cezheti wencha dianshui zhao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui zhao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>rong yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhang kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.20-8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：卤肉饭</t>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：烤鸭+豆浆</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃柚子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：南瓜粥+肉饼+豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维C</t>
+  </si>
+  <si>
+    <t>吃坚果+山楂+柚子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 量足 小腹隐隐微微痛感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：海带烧排骨+豆腐油麦菜汤</t>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuai cai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mu er rou si</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：芸豆炖棒骨汤+洋葱炒油麦菜</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：煎饼+大米粥+霉豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+艾灸腹部</t>
+    <rPh sb="0" eb="7">
+      <t>zu san li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.30-12.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃柚子+学习+艾灸腹部</t>
+    <rPh sb="0" eb="11">
+      <t>zu san li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打羽毛球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：红烧带鱼+焦溜丸子+菠菜蛋花汤+炒芥兰+豆芽炒粉条</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：茄子炒肉</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3516,16 +3725,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3535,6 +3741,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5030,10 +5239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="D340" sqref="D340"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5176,7 +5385,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -5185,7 +5394,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
-      <c r="B16" s="38"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -5195,7 +5404,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
-      <c r="B17" s="38"/>
+      <c r="B17" s="37"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -5286,7 +5495,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -5298,7 +5507,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
-      <c r="B28" s="36"/>
+      <c r="B28" s="35"/>
       <c r="C28" t="s">
         <v>360</v>
       </c>
@@ -5308,7 +5517,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="34"/>
-      <c r="B29" s="36"/>
+      <c r="B29" s="35"/>
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -5318,7 +5527,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
-      <c r="B30" s="36"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -5328,7 +5537,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
-      <c r="B31" s="36"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="15" t="s">
         <v>375</v>
       </c>
@@ -5338,7 +5547,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
-      <c r="B32" s="36"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -5351,7 +5560,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
-      <c r="B33" s="36"/>
+      <c r="B33" s="35"/>
       <c r="C33" t="s">
         <v>369</v>
       </c>
@@ -5361,7 +5570,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
-      <c r="B34" s="36"/>
+      <c r="B34" s="35"/>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -5724,7 +5933,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="35">
+      <c r="A72" s="32">
         <v>43407</v>
       </c>
       <c r="B72" s="28"/>
@@ -5737,7 +5946,7 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="35"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="28"/>
       <c r="C73" s="15" t="s">
         <v>478</v>
@@ -5748,7 +5957,7 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="35"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5758,7 +5967,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="35"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5766,7 +5975,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="35"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>483</v>
@@ -5776,7 +5985,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="35"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>462</v>
@@ -5786,7 +5995,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="35"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>464</v>
@@ -5796,7 +6005,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="35"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>466</v>
@@ -5806,7 +6015,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>468</v>
@@ -5816,7 +6025,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>470</v>
@@ -5826,7 +6035,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="35"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>487</v>
@@ -5836,7 +6045,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="35"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>488</v>
@@ -5847,7 +6056,7 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="35"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>489</v>
@@ -5858,7 +6067,7 @@
       <c r="I84" s="30"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="35">
+      <c r="A86" s="32">
         <v>43408</v>
       </c>
       <c r="B86" s="29" t="s">
@@ -5872,7 +6081,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="35"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="28"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5880,7 +6089,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="35"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
         <v>491</v>
@@ -5890,14 +6099,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="35"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="22"/>
       <c r="D89" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="35"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -5905,7 +6114,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="35"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>500</v>
@@ -5915,7 +6124,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="35"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>473</v>
@@ -5925,7 +6134,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="35"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>474</v>
@@ -5935,7 +6144,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="35"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>475</v>
@@ -5945,7 +6154,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="35"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>476</v>
@@ -5955,11 +6164,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="35"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="35"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -5969,7 +6178,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="35"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>505</v>
@@ -5979,7 +6188,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="35"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>504</v>
@@ -5989,7 +6198,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="35"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -5999,7 +6208,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="35"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>507</v>
@@ -6009,7 +6218,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="35"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>508</v>
@@ -6794,7 +7003,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="35">
+      <c r="A187" s="32">
         <v>43414</v>
       </c>
       <c r="B187" s="27"/>
@@ -6806,7 +7015,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="35"/>
+      <c r="A188" s="32"/>
       <c r="B188" s="22"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -6814,7 +7023,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="35"/>
+      <c r="A189" s="32"/>
       <c r="B189" s="22"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -6822,7 +7031,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="35"/>
+      <c r="A190" s="32"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -6830,7 +7039,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="35"/>
+      <c r="A191" s="32"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -6838,7 +7047,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="35"/>
+      <c r="A192" s="32"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -6846,7 +7055,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="35"/>
+      <c r="A193" s="32"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -6854,7 +7063,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="35"/>
+      <c r="A194" s="32"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -6862,7 +7071,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="35"/>
+      <c r="A195" s="32"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>443</v>
@@ -6872,7 +7081,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="35"/>
+      <c r="A196" s="32"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>338</v>
@@ -6882,7 +7091,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="35">
+      <c r="A198" s="32">
         <v>43415</v>
       </c>
       <c r="B198" s="27"/>
@@ -6894,7 +7103,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="35"/>
+      <c r="A199" s="32"/>
       <c r="B199" s="27"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -6902,7 +7111,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="35"/>
+      <c r="A200" s="32"/>
       <c r="B200" s="22"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -6912,7 +7121,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="35"/>
+      <c r="A201" s="32"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>460</v>
@@ -6922,7 +7131,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="35"/>
+      <c r="A202" s="32"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>494</v>
@@ -6932,7 +7141,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="35"/>
+      <c r="A203" s="32"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -6942,7 +7151,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="35"/>
+      <c r="A204" s="32"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>496</v>
@@ -6952,7 +7161,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="35"/>
+      <c r="A205" s="32"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>552</v>
@@ -6962,7 +7171,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="35"/>
+      <c r="A206" s="32"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>549</v>
@@ -6972,7 +7181,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="35"/>
+      <c r="A207" s="32"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>550</v>
@@ -6982,7 +7191,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="32">
+      <c r="A209" s="33">
         <v>43416</v>
       </c>
       <c r="B209" s="27"/>
@@ -6994,7 +7203,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="32"/>
+      <c r="A210" s="33"/>
       <c r="B210" s="22"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -7004,7 +7213,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="32"/>
+      <c r="A211" s="33"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -7012,7 +7221,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="32"/>
+      <c r="A212" s="33"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>494</v>
@@ -7022,7 +7231,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="32"/>
+      <c r="A213" s="33"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -7030,7 +7239,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="32"/>
+      <c r="A214" s="33"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -7038,7 +7247,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="32"/>
+      <c r="A215" s="33"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -7046,7 +7255,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="32"/>
+      <c r="A216" s="33"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>356</v>
@@ -7056,7 +7265,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="32"/>
+      <c r="A217" s="33"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>443</v>
@@ -7066,14 +7275,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="32"/>
+      <c r="A218" s="33"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="32">
+      <c r="A220" s="33">
         <v>43417</v>
       </c>
       <c r="B220" s="27"/>
@@ -7085,7 +7294,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="32"/>
+      <c r="A221" s="33"/>
       <c r="B221" s="27"/>
       <c r="C221" s="15" t="s">
         <v>563</v>
@@ -7095,14 +7304,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="32"/>
+      <c r="A222" s="33"/>
       <c r="B222" s="27"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="32"/>
+      <c r="A223" s="33"/>
       <c r="B223" s="22"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -7112,7 +7321,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="32"/>
+      <c r="A224" s="33"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>460</v>
@@ -7122,7 +7331,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="32"/>
+      <c r="A225" s="33"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>494</v>
@@ -7132,7 +7341,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="32"/>
+      <c r="A226" s="33"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>431</v>
@@ -7142,7 +7351,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="32"/>
+      <c r="A227" s="33"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>496</v>
@@ -7152,7 +7361,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="32"/>
+      <c r="A228" s="33"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>356</v>
@@ -7162,7 +7371,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="32"/>
+      <c r="A229" s="33"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>338</v>
@@ -7172,7 +7381,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="32">
+      <c r="A231" s="33">
         <v>43418</v>
       </c>
       <c r="B231" s="27"/>
@@ -7184,14 +7393,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="32"/>
+      <c r="A232" s="33"/>
       <c r="B232" s="27"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="32"/>
+      <c r="A233" s="33"/>
       <c r="B233" s="22"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -7201,7 +7410,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="32"/>
+      <c r="A234" s="33"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -7209,7 +7418,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="32"/>
+      <c r="A235" s="33"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -7217,7 +7426,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="32"/>
+      <c r="A236" s="33"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>494</v>
@@ -7227,7 +7436,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="32"/>
+      <c r="A237" s="33"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -7235,7 +7444,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="32"/>
+      <c r="A238" s="33"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -7243,7 +7452,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="32"/>
+      <c r="A239" s="33"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -7251,7 +7460,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="32"/>
+      <c r="A240" s="33"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -7259,7 +7468,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="32"/>
+      <c r="A241" s="33"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>338</v>
@@ -7269,14 +7478,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="32"/>
+      <c r="A242" s="33"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="32">
+      <c r="A244" s="33">
         <v>43419</v>
       </c>
       <c r="B244" s="27"/>
@@ -7288,14 +7497,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="32"/>
+      <c r="A245" s="33"/>
       <c r="B245" s="27"/>
       <c r="D245" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="32"/>
+      <c r="A246" s="33"/>
       <c r="B246" s="22"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -7305,7 +7514,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="32"/>
+      <c r="A247" s="33"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -7313,7 +7522,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="32"/>
+      <c r="A248" s="33"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>494</v>
@@ -7323,7 +7532,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="32"/>
+      <c r="A249" s="33"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -7331,7 +7540,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="32"/>
+      <c r="A250" s="33"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -7339,7 +7548,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="32"/>
+      <c r="A251" s="33"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -7347,7 +7556,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="32"/>
+      <c r="A252" s="33"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>338</v>
@@ -7357,7 +7566,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="32">
+      <c r="A254" s="33">
         <v>43420</v>
       </c>
       <c r="B254" s="27"/>
@@ -7369,7 +7578,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="32"/>
+      <c r="A255" s="33"/>
       <c r="B255" s="27"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -7377,14 +7586,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="32"/>
+      <c r="A256" s="33"/>
       <c r="B256" s="27"/>
       <c r="D256" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="32"/>
+      <c r="A257" s="33"/>
       <c r="B257" s="22"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -7394,7 +7603,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="32"/>
+      <c r="A258" s="33"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -7402,7 +7611,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="32"/>
+      <c r="A259" s="33"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>494</v>
@@ -7412,14 +7621,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="32"/>
+      <c r="A260" s="33"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="32"/>
+      <c r="A261" s="33"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -7427,7 +7636,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="32"/>
+      <c r="A262" s="33"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -7435,7 +7644,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="32"/>
+      <c r="A263" s="33"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -7443,7 +7652,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="32"/>
+      <c r="A264" s="33"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -7451,7 +7660,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="32"/>
+      <c r="A265" s="33"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>338</v>
@@ -7461,7 +7670,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="35">
+      <c r="A267" s="32">
         <v>43421</v>
       </c>
       <c r="B267" s="27"/>
@@ -7473,7 +7682,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="35"/>
+      <c r="A268" s="32"/>
       <c r="B268" s="27"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -7481,7 +7690,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="35"/>
+      <c r="A269" s="32"/>
       <c r="B269" s="22"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -7489,7 +7698,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="35"/>
+      <c r="A270" s="32"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -7497,14 +7706,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="35"/>
+      <c r="A271" s="32"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="35"/>
+      <c r="A272" s="32"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -7512,7 +7721,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="35"/>
+      <c r="A273" s="32"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -7520,7 +7729,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="35"/>
+      <c r="A274" s="32"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -7528,7 +7737,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="35"/>
+      <c r="A275" s="32"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -7536,7 +7745,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="35"/>
+      <c r="A276" s="32"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>338</v>
@@ -7546,14 +7755,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="35"/>
+      <c r="A277" s="32"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="35">
+      <c r="A279" s="32">
         <v>43422</v>
       </c>
       <c r="B279" s="27"/>
@@ -7565,28 +7774,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="35"/>
+      <c r="A280" s="32"/>
       <c r="B280" s="27"/>
       <c r="D280" s="15" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="35"/>
+      <c r="A281" s="32"/>
       <c r="B281" s="27"/>
       <c r="D281" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="35"/>
+      <c r="A282" s="32"/>
       <c r="B282" s="27"/>
       <c r="D282" s="15" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="35"/>
+      <c r="A283" s="32"/>
       <c r="B283" s="22"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -7596,7 +7805,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="35"/>
+      <c r="A284" s="32"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -7604,7 +7813,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="35"/>
+      <c r="A285" s="32"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -7612,7 +7821,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="35"/>
+      <c r="A286" s="32"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -7620,7 +7829,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="35"/>
+      <c r="A287" s="32"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -7628,7 +7837,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="35"/>
+      <c r="A288" s="32"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>338</v>
@@ -7638,7 +7847,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="32">
+      <c r="A290" s="33">
         <v>43423</v>
       </c>
       <c r="B290" s="27"/>
@@ -7650,7 +7859,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="32"/>
+      <c r="A291" s="33"/>
       <c r="B291" s="27"/>
       <c r="C291" s="15" t="s">
         <v>607</v>
@@ -7660,14 +7869,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="32"/>
+      <c r="A292" s="33"/>
       <c r="B292" s="27"/>
       <c r="D292" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="32"/>
+      <c r="A293" s="33"/>
       <c r="B293" s="22"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -7677,7 +7886,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="32"/>
+      <c r="A294" s="33"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -7685,7 +7894,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="32"/>
+      <c r="A295" s="33"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>494</v>
@@ -7695,14 +7904,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="32"/>
+      <c r="A296" s="33"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="32"/>
+      <c r="A297" s="33"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -7710,7 +7919,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="32"/>
+      <c r="A298" s="33"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -7718,14 +7927,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="32"/>
+      <c r="A299" s="33"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="32"/>
+      <c r="A300" s="33"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -7733,7 +7942,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="32"/>
+      <c r="A301" s="33"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>338</v>
@@ -7743,7 +7952,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="32">
+      <c r="A303" s="33">
         <v>43424</v>
       </c>
       <c r="B303" s="27"/>
@@ -7755,7 +7964,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="32"/>
+      <c r="A304" s="33"/>
       <c r="B304" s="27"/>
       <c r="C304" s="15" t="s">
         <v>615</v>
@@ -7765,7 +7974,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="32"/>
+      <c r="A305" s="33"/>
       <c r="B305" s="27"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -7773,14 +7982,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="32"/>
+      <c r="A306" s="33"/>
       <c r="B306" s="27"/>
       <c r="D306" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="32"/>
+      <c r="A307" s="33"/>
       <c r="B307" s="22"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -7790,7 +7999,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="32"/>
+      <c r="A308" s="33"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -7798,7 +8007,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="32"/>
+      <c r="A309" s="33"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>494</v>
@@ -7808,19 +8017,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="32"/>
+      <c r="A310" s="33"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="32"/>
+      <c r="A311" s="33"/>
       <c r="B311" s="20"/>
-      <c r="D311" s="15"/>
+      <c r="D311" s="15" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="32"/>
+      <c r="A312" s="33"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -7828,14 +8039,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="32"/>
+      <c r="A313" s="33"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="32"/>
+      <c r="A314" s="33"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -7843,7 +8054,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="32"/>
+      <c r="A315" s="33"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>338</v>
@@ -7853,10 +8064,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="32">
+      <c r="A317" s="33">
         <v>43425</v>
       </c>
-      <c r="B317" s="33" t="s">
+      <c r="B317" s="38" t="s">
         <v>625</v>
       </c>
       <c r="C317" t="s">
@@ -7867,24 +8078,24 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="32"/>
-      <c r="B318" s="33"/>
+      <c r="A318" s="33"/>
+      <c r="B318" s="38"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="32"/>
-      <c r="B319" s="33"/>
+      <c r="A319" s="33"/>
+      <c r="B319" s="38"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="32"/>
-      <c r="B320" s="33"/>
+      <c r="A320" s="33"/>
+      <c r="B320" s="38"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -7893,23 +8104,23 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="32"/>
-      <c r="B321" s="33"/>
+      <c r="A321" s="33"/>
+      <c r="B321" s="38"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="32"/>
-      <c r="B322" s="33"/>
+      <c r="A322" s="33"/>
+      <c r="B322" s="38"/>
       <c r="D322" s="15" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="32"/>
-      <c r="B323" s="33"/>
+      <c r="A323" s="33"/>
+      <c r="B323" s="38"/>
       <c r="C323" s="15" t="s">
         <v>633</v>
       </c>
@@ -7918,38 +8129,38 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="32"/>
-      <c r="B324" s="33"/>
+      <c r="A324" s="33"/>
+      <c r="B324" s="38"/>
       <c r="D324" s="15" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="32"/>
-      <c r="B325" s="33"/>
+      <c r="A325" s="33"/>
+      <c r="B325" s="38"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="32"/>
-      <c r="B326" s="33"/>
+      <c r="A326" s="33"/>
+      <c r="B326" s="38"/>
       <c r="D326" s="15" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="32"/>
-      <c r="B327" s="33"/>
+      <c r="A327" s="33"/>
+      <c r="B327" s="38"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="32"/>
-      <c r="B328" s="33"/>
+      <c r="A328" s="33"/>
+      <c r="B328" s="38"/>
       <c r="C328" t="s">
         <v>338</v>
       </c>
@@ -7958,7 +8169,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="32">
+      <c r="A330" s="33">
         <v>43426</v>
       </c>
       <c r="B330" s="27"/>
@@ -7970,7 +8181,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="32"/>
+      <c r="A331" s="33"/>
       <c r="B331" s="27"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -7978,7 +8189,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="32"/>
+      <c r="A332" s="33"/>
       <c r="B332" s="27"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -7986,17 +8197,17 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="32"/>
+      <c r="A333" s="33"/>
       <c r="B333" s="27"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D333" s="15" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="32"/>
+      <c r="A334" s="33"/>
       <c r="B334" s="27"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -8004,85 +8215,471 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="32"/>
+      <c r="A335" s="33"/>
       <c r="B335" s="27"/>
       <c r="D335" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="32"/>
+      <c r="A336" s="33"/>
       <c r="B336" s="27"/>
       <c r="D336" s="15" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="32"/>
+      <c r="A337" s="33"/>
       <c r="B337" s="27"/>
       <c r="C337" s="15" t="s">
-        <v>494</v>
+        <v>641</v>
       </c>
       <c r="D337" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="32"/>
+      <c r="A338" s="33"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="32"/>
+      <c r="A339" s="33"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
-        <v>336</v>
+        <v>640</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="32"/>
+      <c r="A340" s="33"/>
       <c r="B340" s="20"/>
-      <c r="D340" s="15" t="s">
-        <v>293</v>
+      <c r="C340" s="3"/>
+      <c r="D340" s="18" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="32"/>
+      <c r="A341" s="33"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
-        <v>537</v>
+        <v>624</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="32"/>
+      <c r="A342" s="33"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>338</v>
       </c>
       <c r="D342" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="33">
+        <v>43427</v>
+      </c>
+      <c r="B344" s="27"/>
+      <c r="C344" t="s">
+        <v>490</v>
+      </c>
+      <c r="D344" s="15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="33"/>
+      <c r="B345" s="27"/>
+      <c r="C345" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D345" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="33"/>
+      <c r="B346" s="27"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="33"/>
+      <c r="B347" s="27"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="33"/>
+      <c r="B348" s="27"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="33"/>
+      <c r="B349" s="27"/>
+      <c r="C349" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D349" s="15" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="33"/>
+      <c r="B350" s="27"/>
+      <c r="C350" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="D350" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="33"/>
+      <c r="B351" s="27"/>
+      <c r="D351" s="15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="33"/>
+      <c r="B352" s="27"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="33"/>
+      <c r="B353" s="27"/>
+      <c r="D353" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="33"/>
+      <c r="B354" s="20"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="33"/>
+      <c r="B355" s="20"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="33"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="15" t="s">
         <v>624</v>
       </c>
     </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="33"/>
+      <c r="B357" s="20"/>
+      <c r="C357" t="s">
+        <v>338</v>
+      </c>
+      <c r="D357" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="32">
+        <v>43428</v>
+      </c>
+      <c r="B359" s="27"/>
+      <c r="C359" t="s">
+        <v>490</v>
+      </c>
+      <c r="D359" s="15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="32"/>
+      <c r="B360" s="27"/>
+      <c r="C360" s="3"/>
+      <c r="D360" s="15" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="32"/>
+      <c r="B361" s="27"/>
+      <c r="C361" s="3"/>
+      <c r="D361" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="32"/>
+      <c r="B362" s="27"/>
+      <c r="C362" s="3"/>
+      <c r="D362" s="15" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="32"/>
+      <c r="B363" s="27"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="15" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="32"/>
+      <c r="B364" s="27"/>
+      <c r="D364" s="15" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="32"/>
+      <c r="B365" s="27"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="32"/>
+      <c r="B366" s="27"/>
+      <c r="D366" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="32"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="3"/>
+      <c r="D367" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="32"/>
+      <c r="B368" s="20"/>
+      <c r="D368" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="32">
+        <v>43429</v>
+      </c>
+      <c r="B370" s="27"/>
+      <c r="C370" t="s">
+        <v>490</v>
+      </c>
+      <c r="D370" s="15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="32"/>
+      <c r="B371" s="27"/>
+      <c r="C371" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D371" s="15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="32"/>
+      <c r="B372" s="27"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="15" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="32"/>
+      <c r="B373" s="27"/>
+      <c r="C373" s="3"/>
+      <c r="D373" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="32"/>
+      <c r="B374" s="27"/>
+      <c r="C374" s="3"/>
+      <c r="D374" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="32"/>
+      <c r="B375" s="27"/>
+      <c r="C375" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D375" s="15" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="32"/>
+      <c r="B376" s="27"/>
+      <c r="C376" s="3"/>
+      <c r="D376" s="15" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="32"/>
+      <c r="B377" s="27"/>
+      <c r="D377" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="32"/>
+      <c r="B378" s="27"/>
+      <c r="C378" s="3"/>
+      <c r="D378" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="32"/>
+      <c r="B379" s="27"/>
+      <c r="C379" s="3"/>
+      <c r="D379" s="15" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="32"/>
+      <c r="B380" s="27"/>
+      <c r="D380" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="32"/>
+      <c r="B381" s="20"/>
+      <c r="C381" t="s">
+        <v>372</v>
+      </c>
+      <c r="D381" s="15" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="32"/>
+      <c r="B382" s="20"/>
+      <c r="C382" t="s">
+        <v>670</v>
+      </c>
+      <c r="D382" s="15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="33">
+        <v>43430</v>
+      </c>
+      <c r="B384" s="27"/>
+      <c r="C384" t="s">
+        <v>655</v>
+      </c>
+      <c r="D384" s="15" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="33"/>
+      <c r="B385" s="27"/>
+      <c r="C385" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D385" s="15" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="33"/>
+      <c r="B386" s="27"/>
+      <c r="C386" s="3"/>
+      <c r="D386" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="33"/>
+      <c r="B387" s="27"/>
+      <c r="C387" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D387" s="15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="33"/>
+      <c r="B388" s="27"/>
+      <c r="C388" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="D388" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="33"/>
+      <c r="B389" s="27"/>
+      <c r="D389" s="15" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="33"/>
+      <c r="B390" s="27"/>
+      <c r="C390" s="3"/>
+      <c r="D390" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="33"/>
+      <c r="B391" s="27"/>
+      <c r="D391" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="33"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="3"/>
+      <c r="D392" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="33"/>
+      <c r="B393" s="20"/>
+      <c r="C393" t="s">
+        <v>338</v>
+      </c>
+      <c r="D393" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A303:A315"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A330:A342"/>
+  <mergeCells count="33">
     <mergeCell ref="B317:B328"/>
     <mergeCell ref="A40:A55"/>
     <mergeCell ref="A138:A154"/>
@@ -8097,7 +8694,25 @@
     <mergeCell ref="A279:A288"/>
     <mergeCell ref="A290:A301"/>
     <mergeCell ref="A173:A185"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A359:A368"/>
+    <mergeCell ref="A370:A382"/>
+    <mergeCell ref="A384:A393"/>
+    <mergeCell ref="A303:A315"/>
+    <mergeCell ref="A244:A252"/>
     <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A344:A357"/>
+    <mergeCell ref="A330:A342"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8110,8 +8725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8476,45 +9091,129 @@
       <c r="A26" s="13">
         <v>43427</v>
       </c>
+      <c r="B26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C26" s="25">
+        <v>36.82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>43428</v>
       </c>
+      <c r="B27" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" s="25">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>43429</v>
       </c>
+      <c r="B28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C28" s="25">
+        <v>36.79</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>43430</v>
       </c>
+      <c r="B29" t="s">
+        <v>654</v>
+      </c>
+      <c r="C29" s="25">
+        <v>36.9</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>43431</v>
       </c>
+      <c r="B30" t="s">
+        <v>649</v>
+      </c>
+      <c r="C30" s="25">
+        <v>36.82</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>43432</v>
       </c>
+      <c r="B31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C31" s="25">
+        <v>36.82</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>43433</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>651</v>
+      </c>
+      <c r="C32" s="25">
+        <v>36.82</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>43434</v>
       </c>
+      <c r="B33" t="s">
+        <v>652</v>
+      </c>
+      <c r="C33" s="25">
+        <v>36.82</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>543</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C25 C27 C29 C31 C33:C1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28 C26 C30 C32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994E5633-BBEC-494A-9F10-6DBD48FB5E7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3AC149-D41E-46CF-9FA4-9629D5869137}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="653">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3399,9 +3399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.35-6.47</t>
-  </si>
-  <si>
     <t>7.05-7.18</t>
   </si>
   <si>
@@ -3409,6 +3406,51 @@
   </si>
   <si>
     <t>7.05-7.19</t>
+  </si>
+  <si>
+    <t>6.35-7.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测着体温差点睡着，时长</t>
+    <rPh sb="0" eb="8">
+      <t>cezheti wencha dianshui zhao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui zhao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>rong yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhang kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+艾灸腹部+睡觉</t>
+    <rPh sb="12" eb="13">
+      <t>zu san li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+艾灸+睡觉</t>
+    <rPh sb="12" eb="13">
+      <t>zu san li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3632,13 +3674,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3653,10 +3695,10 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3941,7 +3983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -5146,10 +5188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I393"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
-    <sheetView topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="E353" sqref="E353"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="D404" sqref="D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5698,7 +5740,7 @@
       <c r="A57" s="35">
         <v>43406</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="39" t="s">
         <v>409</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -5711,7 +5753,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
-      <c r="B58" s="32"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
       </c>
@@ -5840,7 +5882,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="33">
+      <c r="A72" s="32">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -5853,7 +5895,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="33"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -5864,7 +5906,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="33"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5874,7 +5916,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5882,7 +5924,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -5892,7 +5934,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -5902,7 +5944,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -5912,7 +5954,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -5922,7 +5964,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -5932,7 +5974,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -5942,7 +5984,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="33"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>471</v>
@@ -5952,7 +5994,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>472</v>
@@ -5963,7 +6005,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>473</v>
@@ -5974,7 +6016,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="33">
+      <c r="A86" s="32">
         <v>43408</v>
       </c>
       <c r="B86" s="30" t="s">
@@ -5988,7 +6030,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="33"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="27"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -5996,7 +6038,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="33"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="27"/>
       <c r="C88" s="15" t="s">
         <v>475</v>
@@ -6006,14 +6048,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="21"/>
       <c r="D89" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -6021,7 +6063,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>484</v>
@@ -6031,7 +6073,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="33"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>459</v>
@@ -6041,7 +6083,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="33"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>460</v>
@@ -6051,7 +6093,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="33"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>461</v>
@@ -6061,7 +6103,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="33"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>347</v>
@@ -6071,11 +6113,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="33"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="33"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -6085,7 +6127,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="33"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -6095,7 +6137,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="33"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>310</v>
@@ -6105,7 +6147,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="33"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -6115,7 +6157,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="33"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>489</v>
@@ -6125,7 +6167,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="33"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>490</v>
@@ -6910,7 +6952,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="33">
+      <c r="A187" s="32">
         <v>43414</v>
       </c>
       <c r="B187" s="26"/>
@@ -6922,7 +6964,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="33"/>
+      <c r="A188" s="32"/>
       <c r="B188" s="21"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -6930,7 +6972,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="33"/>
+      <c r="A189" s="32"/>
       <c r="B189" s="21"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -6938,7 +6980,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="33"/>
+      <c r="A190" s="32"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -6946,7 +6988,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="33"/>
+      <c r="A191" s="32"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -6954,7 +6996,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="33"/>
+      <c r="A192" s="32"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -6962,7 +7004,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="33"/>
+      <c r="A193" s="32"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -6970,7 +7012,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="33"/>
+      <c r="A194" s="32"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -6978,7 +7020,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="33"/>
+      <c r="A195" s="32"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>432</v>
@@ -6988,7 +7030,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="33"/>
+      <c r="A196" s="32"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>336</v>
@@ -6998,7 +7040,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="33">
+      <c r="A198" s="32">
         <v>43415</v>
       </c>
       <c r="B198" s="26"/>
@@ -7010,7 +7052,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="33"/>
+      <c r="A199" s="32"/>
       <c r="B199" s="26"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -7018,7 +7060,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="33"/>
+      <c r="A200" s="32"/>
       <c r="B200" s="21"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -7028,7 +7070,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="33"/>
+      <c r="A201" s="32"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>449</v>
@@ -7038,7 +7080,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="33"/>
+      <c r="A202" s="32"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>478</v>
@@ -7048,7 +7090,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="33"/>
+      <c r="A203" s="32"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -7058,7 +7100,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="33"/>
+      <c r="A204" s="32"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>480</v>
@@ -7068,7 +7110,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="33"/>
+      <c r="A205" s="32"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>526</v>
@@ -7078,7 +7120,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="33"/>
+      <c r="A206" s="32"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>523</v>
@@ -7088,7 +7130,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="33"/>
+      <c r="A207" s="32"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>524</v>
@@ -7098,7 +7140,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="34">
+      <c r="A209" s="33">
         <v>43416</v>
       </c>
       <c r="B209" s="26"/>
@@ -7110,7 +7152,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="34"/>
+      <c r="A210" s="33"/>
       <c r="B210" s="21"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -7120,7 +7162,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="34"/>
+      <c r="A211" s="33"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -7128,7 +7170,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="34"/>
+      <c r="A212" s="33"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>478</v>
@@ -7138,7 +7180,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="34"/>
+      <c r="A213" s="33"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -7146,7 +7188,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="34"/>
+      <c r="A214" s="33"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -7154,7 +7196,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="34"/>
+      <c r="A215" s="33"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -7162,7 +7204,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="34"/>
+      <c r="A216" s="33"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>353</v>
@@ -7172,7 +7214,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="34"/>
+      <c r="A217" s="33"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>432</v>
@@ -7182,14 +7224,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="34"/>
+      <c r="A218" s="33"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="34">
+      <c r="A220" s="33">
         <v>43417</v>
       </c>
       <c r="B220" s="26"/>
@@ -7201,7 +7243,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="34"/>
+      <c r="A221" s="33"/>
       <c r="B221" s="26"/>
       <c r="C221" s="15" t="s">
         <v>536</v>
@@ -7211,14 +7253,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="34"/>
+      <c r="A222" s="33"/>
       <c r="B222" s="26"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="34"/>
+      <c r="A223" s="33"/>
       <c r="B223" s="21"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -7228,7 +7270,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="34"/>
+      <c r="A224" s="33"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>449</v>
@@ -7238,7 +7280,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="34"/>
+      <c r="A225" s="33"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>478</v>
@@ -7248,7 +7290,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="34"/>
+      <c r="A226" s="33"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>421</v>
@@ -7258,7 +7300,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="34"/>
+      <c r="A227" s="33"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>480</v>
@@ -7268,7 +7310,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="34"/>
+      <c r="A228" s="33"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>353</v>
@@ -7278,7 +7320,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="34"/>
+      <c r="A229" s="33"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>336</v>
@@ -7288,7 +7330,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="34">
+      <c r="A231" s="33">
         <v>43418</v>
       </c>
       <c r="B231" s="26"/>
@@ -7300,14 +7342,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="34"/>
+      <c r="A232" s="33"/>
       <c r="B232" s="26"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="34"/>
+      <c r="A233" s="33"/>
       <c r="B233" s="21"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -7317,7 +7359,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="34"/>
+      <c r="A234" s="33"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -7325,7 +7367,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="34"/>
+      <c r="A235" s="33"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -7333,7 +7375,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="34"/>
+      <c r="A236" s="33"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>478</v>
@@ -7343,7 +7385,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="34"/>
+      <c r="A237" s="33"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -7351,7 +7393,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="34"/>
+      <c r="A238" s="33"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -7359,7 +7401,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="34"/>
+      <c r="A239" s="33"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -7367,7 +7409,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="34"/>
+      <c r="A240" s="33"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -7375,7 +7417,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="34"/>
+      <c r="A241" s="33"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>336</v>
@@ -7385,14 +7427,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="34"/>
+      <c r="A242" s="33"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="34">
+      <c r="A244" s="33">
         <v>43419</v>
       </c>
       <c r="B244" s="26"/>
@@ -7404,14 +7446,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="34"/>
+      <c r="A245" s="33"/>
       <c r="B245" s="26"/>
       <c r="D245" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="34"/>
+      <c r="A246" s="33"/>
       <c r="B246" s="21"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -7421,7 +7463,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="34"/>
+      <c r="A247" s="33"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -7429,7 +7471,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="34"/>
+      <c r="A248" s="33"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>478</v>
@@ -7439,7 +7481,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="34"/>
+      <c r="A249" s="33"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -7447,7 +7489,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="34"/>
+      <c r="A250" s="33"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -7455,7 +7497,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="34"/>
+      <c r="A251" s="33"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -7463,7 +7505,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="34"/>
+      <c r="A252" s="33"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>336</v>
@@ -7473,7 +7515,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="34">
+      <c r="A254" s="33">
         <v>43420</v>
       </c>
       <c r="B254" s="26"/>
@@ -7485,7 +7527,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="34"/>
+      <c r="A255" s="33"/>
       <c r="B255" s="26"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -7493,14 +7535,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="34"/>
+      <c r="A256" s="33"/>
       <c r="B256" s="26"/>
       <c r="D256" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="34"/>
+      <c r="A257" s="33"/>
       <c r="B257" s="21"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -7510,7 +7552,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="34"/>
+      <c r="A258" s="33"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -7518,7 +7560,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="34"/>
+      <c r="A259" s="33"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>478</v>
@@ -7528,14 +7570,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="34"/>
+      <c r="A260" s="33"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="34"/>
+      <c r="A261" s="33"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -7543,7 +7585,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="34"/>
+      <c r="A262" s="33"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -7551,7 +7593,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="34"/>
+      <c r="A263" s="33"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -7559,7 +7601,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="34"/>
+      <c r="A264" s="33"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -7567,7 +7609,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="34"/>
+      <c r="A265" s="33"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>336</v>
@@ -7577,7 +7619,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="33">
+      <c r="A267" s="32">
         <v>43421</v>
       </c>
       <c r="B267" s="26"/>
@@ -7589,7 +7631,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="33"/>
+      <c r="A268" s="32"/>
       <c r="B268" s="26"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -7597,7 +7639,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="33"/>
+      <c r="A269" s="32"/>
       <c r="B269" s="21"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -7605,7 +7647,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="33"/>
+      <c r="A270" s="32"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -7613,14 +7655,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="33"/>
+      <c r="A271" s="32"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="33"/>
+      <c r="A272" s="32"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -7628,7 +7670,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="33"/>
+      <c r="A273" s="32"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -7636,7 +7678,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="33"/>
+      <c r="A274" s="32"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -7644,7 +7686,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="33"/>
+      <c r="A275" s="32"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -7652,7 +7694,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="33"/>
+      <c r="A276" s="32"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>336</v>
@@ -7662,14 +7704,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="33"/>
+      <c r="A277" s="32"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="33">
+      <c r="A279" s="32">
         <v>43422</v>
       </c>
       <c r="B279" s="26"/>
@@ -7681,28 +7723,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="33"/>
+      <c r="A280" s="32"/>
       <c r="B280" s="26"/>
       <c r="D280" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="33"/>
+      <c r="A281" s="32"/>
       <c r="B281" s="26"/>
       <c r="D281" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="33"/>
+      <c r="A282" s="32"/>
       <c r="B282" s="26"/>
       <c r="D282" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="33"/>
+      <c r="A283" s="32"/>
       <c r="B283" s="21"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -7712,7 +7754,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="33"/>
+      <c r="A284" s="32"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -7720,7 +7762,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="33"/>
+      <c r="A285" s="32"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -7728,7 +7770,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="33"/>
+      <c r="A286" s="32"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -7736,7 +7778,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="33"/>
+      <c r="A287" s="32"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -7744,7 +7786,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="33"/>
+      <c r="A288" s="32"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -7754,7 +7796,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="34">
+      <c r="A290" s="33">
         <v>43423</v>
       </c>
       <c r="B290" s="26"/>
@@ -7766,7 +7808,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="34"/>
+      <c r="A291" s="33"/>
       <c r="B291" s="26"/>
       <c r="C291" s="15" t="s">
         <v>250</v>
@@ -7776,14 +7818,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="34"/>
+      <c r="A292" s="33"/>
       <c r="B292" s="26"/>
       <c r="D292" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="34"/>
+      <c r="A293" s="33"/>
       <c r="B293" s="21"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -7793,7 +7835,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="34"/>
+      <c r="A294" s="33"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -7801,7 +7843,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="34"/>
+      <c r="A295" s="33"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>478</v>
@@ -7811,14 +7853,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="34"/>
+      <c r="A296" s="33"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="34"/>
+      <c r="A297" s="33"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -7826,7 +7868,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="34"/>
+      <c r="A298" s="33"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -7834,14 +7876,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="34"/>
+      <c r="A299" s="33"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="34"/>
+      <c r="A300" s="33"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -7849,7 +7891,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="34"/>
+      <c r="A301" s="33"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>336</v>
@@ -7859,7 +7901,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="34">
+      <c r="A303" s="33">
         <v>43424</v>
       </c>
       <c r="B303" s="26"/>
@@ -7871,7 +7913,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="34"/>
+      <c r="A304" s="33"/>
       <c r="B304" s="26"/>
       <c r="C304" s="15" t="s">
         <v>598</v>
@@ -7881,7 +7923,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="34"/>
+      <c r="A305" s="33"/>
       <c r="B305" s="26"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -7889,14 +7931,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="34"/>
+      <c r="A306" s="33"/>
       <c r="B306" s="26"/>
       <c r="D306" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="34"/>
+      <c r="A307" s="33"/>
       <c r="B307" s="21"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -7906,7 +7948,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="34"/>
+      <c r="A308" s="33"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -7914,7 +7956,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="34"/>
+      <c r="A309" s="33"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>478</v>
@@ -7924,21 +7966,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="34"/>
+      <c r="A310" s="33"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="34"/>
+      <c r="A311" s="33"/>
       <c r="B311" s="20"/>
       <c r="D311" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="34"/>
+      <c r="A312" s="33"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -7946,14 +7988,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="34"/>
+      <c r="A313" s="33"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="34"/>
+      <c r="A314" s="33"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -7961,7 +8003,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="34"/>
+      <c r="A315" s="33"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>336</v>
@@ -7971,10 +8013,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="34">
+      <c r="A317" s="33">
         <v>43425</v>
       </c>
-      <c r="B317" s="40" t="s">
+      <c r="B317" s="34" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -7985,24 +8027,24 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="34"/>
-      <c r="B318" s="40"/>
+      <c r="A318" s="33"/>
+      <c r="B318" s="34"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="34"/>
-      <c r="B319" s="40"/>
+      <c r="A319" s="33"/>
+      <c r="B319" s="34"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="34"/>
-      <c r="B320" s="40"/>
+      <c r="A320" s="33"/>
+      <c r="B320" s="34"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -8011,23 +8053,23 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="34"/>
-      <c r="B321" s="40"/>
+      <c r="A321" s="33"/>
+      <c r="B321" s="34"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="34"/>
-      <c r="B322" s="40"/>
+      <c r="A322" s="33"/>
+      <c r="B322" s="34"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="34"/>
-      <c r="B323" s="40"/>
+      <c r="A323" s="33"/>
+      <c r="B323" s="34"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -8036,38 +8078,38 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="34"/>
-      <c r="B324" s="40"/>
+      <c r="A324" s="33"/>
+      <c r="B324" s="34"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="34"/>
-      <c r="B325" s="40"/>
+      <c r="A325" s="33"/>
+      <c r="B325" s="34"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="34"/>
-      <c r="B326" s="40"/>
+      <c r="A326" s="33"/>
+      <c r="B326" s="34"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="34"/>
-      <c r="B327" s="40"/>
+      <c r="A327" s="33"/>
+      <c r="B327" s="34"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="34"/>
-      <c r="B328" s="40"/>
+      <c r="A328" s="33"/>
+      <c r="B328" s="34"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -8076,7 +8118,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="34">
+      <c r="A330" s="33">
         <v>43426</v>
       </c>
       <c r="B330" s="26"/>
@@ -8088,7 +8130,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="34"/>
+      <c r="A331" s="33"/>
       <c r="B331" s="26"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -8096,7 +8138,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="34"/>
+      <c r="A332" s="33"/>
       <c r="B332" s="26"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -8104,7 +8146,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="34"/>
+      <c r="A333" s="33"/>
       <c r="B333" s="26"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
@@ -8114,7 +8156,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="34"/>
+      <c r="A334" s="33"/>
       <c r="B334" s="26"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -8122,21 +8164,21 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="34"/>
+      <c r="A335" s="33"/>
       <c r="B335" s="26"/>
       <c r="D335" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="34"/>
+      <c r="A336" s="33"/>
       <c r="B336" s="26"/>
       <c r="D336" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="34"/>
+      <c r="A337" s="33"/>
       <c r="B337" s="26"/>
       <c r="C337" s="15" t="s">
         <v>616</v>
@@ -8146,14 +8188,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="34"/>
+      <c r="A338" s="33"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="34"/>
+      <c r="A339" s="33"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
@@ -8161,7 +8203,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="34"/>
+      <c r="A340" s="33"/>
       <c r="B340" s="20"/>
       <c r="C340" s="3"/>
       <c r="D340" s="18" t="s">
@@ -8169,7 +8211,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="34"/>
+      <c r="A341" s="33"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
@@ -8177,7 +8219,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="34"/>
+      <c r="A342" s="33"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>336</v>
@@ -8187,7 +8229,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="34">
+      <c r="A344" s="33">
         <v>43427</v>
       </c>
       <c r="B344" s="26"/>
@@ -8199,7 +8241,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="34"/>
+      <c r="A345" s="33"/>
       <c r="B345" s="26"/>
       <c r="C345" s="3" t="s">
         <v>619</v>
@@ -8209,7 +8251,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="34"/>
+      <c r="A346" s="33"/>
       <c r="B346" s="26"/>
       <c r="C346" s="3"/>
       <c r="D346" s="15" t="s">
@@ -8217,7 +8259,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="34"/>
+      <c r="A347" s="33"/>
       <c r="B347" s="26"/>
       <c r="C347" s="3"/>
       <c r="D347" s="15" t="s">
@@ -8225,7 +8267,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="34"/>
+      <c r="A348" s="33"/>
       <c r="B348" s="26"/>
       <c r="C348" s="3"/>
       <c r="D348" s="15" t="s">
@@ -8233,7 +8275,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="34"/>
+      <c r="A349" s="33"/>
       <c r="B349" s="26"/>
       <c r="C349" s="15" t="s">
         <v>266</v>
@@ -8243,7 +8285,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="34"/>
+      <c r="A350" s="33"/>
       <c r="B350" s="26"/>
       <c r="C350" s="15" t="s">
         <v>616</v>
@@ -8253,14 +8295,14 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="34"/>
+      <c r="A351" s="33"/>
       <c r="B351" s="26"/>
       <c r="D351" s="15" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="34"/>
+      <c r="A352" s="33"/>
       <c r="B352" s="26"/>
       <c r="C352" s="3"/>
       <c r="D352" s="15" t="s">
@@ -8268,22 +8310,22 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="34"/>
+      <c r="A353" s="33"/>
       <c r="B353" s="26"/>
       <c r="D353" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="34"/>
+      <c r="A354" s="33"/>
       <c r="B354" s="20"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="34"/>
+      <c r="A355" s="33"/>
       <c r="B355" s="20"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="34"/>
+      <c r="A356" s="33"/>
       <c r="B356" s="20"/>
       <c r="C356" s="3"/>
       <c r="D356" s="15" t="s">
@@ -8291,7 +8333,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="34"/>
+      <c r="A357" s="33"/>
       <c r="B357" s="20"/>
       <c r="C357" t="s">
         <v>336</v>
@@ -8301,7 +8343,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="33">
+      <c r="A359" s="32">
         <v>43428</v>
       </c>
       <c r="B359" s="26"/>
@@ -8313,7 +8355,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="33"/>
+      <c r="A360" s="32"/>
       <c r="B360" s="26"/>
       <c r="C360" s="3"/>
       <c r="D360" s="15" t="s">
@@ -8321,7 +8363,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="33"/>
+      <c r="A361" s="32"/>
       <c r="B361" s="26"/>
       <c r="C361" s="3"/>
       <c r="D361" s="15" t="s">
@@ -8329,7 +8371,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="33"/>
+      <c r="A362" s="32"/>
       <c r="B362" s="26"/>
       <c r="C362" s="3"/>
       <c r="D362" s="15" t="s">
@@ -8337,7 +8379,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="33"/>
+      <c r="A363" s="32"/>
       <c r="B363" s="26"/>
       <c r="C363" s="3"/>
       <c r="D363" s="15" t="s">
@@ -8345,14 +8387,14 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="33"/>
+      <c r="A364" s="32"/>
       <c r="B364" s="26"/>
       <c r="D364" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="33"/>
+      <c r="A365" s="32"/>
       <c r="B365" s="26"/>
       <c r="C365" s="3"/>
       <c r="D365" s="15" t="s">
@@ -8360,14 +8402,14 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="33"/>
+      <c r="A366" s="32"/>
       <c r="B366" s="26"/>
       <c r="D366" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="33"/>
+      <c r="A367" s="32"/>
       <c r="B367" s="20"/>
       <c r="C367" s="3"/>
       <c r="D367" s="15" t="s">
@@ -8375,14 +8417,14 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="33"/>
+      <c r="A368" s="32"/>
       <c r="B368" s="20"/>
       <c r="D368" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="33">
+      <c r="A370" s="32">
         <v>43429</v>
       </c>
       <c r="B370" s="26"/>
@@ -8394,7 +8436,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="33"/>
+      <c r="A371" s="32"/>
       <c r="B371" s="26"/>
       <c r="C371" s="3" t="s">
         <v>619</v>
@@ -8404,7 +8446,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="33"/>
+      <c r="A372" s="32"/>
       <c r="B372" s="26"/>
       <c r="C372" s="3"/>
       <c r="D372" s="15" t="s">
@@ -8412,7 +8454,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="33"/>
+      <c r="A373" s="32"/>
       <c r="B373" s="26"/>
       <c r="C373" s="3"/>
       <c r="D373" s="15" t="s">
@@ -8420,7 +8462,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="33"/>
+      <c r="A374" s="32"/>
       <c r="B374" s="26"/>
       <c r="C374" s="3"/>
       <c r="D374" s="15" t="s">
@@ -8428,7 +8470,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="33"/>
+      <c r="A375" s="32"/>
       <c r="B375" s="26"/>
       <c r="C375" s="15" t="s">
         <v>266</v>
@@ -8438,7 +8480,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="33"/>
+      <c r="A376" s="32"/>
       <c r="B376" s="26"/>
       <c r="C376" s="3"/>
       <c r="D376" s="15" t="s">
@@ -8446,14 +8488,14 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="33"/>
+      <c r="A377" s="32"/>
       <c r="B377" s="26"/>
       <c r="D377" s="15" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="33"/>
+      <c r="A378" s="32"/>
       <c r="B378" s="26"/>
       <c r="C378" s="3"/>
       <c r="D378" s="15" t="s">
@@ -8461,7 +8503,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="33"/>
+      <c r="A379" s="32"/>
       <c r="B379" s="26"/>
       <c r="C379" s="3"/>
       <c r="D379" s="15" t="s">
@@ -8469,14 +8511,14 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="33"/>
+      <c r="A380" s="32"/>
       <c r="B380" s="26"/>
       <c r="D380" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="33"/>
+      <c r="A381" s="32"/>
       <c r="B381" s="20"/>
       <c r="C381" t="s">
         <v>368</v>
@@ -8486,7 +8528,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="33"/>
+      <c r="A382" s="32"/>
       <c r="B382" s="20"/>
       <c r="C382" t="s">
         <v>336</v>
@@ -8496,7 +8538,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="34">
+      <c r="A384" s="33">
         <v>43430</v>
       </c>
       <c r="B384" s="26"/>
@@ -8508,7 +8550,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="34"/>
+      <c r="A385" s="33"/>
       <c r="B385" s="26"/>
       <c r="C385" s="3" t="s">
         <v>640</v>
@@ -8518,7 +8560,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="34"/>
+      <c r="A386" s="33"/>
       <c r="B386" s="26"/>
       <c r="C386" s="3"/>
       <c r="D386" s="15" t="s">
@@ -8526,7 +8568,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="34"/>
+      <c r="A387" s="33"/>
       <c r="B387" s="26"/>
       <c r="C387" s="15" t="s">
         <v>266</v>
@@ -8536,7 +8578,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="34"/>
+      <c r="A388" s="33"/>
       <c r="B388" s="26"/>
       <c r="C388" s="15" t="s">
         <v>616</v>
@@ -8546,14 +8588,14 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="34"/>
+      <c r="A389" s="33"/>
       <c r="B389" s="26"/>
       <c r="D389" s="15" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="34"/>
+      <c r="A390" s="33"/>
       <c r="B390" s="26"/>
       <c r="C390" s="3"/>
       <c r="D390" s="15" t="s">
@@ -8561,37 +8603,140 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="34"/>
+      <c r="A391" s="33"/>
       <c r="B391" s="26"/>
+      <c r="C391" s="3"/>
       <c r="D391" s="15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="33"/>
+      <c r="B392" s="26"/>
+      <c r="D392" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="33"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="33"/>
+      <c r="B394" s="20"/>
+      <c r="D394" s="15" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="34"/>
-      <c r="B392" s="20"/>
-      <c r="C392" s="3"/>
-      <c r="D392" s="15" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="34"/>
-      <c r="B393" s="20"/>
-      <c r="C393" t="s">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="33">
+        <v>43431</v>
+      </c>
+      <c r="B396" s="26"/>
+      <c r="C396" t="s">
+        <v>647</v>
+      </c>
+      <c r="D396" s="15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="33"/>
+      <c r="B397" s="26"/>
+      <c r="C397" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D397" s="15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" s="33"/>
+      <c r="B398" s="26"/>
+      <c r="C398" s="3"/>
+      <c r="D398" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" s="33"/>
+      <c r="B399" s="26"/>
+      <c r="C399" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D399" s="15" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="33"/>
+      <c r="B400" s="26"/>
+      <c r="C400" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="D400" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="33"/>
+      <c r="B401" s="26"/>
+      <c r="D401" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="33"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="3"/>
+      <c r="D402" s="15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="33"/>
+      <c r="B403" s="26"/>
+      <c r="D403" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" s="33"/>
+      <c r="B404" s="20"/>
+      <c r="C404" s="3"/>
+      <c r="D404" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="33"/>
+      <c r="B405" s="20"/>
+      <c r="C405" t="s">
         <v>336</v>
       </c>
-      <c r="D393" s="15" t="s">
+      <c r="D405" s="15" t="s">
         <v>412</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A359:A368"/>
-    <mergeCell ref="A370:A382"/>
-    <mergeCell ref="A384:A393"/>
-    <mergeCell ref="A303:A315"/>
-    <mergeCell ref="A317:A328"/>
+  <mergeCells count="34">
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A396:A405"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
     <mergeCell ref="B317:B328"/>
     <mergeCell ref="A330:A342"/>
     <mergeCell ref="A344:A357"/>
@@ -8602,24 +8747,17 @@
     <mergeCell ref="A86:A102"/>
     <mergeCell ref="A104:A118"/>
     <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A267:A277"/>
     <mergeCell ref="A279:A288"/>
     <mergeCell ref="A173:A185"/>
     <mergeCell ref="A254:A265"/>
     <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A359:A368"/>
+    <mergeCell ref="A370:A382"/>
+    <mergeCell ref="A384:A394"/>
+    <mergeCell ref="A303:A315"/>
+    <mergeCell ref="A317:A328"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8821,8 +8959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9244,13 +9382,13 @@
         <v>43431</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C30" s="24">
-        <v>36.82</v>
+        <v>36.9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>518</v>
+        <v>648</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -9258,7 +9396,7 @@
         <v>43432</v>
       </c>
       <c r="B31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C31" s="24">
         <v>36.82</v>
@@ -9272,7 +9410,7 @@
         <v>43433</v>
       </c>
       <c r="B32" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C32" s="24">
         <v>36.82</v>
@@ -9286,7 +9424,7 @@
         <v>43434</v>
       </c>
       <c r="B33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C33" s="24">
         <v>36.82</v>
@@ -9298,6 +9436,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C25 C27 C29 C31 C33:C1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28 C26 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9309,7 +9459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26 C28 C30 C32">
+  <conditionalFormatting sqref="C30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9544,7 +9694,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -9558,7 +9708,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3AC149-D41E-46CF-9FA4-9629D5869137}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2CECBDE9-CDAA-4205-A921-C6CF96DB0E92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">体温!$C$1:$C$34</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -157,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="658">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3417,19 +3418,13 @@
       <t>cezheti wencha dianshui zhao</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>shui zhao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>rong yi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhang kou</t>
+      <t>shui zhaorong yizhang kou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学习+艾灸腹部+睡觉</t>
-    <rPh sb="12" eb="13">
+    <rPh sb="0" eb="10">
       <t>zu san li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3439,17 +3434,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>午餐：</t>
+    <t>学习+艾灸+睡觉</t>
+    <rPh sb="0" eb="8">
+      <t>zu san li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：芹菜炒鸭肉+梅菜扣肉+炒圆白菜+冬瓜蛋花汤+蕨根粉+火腿肠</t>
     <rPh sb="0" eb="3">
       <t>yuchaokuai caimu er rou sizi mi zhou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习+艾灸+睡觉</t>
-    <rPh sb="12" eb="13">
-      <t>zu san li</t>
-    </rPh>
+    <t>右侧小腹阵痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏头痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃地屈孕酮片+护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃坚果+山楂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3674,16 +3689,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3693,6 +3705,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5188,10 +5203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="D404" sqref="D404"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="D405" sqref="D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5231,7 +5246,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="33">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -5240,7 +5255,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -5250,7 +5265,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -5260,56 +5275,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
+      <c r="A13" s="33">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5320,7 +5335,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -5333,8 +5348,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="36" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -5342,8 +5357,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -5352,8 +5367,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="37"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -5362,7 +5377,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -5372,7 +5387,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -5382,7 +5397,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -5392,7 +5407,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>333</v>
@@ -5402,7 +5417,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>310</v>
@@ -5412,7 +5427,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>335</v>
@@ -5422,7 +5437,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>336</v>
@@ -5432,7 +5447,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+      <c r="A26" s="33">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -5443,8 +5458,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="35" t="s">
         <v>370</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -5455,8 +5470,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="35"/>
       <c r="C28" t="s">
         <v>300</v>
       </c>
@@ -5465,8 +5480,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" t="s">
         <v>358</v>
       </c>
@@ -5475,8 +5490,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -5485,8 +5500,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="15" t="s">
         <v>371</v>
       </c>
@@ -5495,8 +5510,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -5508,8 +5523,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="35"/>
       <c r="C33" t="s">
         <v>365</v>
       </c>
@@ -5518,8 +5533,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="35"/>
       <c r="C34" t="s">
         <v>367</v>
       </c>
@@ -5528,7 +5543,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="29"/>
       <c r="C35" s="15" t="s">
         <v>280</v>
@@ -5538,7 +5553,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="29"/>
       <c r="C36" s="15" t="s">
         <v>374</v>
@@ -5548,7 +5563,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>368</v>
@@ -5558,7 +5573,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>336</v>
@@ -5568,7 +5583,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="A40" s="33">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -5585,7 +5600,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="21"/>
       <c r="C41" s="15" t="s">
         <v>342</v>
@@ -5595,7 +5610,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="21"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -5605,7 +5620,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -5615,7 +5630,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>397</v>
@@ -5625,7 +5640,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="23" t="s">
         <v>404</v>
       </c>
@@ -5637,7 +5652,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>400</v>
@@ -5647,7 +5662,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -5657,7 +5672,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>401</v>
@@ -5667,7 +5682,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>403</v>
@@ -5677,7 +5692,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -5687,7 +5702,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -5697,7 +5712,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>407</v>
@@ -5707,7 +5722,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>321</v>
@@ -5717,7 +5732,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -5727,7 +5742,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>368</v>
@@ -5737,7 +5752,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="35">
+      <c r="A57" s="33">
         <v>43406</v>
       </c>
       <c r="B57" s="39" t="s">
@@ -5752,7 +5767,7 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="39"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
@@ -5762,7 +5777,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="21"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -5772,7 +5787,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -5782,7 +5797,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>397</v>
@@ -5792,7 +5807,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>400</v>
@@ -5802,7 +5817,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>427</v>
@@ -5812,7 +5827,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>428</v>
@@ -5822,7 +5837,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="35"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -5832,7 +5847,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>430</v>
@@ -5842,7 +5857,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="35"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>431</v>
@@ -5852,7 +5867,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="35"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>433</v>
@@ -5862,7 +5877,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="35"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>432</v>
@@ -5872,7 +5887,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="35"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>336</v>
@@ -5882,7 +5897,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="32">
+      <c r="A72" s="34">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -5895,7 +5910,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="32"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -5906,7 +5921,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5916,7 +5931,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5924,7 +5939,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -5934,7 +5949,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="32"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -5944,7 +5959,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="32"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -5954,7 +5969,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="32"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -5964,7 +5979,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -5974,7 +5989,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -5984,7 +5999,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>471</v>
@@ -5994,7 +6009,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
+      <c r="A83" s="34"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>472</v>
@@ -6005,7 +6020,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>473</v>
@@ -6016,7 +6031,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="32">
+      <c r="A86" s="34">
         <v>43408</v>
       </c>
       <c r="B86" s="30" t="s">
@@ -6030,7 +6045,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="27"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -6038,7 +6053,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="32"/>
+      <c r="A88" s="34"/>
       <c r="B88" s="27"/>
       <c r="C88" s="15" t="s">
         <v>475</v>
@@ -6048,14 +6063,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="32"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="21"/>
       <c r="D89" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="32"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -6063,7 +6078,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="32"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>484</v>
@@ -6073,7 +6088,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="32"/>
+      <c r="A92" s="34"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>459</v>
@@ -6083,7 +6098,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="32"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>460</v>
@@ -6093,7 +6108,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="32"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>461</v>
@@ -6103,7 +6118,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="32"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>347</v>
@@ -6113,11 +6128,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="32"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="32"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -6127,7 +6142,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -6137,7 +6152,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="32"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>310</v>
@@ -6147,7 +6162,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="32"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -6157,7 +6172,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="32"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>489</v>
@@ -6167,7 +6182,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="32"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>490</v>
@@ -6177,7 +6192,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="35">
+      <c r="A104" s="33">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -6185,7 +6200,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="35"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="25" t="s">
         <v>409</v>
       </c>
@@ -6197,7 +6212,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="35"/>
+      <c r="A106" s="33"/>
       <c r="B106" s="26"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -6206,7 +6221,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="35"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="26"/>
       <c r="C107" s="15" t="s">
         <v>342</v>
@@ -6216,7 +6231,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="35"/>
+      <c r="A108" s="33"/>
       <c r="B108" s="21"/>
       <c r="C108" s="15" t="s">
         <v>434</v>
@@ -6226,7 +6241,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="35"/>
+      <c r="A109" s="33"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -6236,7 +6251,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="35"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -6244,7 +6259,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="35"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>423</v>
@@ -6254,7 +6269,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="35"/>
+      <c r="A112" s="33"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>421</v>
@@ -6264,7 +6279,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="35"/>
+      <c r="A113" s="33"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>440</v>
@@ -6274,7 +6289,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="35"/>
+      <c r="A114" s="33"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>445</v>
@@ -6284,7 +6299,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="35"/>
+      <c r="A115" s="33"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>444</v>
@@ -6294,7 +6309,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="35"/>
+      <c r="A116" s="33"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>441</v>
@@ -6304,7 +6319,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="35"/>
+      <c r="A117" s="33"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>442</v>
@@ -6314,7 +6329,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="35"/>
+      <c r="A118" s="33"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>443</v>
@@ -6324,7 +6339,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="35">
+      <c r="A120" s="33">
         <v>43410</v>
       </c>
       <c r="B120" s="26"/>
@@ -6336,7 +6351,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="35"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="26"/>
       <c r="C121" s="15" t="s">
         <v>437</v>
@@ -6346,7 +6361,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="35"/>
+      <c r="A122" s="33"/>
       <c r="B122" s="21"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -6356,7 +6371,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="35"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="21"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -6364,7 +6379,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="35"/>
+      <c r="A124" s="33"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -6374,7 +6389,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="35"/>
+      <c r="A125" s="33"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>447</v>
@@ -6384,7 +6399,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="35"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>400</v>
@@ -6394,7 +6409,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="35"/>
+      <c r="A127" s="33"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>449</v>
@@ -6404,7 +6419,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="35"/>
+      <c r="A128" s="33"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>478</v>
@@ -6414,7 +6429,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="35"/>
+      <c r="A129" s="33"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>479</v>
@@ -6424,7 +6439,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="35"/>
+      <c r="A130" s="33"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>480</v>
@@ -6434,7 +6449,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="35"/>
+      <c r="A131" s="33"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>491</v>
@@ -6444,7 +6459,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="35"/>
+      <c r="A132" s="33"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>493</v>
@@ -6454,7 +6469,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="35"/>
+      <c r="A133" s="33"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -6464,7 +6479,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="35"/>
+      <c r="A134" s="33"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -6474,7 +6489,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="35"/>
+      <c r="A135" s="33"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>424</v>
@@ -6484,7 +6499,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="35"/>
+      <c r="A136" s="33"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -6494,7 +6509,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="35">
+      <c r="A138" s="33">
         <v>43411</v>
       </c>
       <c r="B138" s="26"/>
@@ -6506,7 +6521,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="35"/>
+      <c r="A139" s="33"/>
       <c r="B139" s="26"/>
       <c r="C139" s="18" t="s">
         <v>337</v>
@@ -6516,7 +6531,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="35"/>
+      <c r="A140" s="33"/>
       <c r="B140" s="26"/>
       <c r="C140" s="15" t="s">
         <v>342</v>
@@ -6526,7 +6541,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="35"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="21"/>
       <c r="C141" s="3" t="s">
         <v>500</v>
@@ -6536,7 +6551,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="35"/>
+      <c r="A142" s="33"/>
       <c r="B142" s="21"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -6546,7 +6561,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="35"/>
+      <c r="A143" s="33"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>502</v>
@@ -6556,7 +6571,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="35"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -6564,7 +6579,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="35"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>449</v>
@@ -6574,7 +6589,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="35"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>478</v>
@@ -6584,7 +6599,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="35"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>421</v>
@@ -6594,7 +6609,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="35"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>440</v>
@@ -6604,7 +6619,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="35"/>
+      <c r="A149" s="33"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>480</v>
@@ -6614,7 +6629,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="35"/>
+      <c r="A150" s="33"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -6624,7 +6639,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="35"/>
+      <c r="A151" s="33"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>294</v>
@@ -6634,7 +6649,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="35"/>
+      <c r="A152" s="33"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>441</v>
@@ -6644,7 +6659,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="35"/>
+      <c r="A153" s="33"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>368</v>
@@ -6654,7 +6669,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="35"/>
+      <c r="A154" s="33"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>336</v>
@@ -6664,7 +6679,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="35">
+      <c r="A156" s="33">
         <v>43412</v>
       </c>
       <c r="B156" s="26"/>
@@ -6676,7 +6691,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="35"/>
+      <c r="A157" s="33"/>
       <c r="B157" s="26"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -6686,7 +6701,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="35"/>
+      <c r="A158" s="33"/>
       <c r="B158" s="21"/>
       <c r="C158" s="3" t="s">
         <v>508</v>
@@ -6696,7 +6711,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="35"/>
+      <c r="A159" s="33"/>
       <c r="B159" s="21"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -6706,7 +6721,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="35"/>
+      <c r="A160" s="33"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>502</v>
@@ -6716,7 +6731,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="35"/>
+      <c r="A161" s="33"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -6724,7 +6739,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="35"/>
+      <c r="A162" s="33"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>449</v>
@@ -6734,7 +6749,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="35"/>
+      <c r="A163" s="33"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -6742,7 +6757,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="35"/>
+      <c r="A164" s="33"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>478</v>
@@ -6752,7 +6767,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="35"/>
+      <c r="A165" s="33"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>421</v>
@@ -6762,7 +6777,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="35"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>480</v>
@@ -6772,7 +6787,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="35"/>
+      <c r="A167" s="33"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>491</v>
@@ -6782,7 +6797,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="35"/>
+      <c r="A168" s="33"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>493</v>
@@ -6792,7 +6807,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="35"/>
+      <c r="A169" s="33"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>353</v>
@@ -6802,7 +6817,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="35"/>
+      <c r="A170" s="33"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>432</v>
@@ -6812,7 +6827,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="35"/>
+      <c r="A171" s="33"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>336</v>
@@ -6822,7 +6837,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="35">
+      <c r="A173" s="33">
         <v>43413</v>
       </c>
       <c r="B173" s="26"/>
@@ -6834,7 +6849,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="35"/>
+      <c r="A174" s="33"/>
       <c r="B174" s="21"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -6844,7 +6859,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="35"/>
+      <c r="A175" s="33"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>502</v>
@@ -6854,7 +6869,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="35"/>
+      <c r="A176" s="33"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>449</v>
@@ -6864,7 +6879,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="35"/>
+      <c r="A177" s="33"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -6872,7 +6887,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="35"/>
+      <c r="A178" s="33"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>478</v>
@@ -6882,7 +6897,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="35"/>
+      <c r="A179" s="33"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>421</v>
@@ -6892,7 +6907,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="35"/>
+      <c r="A180" s="33"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>480</v>
@@ -6902,7 +6917,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="35"/>
+      <c r="A181" s="33"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>491</v>
@@ -6912,7 +6927,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="35"/>
+      <c r="A182" s="33"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>493</v>
@@ -6922,7 +6937,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="35"/>
+      <c r="A183" s="33"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>353</v>
@@ -6932,7 +6947,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="35"/>
+      <c r="A184" s="33"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>432</v>
@@ -6942,7 +6957,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="35"/>
+      <c r="A185" s="33"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>336</v>
@@ -6952,7 +6967,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="32">
+      <c r="A187" s="34">
         <v>43414</v>
       </c>
       <c r="B187" s="26"/>
@@ -6964,7 +6979,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="32"/>
+      <c r="A188" s="34"/>
       <c r="B188" s="21"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -6972,7 +6987,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="32"/>
+      <c r="A189" s="34"/>
       <c r="B189" s="21"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -6980,7 +6995,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="32"/>
+      <c r="A190" s="34"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -6988,7 +7003,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="32"/>
+      <c r="A191" s="34"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -6996,7 +7011,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="32"/>
+      <c r="A192" s="34"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -7004,7 +7019,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="32"/>
+      <c r="A193" s="34"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -7012,7 +7027,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="32"/>
+      <c r="A194" s="34"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -7020,7 +7035,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="32"/>
+      <c r="A195" s="34"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>432</v>
@@ -7030,7 +7045,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="32"/>
+      <c r="A196" s="34"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>336</v>
@@ -7040,7 +7055,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="32">
+      <c r="A198" s="34">
         <v>43415</v>
       </c>
       <c r="B198" s="26"/>
@@ -7052,7 +7067,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="32"/>
+      <c r="A199" s="34"/>
       <c r="B199" s="26"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -7060,7 +7075,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="32"/>
+      <c r="A200" s="34"/>
       <c r="B200" s="21"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -7070,7 +7085,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="32"/>
+      <c r="A201" s="34"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>449</v>
@@ -7080,7 +7095,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="32"/>
+      <c r="A202" s="34"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>478</v>
@@ -7090,7 +7105,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="32"/>
+      <c r="A203" s="34"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -7100,7 +7115,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="32"/>
+      <c r="A204" s="34"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>480</v>
@@ -7110,7 +7125,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="32"/>
+      <c r="A205" s="34"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>526</v>
@@ -7120,7 +7135,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="32"/>
+      <c r="A206" s="34"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>523</v>
@@ -7130,7 +7145,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="32"/>
+      <c r="A207" s="34"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>524</v>
@@ -7140,7 +7155,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="33">
+      <c r="A209" s="32">
         <v>43416</v>
       </c>
       <c r="B209" s="26"/>
@@ -7152,7 +7167,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="33"/>
+      <c r="A210" s="32"/>
       <c r="B210" s="21"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -7162,7 +7177,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="33"/>
+      <c r="A211" s="32"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -7170,7 +7185,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="33"/>
+      <c r="A212" s="32"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>478</v>
@@ -7180,7 +7195,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="33"/>
+      <c r="A213" s="32"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -7188,7 +7203,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="33"/>
+      <c r="A214" s="32"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -7196,7 +7211,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="33"/>
+      <c r="A215" s="32"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -7204,7 +7219,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="33"/>
+      <c r="A216" s="32"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>353</v>
@@ -7214,7 +7229,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="33"/>
+      <c r="A217" s="32"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>432</v>
@@ -7224,14 +7239,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="33"/>
+      <c r="A218" s="32"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="33">
+      <c r="A220" s="32">
         <v>43417</v>
       </c>
       <c r="B220" s="26"/>
@@ -7243,7 +7258,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="33"/>
+      <c r="A221" s="32"/>
       <c r="B221" s="26"/>
       <c r="C221" s="15" t="s">
         <v>536</v>
@@ -7253,14 +7268,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="33"/>
+      <c r="A222" s="32"/>
       <c r="B222" s="26"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="33"/>
+      <c r="A223" s="32"/>
       <c r="B223" s="21"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -7270,7 +7285,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="33"/>
+      <c r="A224" s="32"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>449</v>
@@ -7280,7 +7295,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="33"/>
+      <c r="A225" s="32"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>478</v>
@@ -7290,7 +7305,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="33"/>
+      <c r="A226" s="32"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>421</v>
@@ -7300,7 +7315,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="33"/>
+      <c r="A227" s="32"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>480</v>
@@ -7310,7 +7325,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="33"/>
+      <c r="A228" s="32"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>353</v>
@@ -7320,7 +7335,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="33"/>
+      <c r="A229" s="32"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>336</v>
@@ -7330,7 +7345,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="33">
+      <c r="A231" s="32">
         <v>43418</v>
       </c>
       <c r="B231" s="26"/>
@@ -7342,14 +7357,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="33"/>
+      <c r="A232" s="32"/>
       <c r="B232" s="26"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="33"/>
+      <c r="A233" s="32"/>
       <c r="B233" s="21"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -7359,7 +7374,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="33"/>
+      <c r="A234" s="32"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -7367,7 +7382,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="33"/>
+      <c r="A235" s="32"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -7375,7 +7390,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="33"/>
+      <c r="A236" s="32"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>478</v>
@@ -7385,7 +7400,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="33"/>
+      <c r="A237" s="32"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -7393,7 +7408,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="33"/>
+      <c r="A238" s="32"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -7401,7 +7416,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="33"/>
+      <c r="A239" s="32"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -7409,7 +7424,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="33"/>
+      <c r="A240" s="32"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -7417,7 +7432,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="33"/>
+      <c r="A241" s="32"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>336</v>
@@ -7427,14 +7442,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="33"/>
+      <c r="A242" s="32"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="33">
+      <c r="A244" s="32">
         <v>43419</v>
       </c>
       <c r="B244" s="26"/>
@@ -7446,14 +7461,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="33"/>
+      <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="D245" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="33"/>
+      <c r="A246" s="32"/>
       <c r="B246" s="21"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -7463,7 +7478,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="33"/>
+      <c r="A247" s="32"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -7471,7 +7486,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="33"/>
+      <c r="A248" s="32"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>478</v>
@@ -7481,7 +7496,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="33"/>
+      <c r="A249" s="32"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -7489,7 +7504,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="33"/>
+      <c r="A250" s="32"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -7497,7 +7512,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="33"/>
+      <c r="A251" s="32"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -7505,7 +7520,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="33"/>
+      <c r="A252" s="32"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>336</v>
@@ -7515,7 +7530,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="33">
+      <c r="A254" s="32">
         <v>43420</v>
       </c>
       <c r="B254" s="26"/>
@@ -7527,7 +7542,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="33"/>
+      <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -7535,14 +7550,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="33"/>
+      <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="D256" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="33"/>
+      <c r="A257" s="32"/>
       <c r="B257" s="21"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -7552,7 +7567,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="33"/>
+      <c r="A258" s="32"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -7560,7 +7575,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="33"/>
+      <c r="A259" s="32"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>478</v>
@@ -7570,14 +7585,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="33"/>
+      <c r="A260" s="32"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="33"/>
+      <c r="A261" s="32"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -7585,7 +7600,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="33"/>
+      <c r="A262" s="32"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -7593,7 +7608,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="33"/>
+      <c r="A263" s="32"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -7601,7 +7616,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="33"/>
+      <c r="A264" s="32"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -7609,7 +7624,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="33"/>
+      <c r="A265" s="32"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>336</v>
@@ -7619,7 +7634,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="32">
+      <c r="A267" s="34">
         <v>43421</v>
       </c>
       <c r="B267" s="26"/>
@@ -7631,7 +7646,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="32"/>
+      <c r="A268" s="34"/>
       <c r="B268" s="26"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -7639,7 +7654,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="32"/>
+      <c r="A269" s="34"/>
       <c r="B269" s="21"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -7647,7 +7662,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="32"/>
+      <c r="A270" s="34"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -7655,14 +7670,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="32"/>
+      <c r="A271" s="34"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="32"/>
+      <c r="A272" s="34"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -7670,7 +7685,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="32"/>
+      <c r="A273" s="34"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -7678,7 +7693,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="32"/>
+      <c r="A274" s="34"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -7686,7 +7701,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="32"/>
+      <c r="A275" s="34"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -7694,7 +7709,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="32"/>
+      <c r="A276" s="34"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>336</v>
@@ -7704,14 +7719,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="32"/>
+      <c r="A277" s="34"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="32">
+      <c r="A279" s="34">
         <v>43422</v>
       </c>
       <c r="B279" s="26"/>
@@ -7723,28 +7738,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="32"/>
+      <c r="A280" s="34"/>
       <c r="B280" s="26"/>
       <c r="D280" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="32"/>
+      <c r="A281" s="34"/>
       <c r="B281" s="26"/>
       <c r="D281" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="32"/>
+      <c r="A282" s="34"/>
       <c r="B282" s="26"/>
       <c r="D282" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="32"/>
+      <c r="A283" s="34"/>
       <c r="B283" s="21"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -7754,7 +7769,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="32"/>
+      <c r="A284" s="34"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -7762,7 +7777,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="32"/>
+      <c r="A285" s="34"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -7770,7 +7785,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="32"/>
+      <c r="A286" s="34"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -7778,7 +7793,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="32"/>
+      <c r="A287" s="34"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -7786,7 +7801,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="32"/>
+      <c r="A288" s="34"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -7796,7 +7811,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="33">
+      <c r="A290" s="32">
         <v>43423</v>
       </c>
       <c r="B290" s="26"/>
@@ -7808,7 +7823,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="33"/>
+      <c r="A291" s="32"/>
       <c r="B291" s="26"/>
       <c r="C291" s="15" t="s">
         <v>250</v>
@@ -7818,14 +7833,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="33"/>
+      <c r="A292" s="32"/>
       <c r="B292" s="26"/>
       <c r="D292" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="33"/>
+      <c r="A293" s="32"/>
       <c r="B293" s="21"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -7835,7 +7850,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="33"/>
+      <c r="A294" s="32"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -7843,7 +7858,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="33"/>
+      <c r="A295" s="32"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>478</v>
@@ -7853,14 +7868,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="33"/>
+      <c r="A296" s="32"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="33"/>
+      <c r="A297" s="32"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -7868,7 +7883,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="33"/>
+      <c r="A298" s="32"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -7876,14 +7891,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="33"/>
+      <c r="A299" s="32"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="33"/>
+      <c r="A300" s="32"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -7891,7 +7906,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="33"/>
+      <c r="A301" s="32"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>336</v>
@@ -7901,7 +7916,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="33">
+      <c r="A303" s="32">
         <v>43424</v>
       </c>
       <c r="B303" s="26"/>
@@ -7913,7 +7928,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="33"/>
+      <c r="A304" s="32"/>
       <c r="B304" s="26"/>
       <c r="C304" s="15" t="s">
         <v>598</v>
@@ -7923,7 +7938,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="33"/>
+      <c r="A305" s="32"/>
       <c r="B305" s="26"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -7931,14 +7946,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="33"/>
+      <c r="A306" s="32"/>
       <c r="B306" s="26"/>
       <c r="D306" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="33"/>
+      <c r="A307" s="32"/>
       <c r="B307" s="21"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -7948,7 +7963,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="33"/>
+      <c r="A308" s="32"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -7956,7 +7971,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="33"/>
+      <c r="A309" s="32"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>478</v>
@@ -7966,21 +7981,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="33"/>
+      <c r="A310" s="32"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="33"/>
+      <c r="A311" s="32"/>
       <c r="B311" s="20"/>
       <c r="D311" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="33"/>
+      <c r="A312" s="32"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -7988,14 +8003,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="33"/>
+      <c r="A313" s="32"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="33"/>
+      <c r="A314" s="32"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -8003,7 +8018,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="33"/>
+      <c r="A315" s="32"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>336</v>
@@ -8013,10 +8028,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="33">
+      <c r="A317" s="32">
         <v>43425</v>
       </c>
-      <c r="B317" s="34" t="s">
+      <c r="B317" s="38" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -8027,24 +8042,24 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="33"/>
-      <c r="B318" s="34"/>
+      <c r="A318" s="32"/>
+      <c r="B318" s="38"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="33"/>
-      <c r="B319" s="34"/>
+      <c r="A319" s="32"/>
+      <c r="B319" s="38"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="33"/>
-      <c r="B320" s="34"/>
+      <c r="A320" s="32"/>
+      <c r="B320" s="38"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -8053,23 +8068,23 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="33"/>
-      <c r="B321" s="34"/>
+      <c r="A321" s="32"/>
+      <c r="B321" s="38"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="33"/>
-      <c r="B322" s="34"/>
+      <c r="A322" s="32"/>
+      <c r="B322" s="38"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="33"/>
-      <c r="B323" s="34"/>
+      <c r="A323" s="32"/>
+      <c r="B323" s="38"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -8078,38 +8093,38 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="33"/>
-      <c r="B324" s="34"/>
+      <c r="A324" s="32"/>
+      <c r="B324" s="38"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="33"/>
-      <c r="B325" s="34"/>
+      <c r="A325" s="32"/>
+      <c r="B325" s="38"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="33"/>
-      <c r="B326" s="34"/>
+      <c r="A326" s="32"/>
+      <c r="B326" s="38"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="33"/>
-      <c r="B327" s="34"/>
+      <c r="A327" s="32"/>
+      <c r="B327" s="38"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="33"/>
-      <c r="B328" s="34"/>
+      <c r="A328" s="32"/>
+      <c r="B328" s="38"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -8118,7 +8133,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="33">
+      <c r="A330" s="32">
         <v>43426</v>
       </c>
       <c r="B330" s="26"/>
@@ -8130,7 +8145,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="33"/>
+      <c r="A331" s="32"/>
       <c r="B331" s="26"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -8138,7 +8153,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="33"/>
+      <c r="A332" s="32"/>
       <c r="B332" s="26"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -8146,7 +8161,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="33"/>
+      <c r="A333" s="32"/>
       <c r="B333" s="26"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
@@ -8156,7 +8171,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="33"/>
+      <c r="A334" s="32"/>
       <c r="B334" s="26"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -8164,21 +8179,21 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="33"/>
+      <c r="A335" s="32"/>
       <c r="B335" s="26"/>
       <c r="D335" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="33"/>
+      <c r="A336" s="32"/>
       <c r="B336" s="26"/>
       <c r="D336" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="33"/>
+      <c r="A337" s="32"/>
       <c r="B337" s="26"/>
       <c r="C337" s="15" t="s">
         <v>616</v>
@@ -8188,14 +8203,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="33"/>
+      <c r="A338" s="32"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="33"/>
+      <c r="A339" s="32"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
@@ -8203,7 +8218,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="33"/>
+      <c r="A340" s="32"/>
       <c r="B340" s="20"/>
       <c r="C340" s="3"/>
       <c r="D340" s="18" t="s">
@@ -8211,7 +8226,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="33"/>
+      <c r="A341" s="32"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
@@ -8219,7 +8234,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="33"/>
+      <c r="A342" s="32"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>336</v>
@@ -8229,7 +8244,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="33">
+      <c r="A344" s="32">
         <v>43427</v>
       </c>
       <c r="B344" s="26"/>
@@ -8241,7 +8256,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="33"/>
+      <c r="A345" s="32"/>
       <c r="B345" s="26"/>
       <c r="C345" s="3" t="s">
         <v>619</v>
@@ -8251,7 +8266,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="33"/>
+      <c r="A346" s="32"/>
       <c r="B346" s="26"/>
       <c r="C346" s="3"/>
       <c r="D346" s="15" t="s">
@@ -8259,7 +8274,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="33"/>
+      <c r="A347" s="32"/>
       <c r="B347" s="26"/>
       <c r="C347" s="3"/>
       <c r="D347" s="15" t="s">
@@ -8267,7 +8282,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="33"/>
+      <c r="A348" s="32"/>
       <c r="B348" s="26"/>
       <c r="C348" s="3"/>
       <c r="D348" s="15" t="s">
@@ -8275,7 +8290,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="33"/>
+      <c r="A349" s="32"/>
       <c r="B349" s="26"/>
       <c r="C349" s="15" t="s">
         <v>266</v>
@@ -8285,7 +8300,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="33"/>
+      <c r="A350" s="32"/>
       <c r="B350" s="26"/>
       <c r="C350" s="15" t="s">
         <v>616</v>
@@ -8295,14 +8310,14 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="33"/>
+      <c r="A351" s="32"/>
       <c r="B351" s="26"/>
       <c r="D351" s="15" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="33"/>
+      <c r="A352" s="32"/>
       <c r="B352" s="26"/>
       <c r="C352" s="3"/>
       <c r="D352" s="15" t="s">
@@ -8310,22 +8325,22 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="33"/>
+      <c r="A353" s="32"/>
       <c r="B353" s="26"/>
       <c r="D353" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="33"/>
+      <c r="A354" s="32"/>
       <c r="B354" s="20"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="33"/>
+      <c r="A355" s="32"/>
       <c r="B355" s="20"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="33"/>
+      <c r="A356" s="32"/>
       <c r="B356" s="20"/>
       <c r="C356" s="3"/>
       <c r="D356" s="15" t="s">
@@ -8333,7 +8348,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="33"/>
+      <c r="A357" s="32"/>
       <c r="B357" s="20"/>
       <c r="C357" t="s">
         <v>336</v>
@@ -8343,7 +8358,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="32">
+      <c r="A359" s="34">
         <v>43428</v>
       </c>
       <c r="B359" s="26"/>
@@ -8355,7 +8370,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="32"/>
+      <c r="A360" s="34"/>
       <c r="B360" s="26"/>
       <c r="C360" s="3"/>
       <c r="D360" s="15" t="s">
@@ -8363,7 +8378,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="32"/>
+      <c r="A361" s="34"/>
       <c r="B361" s="26"/>
       <c r="C361" s="3"/>
       <c r="D361" s="15" t="s">
@@ -8371,7 +8386,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="32"/>
+      <c r="A362" s="34"/>
       <c r="B362" s="26"/>
       <c r="C362" s="3"/>
       <c r="D362" s="15" t="s">
@@ -8379,7 +8394,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="32"/>
+      <c r="A363" s="34"/>
       <c r="B363" s="26"/>
       <c r="C363" s="3"/>
       <c r="D363" s="15" t="s">
@@ -8387,14 +8402,14 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="32"/>
+      <c r="A364" s="34"/>
       <c r="B364" s="26"/>
       <c r="D364" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="32"/>
+      <c r="A365" s="34"/>
       <c r="B365" s="26"/>
       <c r="C365" s="3"/>
       <c r="D365" s="15" t="s">
@@ -8402,14 +8417,14 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="32"/>
+      <c r="A366" s="34"/>
       <c r="B366" s="26"/>
       <c r="D366" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="32"/>
+      <c r="A367" s="34"/>
       <c r="B367" s="20"/>
       <c r="C367" s="3"/>
       <c r="D367" s="15" t="s">
@@ -8417,14 +8432,14 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="32"/>
+      <c r="A368" s="34"/>
       <c r="B368" s="20"/>
       <c r="D368" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="32">
+      <c r="A370" s="34">
         <v>43429</v>
       </c>
       <c r="B370" s="26"/>
@@ -8436,7 +8451,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="32"/>
+      <c r="A371" s="34"/>
       <c r="B371" s="26"/>
       <c r="C371" s="3" t="s">
         <v>619</v>
@@ -8446,7 +8461,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="32"/>
+      <c r="A372" s="34"/>
       <c r="B372" s="26"/>
       <c r="C372" s="3"/>
       <c r="D372" s="15" t="s">
@@ -8454,7 +8469,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="32"/>
+      <c r="A373" s="34"/>
       <c r="B373" s="26"/>
       <c r="C373" s="3"/>
       <c r="D373" s="15" t="s">
@@ -8462,7 +8477,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="32"/>
+      <c r="A374" s="34"/>
       <c r="B374" s="26"/>
       <c r="C374" s="3"/>
       <c r="D374" s="15" t="s">
@@ -8470,7 +8485,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="32"/>
+      <c r="A375" s="34"/>
       <c r="B375" s="26"/>
       <c r="C375" s="15" t="s">
         <v>266</v>
@@ -8480,7 +8495,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="32"/>
+      <c r="A376" s="34"/>
       <c r="B376" s="26"/>
       <c r="C376" s="3"/>
       <c r="D376" s="15" t="s">
@@ -8488,14 +8503,14 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="32"/>
+      <c r="A377" s="34"/>
       <c r="B377" s="26"/>
       <c r="D377" s="15" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="32"/>
+      <c r="A378" s="34"/>
       <c r="B378" s="26"/>
       <c r="C378" s="3"/>
       <c r="D378" s="15" t="s">
@@ -8503,7 +8518,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="32"/>
+      <c r="A379" s="34"/>
       <c r="B379" s="26"/>
       <c r="C379" s="3"/>
       <c r="D379" s="15" t="s">
@@ -8511,14 +8526,14 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="32"/>
+      <c r="A380" s="34"/>
       <c r="B380" s="26"/>
       <c r="D380" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="32"/>
+      <c r="A381" s="34"/>
       <c r="B381" s="20"/>
       <c r="C381" t="s">
         <v>368</v>
@@ -8528,7 +8543,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="32"/>
+      <c r="A382" s="34"/>
       <c r="B382" s="20"/>
       <c r="C382" t="s">
         <v>336</v>
@@ -8538,7 +8553,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="33">
+      <c r="A384" s="32">
         <v>43430</v>
       </c>
       <c r="B384" s="26"/>
@@ -8550,7 +8565,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="33"/>
+      <c r="A385" s="32"/>
       <c r="B385" s="26"/>
       <c r="C385" s="3" t="s">
         <v>640</v>
@@ -8560,7 +8575,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="33"/>
+      <c r="A386" s="32"/>
       <c r="B386" s="26"/>
       <c r="C386" s="3"/>
       <c r="D386" s="15" t="s">
@@ -8568,7 +8583,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="33"/>
+      <c r="A387" s="32"/>
       <c r="B387" s="26"/>
       <c r="C387" s="15" t="s">
         <v>266</v>
@@ -8578,7 +8593,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="33"/>
+      <c r="A388" s="32"/>
       <c r="B388" s="26"/>
       <c r="C388" s="15" t="s">
         <v>616</v>
@@ -8588,55 +8603,59 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="33"/>
-      <c r="B389" s="26"/>
+      <c r="A389" s="32"/>
+      <c r="B389" s="38" t="s">
+        <v>654</v>
+      </c>
       <c r="D389" s="15" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="33"/>
-      <c r="B390" s="26"/>
+      <c r="A390" s="32"/>
+      <c r="B390" s="38"/>
       <c r="C390" s="3"/>
       <c r="D390" s="15" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="33"/>
-      <c r="B391" s="26"/>
+      <c r="A391" s="32"/>
+      <c r="B391" s="38"/>
       <c r="C391" s="3"/>
       <c r="D391" s="15" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="33"/>
-      <c r="B392" s="26"/>
+      <c r="A392" s="32"/>
+      <c r="B392" s="38"/>
       <c r="D392" s="15" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="33"/>
-      <c r="B393" s="20"/>
+      <c r="A393" s="32"/>
+      <c r="B393" s="38"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="33"/>
-      <c r="B394" s="20"/>
+      <c r="A394" s="32"/>
+      <c r="B394" s="38"/>
       <c r="D394" s="15" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="33">
+      <c r="A396" s="32">
         <v>43431</v>
       </c>
-      <c r="B396" s="26"/>
+      <c r="B396" s="38" t="s">
+        <v>653</v>
+      </c>
       <c r="C396" t="s">
         <v>647</v>
       </c>
@@ -8645,8 +8664,8 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="33"/>
-      <c r="B397" s="26"/>
+      <c r="A397" s="32"/>
+      <c r="B397" s="38"/>
       <c r="C397" s="3" t="s">
         <v>640</v>
       </c>
@@ -8655,88 +8674,85 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="33"/>
-      <c r="B398" s="26"/>
+      <c r="A398" s="32"/>
+      <c r="B398" s="38"/>
       <c r="C398" s="3"/>
       <c r="D398" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="33"/>
-      <c r="B399" s="26"/>
+      <c r="A399" s="32"/>
+      <c r="B399" s="38"/>
       <c r="C399" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D399" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="32"/>
+      <c r="B400" s="38"/>
+      <c r="C400" s="3"/>
+      <c r="D400" s="15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="32"/>
+      <c r="B401" s="38"/>
+      <c r="C401" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="D401" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="32"/>
+      <c r="B402" s="38"/>
+      <c r="D402" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="32"/>
+      <c r="B403" s="38"/>
+      <c r="C403" s="3"/>
+      <c r="D403" s="15" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" s="32"/>
+      <c r="B404" s="38"/>
+      <c r="D404" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="32"/>
+      <c r="B405" s="38"/>
+      <c r="C405" s="3"/>
+      <c r="D405" s="15" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="33"/>
-      <c r="B400" s="26"/>
-      <c r="C400" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="D400" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="33"/>
-      <c r="B401" s="26"/>
-      <c r="D401" s="15" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="33"/>
-      <c r="B402" s="26"/>
-      <c r="C402" s="3"/>
-      <c r="D402" s="15" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="33"/>
-      <c r="B403" s="26"/>
-      <c r="D403" s="15" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="33"/>
-      <c r="B404" s="20"/>
-      <c r="C404" s="3"/>
-      <c r="D404" s="15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="33"/>
-      <c r="B405" s="20"/>
-      <c r="C405" t="s">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="32"/>
+      <c r="B406" s="38"/>
+      <c r="C406" t="s">
         <v>336</v>
       </c>
-      <c r="D405" s="15" t="s">
+      <c r="D406" s="15" t="s">
         <v>412</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A290:A301"/>
-    <mergeCell ref="A396:A405"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
+  <mergeCells count="36">
+    <mergeCell ref="B396:B406"/>
+    <mergeCell ref="B389:B394"/>
     <mergeCell ref="B317:B328"/>
     <mergeCell ref="A330:A342"/>
     <mergeCell ref="A344:A357"/>
@@ -8753,6 +8769,19 @@
     <mergeCell ref="A173:A185"/>
     <mergeCell ref="A254:A265"/>
     <mergeCell ref="A244:A252"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A396:A406"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
     <mergeCell ref="A359:A368"/>
     <mergeCell ref="A370:A382"/>
     <mergeCell ref="A384:A394"/>
@@ -9447,7 +9476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C26 C32">
+  <conditionalFormatting sqref="C26 C28 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2CECBDE9-CDAA-4205-A921-C6CF96DB0E92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E756C7-55DD-46BF-8E02-7B55CAD65EC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">体温!$C$1:$C$34</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="664">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3377,13 +3376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚餐：茄子炒肉</t>
-    <rPh sb="0" eb="1">
-      <t>wan canyou po dao xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测着体温差点睡着，侧身流口水</t>
     <rPh sb="0" eb="8">
       <t>cezheti wencha dianshui zhao</t>
@@ -3400,9 +3392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.05-7.18</t>
-  </si>
-  <si>
     <t>6.35-6.48</t>
   </si>
   <si>
@@ -3465,6 +3454,59 @@
   </si>
   <si>
     <t>吃维C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测着体温差点睡着，时长，翻动</t>
+    <rPh sb="0" eb="8">
+      <t>cezheti wencha dianshui zhao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui zhao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>rong yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhang kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：蛋炒饭+豆浆</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：茄子炒肉+豆浆</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃坚果+山楂+吃苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20-10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+敷面膜+泡脚+护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：番茄烩牛肉+蒜苔炒肉+玉米+粥+蛋炒饭+虾皮小白菜+麻婆豆腐</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3692,6 +3734,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3705,9 +3750,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5203,10 +5245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I406"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="D405" sqref="D405"/>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="D414" sqref="D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5246,7 +5288,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="33">
+      <c r="A2" s="34">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -5255,7 +5297,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -5265,7 +5307,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -5275,56 +5317,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+      <c r="A13" s="34">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5335,7 +5377,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -5348,8 +5390,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="37" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -5357,8 +5399,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -5367,8 +5409,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="38"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -5377,7 +5419,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -5387,7 +5429,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -5397,7 +5439,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -5407,7 +5449,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>333</v>
@@ -5417,7 +5459,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>310</v>
@@ -5427,7 +5469,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>335</v>
@@ -5437,7 +5479,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>336</v>
@@ -5447,7 +5489,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33">
+      <c r="A26" s="34">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -5458,8 +5500,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="36" t="s">
         <v>370</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -5470,8 +5512,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" t="s">
         <v>300</v>
       </c>
@@ -5480,8 +5522,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="36"/>
       <c r="C29" t="s">
         <v>358</v>
       </c>
@@ -5490,8 +5532,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -5500,8 +5542,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="15" t="s">
         <v>371</v>
       </c>
@@ -5510,8 +5552,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -5523,8 +5565,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="36"/>
       <c r="C33" t="s">
         <v>365</v>
       </c>
@@ -5533,8 +5575,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="36"/>
       <c r="C34" t="s">
         <v>367</v>
       </c>
@@ -5543,7 +5585,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="29"/>
       <c r="C35" s="15" t="s">
         <v>280</v>
@@ -5553,7 +5595,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="29"/>
       <c r="C36" s="15" t="s">
         <v>374</v>
@@ -5563,7 +5605,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>368</v>
@@ -5573,7 +5615,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>336</v>
@@ -5583,7 +5625,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="33">
+      <c r="A40" s="34">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -5600,7 +5642,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="21"/>
       <c r="C41" s="15" t="s">
         <v>342</v>
@@ -5610,7 +5652,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="21"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -5620,7 +5662,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -5630,7 +5672,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>397</v>
@@ -5640,7 +5682,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="23" t="s">
         <v>404</v>
       </c>
@@ -5652,7 +5694,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>400</v>
@@ -5662,7 +5704,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -5672,7 +5714,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>401</v>
@@ -5682,7 +5724,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>403</v>
@@ -5692,7 +5734,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -5702,7 +5744,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -5712,7 +5754,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>407</v>
@@ -5722,7 +5764,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>321</v>
@@ -5732,7 +5774,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -5742,7 +5784,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>368</v>
@@ -5752,7 +5794,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="33">
+      <c r="A57" s="34">
         <v>43406</v>
       </c>
       <c r="B57" s="39" t="s">
@@ -5767,7 +5809,7 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="39"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
@@ -5777,7 +5819,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="33"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="21"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -5787,7 +5829,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -5797,7 +5839,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>397</v>
@@ -5807,7 +5849,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>400</v>
@@ -5817,7 +5859,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>427</v>
@@ -5827,7 +5869,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>428</v>
@@ -5837,7 +5879,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="33"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -5847,7 +5889,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="33"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>430</v>
@@ -5857,7 +5899,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="33"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>431</v>
@@ -5867,7 +5909,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="33"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>433</v>
@@ -5877,7 +5919,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="33"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>432</v>
@@ -5887,7 +5929,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="33"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>336</v>
@@ -5897,7 +5939,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="34">
+      <c r="A72" s="35">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -5910,7 +5952,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="34"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -5921,7 +5963,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="34"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -5931,7 +5973,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="34"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -5939,7 +5981,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="34"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -5949,7 +5991,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -5959,7 +6001,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="34"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -5969,7 +6011,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="34"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -5979,7 +6021,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="34"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -5989,7 +6031,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="34"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -5999,7 +6041,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="34"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>471</v>
@@ -6009,7 +6051,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="34"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>472</v>
@@ -6020,7 +6062,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>473</v>
@@ -6031,7 +6073,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="34">
+      <c r="A86" s="35">
         <v>43408</v>
       </c>
       <c r="B86" s="30" t="s">
@@ -6045,7 +6087,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="34"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="27"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -6053,7 +6095,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="34"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="27"/>
       <c r="C88" s="15" t="s">
         <v>475</v>
@@ -6063,14 +6105,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="34"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="21"/>
       <c r="D89" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="34"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -6078,7 +6120,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="34"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>484</v>
@@ -6088,7 +6130,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="34"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>459</v>
@@ -6098,7 +6140,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="34"/>
+      <c r="A93" s="35"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>460</v>
@@ -6108,7 +6150,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="34"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>461</v>
@@ -6118,7 +6160,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="34"/>
+      <c r="A95" s="35"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>347</v>
@@ -6128,11 +6170,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="34"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="34"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -6142,7 +6184,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="34"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -6152,7 +6194,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="34"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>310</v>
@@ -6162,7 +6204,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="34"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -6172,7 +6214,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="34"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>489</v>
@@ -6182,7 +6224,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="34"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>490</v>
@@ -6192,7 +6234,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="33">
+      <c r="A104" s="34">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -6200,7 +6242,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="33"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="25" t="s">
         <v>409</v>
       </c>
@@ -6212,7 +6254,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="33"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="26"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -6221,7 +6263,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="33"/>
+      <c r="A107" s="34"/>
       <c r="B107" s="26"/>
       <c r="C107" s="15" t="s">
         <v>342</v>
@@ -6231,7 +6273,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="33"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="21"/>
       <c r="C108" s="15" t="s">
         <v>434</v>
@@ -6241,7 +6283,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="33"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -6251,7 +6293,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="33"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -6259,7 +6301,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="33"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>423</v>
@@ -6269,7 +6311,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="33"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>421</v>
@@ -6279,7 +6321,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="33"/>
+      <c r="A113" s="34"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>440</v>
@@ -6289,7 +6331,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="33"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>445</v>
@@ -6299,7 +6341,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="33"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>444</v>
@@ -6309,7 +6351,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="33"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>441</v>
@@ -6319,7 +6361,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="33"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>442</v>
@@ -6329,7 +6371,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="33"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>443</v>
@@ -6339,7 +6381,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="33">
+      <c r="A120" s="34">
         <v>43410</v>
       </c>
       <c r="B120" s="26"/>
@@ -6351,7 +6393,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="33"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="26"/>
       <c r="C121" s="15" t="s">
         <v>437</v>
@@ -6361,7 +6403,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="33"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="21"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -6371,7 +6413,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="33"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="21"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -6379,7 +6421,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="33"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -6389,7 +6431,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="33"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>447</v>
@@ -6399,7 +6441,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="33"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>400</v>
@@ -6409,7 +6451,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="33"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>449</v>
@@ -6419,7 +6461,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="33"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>478</v>
@@ -6429,7 +6471,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="33"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>479</v>
@@ -6439,7 +6481,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="33"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>480</v>
@@ -6449,7 +6491,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="33"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>491</v>
@@ -6459,7 +6501,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="33"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>493</v>
@@ -6469,7 +6511,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="33"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -6479,7 +6521,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="33"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -6489,7 +6531,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="33"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>424</v>
@@ -6499,7 +6541,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="33"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -6509,7 +6551,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="33">
+      <c r="A138" s="34">
         <v>43411</v>
       </c>
       <c r="B138" s="26"/>
@@ -6521,7 +6563,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="33"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="26"/>
       <c r="C139" s="18" t="s">
         <v>337</v>
@@ -6531,7 +6573,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="33"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="26"/>
       <c r="C140" s="15" t="s">
         <v>342</v>
@@ -6541,7 +6583,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="33"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="21"/>
       <c r="C141" s="3" t="s">
         <v>500</v>
@@ -6551,7 +6593,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="33"/>
+      <c r="A142" s="34"/>
       <c r="B142" s="21"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -6561,7 +6603,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="33"/>
+      <c r="A143" s="34"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>502</v>
@@ -6571,7 +6613,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="33"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -6579,7 +6621,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="33"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>449</v>
@@ -6589,7 +6631,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="33"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>478</v>
@@ -6599,7 +6641,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="33"/>
+      <c r="A147" s="34"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>421</v>
@@ -6609,7 +6651,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="33"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>440</v>
@@ -6619,7 +6661,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="33"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>480</v>
@@ -6629,7 +6671,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="33"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -6639,7 +6681,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="33"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>294</v>
@@ -6649,7 +6691,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="33"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>441</v>
@@ -6659,7 +6701,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="33"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>368</v>
@@ -6669,7 +6711,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="33"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>336</v>
@@ -6679,7 +6721,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="33">
+      <c r="A156" s="34">
         <v>43412</v>
       </c>
       <c r="B156" s="26"/>
@@ -6691,7 +6733,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="33"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="26"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -6701,7 +6743,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="33"/>
+      <c r="A158" s="34"/>
       <c r="B158" s="21"/>
       <c r="C158" s="3" t="s">
         <v>508</v>
@@ -6711,7 +6753,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="33"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="21"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -6721,7 +6763,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="33"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>502</v>
@@ -6731,7 +6773,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="33"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -6739,7 +6781,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="33"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>449</v>
@@ -6749,7 +6791,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="33"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -6757,7 +6799,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="33"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>478</v>
@@ -6767,7 +6809,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="33"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>421</v>
@@ -6777,7 +6819,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="33"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>480</v>
@@ -6787,7 +6829,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="33"/>
+      <c r="A167" s="34"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>491</v>
@@ -6797,7 +6839,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="33"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>493</v>
@@ -6807,7 +6849,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="33"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>353</v>
@@ -6817,7 +6859,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="33"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>432</v>
@@ -6827,7 +6869,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="33"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>336</v>
@@ -6837,7 +6879,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="33">
+      <c r="A173" s="34">
         <v>43413</v>
       </c>
       <c r="B173" s="26"/>
@@ -6849,7 +6891,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="33"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="21"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -6859,7 +6901,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="33"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>502</v>
@@ -6869,7 +6911,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="33"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>449</v>
@@ -6879,7 +6921,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="33"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -6887,7 +6929,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="33"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>478</v>
@@ -6897,7 +6939,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="33"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>421</v>
@@ -6907,7 +6949,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="33"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>480</v>
@@ -6917,7 +6959,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="33"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>491</v>
@@ -6927,7 +6969,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="33"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>493</v>
@@ -6937,7 +6979,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="33"/>
+      <c r="A183" s="34"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>353</v>
@@ -6947,7 +6989,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="33"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>432</v>
@@ -6957,7 +6999,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="33"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>336</v>
@@ -6967,7 +7009,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="34">
+      <c r="A187" s="35">
         <v>43414</v>
       </c>
       <c r="B187" s="26"/>
@@ -6979,7 +7021,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="34"/>
+      <c r="A188" s="35"/>
       <c r="B188" s="21"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -6987,7 +7029,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="34"/>
+      <c r="A189" s="35"/>
       <c r="B189" s="21"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -6995,7 +7037,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="34"/>
+      <c r="A190" s="35"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -7003,7 +7045,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="34"/>
+      <c r="A191" s="35"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -7011,7 +7053,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="34"/>
+      <c r="A192" s="35"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -7019,7 +7061,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="34"/>
+      <c r="A193" s="35"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -7027,7 +7069,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="34"/>
+      <c r="A194" s="35"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -7035,7 +7077,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="34"/>
+      <c r="A195" s="35"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>432</v>
@@ -7045,7 +7087,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="34"/>
+      <c r="A196" s="35"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>336</v>
@@ -7055,7 +7097,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="34">
+      <c r="A198" s="35">
         <v>43415</v>
       </c>
       <c r="B198" s="26"/>
@@ -7067,7 +7109,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="34"/>
+      <c r="A199" s="35"/>
       <c r="B199" s="26"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -7075,7 +7117,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="34"/>
+      <c r="A200" s="35"/>
       <c r="B200" s="21"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -7085,7 +7127,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="34"/>
+      <c r="A201" s="35"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>449</v>
@@ -7095,7 +7137,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="34"/>
+      <c r="A202" s="35"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>478</v>
@@ -7105,7 +7147,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="34"/>
+      <c r="A203" s="35"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -7115,7 +7157,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="34"/>
+      <c r="A204" s="35"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>480</v>
@@ -7125,7 +7167,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="34"/>
+      <c r="A205" s="35"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>526</v>
@@ -7135,7 +7177,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="34"/>
+      <c r="A206" s="35"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>523</v>
@@ -7145,7 +7187,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="34"/>
+      <c r="A207" s="35"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>524</v>
@@ -7634,7 +7676,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="34">
+      <c r="A267" s="35">
         <v>43421</v>
       </c>
       <c r="B267" s="26"/>
@@ -7646,7 +7688,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="34"/>
+      <c r="A268" s="35"/>
       <c r="B268" s="26"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -7654,7 +7696,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="34"/>
+      <c r="A269" s="35"/>
       <c r="B269" s="21"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -7662,7 +7704,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="34"/>
+      <c r="A270" s="35"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -7670,14 +7712,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="34"/>
+      <c r="A271" s="35"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="34"/>
+      <c r="A272" s="35"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -7685,7 +7727,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="34"/>
+      <c r="A273" s="35"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -7693,7 +7735,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="34"/>
+      <c r="A274" s="35"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -7701,7 +7743,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="34"/>
+      <c r="A275" s="35"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -7709,7 +7751,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="34"/>
+      <c r="A276" s="35"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>336</v>
@@ -7719,14 +7761,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="34"/>
+      <c r="A277" s="35"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="34">
+      <c r="A279" s="35">
         <v>43422</v>
       </c>
       <c r="B279" s="26"/>
@@ -7738,28 +7780,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="34"/>
+      <c r="A280" s="35"/>
       <c r="B280" s="26"/>
       <c r="D280" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="34"/>
+      <c r="A281" s="35"/>
       <c r="B281" s="26"/>
       <c r="D281" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="34"/>
+      <c r="A282" s="35"/>
       <c r="B282" s="26"/>
       <c r="D282" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="34"/>
+      <c r="A283" s="35"/>
       <c r="B283" s="21"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -7769,7 +7811,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="34"/>
+      <c r="A284" s="35"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -7777,7 +7819,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="34"/>
+      <c r="A285" s="35"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -7785,7 +7827,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="34"/>
+      <c r="A286" s="35"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -7793,7 +7835,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="34"/>
+      <c r="A287" s="35"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -7801,7 +7843,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="34"/>
+      <c r="A288" s="35"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -8031,7 +8073,7 @@
       <c r="A317" s="32">
         <v>43425</v>
       </c>
-      <c r="B317" s="38" t="s">
+      <c r="B317" s="33" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -8043,7 +8085,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="32"/>
-      <c r="B318" s="38"/>
+      <c r="B318" s="33"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
@@ -8051,7 +8093,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="32"/>
-      <c r="B319" s="38"/>
+      <c r="B319" s="33"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
@@ -8059,7 +8101,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="32"/>
-      <c r="B320" s="38"/>
+      <c r="B320" s="33"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -8069,7 +8111,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="32"/>
-      <c r="B321" s="38"/>
+      <c r="B321" s="33"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
@@ -8077,14 +8119,14 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="32"/>
-      <c r="B322" s="38"/>
+      <c r="B322" s="33"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="32"/>
-      <c r="B323" s="38"/>
+      <c r="B323" s="33"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -8094,14 +8136,14 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="32"/>
-      <c r="B324" s="38"/>
+      <c r="B324" s="33"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="32"/>
-      <c r="B325" s="38"/>
+      <c r="B325" s="33"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
@@ -8109,14 +8151,14 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="32"/>
-      <c r="B326" s="38"/>
+      <c r="B326" s="33"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="32"/>
-      <c r="B327" s="38"/>
+      <c r="B327" s="33"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
@@ -8124,7 +8166,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="32"/>
-      <c r="B328" s="38"/>
+      <c r="B328" s="33"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -8358,7 +8400,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="34">
+      <c r="A359" s="35">
         <v>43428</v>
       </c>
       <c r="B359" s="26"/>
@@ -8370,7 +8412,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="34"/>
+      <c r="A360" s="35"/>
       <c r="B360" s="26"/>
       <c r="C360" s="3"/>
       <c r="D360" s="15" t="s">
@@ -8378,7 +8420,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="34"/>
+      <c r="A361" s="35"/>
       <c r="B361" s="26"/>
       <c r="C361" s="3"/>
       <c r="D361" s="15" t="s">
@@ -8386,7 +8428,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="34"/>
+      <c r="A362" s="35"/>
       <c r="B362" s="26"/>
       <c r="C362" s="3"/>
       <c r="D362" s="15" t="s">
@@ -8394,7 +8436,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="34"/>
+      <c r="A363" s="35"/>
       <c r="B363" s="26"/>
       <c r="C363" s="3"/>
       <c r="D363" s="15" t="s">
@@ -8402,14 +8444,14 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="34"/>
+      <c r="A364" s="35"/>
       <c r="B364" s="26"/>
       <c r="D364" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="34"/>
+      <c r="A365" s="35"/>
       <c r="B365" s="26"/>
       <c r="C365" s="3"/>
       <c r="D365" s="15" t="s">
@@ -8417,14 +8459,14 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="34"/>
+      <c r="A366" s="35"/>
       <c r="B366" s="26"/>
       <c r="D366" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="34"/>
+      <c r="A367" s="35"/>
       <c r="B367" s="20"/>
       <c r="C367" s="3"/>
       <c r="D367" s="15" t="s">
@@ -8432,14 +8474,14 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="34"/>
+      <c r="A368" s="35"/>
       <c r="B368" s="20"/>
       <c r="D368" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="34">
+      <c r="A370" s="35">
         <v>43429</v>
       </c>
       <c r="B370" s="26"/>
@@ -8451,7 +8493,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="34"/>
+      <c r="A371" s="35"/>
       <c r="B371" s="26"/>
       <c r="C371" s="3" t="s">
         <v>619</v>
@@ -8461,7 +8503,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="34"/>
+      <c r="A372" s="35"/>
       <c r="B372" s="26"/>
       <c r="C372" s="3"/>
       <c r="D372" s="15" t="s">
@@ -8469,7 +8511,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="34"/>
+      <c r="A373" s="35"/>
       <c r="B373" s="26"/>
       <c r="C373" s="3"/>
       <c r="D373" s="15" t="s">
@@ -8477,7 +8519,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="34"/>
+      <c r="A374" s="35"/>
       <c r="B374" s="26"/>
       <c r="C374" s="3"/>
       <c r="D374" s="15" t="s">
@@ -8485,7 +8527,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="34"/>
+      <c r="A375" s="35"/>
       <c r="B375" s="26"/>
       <c r="C375" s="15" t="s">
         <v>266</v>
@@ -8495,7 +8537,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="34"/>
+      <c r="A376" s="35"/>
       <c r="B376" s="26"/>
       <c r="C376" s="3"/>
       <c r="D376" s="15" t="s">
@@ -8503,14 +8545,14 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="34"/>
+      <c r="A377" s="35"/>
       <c r="B377" s="26"/>
       <c r="D377" s="15" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="34"/>
+      <c r="A378" s="35"/>
       <c r="B378" s="26"/>
       <c r="C378" s="3"/>
       <c r="D378" s="15" t="s">
@@ -8518,7 +8560,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="34"/>
+      <c r="A379" s="35"/>
       <c r="B379" s="26"/>
       <c r="C379" s="3"/>
       <c r="D379" s="15" t="s">
@@ -8526,14 +8568,14 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="34"/>
+      <c r="A380" s="35"/>
       <c r="B380" s="26"/>
       <c r="D380" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="34"/>
+      <c r="A381" s="35"/>
       <c r="B381" s="20"/>
       <c r="C381" t="s">
         <v>368</v>
@@ -8543,7 +8585,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="34"/>
+      <c r="A382" s="35"/>
       <c r="B382" s="20"/>
       <c r="C382" t="s">
         <v>336</v>
@@ -8604,16 +8646,16 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="32"/>
-      <c r="B389" s="38" t="s">
-        <v>654</v>
+      <c r="B389" s="33" t="s">
+        <v>652</v>
       </c>
       <c r="D389" s="15" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="32"/>
-      <c r="B390" s="38"/>
+      <c r="B390" s="33"/>
       <c r="C390" s="3"/>
       <c r="D390" s="15" t="s">
         <v>618</v>
@@ -8621,43 +8663,43 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="32"/>
-      <c r="B391" s="38"/>
+      <c r="B391" s="33"/>
       <c r="C391" s="3"/>
       <c r="D391" s="15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="32"/>
-      <c r="B392" s="38"/>
+      <c r="B392" s="33"/>
       <c r="D392" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="32"/>
-      <c r="B393" s="38"/>
+      <c r="B393" s="33"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="32"/>
-      <c r="B394" s="38"/>
+      <c r="B394" s="33"/>
       <c r="D394" s="15" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="32">
         <v>43431</v>
       </c>
-      <c r="B396" s="38" t="s">
-        <v>653</v>
+      <c r="B396" s="33" t="s">
+        <v>651</v>
       </c>
       <c r="C396" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D396" s="15" t="s">
         <v>639</v>
@@ -8665,7 +8707,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="32"/>
-      <c r="B397" s="38"/>
+      <c r="B397" s="33"/>
       <c r="C397" s="3" t="s">
         <v>640</v>
       </c>
@@ -8675,7 +8717,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="32"/>
-      <c r="B398" s="38"/>
+      <c r="B398" s="33"/>
       <c r="C398" s="3"/>
       <c r="D398" s="15" t="s">
         <v>622</v>
@@ -8683,25 +8725,25 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="32"/>
-      <c r="B399" s="38"/>
+      <c r="B399" s="33"/>
       <c r="C399" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D399" s="15" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="32"/>
-      <c r="B400" s="38"/>
+      <c r="B400" s="33"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="32"/>
-      <c r="B401" s="38"/>
+      <c r="B401" s="33"/>
       <c r="C401" s="15" t="s">
         <v>616</v>
       </c>
@@ -8711,47 +8753,141 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="32"/>
-      <c r="B402" s="38"/>
+      <c r="B402" s="33"/>
       <c r="D402" s="15" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="32"/>
-      <c r="B403" s="38"/>
+      <c r="B403" s="33"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="32"/>
-      <c r="B404" s="38"/>
+      <c r="B404" s="33"/>
+      <c r="C404" s="3"/>
       <c r="D404" s="15" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="32"/>
-      <c r="B405" s="38"/>
+      <c r="B405" s="33"/>
       <c r="C405" s="3"/>
       <c r="D405" s="15" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="32"/>
-      <c r="B406" s="38"/>
+      <c r="B406" s="33"/>
       <c r="C406" t="s">
         <v>336</v>
       </c>
       <c r="D406" s="15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="32">
+        <v>43432</v>
+      </c>
+      <c r="B408" s="33"/>
+      <c r="C408" t="s">
+        <v>645</v>
+      </c>
+      <c r="D408" s="15" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="32"/>
+      <c r="B409" s="33"/>
+      <c r="C409" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D409" s="15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="32"/>
+      <c r="B410" s="33"/>
+      <c r="C410" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D410" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="32"/>
+      <c r="B411" s="33"/>
+      <c r="C411" s="3"/>
+      <c r="D411" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="32"/>
+      <c r="B412" s="33"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" s="32"/>
+      <c r="B413" s="33"/>
+      <c r="C413" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="D413" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="32"/>
+      <c r="B414" s="33"/>
+      <c r="D414" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" s="32"/>
+      <c r="B415" s="33"/>
+      <c r="C415" s="3"/>
+      <c r="D415" s="15" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" s="32"/>
+      <c r="B416" s="33"/>
+      <c r="D416" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="32"/>
+      <c r="B417" s="33"/>
+      <c r="C417" s="3"/>
+      <c r="D417" s="15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" s="32"/>
+      <c r="B418" s="33"/>
+      <c r="C418" t="s">
+        <v>336</v>
+      </c>
+      <c r="D418" s="15" t="s">
         <v>412</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B396:B406"/>
+  <mergeCells count="38">
     <mergeCell ref="B389:B394"/>
     <mergeCell ref="B317:B328"/>
     <mergeCell ref="A330:A342"/>
@@ -8774,6 +8910,8 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A408:A418"/>
+    <mergeCell ref="B408:B418"/>
     <mergeCell ref="A290:A301"/>
     <mergeCell ref="A396:A406"/>
     <mergeCell ref="A156:A171"/>
@@ -8787,6 +8925,7 @@
     <mergeCell ref="A384:A394"/>
     <mergeCell ref="A303:A315"/>
     <mergeCell ref="A317:A328"/>
+    <mergeCell ref="B396:B406"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8988,8 +9127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9403,7 +9542,7 @@
         <v>36.9</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -9411,13 +9550,13 @@
         <v>43431</v>
       </c>
       <c r="B30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C30" s="24">
         <v>36.9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -9425,13 +9564,13 @@
         <v>43432</v>
       </c>
       <c r="B31" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C31" s="24">
-        <v>36.82</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>518</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9439,7 +9578,7 @@
         <v>43433</v>
       </c>
       <c r="B32" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C32" s="24">
         <v>36.82</v>
@@ -9453,7 +9592,7 @@
         <v>43434</v>
       </c>
       <c r="B33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C33" s="24">
         <v>36.82</v>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E756C7-55DD-46BF-8E02-7B55CAD65EC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1228FC40-E2C7-4638-95BB-BDD447D35E37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="671">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3392,9 +3392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.35-6.48</t>
-  </si>
-  <si>
     <t>7.05-7.19</t>
   </si>
   <si>
@@ -3507,6 +3504,47 @@
   </si>
   <si>
     <t>量体温：36.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：肉末米粉+豆浆</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-7.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 顺畅 后半程不成形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右眼皮浮肿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：+豆浆</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-7.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：烤鸡胸+黄瓜蛋花汤+炒油菜+孜然羊肉</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5245,10 +5283,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="D414" sqref="D414"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8647,10 +8685,10 @@
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="32"/>
       <c r="B389" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D389" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -8666,7 +8704,7 @@
       <c r="B391" s="33"/>
       <c r="C391" s="3"/>
       <c r="D391" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -8681,14 +8719,14 @@
       <c r="B393" s="33"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="32"/>
       <c r="B394" s="33"/>
       <c r="D394" s="15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -8696,10 +8734,10 @@
         <v>43431</v>
       </c>
       <c r="B396" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C396" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D396" s="15" t="s">
         <v>639</v>
@@ -8730,7 +8768,7 @@
         <v>266</v>
       </c>
       <c r="D399" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -8738,15 +8776,13 @@
       <c r="B400" s="33"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="32"/>
       <c r="B401" s="33"/>
-      <c r="C401" s="15" t="s">
-        <v>616</v>
-      </c>
+      <c r="C401" s="3"/>
       <c r="D401" s="15" t="s">
         <v>291</v>
       </c>
@@ -8755,7 +8791,7 @@
       <c r="A402" s="32"/>
       <c r="B402" s="33"/>
       <c r="D402" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -8763,7 +8799,7 @@
       <c r="B403" s="33"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -8771,7 +8807,7 @@
       <c r="B404" s="33"/>
       <c r="C404" s="3"/>
       <c r="D404" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -8789,7 +8825,7 @@
         <v>336</v>
       </c>
       <c r="D406" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -8798,17 +8834,17 @@
       </c>
       <c r="B408" s="33"/>
       <c r="C408" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="32"/>
       <c r="B409" s="33"/>
       <c r="C409" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D409" s="15" t="s">
         <v>600</v>
@@ -8821,7 +8857,7 @@
         <v>266</v>
       </c>
       <c r="D410" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -8835,22 +8871,23 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="32"/>
       <c r="B412" s="33"/>
+      <c r="C412" s="3"/>
+      <c r="D412" s="15" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="32"/>
       <c r="B413" s="33"/>
-      <c r="C413" s="15" t="s">
-        <v>616</v>
-      </c>
       <c r="D413" s="15" t="s">
-        <v>291</v>
+        <v>663</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="32"/>
       <c r="B414" s="33"/>
       <c r="D414" s="15" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -8858,7 +8895,7 @@
       <c r="B415" s="33"/>
       <c r="C415" s="3"/>
       <c r="D415" s="15" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -8873,33 +8910,98 @@
       <c r="B417" s="33"/>
       <c r="C417" s="3"/>
       <c r="D417" s="15" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="32"/>
-      <c r="B418" s="33"/>
-      <c r="C418" t="s">
-        <v>336</v>
-      </c>
-      <c r="D418" s="15" t="s">
-        <v>412</v>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="32">
+        <v>43433</v>
+      </c>
+      <c r="B419" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="C419" t="s">
+        <v>665</v>
+      </c>
+      <c r="D419" s="15" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="32"/>
+      <c r="B420" s="33"/>
+      <c r="C420" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D420" s="15" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="32"/>
+      <c r="B421" s="33"/>
+      <c r="C421" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D421" s="15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="32"/>
+      <c r="B422" s="33"/>
+      <c r="C422" s="3"/>
+      <c r="D422" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="32"/>
+      <c r="B423" s="33"/>
+      <c r="C423" s="3"/>
+      <c r="D423" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="32"/>
+      <c r="B424" s="33"/>
+      <c r="D424" s="15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="32"/>
+      <c r="B425" s="33"/>
+      <c r="D425" s="15" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="32"/>
+      <c r="B426" s="33"/>
+      <c r="C426" s="3"/>
+      <c r="D426" s="15" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="32"/>
+      <c r="B427" s="33"/>
+      <c r="D427" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="32"/>
+      <c r="B428" s="33"/>
+      <c r="C428" s="3"/>
+      <c r="D428" s="15" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B389:B394"/>
-    <mergeCell ref="B317:B328"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A344:A357"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B57:B58"/>
+  <mergeCells count="40">
     <mergeCell ref="A267:A277"/>
     <mergeCell ref="A279:A288"/>
     <mergeCell ref="A173:A185"/>
@@ -8910,22 +9012,36 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A408:A418"/>
-    <mergeCell ref="B408:B418"/>
-    <mergeCell ref="A290:A301"/>
-    <mergeCell ref="A396:A406"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B57:B58"/>
     <mergeCell ref="A156:A171"/>
     <mergeCell ref="A231:A242"/>
     <mergeCell ref="A220:A229"/>
     <mergeCell ref="A187:A196"/>
     <mergeCell ref="A198:A207"/>
     <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A419:A428"/>
+    <mergeCell ref="B419:B428"/>
+    <mergeCell ref="A408:A417"/>
+    <mergeCell ref="B408:B417"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A396:A406"/>
     <mergeCell ref="A359:A368"/>
     <mergeCell ref="A370:A382"/>
     <mergeCell ref="A384:A394"/>
     <mergeCell ref="A303:A315"/>
     <mergeCell ref="A317:A328"/>
     <mergeCell ref="B396:B406"/>
+    <mergeCell ref="B389:B394"/>
+    <mergeCell ref="B317:B328"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A344:A357"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9127,8 +9243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9550,13 +9666,13 @@
         <v>43431</v>
       </c>
       <c r="B30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C30" s="24">
         <v>36.9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -9570,7 +9686,7 @@
         <v>36.950000000000003</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9578,10 +9694,10 @@
         <v>43433</v>
       </c>
       <c r="B32" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="C32" s="24">
-        <v>36.82</v>
+        <v>36.89</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>518</v>
@@ -9592,7 +9708,7 @@
         <v>43434</v>
       </c>
       <c r="B33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C33" s="24">
         <v>36.82</v>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1228FC40-E2C7-4638-95BB-BDD447D35E37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43157A7-9143-4746-8D64-1866DA044F6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="680">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3392,9 +3392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.05-7.19</t>
-  </si>
-  <si>
     <t>6.35-7.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3530,13 +3527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚餐：+豆浆</t>
-    <rPh sb="0" eb="1">
-      <t>wan canyou po dao xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.35-7.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3545,6 +3535,67 @@
     <rPh sb="0" eb="3">
       <t>yuchaokuai caimu er rou sizi mi zhou</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：馒头+豆浆</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗头洗澡</t>
+  </si>
+  <si>
+    <t>洗漱+敷面膜+泡脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.20-8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测着体温差点睡着，睡着容易张口，测前想YY</t>
+    <rPh sb="0" eb="8">
+      <t>cezheti wencha dianshui zhao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui zhao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>rong yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhang kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45-7.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.92，测前想YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.00-7.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY，大热，大汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地屈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3769,16 +3820,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3792,6 +3840,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5283,10 +5334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="D435" sqref="D435"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="F417" sqref="F417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5326,7 +5377,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
+      <c r="A2" s="33">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -5335,7 +5386,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -5345,7 +5396,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -5355,56 +5406,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5415,7 +5466,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -5428,8 +5479,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="36" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -5437,8 +5488,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -5447,8 +5498,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="37"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -5457,7 +5508,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -5467,7 +5518,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -5477,7 +5528,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -5487,7 +5538,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>333</v>
@@ -5497,7 +5548,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>310</v>
@@ -5507,7 +5558,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>335</v>
@@ -5517,7 +5568,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>336</v>
@@ -5527,7 +5578,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -5538,8 +5589,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="35" t="s">
         <v>370</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -5550,8 +5601,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="35"/>
       <c r="C28" t="s">
         <v>300</v>
       </c>
@@ -5560,8 +5611,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" t="s">
         <v>358</v>
       </c>
@@ -5570,8 +5621,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -5580,8 +5631,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="15" t="s">
         <v>371</v>
       </c>
@@ -5590,8 +5641,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -5603,8 +5654,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="35"/>
       <c r="C33" t="s">
         <v>365</v>
       </c>
@@ -5613,8 +5664,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="35"/>
       <c r="C34" t="s">
         <v>367</v>
       </c>
@@ -5623,7 +5674,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="29"/>
       <c r="C35" s="15" t="s">
         <v>280</v>
@@ -5633,7 +5684,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="29"/>
       <c r="C36" s="15" t="s">
         <v>374</v>
@@ -5643,7 +5694,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>368</v>
@@ -5653,7 +5704,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>336</v>
@@ -5663,7 +5714,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
+      <c r="A40" s="33">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -5680,7 +5731,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="21"/>
       <c r="C41" s="15" t="s">
         <v>342</v>
@@ -5690,7 +5741,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="21"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -5700,7 +5751,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -5710,7 +5761,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>397</v>
@@ -5720,7 +5771,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="23" t="s">
         <v>404</v>
       </c>
@@ -5732,7 +5783,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>400</v>
@@ -5742,7 +5793,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -5752,7 +5803,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>401</v>
@@ -5762,7 +5813,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>403</v>
@@ -5772,7 +5823,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -5782,7 +5833,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="34"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -5792,7 +5843,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>407</v>
@@ -5802,7 +5853,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>321</v>
@@ -5812,7 +5863,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -5822,7 +5873,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>368</v>
@@ -5832,10 +5883,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
+      <c r="A57" s="33">
         <v>43406</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="38" t="s">
         <v>409</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -5847,8 +5898,8 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
       </c>
@@ -5857,7 +5908,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="21"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -5867,7 +5918,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -5877,7 +5928,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>397</v>
@@ -5887,7 +5938,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>400</v>
@@ -5897,7 +5948,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>427</v>
@@ -5907,7 +5958,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="34"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>428</v>
@@ -5917,7 +5968,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="34"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -5927,7 +5978,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="34"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>430</v>
@@ -5937,7 +5988,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>431</v>
@@ -5947,7 +5998,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="34"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>433</v>
@@ -5957,7 +6008,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="34"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>432</v>
@@ -5967,7 +6018,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="34"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>336</v>
@@ -5977,7 +6028,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="35">
+      <c r="A72" s="32">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -5990,7 +6041,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="35"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -6001,7 +6052,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="35"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -6011,7 +6062,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="35"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -6019,7 +6070,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="35"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -6029,7 +6080,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="35"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -6039,7 +6090,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="35"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -6049,7 +6100,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="35"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -6059,7 +6110,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -6069,7 +6120,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -6079,7 +6130,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="35"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>471</v>
@@ -6089,7 +6140,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="35"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>472</v>
@@ -6100,7 +6151,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="35"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>473</v>
@@ -6111,7 +6162,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="35">
+      <c r="A86" s="32">
         <v>43408</v>
       </c>
       <c r="B86" s="30" t="s">
@@ -6125,7 +6176,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="35"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="27"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -6133,7 +6184,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="35"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="27"/>
       <c r="C88" s="15" t="s">
         <v>475</v>
@@ -6143,14 +6194,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="35"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="21"/>
       <c r="D89" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="35"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -6158,7 +6209,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="35"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>484</v>
@@ -6168,7 +6219,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="35"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>459</v>
@@ -6178,7 +6229,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="35"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>460</v>
@@ -6188,7 +6239,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="35"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>461</v>
@@ -6198,7 +6249,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="35"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>347</v>
@@ -6208,11 +6259,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="35"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="35"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -6222,7 +6273,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="35"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -6232,7 +6283,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="35"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>310</v>
@@ -6242,7 +6293,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="35"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -6252,7 +6303,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="35"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>489</v>
@@ -6262,7 +6313,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="35"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>490</v>
@@ -6272,7 +6323,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="34">
+      <c r="A104" s="33">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -6280,7 +6331,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="34"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="25" t="s">
         <v>409</v>
       </c>
@@ -6292,7 +6343,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="34"/>
+      <c r="A106" s="33"/>
       <c r="B106" s="26"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -6301,7 +6352,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="34"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="26"/>
       <c r="C107" s="15" t="s">
         <v>342</v>
@@ -6311,7 +6362,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="34"/>
+      <c r="A108" s="33"/>
       <c r="B108" s="21"/>
       <c r="C108" s="15" t="s">
         <v>434</v>
@@ -6321,7 +6372,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="34"/>
+      <c r="A109" s="33"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -6331,7 +6382,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="34"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -6339,7 +6390,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="34"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>423</v>
@@ -6349,7 +6400,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="34"/>
+      <c r="A112" s="33"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>421</v>
@@ -6359,7 +6410,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="34"/>
+      <c r="A113" s="33"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>440</v>
@@ -6369,7 +6420,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="34"/>
+      <c r="A114" s="33"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>445</v>
@@ -6379,7 +6430,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="34"/>
+      <c r="A115" s="33"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>444</v>
@@ -6389,7 +6440,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="34"/>
+      <c r="A116" s="33"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>441</v>
@@ -6399,7 +6450,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="34"/>
+      <c r="A117" s="33"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>442</v>
@@ -6409,7 +6460,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="34"/>
+      <c r="A118" s="33"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>443</v>
@@ -6419,7 +6470,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="34">
+      <c r="A120" s="33">
         <v>43410</v>
       </c>
       <c r="B120" s="26"/>
@@ -6431,7 +6482,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="34"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="26"/>
       <c r="C121" s="15" t="s">
         <v>437</v>
@@ -6441,7 +6492,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="34"/>
+      <c r="A122" s="33"/>
       <c r="B122" s="21"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -6451,7 +6502,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="34"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="21"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -6459,7 +6510,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="34"/>
+      <c r="A124" s="33"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -6469,7 +6520,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="34"/>
+      <c r="A125" s="33"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>447</v>
@@ -6479,7 +6530,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="34"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>400</v>
@@ -6489,7 +6540,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="34"/>
+      <c r="A127" s="33"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>449</v>
@@ -6499,7 +6550,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="34"/>
+      <c r="A128" s="33"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>478</v>
@@ -6509,7 +6560,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="34"/>
+      <c r="A129" s="33"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>479</v>
@@ -6519,7 +6570,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="34"/>
+      <c r="A130" s="33"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>480</v>
@@ -6529,7 +6580,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="34"/>
+      <c r="A131" s="33"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>491</v>
@@ -6539,7 +6590,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="34"/>
+      <c r="A132" s="33"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>493</v>
@@ -6549,7 +6600,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="34"/>
+      <c r="A133" s="33"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -6559,7 +6610,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="34"/>
+      <c r="A134" s="33"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -6569,7 +6620,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="34"/>
+      <c r="A135" s="33"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>424</v>
@@ -6579,7 +6630,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="34"/>
+      <c r="A136" s="33"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -6589,7 +6640,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="34">
+      <c r="A138" s="33">
         <v>43411</v>
       </c>
       <c r="B138" s="26"/>
@@ -6601,7 +6652,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="34"/>
+      <c r="A139" s="33"/>
       <c r="B139" s="26"/>
       <c r="C139" s="18" t="s">
         <v>337</v>
@@ -6611,7 +6662,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="34"/>
+      <c r="A140" s="33"/>
       <c r="B140" s="26"/>
       <c r="C140" s="15" t="s">
         <v>342</v>
@@ -6621,7 +6672,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="34"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="21"/>
       <c r="C141" s="3" t="s">
         <v>500</v>
@@ -6631,7 +6682,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="34"/>
+      <c r="A142" s="33"/>
       <c r="B142" s="21"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -6641,7 +6692,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="34"/>
+      <c r="A143" s="33"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>502</v>
@@ -6651,7 +6702,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="34"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -6659,7 +6710,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="34"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>449</v>
@@ -6669,7 +6720,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="34"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>478</v>
@@ -6679,7 +6730,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="34"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>421</v>
@@ -6689,7 +6740,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="34"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>440</v>
@@ -6699,7 +6750,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="34"/>
+      <c r="A149" s="33"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>480</v>
@@ -6709,7 +6760,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="34"/>
+      <c r="A150" s="33"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -6719,7 +6770,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="34"/>
+      <c r="A151" s="33"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>294</v>
@@ -6729,7 +6780,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="34"/>
+      <c r="A152" s="33"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>441</v>
@@ -6739,7 +6790,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="34"/>
+      <c r="A153" s="33"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>368</v>
@@ -6749,7 +6800,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="34"/>
+      <c r="A154" s="33"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>336</v>
@@ -6759,7 +6810,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="34">
+      <c r="A156" s="33">
         <v>43412</v>
       </c>
       <c r="B156" s="26"/>
@@ -6771,7 +6822,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="34"/>
+      <c r="A157" s="33"/>
       <c r="B157" s="26"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -6781,7 +6832,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="34"/>
+      <c r="A158" s="33"/>
       <c r="B158" s="21"/>
       <c r="C158" s="3" t="s">
         <v>508</v>
@@ -6791,7 +6842,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="34"/>
+      <c r="A159" s="33"/>
       <c r="B159" s="21"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -6801,7 +6852,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="34"/>
+      <c r="A160" s="33"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>502</v>
@@ -6811,7 +6862,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="34"/>
+      <c r="A161" s="33"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -6819,7 +6870,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="34"/>
+      <c r="A162" s="33"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>449</v>
@@ -6829,7 +6880,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="34"/>
+      <c r="A163" s="33"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -6837,7 +6888,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="34"/>
+      <c r="A164" s="33"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>478</v>
@@ -6847,7 +6898,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="34"/>
+      <c r="A165" s="33"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>421</v>
@@ -6857,7 +6908,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="34"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>480</v>
@@ -6867,7 +6918,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="34"/>
+      <c r="A167" s="33"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>491</v>
@@ -6877,7 +6928,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="34"/>
+      <c r="A168" s="33"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>493</v>
@@ -6887,7 +6938,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="34"/>
+      <c r="A169" s="33"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>353</v>
@@ -6897,7 +6948,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="34"/>
+      <c r="A170" s="33"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>432</v>
@@ -6907,7 +6958,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="34"/>
+      <c r="A171" s="33"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>336</v>
@@ -6917,7 +6968,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="34">
+      <c r="A173" s="33">
         <v>43413</v>
       </c>
       <c r="B173" s="26"/>
@@ -6929,7 +6980,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="34"/>
+      <c r="A174" s="33"/>
       <c r="B174" s="21"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -6939,7 +6990,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="34"/>
+      <c r="A175" s="33"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>502</v>
@@ -6949,7 +7000,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="34"/>
+      <c r="A176" s="33"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>449</v>
@@ -6959,7 +7010,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="34"/>
+      <c r="A177" s="33"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -6967,7 +7018,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="34"/>
+      <c r="A178" s="33"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>478</v>
@@ -6977,7 +7028,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="34"/>
+      <c r="A179" s="33"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>421</v>
@@ -6987,7 +7038,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="34"/>
+      <c r="A180" s="33"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>480</v>
@@ -6997,7 +7048,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="34"/>
+      <c r="A181" s="33"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>491</v>
@@ -7007,7 +7058,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="34"/>
+      <c r="A182" s="33"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>493</v>
@@ -7017,7 +7068,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="34"/>
+      <c r="A183" s="33"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>353</v>
@@ -7027,7 +7078,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="34"/>
+      <c r="A184" s="33"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>432</v>
@@ -7037,7 +7088,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="34"/>
+      <c r="A185" s="33"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>336</v>
@@ -7047,7 +7098,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="35">
+      <c r="A187" s="32">
         <v>43414</v>
       </c>
       <c r="B187" s="26"/>
@@ -7059,7 +7110,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="35"/>
+      <c r="A188" s="32"/>
       <c r="B188" s="21"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -7067,7 +7118,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="35"/>
+      <c r="A189" s="32"/>
       <c r="B189" s="21"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -7075,7 +7126,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="35"/>
+      <c r="A190" s="32"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -7083,7 +7134,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="35"/>
+      <c r="A191" s="32"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -7091,7 +7142,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="35"/>
+      <c r="A192" s="32"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -7099,7 +7150,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="35"/>
+      <c r="A193" s="32"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -7107,7 +7158,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="35"/>
+      <c r="A194" s="32"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -7115,7 +7166,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="35"/>
+      <c r="A195" s="32"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>432</v>
@@ -7125,7 +7176,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="35"/>
+      <c r="A196" s="32"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>336</v>
@@ -7135,7 +7186,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="35">
+      <c r="A198" s="32">
         <v>43415</v>
       </c>
       <c r="B198" s="26"/>
@@ -7147,7 +7198,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="35"/>
+      <c r="A199" s="32"/>
       <c r="B199" s="26"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -7155,7 +7206,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="35"/>
+      <c r="A200" s="32"/>
       <c r="B200" s="21"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -7165,7 +7216,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="35"/>
+      <c r="A201" s="32"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>449</v>
@@ -7175,7 +7226,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="35"/>
+      <c r="A202" s="32"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>478</v>
@@ -7185,7 +7236,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="35"/>
+      <c r="A203" s="32"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -7195,7 +7246,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="35"/>
+      <c r="A204" s="32"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>480</v>
@@ -7205,7 +7256,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="35"/>
+      <c r="A205" s="32"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>526</v>
@@ -7215,7 +7266,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="35"/>
+      <c r="A206" s="32"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>523</v>
@@ -7225,7 +7276,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="35"/>
+      <c r="A207" s="32"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>524</v>
@@ -7235,7 +7286,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="32">
+      <c r="A209" s="34">
         <v>43416</v>
       </c>
       <c r="B209" s="26"/>
@@ -7247,7 +7298,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="32"/>
+      <c r="A210" s="34"/>
       <c r="B210" s="21"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -7257,7 +7308,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="32"/>
+      <c r="A211" s="34"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -7265,7 +7316,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="32"/>
+      <c r="A212" s="34"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>478</v>
@@ -7275,7 +7326,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="32"/>
+      <c r="A213" s="34"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -7283,7 +7334,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="32"/>
+      <c r="A214" s="34"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -7291,7 +7342,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="32"/>
+      <c r="A215" s="34"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -7299,7 +7350,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="32"/>
+      <c r="A216" s="34"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>353</v>
@@ -7309,7 +7360,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="32"/>
+      <c r="A217" s="34"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>432</v>
@@ -7319,14 +7370,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="32"/>
+      <c r="A218" s="34"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="32">
+      <c r="A220" s="34">
         <v>43417</v>
       </c>
       <c r="B220" s="26"/>
@@ -7338,7 +7389,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="32"/>
+      <c r="A221" s="34"/>
       <c r="B221" s="26"/>
       <c r="C221" s="15" t="s">
         <v>536</v>
@@ -7348,14 +7399,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="32"/>
+      <c r="A222" s="34"/>
       <c r="B222" s="26"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="32"/>
+      <c r="A223" s="34"/>
       <c r="B223" s="21"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -7365,7 +7416,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="32"/>
+      <c r="A224" s="34"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>449</v>
@@ -7375,7 +7426,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="32"/>
+      <c r="A225" s="34"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>478</v>
@@ -7385,7 +7436,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="32"/>
+      <c r="A226" s="34"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>421</v>
@@ -7395,7 +7446,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="32"/>
+      <c r="A227" s="34"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>480</v>
@@ -7405,7 +7456,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="32"/>
+      <c r="A228" s="34"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>353</v>
@@ -7415,7 +7466,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="32"/>
+      <c r="A229" s="34"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>336</v>
@@ -7425,7 +7476,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="32">
+      <c r="A231" s="34">
         <v>43418</v>
       </c>
       <c r="B231" s="26"/>
@@ -7437,14 +7488,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="32"/>
+      <c r="A232" s="34"/>
       <c r="B232" s="26"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="32"/>
+      <c r="A233" s="34"/>
       <c r="B233" s="21"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -7454,7 +7505,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="32"/>
+      <c r="A234" s="34"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -7462,7 +7513,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="32"/>
+      <c r="A235" s="34"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -7470,7 +7521,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="32"/>
+      <c r="A236" s="34"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>478</v>
@@ -7480,7 +7531,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="32"/>
+      <c r="A237" s="34"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -7488,7 +7539,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="32"/>
+      <c r="A238" s="34"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -7496,7 +7547,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="32"/>
+      <c r="A239" s="34"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -7504,7 +7555,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="32"/>
+      <c r="A240" s="34"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -7512,7 +7563,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="32"/>
+      <c r="A241" s="34"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>336</v>
@@ -7522,14 +7573,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="32"/>
+      <c r="A242" s="34"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="32">
+      <c r="A244" s="34">
         <v>43419</v>
       </c>
       <c r="B244" s="26"/>
@@ -7541,14 +7592,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="32"/>
+      <c r="A245" s="34"/>
       <c r="B245" s="26"/>
       <c r="D245" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="32"/>
+      <c r="A246" s="34"/>
       <c r="B246" s="21"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -7558,7 +7609,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="32"/>
+      <c r="A247" s="34"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -7566,7 +7617,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="32"/>
+      <c r="A248" s="34"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>478</v>
@@ -7576,7 +7627,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="32"/>
+      <c r="A249" s="34"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -7584,7 +7635,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="32"/>
+      <c r="A250" s="34"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -7592,7 +7643,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="32"/>
+      <c r="A251" s="34"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -7600,7 +7651,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="32"/>
+      <c r="A252" s="34"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>336</v>
@@ -7610,7 +7661,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="32">
+      <c r="A254" s="34">
         <v>43420</v>
       </c>
       <c r="B254" s="26"/>
@@ -7622,7 +7673,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="32"/>
+      <c r="A255" s="34"/>
       <c r="B255" s="26"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -7630,14 +7681,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="32"/>
+      <c r="A256" s="34"/>
       <c r="B256" s="26"/>
       <c r="D256" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="32"/>
+      <c r="A257" s="34"/>
       <c r="B257" s="21"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -7647,7 +7698,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="32"/>
+      <c r="A258" s="34"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -7655,7 +7706,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="32"/>
+      <c r="A259" s="34"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>478</v>
@@ -7665,14 +7716,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="32"/>
+      <c r="A260" s="34"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="32"/>
+      <c r="A261" s="34"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -7680,7 +7731,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="32"/>
+      <c r="A262" s="34"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -7688,7 +7739,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="32"/>
+      <c r="A263" s="34"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -7696,7 +7747,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="32"/>
+      <c r="A264" s="34"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -7704,7 +7755,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="32"/>
+      <c r="A265" s="34"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>336</v>
@@ -7714,7 +7765,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="35">
+      <c r="A267" s="32">
         <v>43421</v>
       </c>
       <c r="B267" s="26"/>
@@ -7726,7 +7777,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="35"/>
+      <c r="A268" s="32"/>
       <c r="B268" s="26"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -7734,7 +7785,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="35"/>
+      <c r="A269" s="32"/>
       <c r="B269" s="21"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -7742,7 +7793,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="35"/>
+      <c r="A270" s="32"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -7750,14 +7801,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="35"/>
+      <c r="A271" s="32"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="35"/>
+      <c r="A272" s="32"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -7765,7 +7816,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="35"/>
+      <c r="A273" s="32"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -7773,7 +7824,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="35"/>
+      <c r="A274" s="32"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -7781,7 +7832,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="35"/>
+      <c r="A275" s="32"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -7789,7 +7840,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="35"/>
+      <c r="A276" s="32"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>336</v>
@@ -7799,14 +7850,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="35"/>
+      <c r="A277" s="32"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="35">
+      <c r="A279" s="32">
         <v>43422</v>
       </c>
       <c r="B279" s="26"/>
@@ -7818,28 +7869,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="35"/>
+      <c r="A280" s="32"/>
       <c r="B280" s="26"/>
       <c r="D280" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="35"/>
+      <c r="A281" s="32"/>
       <c r="B281" s="26"/>
       <c r="D281" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="35"/>
+      <c r="A282" s="32"/>
       <c r="B282" s="26"/>
       <c r="D282" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="35"/>
+      <c r="A283" s="32"/>
       <c r="B283" s="21"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -7849,7 +7900,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="35"/>
+      <c r="A284" s="32"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -7857,7 +7908,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="35"/>
+      <c r="A285" s="32"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -7865,7 +7916,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="35"/>
+      <c r="A286" s="32"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -7873,7 +7924,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="35"/>
+      <c r="A287" s="32"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -7881,7 +7932,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="35"/>
+      <c r="A288" s="32"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -7891,7 +7942,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="32">
+      <c r="A290" s="34">
         <v>43423</v>
       </c>
       <c r="B290" s="26"/>
@@ -7903,7 +7954,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="32"/>
+      <c r="A291" s="34"/>
       <c r="B291" s="26"/>
       <c r="C291" s="15" t="s">
         <v>250</v>
@@ -7913,14 +7964,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="32"/>
+      <c r="A292" s="34"/>
       <c r="B292" s="26"/>
       <c r="D292" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="32"/>
+      <c r="A293" s="34"/>
       <c r="B293" s="21"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -7930,7 +7981,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="32"/>
+      <c r="A294" s="34"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -7938,7 +7989,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="32"/>
+      <c r="A295" s="34"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>478</v>
@@ -7948,14 +7999,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="32"/>
+      <c r="A296" s="34"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="32"/>
+      <c r="A297" s="34"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -7963,7 +8014,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="32"/>
+      <c r="A298" s="34"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -7971,14 +8022,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="32"/>
+      <c r="A299" s="34"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="32"/>
+      <c r="A300" s="34"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -7986,7 +8037,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="32"/>
+      <c r="A301" s="34"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>336</v>
@@ -7996,7 +8047,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="32">
+      <c r="A303" s="34">
         <v>43424</v>
       </c>
       <c r="B303" s="26"/>
@@ -8008,7 +8059,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="32"/>
+      <c r="A304" s="34"/>
       <c r="B304" s="26"/>
       <c r="C304" s="15" t="s">
         <v>598</v>
@@ -8018,7 +8069,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="32"/>
+      <c r="A305" s="34"/>
       <c r="B305" s="26"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -8026,14 +8077,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="32"/>
+      <c r="A306" s="34"/>
       <c r="B306" s="26"/>
       <c r="D306" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="32"/>
+      <c r="A307" s="34"/>
       <c r="B307" s="21"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -8043,7 +8094,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="32"/>
+      <c r="A308" s="34"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -8051,7 +8102,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="32"/>
+      <c r="A309" s="34"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>478</v>
@@ -8061,21 +8112,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="32"/>
+      <c r="A310" s="34"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="32"/>
+      <c r="A311" s="34"/>
       <c r="B311" s="20"/>
       <c r="D311" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="32"/>
+      <c r="A312" s="34"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -8083,14 +8134,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="32"/>
+      <c r="A313" s="34"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="32"/>
+      <c r="A314" s="34"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -8098,7 +8149,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="32"/>
+      <c r="A315" s="34"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>336</v>
@@ -8108,10 +8159,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="32">
+      <c r="A317" s="34">
         <v>43425</v>
       </c>
-      <c r="B317" s="33" t="s">
+      <c r="B317" s="39" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -8122,24 +8173,24 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="32"/>
-      <c r="B318" s="33"/>
+      <c r="A318" s="34"/>
+      <c r="B318" s="39"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="32"/>
-      <c r="B319" s="33"/>
+      <c r="A319" s="34"/>
+      <c r="B319" s="39"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="32"/>
-      <c r="B320" s="33"/>
+      <c r="A320" s="34"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -8148,23 +8199,23 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="32"/>
-      <c r="B321" s="33"/>
+      <c r="A321" s="34"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="32"/>
-      <c r="B322" s="33"/>
+      <c r="A322" s="34"/>
+      <c r="B322" s="39"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="32"/>
-      <c r="B323" s="33"/>
+      <c r="A323" s="34"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -8173,38 +8224,38 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="32"/>
-      <c r="B324" s="33"/>
+      <c r="A324" s="34"/>
+      <c r="B324" s="39"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="32"/>
-      <c r="B325" s="33"/>
+      <c r="A325" s="34"/>
+      <c r="B325" s="39"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="32"/>
-      <c r="B326" s="33"/>
+      <c r="A326" s="34"/>
+      <c r="B326" s="39"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="32"/>
-      <c r="B327" s="33"/>
+      <c r="A327" s="34"/>
+      <c r="B327" s="39"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="32"/>
-      <c r="B328" s="33"/>
+      <c r="A328" s="34"/>
+      <c r="B328" s="39"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -8213,7 +8264,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="32">
+      <c r="A330" s="34">
         <v>43426</v>
       </c>
       <c r="B330" s="26"/>
@@ -8225,7 +8276,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="32"/>
+      <c r="A331" s="34"/>
       <c r="B331" s="26"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -8233,7 +8284,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="32"/>
+      <c r="A332" s="34"/>
       <c r="B332" s="26"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -8241,7 +8292,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="32"/>
+      <c r="A333" s="34"/>
       <c r="B333" s="26"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
@@ -8251,7 +8302,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="32"/>
+      <c r="A334" s="34"/>
       <c r="B334" s="26"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -8259,21 +8310,21 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="32"/>
+      <c r="A335" s="34"/>
       <c r="B335" s="26"/>
       <c r="D335" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="32"/>
+      <c r="A336" s="34"/>
       <c r="B336" s="26"/>
       <c r="D336" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="32"/>
+      <c r="A337" s="34"/>
       <c r="B337" s="26"/>
       <c r="C337" s="15" t="s">
         <v>616</v>
@@ -8283,14 +8334,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="32"/>
+      <c r="A338" s="34"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="32"/>
+      <c r="A339" s="34"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
@@ -8298,7 +8349,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="32"/>
+      <c r="A340" s="34"/>
       <c r="B340" s="20"/>
       <c r="C340" s="3"/>
       <c r="D340" s="18" t="s">
@@ -8306,7 +8357,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="32"/>
+      <c r="A341" s="34"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
@@ -8314,7 +8365,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="32"/>
+      <c r="A342" s="34"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>336</v>
@@ -8324,7 +8375,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="32">
+      <c r="A344" s="34">
         <v>43427</v>
       </c>
       <c r="B344" s="26"/>
@@ -8336,7 +8387,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="32"/>
+      <c r="A345" s="34"/>
       <c r="B345" s="26"/>
       <c r="C345" s="3" t="s">
         <v>619</v>
@@ -8346,7 +8397,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="32"/>
+      <c r="A346" s="34"/>
       <c r="B346" s="26"/>
       <c r="C346" s="3"/>
       <c r="D346" s="15" t="s">
@@ -8354,7 +8405,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="32"/>
+      <c r="A347" s="34"/>
       <c r="B347" s="26"/>
       <c r="C347" s="3"/>
       <c r="D347" s="15" t="s">
@@ -8362,7 +8413,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="32"/>
+      <c r="A348" s="34"/>
       <c r="B348" s="26"/>
       <c r="C348" s="3"/>
       <c r="D348" s="15" t="s">
@@ -8370,7 +8421,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="32"/>
+      <c r="A349" s="34"/>
       <c r="B349" s="26"/>
       <c r="C349" s="15" t="s">
         <v>266</v>
@@ -8380,7 +8431,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="32"/>
+      <c r="A350" s="34"/>
       <c r="B350" s="26"/>
       <c r="C350" s="15" t="s">
         <v>616</v>
@@ -8390,14 +8441,14 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="32"/>
+      <c r="A351" s="34"/>
       <c r="B351" s="26"/>
       <c r="D351" s="15" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="32"/>
+      <c r="A352" s="34"/>
       <c r="B352" s="26"/>
       <c r="C352" s="3"/>
       <c r="D352" s="15" t="s">
@@ -8405,22 +8456,22 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="32"/>
+      <c r="A353" s="34"/>
       <c r="B353" s="26"/>
       <c r="D353" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="32"/>
+      <c r="A354" s="34"/>
       <c r="B354" s="20"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="32"/>
+      <c r="A355" s="34"/>
       <c r="B355" s="20"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="32"/>
+      <c r="A356" s="34"/>
       <c r="B356" s="20"/>
       <c r="C356" s="3"/>
       <c r="D356" s="15" t="s">
@@ -8428,7 +8479,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="32"/>
+      <c r="A357" s="34"/>
       <c r="B357" s="20"/>
       <c r="C357" t="s">
         <v>336</v>
@@ -8438,7 +8489,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="35">
+      <c r="A359" s="32">
         <v>43428</v>
       </c>
       <c r="B359" s="26"/>
@@ -8450,7 +8501,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="35"/>
+      <c r="A360" s="32"/>
       <c r="B360" s="26"/>
       <c r="C360" s="3"/>
       <c r="D360" s="15" t="s">
@@ -8458,7 +8509,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="35"/>
+      <c r="A361" s="32"/>
       <c r="B361" s="26"/>
       <c r="C361" s="3"/>
       <c r="D361" s="15" t="s">
@@ -8466,7 +8517,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="35"/>
+      <c r="A362" s="32"/>
       <c r="B362" s="26"/>
       <c r="C362" s="3"/>
       <c r="D362" s="15" t="s">
@@ -8474,7 +8525,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="35"/>
+      <c r="A363" s="32"/>
       <c r="B363" s="26"/>
       <c r="C363" s="3"/>
       <c r="D363" s="15" t="s">
@@ -8482,14 +8533,14 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="35"/>
+      <c r="A364" s="32"/>
       <c r="B364" s="26"/>
       <c r="D364" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="35"/>
+      <c r="A365" s="32"/>
       <c r="B365" s="26"/>
       <c r="C365" s="3"/>
       <c r="D365" s="15" t="s">
@@ -8497,14 +8548,14 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="35"/>
+      <c r="A366" s="32"/>
       <c r="B366" s="26"/>
       <c r="D366" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="35"/>
+      <c r="A367" s="32"/>
       <c r="B367" s="20"/>
       <c r="C367" s="3"/>
       <c r="D367" s="15" t="s">
@@ -8512,14 +8563,14 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="35"/>
+      <c r="A368" s="32"/>
       <c r="B368" s="20"/>
       <c r="D368" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="35">
+      <c r="A370" s="32">
         <v>43429</v>
       </c>
       <c r="B370" s="26"/>
@@ -8531,7 +8582,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="35"/>
+      <c r="A371" s="32"/>
       <c r="B371" s="26"/>
       <c r="C371" s="3" t="s">
         <v>619</v>
@@ -8541,7 +8592,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="35"/>
+      <c r="A372" s="32"/>
       <c r="B372" s="26"/>
       <c r="C372" s="3"/>
       <c r="D372" s="15" t="s">
@@ -8549,7 +8600,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="35"/>
+      <c r="A373" s="32"/>
       <c r="B373" s="26"/>
       <c r="C373" s="3"/>
       <c r="D373" s="15" t="s">
@@ -8557,7 +8608,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="35"/>
+      <c r="A374" s="32"/>
       <c r="B374" s="26"/>
       <c r="C374" s="3"/>
       <c r="D374" s="15" t="s">
@@ -8565,7 +8616,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="35"/>
+      <c r="A375" s="32"/>
       <c r="B375" s="26"/>
       <c r="C375" s="15" t="s">
         <v>266</v>
@@ -8575,7 +8626,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="35"/>
+      <c r="A376" s="32"/>
       <c r="B376" s="26"/>
       <c r="C376" s="3"/>
       <c r="D376" s="15" t="s">
@@ -8583,14 +8634,14 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="35"/>
+      <c r="A377" s="32"/>
       <c r="B377" s="26"/>
       <c r="D377" s="15" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="35"/>
+      <c r="A378" s="32"/>
       <c r="B378" s="26"/>
       <c r="C378" s="3"/>
       <c r="D378" s="15" t="s">
@@ -8598,7 +8649,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="35"/>
+      <c r="A379" s="32"/>
       <c r="B379" s="26"/>
       <c r="C379" s="3"/>
       <c r="D379" s="15" t="s">
@@ -8606,14 +8657,14 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="35"/>
+      <c r="A380" s="32"/>
       <c r="B380" s="26"/>
       <c r="D380" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="35"/>
+      <c r="A381" s="32"/>
       <c r="B381" s="20"/>
       <c r="C381" t="s">
         <v>368</v>
@@ -8623,7 +8674,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="35"/>
+      <c r="A382" s="32"/>
       <c r="B382" s="20"/>
       <c r="C382" t="s">
         <v>336</v>
@@ -8633,7 +8684,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="32">
+      <c r="A384" s="34">
         <v>43430</v>
       </c>
       <c r="B384" s="26"/>
@@ -8645,7 +8696,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="32"/>
+      <c r="A385" s="34"/>
       <c r="B385" s="26"/>
       <c r="C385" s="3" t="s">
         <v>640</v>
@@ -8655,7 +8706,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="32"/>
+      <c r="A386" s="34"/>
       <c r="B386" s="26"/>
       <c r="C386" s="3"/>
       <c r="D386" s="15" t="s">
@@ -8663,7 +8714,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="32"/>
+      <c r="A387" s="34"/>
       <c r="B387" s="26"/>
       <c r="C387" s="15" t="s">
         <v>266</v>
@@ -8673,7 +8724,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="32"/>
+      <c r="A388" s="34"/>
       <c r="B388" s="26"/>
       <c r="C388" s="15" t="s">
         <v>616</v>
@@ -8683,69 +8734,69 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="32"/>
-      <c r="B389" s="33" t="s">
-        <v>651</v>
+      <c r="A389" s="34"/>
+      <c r="B389" s="39" t="s">
+        <v>650</v>
       </c>
       <c r="D389" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="32"/>
-      <c r="B390" s="33"/>
+      <c r="A390" s="34"/>
+      <c r="B390" s="39"/>
       <c r="C390" s="3"/>
       <c r="D390" s="15" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="32"/>
-      <c r="B391" s="33"/>
+      <c r="A391" s="34"/>
+      <c r="B391" s="39"/>
       <c r="C391" s="3"/>
       <c r="D391" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="32"/>
-      <c r="B392" s="33"/>
+      <c r="A392" s="34"/>
+      <c r="B392" s="39"/>
       <c r="D392" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="32"/>
-      <c r="B393" s="33"/>
+      <c r="A393" s="34"/>
+      <c r="B393" s="39"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="32"/>
-      <c r="B394" s="33"/>
+      <c r="A394" s="34"/>
+      <c r="B394" s="39"/>
       <c r="D394" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="32">
+      <c r="A396" s="34">
         <v>43431</v>
       </c>
-      <c r="B396" s="33" t="s">
-        <v>650</v>
+      <c r="B396" s="39" t="s">
+        <v>649</v>
       </c>
       <c r="C396" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D396" s="15" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="32"/>
-      <c r="B397" s="33"/>
+      <c r="A397" s="34"/>
+      <c r="B397" s="39"/>
       <c r="C397" s="3" t="s">
         <v>640</v>
       </c>
@@ -8754,280 +8805,346 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="32"/>
-      <c r="B398" s="33"/>
+      <c r="A398" s="34"/>
+      <c r="B398" s="39"/>
       <c r="C398" s="3"/>
       <c r="D398" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="32"/>
-      <c r="B399" s="33"/>
+      <c r="A399" s="34"/>
+      <c r="B399" s="39"/>
       <c r="C399" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D399" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="32"/>
-      <c r="B400" s="33"/>
+      <c r="A400" s="34"/>
+      <c r="B400" s="39"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="32"/>
-      <c r="B401" s="33"/>
+      <c r="A401" s="34"/>
+      <c r="B401" s="39"/>
       <c r="C401" s="3"/>
       <c r="D401" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="32"/>
-      <c r="B402" s="33"/>
+      <c r="A402" s="34"/>
+      <c r="B402" s="39"/>
       <c r="D402" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="32"/>
-      <c r="B403" s="33"/>
+      <c r="A403" s="34"/>
+      <c r="B403" s="39"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="32"/>
-      <c r="B404" s="33"/>
+      <c r="A404" s="34"/>
+      <c r="B404" s="39"/>
       <c r="C404" s="3"/>
       <c r="D404" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="32"/>
-      <c r="B405" s="33"/>
+      <c r="A405" s="34"/>
+      <c r="B405" s="39"/>
       <c r="C405" s="3"/>
       <c r="D405" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="32"/>
-      <c r="B406" s="33"/>
+      <c r="A406" s="34"/>
+      <c r="B406" s="39"/>
       <c r="C406" t="s">
         <v>336</v>
       </c>
       <c r="D406" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="32">
+      <c r="A408" s="34">
         <v>43432</v>
       </c>
-      <c r="B408" s="33"/>
+      <c r="B408" s="39"/>
       <c r="C408" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" s="32"/>
-      <c r="B409" s="33"/>
+      <c r="A409" s="34"/>
+      <c r="B409" s="39"/>
       <c r="C409" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D409" s="15" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="32"/>
-      <c r="B410" s="33"/>
+      <c r="A410" s="34"/>
+      <c r="B410" s="39"/>
       <c r="C410" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D410" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="32"/>
-      <c r="B411" s="33"/>
+      <c r="A411" s="34"/>
+      <c r="B411" s="39"/>
       <c r="C411" s="3"/>
       <c r="D411" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="32"/>
-      <c r="B412" s="33"/>
+      <c r="A412" s="34"/>
+      <c r="B412" s="39"/>
       <c r="C412" s="3"/>
       <c r="D412" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="32"/>
-      <c r="B413" s="33"/>
+      <c r="A413" s="34"/>
+      <c r="B413" s="39"/>
       <c r="D413" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="32"/>
-      <c r="B414" s="33"/>
+      <c r="A414" s="34"/>
+      <c r="B414" s="39"/>
       <c r="D414" s="15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="32"/>
-      <c r="B415" s="33"/>
+      <c r="A415" s="34"/>
+      <c r="B415" s="39"/>
       <c r="C415" s="3"/>
       <c r="D415" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="32"/>
-      <c r="B416" s="33"/>
+      <c r="A416" s="34"/>
+      <c r="B416" s="39"/>
       <c r="D416" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="32"/>
-      <c r="B417" s="33"/>
+      <c r="A417" s="34"/>
+      <c r="B417" s="39"/>
       <c r="C417" s="3"/>
       <c r="D417" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="32">
+      <c r="A419" s="34">
         <v>43433</v>
       </c>
-      <c r="B419" s="33" t="s">
-        <v>667</v>
+      <c r="B419" s="39" t="s">
+        <v>666</v>
       </c>
       <c r="C419" t="s">
+        <v>664</v>
+      </c>
+      <c r="D419" s="15" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="34"/>
+      <c r="B420" s="39"/>
+      <c r="C420" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D420" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="D419" s="15" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A420" s="32"/>
-      <c r="B420" s="33"/>
-      <c r="C420" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D420" s="15" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="32"/>
-      <c r="B421" s="33"/>
+      <c r="A421" s="34"/>
+      <c r="B421" s="39"/>
       <c r="C421" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D421" s="15" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="32"/>
-      <c r="B422" s="33"/>
+      <c r="A422" s="34"/>
+      <c r="B422" s="39"/>
       <c r="C422" s="3"/>
       <c r="D422" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="32"/>
-      <c r="B423" s="33"/>
+      <c r="A423" s="34"/>
+      <c r="B423" s="39"/>
       <c r="C423" s="3"/>
       <c r="D423" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="32"/>
-      <c r="B424" s="33"/>
+      <c r="A424" s="34"/>
+      <c r="B424" s="39"/>
       <c r="D424" s="15" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="32"/>
-      <c r="B425" s="33"/>
+      <c r="A425" s="34"/>
+      <c r="B425" s="39"/>
       <c r="D425" s="15" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="32"/>
-      <c r="B426" s="33"/>
-      <c r="C426" s="3"/>
+      <c r="A426" s="34"/>
+      <c r="B426" s="39"/>
       <c r="D426" s="15" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="32"/>
-      <c r="B427" s="33"/>
-      <c r="D427" s="15" t="s">
+      <c r="A427" s="34"/>
+      <c r="B427" s="39"/>
+      <c r="C427" s="3"/>
+      <c r="D427" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="34"/>
+      <c r="B428" s="39"/>
+      <c r="D428" s="15" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="32"/>
-      <c r="B428" s="33"/>
-      <c r="C428" s="3"/>
-      <c r="D428" s="15" t="s">
-        <v>648</v>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="34"/>
+      <c r="B429" s="39"/>
+      <c r="C429" s="3"/>
+      <c r="D429" s="15" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="34">
+        <v>43434</v>
+      </c>
+      <c r="B431" s="39"/>
+      <c r="C431" t="s">
+        <v>675</v>
+      </c>
+      <c r="D431" s="15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="34"/>
+      <c r="B432" s="39"/>
+      <c r="C432" t="s">
+        <v>677</v>
+      </c>
+      <c r="D432" s="15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" s="34"/>
+      <c r="B433" s="39"/>
+      <c r="C433" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D433" s="15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" s="34"/>
+      <c r="B434" s="39"/>
+      <c r="C434" s="3"/>
+      <c r="D434" s="15"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" s="34"/>
+      <c r="B435" s="39"/>
+      <c r="C435" s="3"/>
+      <c r="D435" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436" s="34"/>
+      <c r="B436" s="39"/>
+      <c r="D436" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437" s="34"/>
+      <c r="B437" s="39"/>
+      <c r="D437" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438" s="34"/>
+      <c r="B438" s="39"/>
+      <c r="C438" s="3"/>
+      <c r="D438" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439" s="34"/>
+      <c r="B439" s="39"/>
+      <c r="D439" s="15"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440" s="34"/>
+      <c r="B440" s="39"/>
+      <c r="C440" s="3"/>
+      <c r="D440" s="15" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A267:A277"/>
-    <mergeCell ref="A279:A288"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A419:A428"/>
-    <mergeCell ref="B419:B428"/>
+  <mergeCells count="42">
+    <mergeCell ref="A431:A440"/>
+    <mergeCell ref="B431:B440"/>
+    <mergeCell ref="A419:A429"/>
+    <mergeCell ref="B419:B429"/>
     <mergeCell ref="A408:A417"/>
     <mergeCell ref="B408:B417"/>
     <mergeCell ref="A290:A301"/>
@@ -9042,6 +9159,30 @@
     <mergeCell ref="B317:B328"/>
     <mergeCell ref="A330:A342"/>
     <mergeCell ref="A344:A357"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A267:A277"/>
+    <mergeCell ref="A279:A288"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A244:A252"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9241,10 +9382,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9479,7 +9620,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>43418</v>
       </c>
@@ -9493,7 +9634,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>43419</v>
       </c>
@@ -9507,7 +9648,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>43420</v>
       </c>
@@ -9521,7 +9662,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>43421</v>
       </c>
@@ -9535,7 +9676,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>43422</v>
       </c>
@@ -9549,7 +9690,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>43423</v>
       </c>
@@ -9563,7 +9704,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>43424</v>
       </c>
@@ -9577,7 +9718,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>43425</v>
       </c>
@@ -9591,7 +9732,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43426</v>
       </c>
@@ -9605,7 +9746,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>43427</v>
       </c>
@@ -9618,8 +9759,11 @@
       <c r="D26" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>43428</v>
       </c>
@@ -9632,8 +9776,11 @@
       <c r="D27" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>43429</v>
       </c>
@@ -9646,8 +9793,11 @@
       <c r="D28" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>43430</v>
       </c>
@@ -9660,22 +9810,28 @@
       <c r="D29" s="3" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>43431</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C30" s="24">
         <v>36.9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+      <c r="E30" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>43432</v>
       </c>
@@ -9686,21 +9842,27 @@
         <v>36.950000000000003</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+      <c r="E31" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>43433</v>
       </c>
       <c r="B32" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C32" s="24">
         <v>36.89</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>518</v>
+      </c>
+      <c r="E32" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -9708,13 +9870,13 @@
         <v>43434</v>
       </c>
       <c r="B33" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="C33" s="24">
-        <v>36.82</v>
+        <v>36.92</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>518</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -9731,7 +9893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26 C28 C32">
+  <conditionalFormatting sqref="C28 C26 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43157A7-9143-4746-8D64-1866DA044F6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="440" windowWidth="25840" windowHeight="17480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -22,23 +26,23 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,12 +125,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{966D839B-7E53-4FA2-9537-0265511803C6}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="700">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3598,11 +3602,148 @@
     <t>地屈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>6.45-7.02</t>
+  </si>
+  <si>
+    <t>6.45-7.03</t>
+  </si>
+  <si>
+    <t>6.45-7.04</t>
+  </si>
+  <si>
+    <t>6.45-7.05</t>
+  </si>
+  <si>
+    <t>6.45-7.06</t>
+  </si>
+  <si>
+    <t>6.45-7.07</t>
+  </si>
+  <si>
+    <t>量体温：36.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：蜜汁烤肉饭</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mi zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kao rou fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：吐司+豆浆</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tu si</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便</t>
+    <rPh sb="0" eb="1">
+      <t>pai bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：炒面</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chao mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：豆浆+吐司</t>
+    <rPh sb="0" eb="1">
+      <t>zao can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dou jiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tu si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：豆浆+半熟芝士</t>
+    <rPh sb="0" eb="1">
+      <t>zao can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dou ijang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban shou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱歌</t>
+    <rPh sb="0" eb="1">
+      <t>chang ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：晋风庄园</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin feng zhuang yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+护肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：涮羊肉</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shuan yang rou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -3820,13 +3961,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3836,12 +3983,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4126,24 +4267,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4399,7 +4540,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -4414,7 +4555,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4429,7 +4570,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -4440,7 +4581,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4903,21 +5044,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -5333,27 +5474,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I440"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I457"/>
   <sheetViews>
-    <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="F417" sqref="F417"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="D463" sqref="D463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -5377,7 +5518,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="33">
+      <c r="A2" s="36">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -5386,7 +5527,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -5396,7 +5537,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -5406,56 +5547,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+      <c r="A13" s="36">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5466,7 +5607,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -5479,8 +5620,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="38" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -5488,8 +5629,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -5498,8 +5639,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="39"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -5508,7 +5649,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -5518,7 +5659,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -5528,7 +5669,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -5538,7 +5679,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>333</v>
@@ -5548,7 +5689,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>310</v>
@@ -5558,7 +5699,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>335</v>
@@ -5568,7 +5709,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>336</v>
@@ -5578,7 +5719,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33">
+      <c r="A26" s="36">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -5589,8 +5730,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37" t="s">
         <v>370</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -5601,8 +5742,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
       <c r="C28" t="s">
         <v>300</v>
       </c>
@@ -5611,8 +5752,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
       <c r="C29" t="s">
         <v>358</v>
       </c>
@@ -5621,8 +5762,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -5631,8 +5772,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="15" t="s">
         <v>371</v>
       </c>
@@ -5641,8 +5782,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -5654,8 +5795,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33" t="s">
         <v>365</v>
       </c>
@@ -5664,8 +5805,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
       <c r="C34" t="s">
         <v>367</v>
       </c>
@@ -5674,7 +5815,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="29"/>
       <c r="C35" s="15" t="s">
         <v>280</v>
@@ -5684,7 +5825,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="29"/>
       <c r="C36" s="15" t="s">
         <v>374</v>
@@ -5694,7 +5835,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>368</v>
@@ -5704,7 +5845,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>336</v>
@@ -5714,7 +5855,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="33">
+      <c r="A40" s="36">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -5731,7 +5872,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="21"/>
       <c r="C41" s="15" t="s">
         <v>342</v>
@@ -5741,7 +5882,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="21"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -5751,7 +5892,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -5761,7 +5902,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>397</v>
@@ -5771,7 +5912,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="23" t="s">
         <v>404</v>
       </c>
@@ -5783,7 +5924,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>400</v>
@@ -5793,7 +5934,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -5803,7 +5944,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>401</v>
@@ -5813,7 +5954,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>403</v>
@@ -5823,7 +5964,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -5833,7 +5974,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -5843,7 +5984,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>407</v>
@@ -5853,7 +5994,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>321</v>
@@ -5863,7 +6004,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -5873,7 +6014,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>368</v>
@@ -5883,10 +6024,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="33">
+      <c r="A57" s="36">
         <v>43406</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="35" t="s">
         <v>409</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -5898,8 +6039,8 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
       </c>
@@ -5908,7 +6049,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="33"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="21"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -5918,7 +6059,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -5928,7 +6069,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>397</v>
@@ -5938,7 +6079,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>400</v>
@@ -5948,7 +6089,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>427</v>
@@ -5958,7 +6099,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>428</v>
@@ -5968,7 +6109,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="33"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -5978,7 +6119,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="33"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>430</v>
@@ -5988,7 +6129,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="33"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>431</v>
@@ -5998,7 +6139,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="33"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>433</v>
@@ -6008,7 +6149,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="33"/>
+      <c r="A69" s="36"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>432</v>
@@ -6018,7 +6159,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="33"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>336</v>
@@ -6028,7 +6169,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="32">
+      <c r="A72" s="34">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -6041,7 +6182,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="32"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -6052,7 +6193,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -6062,7 +6203,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -6070,7 +6211,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -6080,7 +6221,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="32"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -6090,7 +6231,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="32"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -6100,7 +6241,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="32"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -6110,7 +6251,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -6120,7 +6261,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -6130,7 +6271,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>471</v>
@@ -6140,7 +6281,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
+      <c r="A83" s="34"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>472</v>
@@ -6151,7 +6292,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>473</v>
@@ -6162,7 +6303,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="32">
+      <c r="A86" s="34">
         <v>43408</v>
       </c>
       <c r="B86" s="30" t="s">
@@ -6176,7 +6317,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="27"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -6184,7 +6325,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="32"/>
+      <c r="A88" s="34"/>
       <c r="B88" s="27"/>
       <c r="C88" s="15" t="s">
         <v>475</v>
@@ -6194,14 +6335,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="32"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="21"/>
       <c r="D89" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="32"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -6209,7 +6350,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="32"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>484</v>
@@ -6219,7 +6360,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="32"/>
+      <c r="A92" s="34"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>459</v>
@@ -6229,7 +6370,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="32"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>460</v>
@@ -6239,7 +6380,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="32"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>461</v>
@@ -6249,7 +6390,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="32"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>347</v>
@@ -6259,11 +6400,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="32"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="32"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -6273,7 +6414,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -6283,7 +6424,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="32"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>310</v>
@@ -6293,7 +6434,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="32"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -6303,7 +6444,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="32"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>489</v>
@@ -6313,7 +6454,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="32"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>490</v>
@@ -6323,7 +6464,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="33">
+      <c r="A104" s="36">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -6331,7 +6472,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="33"/>
+      <c r="A105" s="36"/>
       <c r="B105" s="25" t="s">
         <v>409</v>
       </c>
@@ -6343,7 +6484,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="33"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="26"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -6352,7 +6493,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="33"/>
+      <c r="A107" s="36"/>
       <c r="B107" s="26"/>
       <c r="C107" s="15" t="s">
         <v>342</v>
@@ -6362,7 +6503,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="33"/>
+      <c r="A108" s="36"/>
       <c r="B108" s="21"/>
       <c r="C108" s="15" t="s">
         <v>434</v>
@@ -6372,7 +6513,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="33"/>
+      <c r="A109" s="36"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -6382,7 +6523,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="33"/>
+      <c r="A110" s="36"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -6390,7 +6531,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="33"/>
+      <c r="A111" s="36"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>423</v>
@@ -6400,7 +6541,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="33"/>
+      <c r="A112" s="36"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>421</v>
@@ -6410,7 +6551,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="33"/>
+      <c r="A113" s="36"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>440</v>
@@ -6420,7 +6561,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="33"/>
+      <c r="A114" s="36"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>445</v>
@@ -6430,7 +6571,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="33"/>
+      <c r="A115" s="36"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>444</v>
@@ -6440,7 +6581,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="33"/>
+      <c r="A116" s="36"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>441</v>
@@ -6450,7 +6591,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="33"/>
+      <c r="A117" s="36"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>442</v>
@@ -6460,7 +6601,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="33"/>
+      <c r="A118" s="36"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>443</v>
@@ -6470,7 +6611,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="33">
+      <c r="A120" s="36">
         <v>43410</v>
       </c>
       <c r="B120" s="26"/>
@@ -6482,7 +6623,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="33"/>
+      <c r="A121" s="36"/>
       <c r="B121" s="26"/>
       <c r="C121" s="15" t="s">
         <v>437</v>
@@ -6492,7 +6633,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="33"/>
+      <c r="A122" s="36"/>
       <c r="B122" s="21"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -6502,7 +6643,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="33"/>
+      <c r="A123" s="36"/>
       <c r="B123" s="21"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -6510,7 +6651,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="33"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -6520,7 +6661,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="33"/>
+      <c r="A125" s="36"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>447</v>
@@ -6530,7 +6671,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="33"/>
+      <c r="A126" s="36"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>400</v>
@@ -6540,7 +6681,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="33"/>
+      <c r="A127" s="36"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>449</v>
@@ -6550,7 +6691,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="33"/>
+      <c r="A128" s="36"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>478</v>
@@ -6560,7 +6701,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="33"/>
+      <c r="A129" s="36"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>479</v>
@@ -6570,7 +6711,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="33"/>
+      <c r="A130" s="36"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>480</v>
@@ -6580,7 +6721,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="33"/>
+      <c r="A131" s="36"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>491</v>
@@ -6590,7 +6731,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="33"/>
+      <c r="A132" s="36"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>493</v>
@@ -6600,7 +6741,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="33"/>
+      <c r="A133" s="36"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -6610,7 +6751,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="33"/>
+      <c r="A134" s="36"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -6620,7 +6761,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="33"/>
+      <c r="A135" s="36"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>424</v>
@@ -6630,7 +6771,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="33"/>
+      <c r="A136" s="36"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -6640,7 +6781,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="33">
+      <c r="A138" s="36">
         <v>43411</v>
       </c>
       <c r="B138" s="26"/>
@@ -6652,7 +6793,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="33"/>
+      <c r="A139" s="36"/>
       <c r="B139" s="26"/>
       <c r="C139" s="18" t="s">
         <v>337</v>
@@ -6662,7 +6803,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="33"/>
+      <c r="A140" s="36"/>
       <c r="B140" s="26"/>
       <c r="C140" s="15" t="s">
         <v>342</v>
@@ -6672,7 +6813,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="33"/>
+      <c r="A141" s="36"/>
       <c r="B141" s="21"/>
       <c r="C141" s="3" t="s">
         <v>500</v>
@@ -6682,7 +6823,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="33"/>
+      <c r="A142" s="36"/>
       <c r="B142" s="21"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -6692,7 +6833,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="33"/>
+      <c r="A143" s="36"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>502</v>
@@ -6702,7 +6843,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="33"/>
+      <c r="A144" s="36"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -6710,7 +6851,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="33"/>
+      <c r="A145" s="36"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>449</v>
@@ -6720,7 +6861,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="33"/>
+      <c r="A146" s="36"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>478</v>
@@ -6730,7 +6871,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="33"/>
+      <c r="A147" s="36"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>421</v>
@@ -6740,7 +6881,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="33"/>
+      <c r="A148" s="36"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>440</v>
@@ -6750,7 +6891,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="33"/>
+      <c r="A149" s="36"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>480</v>
@@ -6760,7 +6901,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="33"/>
+      <c r="A150" s="36"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -6770,7 +6911,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="33"/>
+      <c r="A151" s="36"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>294</v>
@@ -6780,7 +6921,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="33"/>
+      <c r="A152" s="36"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>441</v>
@@ -6790,7 +6931,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="33"/>
+      <c r="A153" s="36"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>368</v>
@@ -6800,7 +6941,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="33"/>
+      <c r="A154" s="36"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>336</v>
@@ -6810,7 +6951,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="33">
+      <c r="A156" s="36">
         <v>43412</v>
       </c>
       <c r="B156" s="26"/>
@@ -6822,7 +6963,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="33"/>
+      <c r="A157" s="36"/>
       <c r="B157" s="26"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -6832,7 +6973,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="33"/>
+      <c r="A158" s="36"/>
       <c r="B158" s="21"/>
       <c r="C158" s="3" t="s">
         <v>508</v>
@@ -6842,7 +6983,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="33"/>
+      <c r="A159" s="36"/>
       <c r="B159" s="21"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -6852,7 +6993,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="33"/>
+      <c r="A160" s="36"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>502</v>
@@ -6862,7 +7003,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="33"/>
+      <c r="A161" s="36"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -6870,7 +7011,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="33"/>
+      <c r="A162" s="36"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>449</v>
@@ -6880,7 +7021,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="33"/>
+      <c r="A163" s="36"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -6888,7 +7029,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="33"/>
+      <c r="A164" s="36"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>478</v>
@@ -6898,7 +7039,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="33"/>
+      <c r="A165" s="36"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>421</v>
@@ -6908,7 +7049,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="33"/>
+      <c r="A166" s="36"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>480</v>
@@ -6918,7 +7059,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="33"/>
+      <c r="A167" s="36"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>491</v>
@@ -6928,7 +7069,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="33"/>
+      <c r="A168" s="36"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>493</v>
@@ -6938,7 +7079,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="33"/>
+      <c r="A169" s="36"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>353</v>
@@ -6948,7 +7089,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="33"/>
+      <c r="A170" s="36"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>432</v>
@@ -6958,7 +7099,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="33"/>
+      <c r="A171" s="36"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>336</v>
@@ -6968,7 +7109,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="33">
+      <c r="A173" s="36">
         <v>43413</v>
       </c>
       <c r="B173" s="26"/>
@@ -6980,7 +7121,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="33"/>
+      <c r="A174" s="36"/>
       <c r="B174" s="21"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -6990,7 +7131,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="33"/>
+      <c r="A175" s="36"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>502</v>
@@ -7000,7 +7141,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="33"/>
+      <c r="A176" s="36"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>449</v>
@@ -7010,7 +7151,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="33"/>
+      <c r="A177" s="36"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -7018,7 +7159,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="33"/>
+      <c r="A178" s="36"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>478</v>
@@ -7028,7 +7169,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="33"/>
+      <c r="A179" s="36"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>421</v>
@@ -7038,7 +7179,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="33"/>
+      <c r="A180" s="36"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>480</v>
@@ -7048,7 +7189,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="33"/>
+      <c r="A181" s="36"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>491</v>
@@ -7058,7 +7199,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="33"/>
+      <c r="A182" s="36"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>493</v>
@@ -7068,7 +7209,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="33"/>
+      <c r="A183" s="36"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>353</v>
@@ -7078,7 +7219,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="33"/>
+      <c r="A184" s="36"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>432</v>
@@ -7088,7 +7229,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="33"/>
+      <c r="A185" s="36"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>336</v>
@@ -7098,7 +7239,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="32">
+      <c r="A187" s="34">
         <v>43414</v>
       </c>
       <c r="B187" s="26"/>
@@ -7110,7 +7251,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="32"/>
+      <c r="A188" s="34"/>
       <c r="B188" s="21"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -7118,7 +7259,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="32"/>
+      <c r="A189" s="34"/>
       <c r="B189" s="21"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -7126,7 +7267,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="32"/>
+      <c r="A190" s="34"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -7134,7 +7275,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="32"/>
+      <c r="A191" s="34"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -7142,7 +7283,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="32"/>
+      <c r="A192" s="34"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -7150,7 +7291,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="32"/>
+      <c r="A193" s="34"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -7158,7 +7299,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="32"/>
+      <c r="A194" s="34"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -7166,7 +7307,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="32"/>
+      <c r="A195" s="34"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>432</v>
@@ -7176,7 +7317,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="32"/>
+      <c r="A196" s="34"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>336</v>
@@ -7186,7 +7327,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="32">
+      <c r="A198" s="34">
         <v>43415</v>
       </c>
       <c r="B198" s="26"/>
@@ -7198,7 +7339,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="32"/>
+      <c r="A199" s="34"/>
       <c r="B199" s="26"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -7206,7 +7347,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="32"/>
+      <c r="A200" s="34"/>
       <c r="B200" s="21"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -7216,7 +7357,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="32"/>
+      <c r="A201" s="34"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>449</v>
@@ -7226,7 +7367,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="32"/>
+      <c r="A202" s="34"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>478</v>
@@ -7236,7 +7377,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="32"/>
+      <c r="A203" s="34"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -7246,7 +7387,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="32"/>
+      <c r="A204" s="34"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>480</v>
@@ -7256,7 +7397,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="32"/>
+      <c r="A205" s="34"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>526</v>
@@ -7266,7 +7407,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="32"/>
+      <c r="A206" s="34"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>523</v>
@@ -7276,7 +7417,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="32"/>
+      <c r="A207" s="34"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>524</v>
@@ -7286,7 +7427,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="34">
+      <c r="A209" s="32">
         <v>43416</v>
       </c>
       <c r="B209" s="26"/>
@@ -7298,7 +7439,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="34"/>
+      <c r="A210" s="32"/>
       <c r="B210" s="21"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -7308,7 +7449,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="34"/>
+      <c r="A211" s="32"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -7316,7 +7457,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="34"/>
+      <c r="A212" s="32"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>478</v>
@@ -7326,7 +7467,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="34"/>
+      <c r="A213" s="32"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -7334,7 +7475,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="34"/>
+      <c r="A214" s="32"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -7342,7 +7483,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="34"/>
+      <c r="A215" s="32"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -7350,7 +7491,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="34"/>
+      <c r="A216" s="32"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>353</v>
@@ -7360,7 +7501,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="34"/>
+      <c r="A217" s="32"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>432</v>
@@ -7370,14 +7511,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="34"/>
+      <c r="A218" s="32"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="34">
+      <c r="A220" s="32">
         <v>43417</v>
       </c>
       <c r="B220" s="26"/>
@@ -7389,7 +7530,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="34"/>
+      <c r="A221" s="32"/>
       <c r="B221" s="26"/>
       <c r="C221" s="15" t="s">
         <v>536</v>
@@ -7399,14 +7540,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="34"/>
+      <c r="A222" s="32"/>
       <c r="B222" s="26"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="34"/>
+      <c r="A223" s="32"/>
       <c r="B223" s="21"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -7416,7 +7557,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="34"/>
+      <c r="A224" s="32"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>449</v>
@@ -7426,7 +7567,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="34"/>
+      <c r="A225" s="32"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>478</v>
@@ -7436,7 +7577,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="34"/>
+      <c r="A226" s="32"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>421</v>
@@ -7446,7 +7587,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="34"/>
+      <c r="A227" s="32"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>480</v>
@@ -7456,7 +7597,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="34"/>
+      <c r="A228" s="32"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>353</v>
@@ -7466,7 +7607,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="34"/>
+      <c r="A229" s="32"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>336</v>
@@ -7476,7 +7617,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="34">
+      <c r="A231" s="32">
         <v>43418</v>
       </c>
       <c r="B231" s="26"/>
@@ -7488,14 +7629,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="34"/>
+      <c r="A232" s="32"/>
       <c r="B232" s="26"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="34"/>
+      <c r="A233" s="32"/>
       <c r="B233" s="21"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -7505,7 +7646,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="34"/>
+      <c r="A234" s="32"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -7513,7 +7654,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="34"/>
+      <c r="A235" s="32"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -7521,7 +7662,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="34"/>
+      <c r="A236" s="32"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>478</v>
@@ -7531,7 +7672,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="34"/>
+      <c r="A237" s="32"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -7539,7 +7680,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="34"/>
+      <c r="A238" s="32"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -7547,7 +7688,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="34"/>
+      <c r="A239" s="32"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -7555,7 +7696,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="34"/>
+      <c r="A240" s="32"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -7563,7 +7704,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="34"/>
+      <c r="A241" s="32"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>336</v>
@@ -7573,14 +7714,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="34"/>
+      <c r="A242" s="32"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="34">
+      <c r="A244" s="32">
         <v>43419</v>
       </c>
       <c r="B244" s="26"/>
@@ -7592,14 +7733,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="34"/>
+      <c r="A245" s="32"/>
       <c r="B245" s="26"/>
       <c r="D245" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="34"/>
+      <c r="A246" s="32"/>
       <c r="B246" s="21"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -7609,7 +7750,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="34"/>
+      <c r="A247" s="32"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -7617,7 +7758,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="34"/>
+      <c r="A248" s="32"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>478</v>
@@ -7627,7 +7768,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="34"/>
+      <c r="A249" s="32"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -7635,7 +7776,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="34"/>
+      <c r="A250" s="32"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -7643,7 +7784,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="34"/>
+      <c r="A251" s="32"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -7651,7 +7792,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="34"/>
+      <c r="A252" s="32"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>336</v>
@@ -7661,7 +7802,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="34">
+      <c r="A254" s="32">
         <v>43420</v>
       </c>
       <c r="B254" s="26"/>
@@ -7673,7 +7814,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="34"/>
+      <c r="A255" s="32"/>
       <c r="B255" s="26"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -7681,14 +7822,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="34"/>
+      <c r="A256" s="32"/>
       <c r="B256" s="26"/>
       <c r="D256" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="34"/>
+      <c r="A257" s="32"/>
       <c r="B257" s="21"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -7698,7 +7839,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="34"/>
+      <c r="A258" s="32"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -7706,7 +7847,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="34"/>
+      <c r="A259" s="32"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>478</v>
@@ -7716,14 +7857,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="34"/>
+      <c r="A260" s="32"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="34"/>
+      <c r="A261" s="32"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -7731,7 +7872,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="34"/>
+      <c r="A262" s="32"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -7739,7 +7880,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="34"/>
+      <c r="A263" s="32"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -7747,7 +7888,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="34"/>
+      <c r="A264" s="32"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -7755,7 +7896,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="34"/>
+      <c r="A265" s="32"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>336</v>
@@ -7765,7 +7906,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="32">
+      <c r="A267" s="34">
         <v>43421</v>
       </c>
       <c r="B267" s="26"/>
@@ -7777,7 +7918,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="32"/>
+      <c r="A268" s="34"/>
       <c r="B268" s="26"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -7785,7 +7926,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="32"/>
+      <c r="A269" s="34"/>
       <c r="B269" s="21"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -7793,7 +7934,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="32"/>
+      <c r="A270" s="34"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -7801,14 +7942,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="32"/>
+      <c r="A271" s="34"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="32"/>
+      <c r="A272" s="34"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -7816,7 +7957,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="32"/>
+      <c r="A273" s="34"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -7824,7 +7965,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="32"/>
+      <c r="A274" s="34"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -7832,7 +7973,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="32"/>
+      <c r="A275" s="34"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -7840,7 +7981,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="32"/>
+      <c r="A276" s="34"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>336</v>
@@ -7850,14 +7991,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="32"/>
+      <c r="A277" s="34"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="32">
+      <c r="A279" s="34">
         <v>43422</v>
       </c>
       <c r="B279" s="26"/>
@@ -7869,28 +8010,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="32"/>
+      <c r="A280" s="34"/>
       <c r="B280" s="26"/>
       <c r="D280" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="32"/>
+      <c r="A281" s="34"/>
       <c r="B281" s="26"/>
       <c r="D281" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="32"/>
+      <c r="A282" s="34"/>
       <c r="B282" s="26"/>
       <c r="D282" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="32"/>
+      <c r="A283" s="34"/>
       <c r="B283" s="21"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -7900,7 +8041,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="32"/>
+      <c r="A284" s="34"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -7908,7 +8049,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="32"/>
+      <c r="A285" s="34"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -7916,7 +8057,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="32"/>
+      <c r="A286" s="34"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -7924,7 +8065,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="32"/>
+      <c r="A287" s="34"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -7932,7 +8073,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="32"/>
+      <c r="A288" s="34"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -7942,7 +8083,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="34">
+      <c r="A290" s="32">
         <v>43423</v>
       </c>
       <c r="B290" s="26"/>
@@ -7954,7 +8095,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="34"/>
+      <c r="A291" s="32"/>
       <c r="B291" s="26"/>
       <c r="C291" s="15" t="s">
         <v>250</v>
@@ -7964,14 +8105,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="34"/>
+      <c r="A292" s="32"/>
       <c r="B292" s="26"/>
       <c r="D292" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="34"/>
+      <c r="A293" s="32"/>
       <c r="B293" s="21"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -7981,7 +8122,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="34"/>
+      <c r="A294" s="32"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -7989,7 +8130,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="34"/>
+      <c r="A295" s="32"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>478</v>
@@ -7999,14 +8140,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="34"/>
+      <c r="A296" s="32"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="34"/>
+      <c r="A297" s="32"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -8014,7 +8155,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="34"/>
+      <c r="A298" s="32"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -8022,14 +8163,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="34"/>
+      <c r="A299" s="32"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="34"/>
+      <c r="A300" s="32"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -8037,7 +8178,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="34"/>
+      <c r="A301" s="32"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>336</v>
@@ -8047,7 +8188,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="34">
+      <c r="A303" s="32">
         <v>43424</v>
       </c>
       <c r="B303" s="26"/>
@@ -8059,7 +8200,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="34"/>
+      <c r="A304" s="32"/>
       <c r="B304" s="26"/>
       <c r="C304" s="15" t="s">
         <v>598</v>
@@ -8069,7 +8210,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="34"/>
+      <c r="A305" s="32"/>
       <c r="B305" s="26"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -8077,14 +8218,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="34"/>
+      <c r="A306" s="32"/>
       <c r="B306" s="26"/>
       <c r="D306" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="34"/>
+      <c r="A307" s="32"/>
       <c r="B307" s="21"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -8094,7 +8235,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="34"/>
+      <c r="A308" s="32"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -8102,7 +8243,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="34"/>
+      <c r="A309" s="32"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>478</v>
@@ -8112,21 +8253,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="34"/>
+      <c r="A310" s="32"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="34"/>
+      <c r="A311" s="32"/>
       <c r="B311" s="20"/>
       <c r="D311" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="34"/>
+      <c r="A312" s="32"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -8134,14 +8275,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="34"/>
+      <c r="A313" s="32"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="34"/>
+      <c r="A314" s="32"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -8149,7 +8290,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="34"/>
+      <c r="A315" s="32"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>336</v>
@@ -8159,10 +8300,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="34">
+      <c r="A317" s="32">
         <v>43425</v>
       </c>
-      <c r="B317" s="39" t="s">
+      <c r="B317" s="33" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -8173,24 +8314,24 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="34"/>
-      <c r="B318" s="39"/>
+      <c r="A318" s="32"/>
+      <c r="B318" s="33"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="34"/>
-      <c r="B319" s="39"/>
+      <c r="A319" s="32"/>
+      <c r="B319" s="33"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="34"/>
-      <c r="B320" s="39"/>
+      <c r="A320" s="32"/>
+      <c r="B320" s="33"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -8199,23 +8340,23 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="34"/>
-      <c r="B321" s="39"/>
+      <c r="A321" s="32"/>
+      <c r="B321" s="33"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="34"/>
-      <c r="B322" s="39"/>
+      <c r="A322" s="32"/>
+      <c r="B322" s="33"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="34"/>
-      <c r="B323" s="39"/>
+      <c r="A323" s="32"/>
+      <c r="B323" s="33"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -8224,38 +8365,38 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="34"/>
-      <c r="B324" s="39"/>
+      <c r="A324" s="32"/>
+      <c r="B324" s="33"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="34"/>
-      <c r="B325" s="39"/>
+      <c r="A325" s="32"/>
+      <c r="B325" s="33"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="34"/>
-      <c r="B326" s="39"/>
+      <c r="A326" s="32"/>
+      <c r="B326" s="33"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="34"/>
-      <c r="B327" s="39"/>
+      <c r="A327" s="32"/>
+      <c r="B327" s="33"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="34"/>
-      <c r="B328" s="39"/>
+      <c r="A328" s="32"/>
+      <c r="B328" s="33"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -8264,7 +8405,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="34">
+      <c r="A330" s="32">
         <v>43426</v>
       </c>
       <c r="B330" s="26"/>
@@ -8276,7 +8417,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="34"/>
+      <c r="A331" s="32"/>
       <c r="B331" s="26"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -8284,7 +8425,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="34"/>
+      <c r="A332" s="32"/>
       <c r="B332" s="26"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -8292,7 +8433,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="34"/>
+      <c r="A333" s="32"/>
       <c r="B333" s="26"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
@@ -8302,7 +8443,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="34"/>
+      <c r="A334" s="32"/>
       <c r="B334" s="26"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -8310,21 +8451,21 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="34"/>
+      <c r="A335" s="32"/>
       <c r="B335" s="26"/>
       <c r="D335" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="34"/>
+      <c r="A336" s="32"/>
       <c r="B336" s="26"/>
       <c r="D336" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="34"/>
+      <c r="A337" s="32"/>
       <c r="B337" s="26"/>
       <c r="C337" s="15" t="s">
         <v>616</v>
@@ -8334,14 +8475,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="34"/>
+      <c r="A338" s="32"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="34"/>
+      <c r="A339" s="32"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
@@ -8349,7 +8490,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="34"/>
+      <c r="A340" s="32"/>
       <c r="B340" s="20"/>
       <c r="C340" s="3"/>
       <c r="D340" s="18" t="s">
@@ -8357,7 +8498,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="34"/>
+      <c r="A341" s="32"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
@@ -8365,7 +8506,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="34"/>
+      <c r="A342" s="32"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>336</v>
@@ -8375,7 +8516,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="34">
+      <c r="A344" s="32">
         <v>43427</v>
       </c>
       <c r="B344" s="26"/>
@@ -8387,7 +8528,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="34"/>
+      <c r="A345" s="32"/>
       <c r="B345" s="26"/>
       <c r="C345" s="3" t="s">
         <v>619</v>
@@ -8397,7 +8538,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="34"/>
+      <c r="A346" s="32"/>
       <c r="B346" s="26"/>
       <c r="C346" s="3"/>
       <c r="D346" s="15" t="s">
@@ -8405,7 +8546,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="34"/>
+      <c r="A347" s="32"/>
       <c r="B347" s="26"/>
       <c r="C347" s="3"/>
       <c r="D347" s="15" t="s">
@@ -8413,7 +8554,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="34"/>
+      <c r="A348" s="32"/>
       <c r="B348" s="26"/>
       <c r="C348" s="3"/>
       <c r="D348" s="15" t="s">
@@ -8421,7 +8562,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="34"/>
+      <c r="A349" s="32"/>
       <c r="B349" s="26"/>
       <c r="C349" s="15" t="s">
         <v>266</v>
@@ -8431,7 +8572,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="34"/>
+      <c r="A350" s="32"/>
       <c r="B350" s="26"/>
       <c r="C350" s="15" t="s">
         <v>616</v>
@@ -8441,14 +8582,14 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="34"/>
+      <c r="A351" s="32"/>
       <c r="B351" s="26"/>
       <c r="D351" s="15" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="34"/>
+      <c r="A352" s="32"/>
       <c r="B352" s="26"/>
       <c r="C352" s="3"/>
       <c r="D352" s="15" t="s">
@@ -8456,22 +8597,22 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="34"/>
+      <c r="A353" s="32"/>
       <c r="B353" s="26"/>
       <c r="D353" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="34"/>
+      <c r="A354" s="32"/>
       <c r="B354" s="20"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="34"/>
+      <c r="A355" s="32"/>
       <c r="B355" s="20"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="34"/>
+      <c r="A356" s="32"/>
       <c r="B356" s="20"/>
       <c r="C356" s="3"/>
       <c r="D356" s="15" t="s">
@@ -8479,7 +8620,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="34"/>
+      <c r="A357" s="32"/>
       <c r="B357" s="20"/>
       <c r="C357" t="s">
         <v>336</v>
@@ -8489,7 +8630,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="32">
+      <c r="A359" s="34">
         <v>43428</v>
       </c>
       <c r="B359" s="26"/>
@@ -8501,7 +8642,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="32"/>
+      <c r="A360" s="34"/>
       <c r="B360" s="26"/>
       <c r="C360" s="3"/>
       <c r="D360" s="15" t="s">
@@ -8509,7 +8650,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="32"/>
+      <c r="A361" s="34"/>
       <c r="B361" s="26"/>
       <c r="C361" s="3"/>
       <c r="D361" s="15" t="s">
@@ -8517,7 +8658,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="32"/>
+      <c r="A362" s="34"/>
       <c r="B362" s="26"/>
       <c r="C362" s="3"/>
       <c r="D362" s="15" t="s">
@@ -8525,7 +8666,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="32"/>
+      <c r="A363" s="34"/>
       <c r="B363" s="26"/>
       <c r="C363" s="3"/>
       <c r="D363" s="15" t="s">
@@ -8533,14 +8674,14 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="32"/>
+      <c r="A364" s="34"/>
       <c r="B364" s="26"/>
       <c r="D364" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="32"/>
+      <c r="A365" s="34"/>
       <c r="B365" s="26"/>
       <c r="C365" s="3"/>
       <c r="D365" s="15" t="s">
@@ -8548,14 +8689,14 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="32"/>
+      <c r="A366" s="34"/>
       <c r="B366" s="26"/>
       <c r="D366" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="32"/>
+      <c r="A367" s="34"/>
       <c r="B367" s="20"/>
       <c r="C367" s="3"/>
       <c r="D367" s="15" t="s">
@@ -8563,14 +8704,14 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="32"/>
+      <c r="A368" s="34"/>
       <c r="B368" s="20"/>
       <c r="D368" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="32">
+      <c r="A370" s="34">
         <v>43429</v>
       </c>
       <c r="B370" s="26"/>
@@ -8582,7 +8723,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="32"/>
+      <c r="A371" s="34"/>
       <c r="B371" s="26"/>
       <c r="C371" s="3" t="s">
         <v>619</v>
@@ -8592,7 +8733,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="32"/>
+      <c r="A372" s="34"/>
       <c r="B372" s="26"/>
       <c r="C372" s="3"/>
       <c r="D372" s="15" t="s">
@@ -8600,7 +8741,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="32"/>
+      <c r="A373" s="34"/>
       <c r="B373" s="26"/>
       <c r="C373" s="3"/>
       <c r="D373" s="15" t="s">
@@ -8608,7 +8749,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="32"/>
+      <c r="A374" s="34"/>
       <c r="B374" s="26"/>
       <c r="C374" s="3"/>
       <c r="D374" s="15" t="s">
@@ -8616,7 +8757,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="32"/>
+      <c r="A375" s="34"/>
       <c r="B375" s="26"/>
       <c r="C375" s="15" t="s">
         <v>266</v>
@@ -8626,7 +8767,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="32"/>
+      <c r="A376" s="34"/>
       <c r="B376" s="26"/>
       <c r="C376" s="3"/>
       <c r="D376" s="15" t="s">
@@ -8634,14 +8775,14 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="32"/>
+      <c r="A377" s="34"/>
       <c r="B377" s="26"/>
       <c r="D377" s="15" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="32"/>
+      <c r="A378" s="34"/>
       <c r="B378" s="26"/>
       <c r="C378" s="3"/>
       <c r="D378" s="15" t="s">
@@ -8649,7 +8790,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="32"/>
+      <c r="A379" s="34"/>
       <c r="B379" s="26"/>
       <c r="C379" s="3"/>
       <c r="D379" s="15" t="s">
@@ -8657,14 +8798,14 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="32"/>
+      <c r="A380" s="34"/>
       <c r="B380" s="26"/>
       <c r="D380" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="32"/>
+      <c r="A381" s="34"/>
       <c r="B381" s="20"/>
       <c r="C381" t="s">
         <v>368</v>
@@ -8674,7 +8815,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="32"/>
+      <c r="A382" s="34"/>
       <c r="B382" s="20"/>
       <c r="C382" t="s">
         <v>336</v>
@@ -8684,7 +8825,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="34">
+      <c r="A384" s="32">
         <v>43430</v>
       </c>
       <c r="B384" s="26"/>
@@ -8696,7 +8837,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="34"/>
+      <c r="A385" s="32"/>
       <c r="B385" s="26"/>
       <c r="C385" s="3" t="s">
         <v>640</v>
@@ -8706,7 +8847,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="34"/>
+      <c r="A386" s="32"/>
       <c r="B386" s="26"/>
       <c r="C386" s="3"/>
       <c r="D386" s="15" t="s">
@@ -8714,7 +8855,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="34"/>
+      <c r="A387" s="32"/>
       <c r="B387" s="26"/>
       <c r="C387" s="15" t="s">
         <v>266</v>
@@ -8724,7 +8865,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="34"/>
+      <c r="A388" s="32"/>
       <c r="B388" s="26"/>
       <c r="C388" s="15" t="s">
         <v>616</v>
@@ -8734,8 +8875,8 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="34"/>
-      <c r="B389" s="39" t="s">
+      <c r="A389" s="32"/>
+      <c r="B389" s="33" t="s">
         <v>650</v>
       </c>
       <c r="D389" s="15" t="s">
@@ -8743,48 +8884,48 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="34"/>
-      <c r="B390" s="39"/>
+      <c r="A390" s="32"/>
+      <c r="B390" s="33"/>
       <c r="C390" s="3"/>
       <c r="D390" s="15" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="34"/>
-      <c r="B391" s="39"/>
+      <c r="A391" s="32"/>
+      <c r="B391" s="33"/>
       <c r="C391" s="3"/>
       <c r="D391" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="34"/>
-      <c r="B392" s="39"/>
+      <c r="A392" s="32"/>
+      <c r="B392" s="33"/>
       <c r="D392" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="34"/>
-      <c r="B393" s="39"/>
+      <c r="A393" s="32"/>
+      <c r="B393" s="33"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="34"/>
-      <c r="B394" s="39"/>
+      <c r="A394" s="32"/>
+      <c r="B394" s="33"/>
       <c r="D394" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="34">
+      <c r="A396" s="32">
         <v>43431</v>
       </c>
-      <c r="B396" s="39" t="s">
+      <c r="B396" s="33" t="s">
         <v>649</v>
       </c>
       <c r="C396" t="s">
@@ -8795,8 +8936,8 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="34"/>
-      <c r="B397" s="39"/>
+      <c r="A397" s="32"/>
+      <c r="B397" s="33"/>
       <c r="C397" s="3" t="s">
         <v>640</v>
       </c>
@@ -8805,16 +8946,16 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="34"/>
-      <c r="B398" s="39"/>
+      <c r="A398" s="32"/>
+      <c r="B398" s="33"/>
       <c r="C398" s="3"/>
       <c r="D398" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="34"/>
-      <c r="B399" s="39"/>
+      <c r="A399" s="32"/>
+      <c r="B399" s="33"/>
       <c r="C399" s="15" t="s">
         <v>266</v>
       </c>
@@ -8823,55 +8964,55 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="34"/>
-      <c r="B400" s="39"/>
+      <c r="A400" s="32"/>
+      <c r="B400" s="33"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="34"/>
-      <c r="B401" s="39"/>
+      <c r="A401" s="32"/>
+      <c r="B401" s="33"/>
       <c r="C401" s="3"/>
       <c r="D401" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="34"/>
-      <c r="B402" s="39"/>
+      <c r="A402" s="32"/>
+      <c r="B402" s="33"/>
       <c r="D402" s="15" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="34"/>
-      <c r="B403" s="39"/>
+      <c r="A403" s="32"/>
+      <c r="B403" s="33"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="34"/>
-      <c r="B404" s="39"/>
+      <c r="A404" s="32"/>
+      <c r="B404" s="33"/>
       <c r="C404" s="3"/>
       <c r="D404" s="15" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="34"/>
-      <c r="B405" s="39"/>
+      <c r="A405" s="32"/>
+      <c r="B405" s="33"/>
       <c r="C405" s="3"/>
       <c r="D405" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="34"/>
-      <c r="B406" s="39"/>
+      <c r="A406" s="32"/>
+      <c r="B406" s="33"/>
       <c r="C406" t="s">
         <v>336</v>
       </c>
@@ -8880,10 +9021,10 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="34">
+      <c r="A408" s="32">
         <v>43432</v>
       </c>
-      <c r="B408" s="39"/>
+      <c r="B408" s="33"/>
       <c r="C408" t="s">
         <v>643</v>
       </c>
@@ -8892,8 +9033,8 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" s="34"/>
-      <c r="B409" s="39"/>
+      <c r="A409" s="32"/>
+      <c r="B409" s="33"/>
       <c r="C409" s="3" t="s">
         <v>658</v>
       </c>
@@ -8902,8 +9043,8 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="34"/>
-      <c r="B410" s="39"/>
+      <c r="A410" s="32"/>
+      <c r="B410" s="33"/>
       <c r="C410" s="15" t="s">
         <v>266</v>
       </c>
@@ -8912,63 +9053,63 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="34"/>
-      <c r="B411" s="39"/>
+      <c r="A411" s="32"/>
+      <c r="B411" s="33"/>
       <c r="C411" s="3"/>
       <c r="D411" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="34"/>
-      <c r="B412" s="39"/>
+      <c r="A412" s="32"/>
+      <c r="B412" s="33"/>
       <c r="C412" s="3"/>
       <c r="D412" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="34"/>
-      <c r="B413" s="39"/>
+      <c r="A413" s="32"/>
+      <c r="B413" s="33"/>
       <c r="D413" s="15" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="34"/>
-      <c r="B414" s="39"/>
+      <c r="A414" s="32"/>
+      <c r="B414" s="33"/>
       <c r="D414" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="34"/>
-      <c r="B415" s="39"/>
+      <c r="A415" s="32"/>
+      <c r="B415" s="33"/>
       <c r="C415" s="3"/>
       <c r="D415" s="15" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="34"/>
-      <c r="B416" s="39"/>
+      <c r="A416" s="32"/>
+      <c r="B416" s="33"/>
       <c r="D416" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="34"/>
-      <c r="B417" s="39"/>
+      <c r="A417" s="32"/>
+      <c r="B417" s="33"/>
       <c r="C417" s="3"/>
       <c r="D417" s="15" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="34">
+      <c r="A419" s="32">
         <v>43433</v>
       </c>
-      <c r="B419" s="39" t="s">
+      <c r="B419" s="33" t="s">
         <v>666</v>
       </c>
       <c r="C419" t="s">
@@ -8979,8 +9120,8 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A420" s="34"/>
-      <c r="B420" s="39"/>
+      <c r="A420" s="32"/>
+      <c r="B420" s="33"/>
       <c r="C420" s="3" t="s">
         <v>672</v>
       </c>
@@ -8989,8 +9130,8 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="34"/>
-      <c r="B421" s="39"/>
+      <c r="A421" s="32"/>
+      <c r="B421" s="33"/>
       <c r="C421" s="15" t="s">
         <v>266</v>
       </c>
@@ -8999,70 +9140,70 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="34"/>
-      <c r="B422" s="39"/>
+      <c r="A422" s="32"/>
+      <c r="B422" s="33"/>
       <c r="C422" s="3"/>
       <c r="D422" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="34"/>
-      <c r="B423" s="39"/>
+      <c r="A423" s="32"/>
+      <c r="B423" s="33"/>
       <c r="C423" s="3"/>
       <c r="D423" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="34"/>
-      <c r="B424" s="39"/>
+      <c r="A424" s="32"/>
+      <c r="B424" s="33"/>
       <c r="D424" s="15" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="34"/>
-      <c r="B425" s="39"/>
+      <c r="A425" s="32"/>
+      <c r="B425" s="33"/>
       <c r="D425" s="15" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="34"/>
-      <c r="B426" s="39"/>
+      <c r="A426" s="32"/>
+      <c r="B426" s="33"/>
       <c r="D426" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="34"/>
-      <c r="B427" s="39"/>
+      <c r="A427" s="32"/>
+      <c r="B427" s="33"/>
       <c r="C427" s="3"/>
       <c r="D427" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="34"/>
-      <c r="B428" s="39"/>
+      <c r="A428" s="32"/>
+      <c r="B428" s="33"/>
       <c r="D428" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="34"/>
-      <c r="B429" s="39"/>
+      <c r="A429" s="32"/>
+      <c r="B429" s="33"/>
       <c r="C429" s="3"/>
       <c r="D429" s="15" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="34">
+      <c r="A431" s="32">
         <v>43434</v>
       </c>
-      <c r="B431" s="39"/>
+      <c r="B431" s="33"/>
       <c r="C431" t="s">
         <v>675</v>
       </c>
@@ -9071,8 +9212,8 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A432" s="34"/>
-      <c r="B432" s="39"/>
+      <c r="A432" s="32"/>
+      <c r="B432" s="33"/>
       <c r="C432" t="s">
         <v>677</v>
       </c>
@@ -9081,8 +9222,8 @@
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="34"/>
-      <c r="B433" s="39"/>
+      <c r="A433" s="32"/>
+      <c r="B433" s="33"/>
       <c r="C433" s="15" t="s">
         <v>266</v>
       </c>
@@ -9091,62 +9232,215 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="34"/>
-      <c r="B434" s="39"/>
-      <c r="C434" s="3"/>
-      <c r="D434" s="15"/>
+      <c r="A434" s="32"/>
+      <c r="B434" s="33"/>
+      <c r="D434" s="15" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="34"/>
-      <c r="B435" s="39"/>
-      <c r="C435" s="3"/>
+      <c r="A435" s="32"/>
+      <c r="B435" s="33"/>
       <c r="D435" s="15" t="s">
-        <v>291</v>
+        <v>652</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="34"/>
-      <c r="B436" s="39"/>
+      <c r="A436" s="32"/>
+      <c r="B436" s="33"/>
+      <c r="C436" s="3"/>
       <c r="D436" s="15" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="34"/>
-      <c r="B437" s="39"/>
+      <c r="A437" s="32"/>
+      <c r="B437" s="33"/>
+      <c r="C437" s="3"/>
       <c r="D437" s="15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="34"/>
-      <c r="B438" s="39"/>
-      <c r="C438" s="3"/>
-      <c r="D438" s="15" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="34"/>
-      <c r="B439" s="39"/>
-      <c r="D439" s="15"/>
+      <c r="A439" s="34">
+        <v>43435</v>
+      </c>
+      <c r="B439" s="33"/>
+      <c r="C439" t="s">
+        <v>675</v>
+      </c>
+      <c r="D439" s="15" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="34"/>
-      <c r="B440" s="39"/>
-      <c r="C440" s="3"/>
+      <c r="B440" s="33"/>
       <c r="D440" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441" s="34"/>
+      <c r="B441" s="33"/>
+      <c r="D441" s="15" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442" s="34"/>
+      <c r="B442" s="33"/>
+      <c r="C442" s="3"/>
+      <c r="D442" s="15" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443" s="34"/>
+      <c r="B443" s="33"/>
+      <c r="C443" s="3"/>
+      <c r="D443" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" s="34"/>
+      <c r="B444" s="33"/>
+      <c r="C444" s="3"/>
+      <c r="D444" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445" s="34"/>
+      <c r="B445" s="33"/>
+      <c r="D445" s="15" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" s="34"/>
+      <c r="B446" s="33"/>
+      <c r="D446" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447" s="34"/>
+      <c r="B447" s="33"/>
+      <c r="C447" s="3"/>
+      <c r="D447" s="15" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448" s="34"/>
+      <c r="B448" s="33"/>
+      <c r="C448" s="3"/>
+      <c r="D448" s="15" t="s">
         <v>647</v>
       </c>
     </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="34">
+        <v>43436</v>
+      </c>
+      <c r="B450" s="33"/>
+      <c r="C450" t="s">
+        <v>675</v>
+      </c>
+      <c r="D450" s="15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="34"/>
+      <c r="B451" s="33"/>
+      <c r="D451" s="15" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="34"/>
+      <c r="B452" s="33"/>
+      <c r="D452" s="15" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="34"/>
+      <c r="B453" s="33"/>
+      <c r="C453" s="3"/>
+      <c r="D453" s="15" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="34"/>
+      <c r="B454" s="33"/>
+      <c r="C454" s="3"/>
+      <c r="D454" s="15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="34"/>
+      <c r="B455" s="33"/>
+      <c r="D455" s="15" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="34"/>
+      <c r="B456" s="33"/>
+      <c r="C456" s="3"/>
+      <c r="D456" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="34"/>
+      <c r="B457" s="33"/>
+      <c r="C457" s="3"/>
+      <c r="D457" s="15" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A431:A440"/>
-    <mergeCell ref="B431:B440"/>
-    <mergeCell ref="A419:A429"/>
-    <mergeCell ref="B419:B429"/>
-    <mergeCell ref="A408:A417"/>
-    <mergeCell ref="B408:B417"/>
+  <mergeCells count="46">
+    <mergeCell ref="A439:A448"/>
+    <mergeCell ref="B439:B448"/>
+    <mergeCell ref="A450:A457"/>
+    <mergeCell ref="B450:B457"/>
+    <mergeCell ref="A267:A277"/>
+    <mergeCell ref="A279:A288"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="B396:B406"/>
+    <mergeCell ref="B389:B394"/>
+    <mergeCell ref="B317:B328"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A344:A357"/>
     <mergeCell ref="A290:A301"/>
     <mergeCell ref="A396:A406"/>
     <mergeCell ref="A359:A368"/>
@@ -9154,35 +9448,12 @@
     <mergeCell ref="A384:A394"/>
     <mergeCell ref="A303:A315"/>
     <mergeCell ref="A317:A328"/>
-    <mergeCell ref="B396:B406"/>
-    <mergeCell ref="B389:B394"/>
-    <mergeCell ref="B317:B328"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A344:A357"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A267:A277"/>
-    <mergeCell ref="A279:A288"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="A431:A437"/>
+    <mergeCell ref="B431:B437"/>
+    <mergeCell ref="A419:A429"/>
+    <mergeCell ref="B419:B429"/>
+    <mergeCell ref="A408:A417"/>
+    <mergeCell ref="B408:B417"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9192,14 +9463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -9227,7 +9498,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>588</v>
       </c>
@@ -9381,19 +9652,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -9877,6 +10148,104 @@
       </c>
       <c r="D33" s="3" t="s">
         <v>674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>43435</v>
+      </c>
+      <c r="B34" t="s">
+        <v>675</v>
+      </c>
+      <c r="C34" s="24">
+        <v>36.72</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>43436</v>
+      </c>
+      <c r="B35" t="s">
+        <v>680</v>
+      </c>
+      <c r="C35" s="24">
+        <v>36.71</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>43437</v>
+      </c>
+      <c r="B36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C36" s="24">
+        <v>39.92</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>43438</v>
+      </c>
+      <c r="B37" t="s">
+        <v>682</v>
+      </c>
+      <c r="C37" s="24">
+        <v>40.92</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
+        <v>43439</v>
+      </c>
+      <c r="B38" t="s">
+        <v>683</v>
+      </c>
+      <c r="C38" s="24">
+        <v>41.92</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
+        <v>43440</v>
+      </c>
+      <c r="B39" t="s">
+        <v>684</v>
+      </c>
+      <c r="C39" s="24">
+        <v>42.92</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>43441</v>
+      </c>
+      <c r="B40" t="s">
+        <v>685</v>
+      </c>
+      <c r="C40" s="24">
+        <v>43.92</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -9893,7 +10262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C26 C32">
+  <conditionalFormatting sqref="C26 C28 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9923,19 +10292,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -9985,7 +10354,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
@@ -9996,7 +10365,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -10004,7 +10373,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
     </row>
   </sheetData>
@@ -10015,20 +10384,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>205</v>
       </c>
@@ -10036,7 +10405,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>206</v>
       </c>
@@ -10044,7 +10413,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>207</v>
       </c>
@@ -10052,7 +10421,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>208</v>
       </c>
@@ -10060,11 +10429,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -10072,18 +10441,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -10091,7 +10460,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>
@@ -10109,20 +10478,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.625" customWidth="1"/>
+    <col min="4" max="4" width="113.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -10139,7 +10508,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>52</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B2FBBA-07E6-4951-A04B-14051D392EF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="440" windowWidth="25840" windowHeight="17480" activeTab="2"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -22,27 +18,27 @@
     <sheet name="黄帝内经" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">体温!$C$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">体温!$C$2:$C$36</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -125,12 +121,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="715">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3603,12 +3599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.45-7.02</t>
-  </si>
-  <si>
-    <t>6.45-7.03</t>
-  </si>
-  <si>
     <t>6.45-7.04</t>
   </si>
   <si>
@@ -3670,16 +3660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>午餐：炒面</t>
-    <rPh sb="0" eb="3">
-      <t>yuchaokuai caimu er rou sizi mi zhou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chao mian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>早餐：豆浆+吐司</t>
     <rPh sb="0" eb="1">
       <t>zao can</t>
@@ -3737,13 +3717,114 @@
     <rPh sb="3" eb="4">
       <t>shuan yang rou</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习+睡觉</t>
+    <rPh sb="0" eb="5">
+      <t>zu san li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小腹隐痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 顺畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.50-9.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：黑芝麻核桃糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现来月经，量很少，颜色浅，来时无感无征兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：炒面 量少</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chao mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45-7.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45-7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测着体温差点睡着，睡着容易张口，流口水</t>
+    <rPh sb="0" eb="8">
+      <t>cezheti wencha dianshui zhao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui zhao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>rong yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhang kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红糖水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：炒白菜+蒸海鱼+炒腐竹+黄瓜蛋花汤+蛋糕</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右眼皮浮肿
+小腹痛
+总想上大号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -3904,7 +3985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3958,22 +4039,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3984,6 +4067,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4267,24 +4353,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4540,7 +4626,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -4555,7 +4641,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4570,7 +4656,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -4581,7 +4667,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5044,35 +5130,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -5474,27 +5560,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I457"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="D463" sqref="D463"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="E470" sqref="E470"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -5518,7 +5604,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="36">
+      <c r="A2" s="34">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -5527,7 +5613,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -5537,7 +5623,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -5547,56 +5633,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="36">
+      <c r="A13" s="34">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5607,7 +5693,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -5620,8 +5706,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="40" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -5629,8 +5715,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -5639,8 +5725,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="41"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -5649,7 +5735,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -5659,7 +5745,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -5669,7 +5755,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -5679,7 +5765,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>333</v>
@@ -5689,7 +5775,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>310</v>
@@ -5699,7 +5785,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>335</v>
@@ -5709,7 +5795,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>336</v>
@@ -5719,7 +5805,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+      <c r="A26" s="34">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -5730,8 +5816,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="39" t="s">
         <v>370</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -5742,8 +5828,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="39"/>
       <c r="C28" t="s">
         <v>300</v>
       </c>
@@ -5752,8 +5838,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="39"/>
       <c r="C29" t="s">
         <v>358</v>
       </c>
@@ -5762,8 +5848,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -5772,8 +5858,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="15" t="s">
         <v>371</v>
       </c>
@@ -5782,8 +5868,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -5795,8 +5881,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="39"/>
       <c r="C33" t="s">
         <v>365</v>
       </c>
@@ -5805,8 +5891,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="39"/>
       <c r="C34" t="s">
         <v>367</v>
       </c>
@@ -5815,7 +5901,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="29"/>
       <c r="C35" s="15" t="s">
         <v>280</v>
@@ -5825,7 +5911,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="29"/>
       <c r="C36" s="15" t="s">
         <v>374</v>
@@ -5835,7 +5921,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>368</v>
@@ -5845,7 +5931,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>336</v>
@@ -5855,7 +5941,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+      <c r="A40" s="34">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -5872,7 +5958,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="21"/>
       <c r="C41" s="15" t="s">
         <v>342</v>
@@ -5882,7 +5968,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="21"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -5892,7 +5978,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -5902,7 +5988,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>397</v>
@@ -5912,7 +5998,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="23" t="s">
         <v>404</v>
       </c>
@@ -5924,7 +6010,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>400</v>
@@ -5934,7 +6020,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -5944,7 +6030,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>401</v>
@@ -5954,7 +6040,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>403</v>
@@ -5964,7 +6050,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -5974,7 +6060,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -5984,7 +6070,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>407</v>
@@ -5994,7 +6080,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>321</v>
@@ -6004,7 +6090,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -6014,7 +6100,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>368</v>
@@ -6024,10 +6110,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="36">
+      <c r="A57" s="34">
         <v>43406</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="42" t="s">
         <v>409</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -6039,8 +6125,8 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
-      <c r="B58" s="35"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
       </c>
@@ -6049,7 +6135,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="21"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -6059,7 +6145,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -6069,7 +6155,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>397</v>
@@ -6079,7 +6165,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>400</v>
@@ -6089,7 +6175,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>427</v>
@@ -6099,7 +6185,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="36"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>428</v>
@@ -6109,7 +6195,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="36"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -6119,7 +6205,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="36"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>430</v>
@@ -6129,7 +6215,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="36"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>431</v>
@@ -6139,7 +6225,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="36"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>433</v>
@@ -6149,7 +6235,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>432</v>
@@ -6159,7 +6245,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="36"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>336</v>
@@ -6169,7 +6255,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="34">
+      <c r="A72" s="38">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -6182,7 +6268,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="34"/>
+      <c r="A73" s="38"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -6193,7 +6279,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="34"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -6203,7 +6289,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="34"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -6211,7 +6297,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="34"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -6221,7 +6307,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
+      <c r="A77" s="38"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -6231,7 +6317,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="34"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -6241,7 +6327,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="34"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -6251,7 +6337,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="34"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -6261,7 +6347,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="34"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -6271,7 +6357,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="34"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>471</v>
@@ -6281,7 +6367,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="34"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>472</v>
@@ -6292,7 +6378,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>473</v>
@@ -6303,7 +6389,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="34">
+      <c r="A86" s="38">
         <v>43408</v>
       </c>
       <c r="B86" s="30" t="s">
@@ -6317,7 +6403,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="34"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="27"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -6325,7 +6411,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="34"/>
+      <c r="A88" s="38"/>
       <c r="B88" s="27"/>
       <c r="C88" s="15" t="s">
         <v>475</v>
@@ -6335,14 +6421,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="34"/>
+      <c r="A89" s="38"/>
       <c r="B89" s="21"/>
       <c r="D89" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="34"/>
+      <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -6350,7 +6436,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="34"/>
+      <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>484</v>
@@ -6360,7 +6446,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="34"/>
+      <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>459</v>
@@ -6370,7 +6456,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="34"/>
+      <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>460</v>
@@ -6380,7 +6466,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="34"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>461</v>
@@ -6390,7 +6476,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="34"/>
+      <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>347</v>
@@ -6400,11 +6486,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="34"/>
+      <c r="A96" s="38"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="34"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -6414,7 +6500,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="34"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -6424,7 +6510,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="34"/>
+      <c r="A99" s="38"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>310</v>
@@ -6434,7 +6520,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="34"/>
+      <c r="A100" s="38"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -6444,7 +6530,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="34"/>
+      <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>489</v>
@@ -6454,7 +6540,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="34"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>490</v>
@@ -6464,7 +6550,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="36">
+      <c r="A104" s="34">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -6472,7 +6558,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="36"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="25" t="s">
         <v>409</v>
       </c>
@@ -6484,7 +6570,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="36"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="26"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -6493,7 +6579,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="36"/>
+      <c r="A107" s="34"/>
       <c r="B107" s="26"/>
       <c r="C107" s="15" t="s">
         <v>342</v>
@@ -6503,7 +6589,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="36"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="21"/>
       <c r="C108" s="15" t="s">
         <v>434</v>
@@ -6513,7 +6599,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="36"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -6523,7 +6609,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="36"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -6531,7 +6617,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="36"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>423</v>
@@ -6541,7 +6627,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="36"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>421</v>
@@ -6551,7 +6637,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="36"/>
+      <c r="A113" s="34"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>440</v>
@@ -6561,7 +6647,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="36"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>445</v>
@@ -6571,7 +6657,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="36"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>444</v>
@@ -6581,7 +6667,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="36"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>441</v>
@@ -6591,7 +6677,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="36"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>442</v>
@@ -6601,7 +6687,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="36"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>443</v>
@@ -6611,7 +6697,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="36">
+      <c r="A120" s="34">
         <v>43410</v>
       </c>
       <c r="B120" s="26"/>
@@ -6623,7 +6709,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="36"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="26"/>
       <c r="C121" s="15" t="s">
         <v>437</v>
@@ -6633,7 +6719,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="36"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="21"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -6643,7 +6729,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="36"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="21"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -6651,7 +6737,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="36"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -6661,7 +6747,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="36"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>447</v>
@@ -6671,7 +6757,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="36"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>400</v>
@@ -6681,7 +6767,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="36"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>449</v>
@@ -6691,7 +6777,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="36"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>478</v>
@@ -6701,7 +6787,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="36"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>479</v>
@@ -6711,7 +6797,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="36"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>480</v>
@@ -6721,7 +6807,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="36"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>491</v>
@@ -6731,7 +6817,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="36"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>493</v>
@@ -6741,7 +6827,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="36"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -6751,7 +6837,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="36"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -6761,7 +6847,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="36"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>424</v>
@@ -6771,7 +6857,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="36"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -6781,7 +6867,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="36">
+      <c r="A138" s="34">
         <v>43411</v>
       </c>
       <c r="B138" s="26"/>
@@ -6793,7 +6879,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="36"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="26"/>
       <c r="C139" s="18" t="s">
         <v>337</v>
@@ -6803,7 +6889,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="36"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="26"/>
       <c r="C140" s="15" t="s">
         <v>342</v>
@@ -6813,7 +6899,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="36"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="21"/>
       <c r="C141" s="3" t="s">
         <v>500</v>
@@ -6823,7 +6909,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="36"/>
+      <c r="A142" s="34"/>
       <c r="B142" s="21"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -6833,7 +6919,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="36"/>
+      <c r="A143" s="34"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>502</v>
@@ -6843,7 +6929,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="36"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -6851,7 +6937,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="36"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>449</v>
@@ -6861,7 +6947,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="36"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>478</v>
@@ -6871,7 +6957,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="36"/>
+      <c r="A147" s="34"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>421</v>
@@ -6881,7 +6967,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="36"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>440</v>
@@ -6891,7 +6977,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="36"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>480</v>
@@ -6901,7 +6987,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="36"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -6911,7 +6997,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="36"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>294</v>
@@ -6921,7 +7007,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="36"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>441</v>
@@ -6931,7 +7017,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="36"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>368</v>
@@ -6941,7 +7027,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="36"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>336</v>
@@ -6951,7 +7037,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="36">
+      <c r="A156" s="34">
         <v>43412</v>
       </c>
       <c r="B156" s="26"/>
@@ -6963,7 +7049,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="36"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="26"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -6973,7 +7059,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="36"/>
+      <c r="A158" s="34"/>
       <c r="B158" s="21"/>
       <c r="C158" s="3" t="s">
         <v>508</v>
@@ -6983,7 +7069,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="36"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="21"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -6993,7 +7079,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="36"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>502</v>
@@ -7003,7 +7089,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="36"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -7011,7 +7097,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="36"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>449</v>
@@ -7021,7 +7107,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="36"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -7029,7 +7115,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="36"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>478</v>
@@ -7039,7 +7125,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="36"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>421</v>
@@ -7049,7 +7135,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="36"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>480</v>
@@ -7059,7 +7145,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="36"/>
+      <c r="A167" s="34"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>491</v>
@@ -7069,7 +7155,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="36"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>493</v>
@@ -7079,7 +7165,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="36"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>353</v>
@@ -7089,7 +7175,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="36"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>432</v>
@@ -7099,7 +7185,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="36"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>336</v>
@@ -7109,7 +7195,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="36">
+      <c r="A173" s="34">
         <v>43413</v>
       </c>
       <c r="B173" s="26"/>
@@ -7121,7 +7207,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="36"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="21"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -7131,7 +7217,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="36"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>502</v>
@@ -7141,7 +7227,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="36"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>449</v>
@@ -7151,7 +7237,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="36"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -7159,7 +7245,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="36"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>478</v>
@@ -7169,7 +7255,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="36"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>421</v>
@@ -7179,7 +7265,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="36"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>480</v>
@@ -7189,7 +7275,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="36"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>491</v>
@@ -7199,7 +7285,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="36"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>493</v>
@@ -7209,7 +7295,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="36"/>
+      <c r="A183" s="34"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>353</v>
@@ -7219,7 +7305,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="36"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>432</v>
@@ -7229,7 +7315,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="36"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>336</v>
@@ -7239,7 +7325,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="34">
+      <c r="A187" s="38">
         <v>43414</v>
       </c>
       <c r="B187" s="26"/>
@@ -7251,7 +7337,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="34"/>
+      <c r="A188" s="38"/>
       <c r="B188" s="21"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -7259,7 +7345,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="34"/>
+      <c r="A189" s="38"/>
       <c r="B189" s="21"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -7267,7 +7353,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="34"/>
+      <c r="A190" s="38"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -7275,7 +7361,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="34"/>
+      <c r="A191" s="38"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -7283,7 +7369,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="34"/>
+      <c r="A192" s="38"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -7291,7 +7377,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="34"/>
+      <c r="A193" s="38"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -7299,7 +7385,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="34"/>
+      <c r="A194" s="38"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -7307,7 +7393,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="34"/>
+      <c r="A195" s="38"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>432</v>
@@ -7317,7 +7403,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="34"/>
+      <c r="A196" s="38"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>336</v>
@@ -7327,7 +7413,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="34">
+      <c r="A198" s="38">
         <v>43415</v>
       </c>
       <c r="B198" s="26"/>
@@ -7339,7 +7425,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="34"/>
+      <c r="A199" s="38"/>
       <c r="B199" s="26"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -7347,7 +7433,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="34"/>
+      <c r="A200" s="38"/>
       <c r="B200" s="21"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -7357,7 +7443,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="34"/>
+      <c r="A201" s="38"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>449</v>
@@ -7367,7 +7453,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="34"/>
+      <c r="A202" s="38"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>478</v>
@@ -7377,7 +7463,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="34"/>
+      <c r="A203" s="38"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -7387,7 +7473,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="34"/>
+      <c r="A204" s="38"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>480</v>
@@ -7397,7 +7483,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="34"/>
+      <c r="A205" s="38"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>526</v>
@@ -7407,7 +7493,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="34"/>
+      <c r="A206" s="38"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>523</v>
@@ -7417,7 +7503,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="34"/>
+      <c r="A207" s="38"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>524</v>
@@ -7427,7 +7513,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="32">
+      <c r="A209" s="35">
         <v>43416</v>
       </c>
       <c r="B209" s="26"/>
@@ -7439,7 +7525,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="32"/>
+      <c r="A210" s="35"/>
       <c r="B210" s="21"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -7449,7 +7535,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="32"/>
+      <c r="A211" s="35"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -7457,7 +7543,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="32"/>
+      <c r="A212" s="35"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>478</v>
@@ -7467,7 +7553,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="32"/>
+      <c r="A213" s="35"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -7475,7 +7561,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="32"/>
+      <c r="A214" s="35"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -7483,7 +7569,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="32"/>
+      <c r="A215" s="35"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -7491,7 +7577,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="32"/>
+      <c r="A216" s="35"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>353</v>
@@ -7501,7 +7587,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="32"/>
+      <c r="A217" s="35"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>432</v>
@@ -7511,14 +7597,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="32"/>
+      <c r="A218" s="35"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="32">
+      <c r="A220" s="35">
         <v>43417</v>
       </c>
       <c r="B220" s="26"/>
@@ -7530,7 +7616,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="32"/>
+      <c r="A221" s="35"/>
       <c r="B221" s="26"/>
       <c r="C221" s="15" t="s">
         <v>536</v>
@@ -7540,14 +7626,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="32"/>
+      <c r="A222" s="35"/>
       <c r="B222" s="26"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="32"/>
+      <c r="A223" s="35"/>
       <c r="B223" s="21"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -7557,7 +7643,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="32"/>
+      <c r="A224" s="35"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>449</v>
@@ -7567,7 +7653,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="32"/>
+      <c r="A225" s="35"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>478</v>
@@ -7577,7 +7663,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="32"/>
+      <c r="A226" s="35"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>421</v>
@@ -7587,7 +7673,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="32"/>
+      <c r="A227" s="35"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>480</v>
@@ -7597,7 +7683,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="32"/>
+      <c r="A228" s="35"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>353</v>
@@ -7607,7 +7693,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="32"/>
+      <c r="A229" s="35"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>336</v>
@@ -7617,7 +7703,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="32">
+      <c r="A231" s="35">
         <v>43418</v>
       </c>
       <c r="B231" s="26"/>
@@ -7629,14 +7715,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="32"/>
+      <c r="A232" s="35"/>
       <c r="B232" s="26"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="32"/>
+      <c r="A233" s="35"/>
       <c r="B233" s="21"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -7646,7 +7732,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="32"/>
+      <c r="A234" s="35"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -7654,7 +7740,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="32"/>
+      <c r="A235" s="35"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -7662,7 +7748,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="32"/>
+      <c r="A236" s="35"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>478</v>
@@ -7672,7 +7758,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="32"/>
+      <c r="A237" s="35"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -7680,7 +7766,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="32"/>
+      <c r="A238" s="35"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -7688,7 +7774,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="32"/>
+      <c r="A239" s="35"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -7696,7 +7782,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="32"/>
+      <c r="A240" s="35"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -7704,7 +7790,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="32"/>
+      <c r="A241" s="35"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>336</v>
@@ -7714,14 +7800,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="32"/>
+      <c r="A242" s="35"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="32">
+      <c r="A244" s="35">
         <v>43419</v>
       </c>
       <c r="B244" s="26"/>
@@ -7733,14 +7819,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="32"/>
+      <c r="A245" s="35"/>
       <c r="B245" s="26"/>
       <c r="D245" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="32"/>
+      <c r="A246" s="35"/>
       <c r="B246" s="21"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -7750,7 +7836,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="32"/>
+      <c r="A247" s="35"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -7758,7 +7844,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="32"/>
+      <c r="A248" s="35"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>478</v>
@@ -7768,7 +7854,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="32"/>
+      <c r="A249" s="35"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -7776,7 +7862,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="32"/>
+      <c r="A250" s="35"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -7784,7 +7870,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="32"/>
+      <c r="A251" s="35"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -7792,7 +7878,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="32"/>
+      <c r="A252" s="35"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>336</v>
@@ -7802,7 +7888,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="32">
+      <c r="A254" s="35">
         <v>43420</v>
       </c>
       <c r="B254" s="26"/>
@@ -7814,7 +7900,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="32"/>
+      <c r="A255" s="35"/>
       <c r="B255" s="26"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -7822,14 +7908,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="32"/>
+      <c r="A256" s="35"/>
       <c r="B256" s="26"/>
       <c r="D256" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="32"/>
+      <c r="A257" s="35"/>
       <c r="B257" s="21"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -7839,7 +7925,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="32"/>
+      <c r="A258" s="35"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -7847,7 +7933,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="32"/>
+      <c r="A259" s="35"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>478</v>
@@ -7857,14 +7943,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="32"/>
+      <c r="A260" s="35"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="32"/>
+      <c r="A261" s="35"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -7872,7 +7958,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="32"/>
+      <c r="A262" s="35"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -7880,7 +7966,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="32"/>
+      <c r="A263" s="35"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -7888,7 +7974,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="32"/>
+      <c r="A264" s="35"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -7896,7 +7982,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="32"/>
+      <c r="A265" s="35"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>336</v>
@@ -7906,7 +7992,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="34">
+      <c r="A267" s="38">
         <v>43421</v>
       </c>
       <c r="B267" s="26"/>
@@ -7918,7 +8004,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="34"/>
+      <c r="A268" s="38"/>
       <c r="B268" s="26"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -7926,7 +8012,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="34"/>
+      <c r="A269" s="38"/>
       <c r="B269" s="21"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -7934,7 +8020,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="34"/>
+      <c r="A270" s="38"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -7942,14 +8028,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="34"/>
+      <c r="A271" s="38"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="34"/>
+      <c r="A272" s="38"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -7957,7 +8043,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="34"/>
+      <c r="A273" s="38"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -7965,7 +8051,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="34"/>
+      <c r="A274" s="38"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -7973,7 +8059,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="34"/>
+      <c r="A275" s="38"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -7981,7 +8067,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="34"/>
+      <c r="A276" s="38"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>336</v>
@@ -7991,14 +8077,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="34"/>
+      <c r="A277" s="38"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="34">
+      <c r="A279" s="38">
         <v>43422</v>
       </c>
       <c r="B279" s="26"/>
@@ -8010,28 +8096,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="34"/>
+      <c r="A280" s="38"/>
       <c r="B280" s="26"/>
       <c r="D280" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="34"/>
+      <c r="A281" s="38"/>
       <c r="B281" s="26"/>
       <c r="D281" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="34"/>
+      <c r="A282" s="38"/>
       <c r="B282" s="26"/>
       <c r="D282" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="34"/>
+      <c r="A283" s="38"/>
       <c r="B283" s="21"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -8041,7 +8127,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="34"/>
+      <c r="A284" s="38"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -8049,7 +8135,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="34"/>
+      <c r="A285" s="38"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -8057,7 +8143,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="34"/>
+      <c r="A286" s="38"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -8065,7 +8151,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="34"/>
+      <c r="A287" s="38"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -8073,7 +8159,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="34"/>
+      <c r="A288" s="38"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -8083,7 +8169,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="32">
+      <c r="A290" s="35">
         <v>43423</v>
       </c>
       <c r="B290" s="26"/>
@@ -8095,7 +8181,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="32"/>
+      <c r="A291" s="35"/>
       <c r="B291" s="26"/>
       <c r="C291" s="15" t="s">
         <v>250</v>
@@ -8105,14 +8191,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="32"/>
+      <c r="A292" s="35"/>
       <c r="B292" s="26"/>
       <c r="D292" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="32"/>
+      <c r="A293" s="35"/>
       <c r="B293" s="21"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -8122,7 +8208,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="32"/>
+      <c r="A294" s="35"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -8130,7 +8216,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="32"/>
+      <c r="A295" s="35"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>478</v>
@@ -8140,14 +8226,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="32"/>
+      <c r="A296" s="35"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="32"/>
+      <c r="A297" s="35"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -8155,7 +8241,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="32"/>
+      <c r="A298" s="35"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -8163,14 +8249,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="32"/>
+      <c r="A299" s="35"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="32"/>
+      <c r="A300" s="35"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -8178,7 +8264,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="32"/>
+      <c r="A301" s="35"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>336</v>
@@ -8188,7 +8274,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="32">
+      <c r="A303" s="35">
         <v>43424</v>
       </c>
       <c r="B303" s="26"/>
@@ -8200,7 +8286,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="32"/>
+      <c r="A304" s="35"/>
       <c r="B304" s="26"/>
       <c r="C304" s="15" t="s">
         <v>598</v>
@@ -8210,7 +8296,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="32"/>
+      <c r="A305" s="35"/>
       <c r="B305" s="26"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -8218,14 +8304,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="32"/>
+      <c r="A306" s="35"/>
       <c r="B306" s="26"/>
       <c r="D306" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="32"/>
+      <c r="A307" s="35"/>
       <c r="B307" s="21"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -8235,7 +8321,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="32"/>
+      <c r="A308" s="35"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -8243,7 +8329,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="32"/>
+      <c r="A309" s="35"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>478</v>
@@ -8253,21 +8339,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="32"/>
+      <c r="A310" s="35"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="32"/>
+      <c r="A311" s="35"/>
       <c r="B311" s="20"/>
       <c r="D311" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="32"/>
+      <c r="A312" s="35"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -8275,14 +8361,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="32"/>
+      <c r="A313" s="35"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="32"/>
+      <c r="A314" s="35"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -8290,7 +8376,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="32"/>
+      <c r="A315" s="35"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>336</v>
@@ -8300,10 +8386,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="32">
+      <c r="A317" s="35">
         <v>43425</v>
       </c>
-      <c r="B317" s="33" t="s">
+      <c r="B317" s="37" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -8314,24 +8400,24 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="32"/>
-      <c r="B318" s="33"/>
+      <c r="A318" s="35"/>
+      <c r="B318" s="37"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="32"/>
-      <c r="B319" s="33"/>
+      <c r="A319" s="35"/>
+      <c r="B319" s="37"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="32"/>
-      <c r="B320" s="33"/>
+      <c r="A320" s="35"/>
+      <c r="B320" s="37"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -8340,23 +8426,23 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="32"/>
-      <c r="B321" s="33"/>
+      <c r="A321" s="35"/>
+      <c r="B321" s="37"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="32"/>
-      <c r="B322" s="33"/>
+      <c r="A322" s="35"/>
+      <c r="B322" s="37"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="32"/>
-      <c r="B323" s="33"/>
+      <c r="A323" s="35"/>
+      <c r="B323" s="37"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -8365,38 +8451,38 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="32"/>
-      <c r="B324" s="33"/>
+      <c r="A324" s="35"/>
+      <c r="B324" s="37"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="32"/>
-      <c r="B325" s="33"/>
+      <c r="A325" s="35"/>
+      <c r="B325" s="37"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="32"/>
-      <c r="B326" s="33"/>
+      <c r="A326" s="35"/>
+      <c r="B326" s="37"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="32"/>
-      <c r="B327" s="33"/>
+      <c r="A327" s="35"/>
+      <c r="B327" s="37"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="32"/>
-      <c r="B328" s="33"/>
+      <c r="A328" s="35"/>
+      <c r="B328" s="37"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -8405,7 +8491,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="32">
+      <c r="A330" s="35">
         <v>43426</v>
       </c>
       <c r="B330" s="26"/>
@@ -8417,7 +8503,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="32"/>
+      <c r="A331" s="35"/>
       <c r="B331" s="26"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -8425,7 +8511,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="32"/>
+      <c r="A332" s="35"/>
       <c r="B332" s="26"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -8433,7 +8519,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="32"/>
+      <c r="A333" s="35"/>
       <c r="B333" s="26"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
@@ -8443,7 +8529,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="32"/>
+      <c r="A334" s="35"/>
       <c r="B334" s="26"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -8451,21 +8537,21 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="32"/>
+      <c r="A335" s="35"/>
       <c r="B335" s="26"/>
       <c r="D335" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="32"/>
+      <c r="A336" s="35"/>
       <c r="B336" s="26"/>
       <c r="D336" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="32"/>
+      <c r="A337" s="35"/>
       <c r="B337" s="26"/>
       <c r="C337" s="15" t="s">
         <v>616</v>
@@ -8475,14 +8561,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="32"/>
+      <c r="A338" s="35"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="32"/>
+      <c r="A339" s="35"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
@@ -8490,7 +8576,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="32"/>
+      <c r="A340" s="35"/>
       <c r="B340" s="20"/>
       <c r="C340" s="3"/>
       <c r="D340" s="18" t="s">
@@ -8498,7 +8584,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="32"/>
+      <c r="A341" s="35"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
@@ -8506,7 +8592,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="32"/>
+      <c r="A342" s="35"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>336</v>
@@ -8516,7 +8602,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="32">
+      <c r="A344" s="35">
         <v>43427</v>
       </c>
       <c r="B344" s="26"/>
@@ -8528,7 +8614,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="32"/>
+      <c r="A345" s="35"/>
       <c r="B345" s="26"/>
       <c r="C345" s="3" t="s">
         <v>619</v>
@@ -8538,7 +8624,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="32"/>
+      <c r="A346" s="35"/>
       <c r="B346" s="26"/>
       <c r="C346" s="3"/>
       <c r="D346" s="15" t="s">
@@ -8546,7 +8632,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="32"/>
+      <c r="A347" s="35"/>
       <c r="B347" s="26"/>
       <c r="C347" s="3"/>
       <c r="D347" s="15" t="s">
@@ -8554,7 +8640,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="32"/>
+      <c r="A348" s="35"/>
       <c r="B348" s="26"/>
       <c r="C348" s="3"/>
       <c r="D348" s="15" t="s">
@@ -8562,7 +8648,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="32"/>
+      <c r="A349" s="35"/>
       <c r="B349" s="26"/>
       <c r="C349" s="15" t="s">
         <v>266</v>
@@ -8572,7 +8658,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="32"/>
+      <c r="A350" s="35"/>
       <c r="B350" s="26"/>
       <c r="C350" s="15" t="s">
         <v>616</v>
@@ -8582,14 +8668,14 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="32"/>
+      <c r="A351" s="35"/>
       <c r="B351" s="26"/>
       <c r="D351" s="15" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="32"/>
+      <c r="A352" s="35"/>
       <c r="B352" s="26"/>
       <c r="C352" s="3"/>
       <c r="D352" s="15" t="s">
@@ -8597,22 +8683,22 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="32"/>
+      <c r="A353" s="35"/>
       <c r="B353" s="26"/>
       <c r="D353" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="32"/>
+      <c r="A354" s="35"/>
       <c r="B354" s="20"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="32"/>
+      <c r="A355" s="35"/>
       <c r="B355" s="20"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="32"/>
+      <c r="A356" s="35"/>
       <c r="B356" s="20"/>
       <c r="C356" s="3"/>
       <c r="D356" s="15" t="s">
@@ -8620,7 +8706,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="32"/>
+      <c r="A357" s="35"/>
       <c r="B357" s="20"/>
       <c r="C357" t="s">
         <v>336</v>
@@ -8630,7 +8716,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="34">
+      <c r="A359" s="38">
         <v>43428</v>
       </c>
       <c r="B359" s="26"/>
@@ -8642,7 +8728,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="34"/>
+      <c r="A360" s="38"/>
       <c r="B360" s="26"/>
       <c r="C360" s="3"/>
       <c r="D360" s="15" t="s">
@@ -8650,7 +8736,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="34"/>
+      <c r="A361" s="38"/>
       <c r="B361" s="26"/>
       <c r="C361" s="3"/>
       <c r="D361" s="15" t="s">
@@ -8658,7 +8744,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="34"/>
+      <c r="A362" s="38"/>
       <c r="B362" s="26"/>
       <c r="C362" s="3"/>
       <c r="D362" s="15" t="s">
@@ -8666,7 +8752,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="34"/>
+      <c r="A363" s="38"/>
       <c r="B363" s="26"/>
       <c r="C363" s="3"/>
       <c r="D363" s="15" t="s">
@@ -8674,14 +8760,14 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="34"/>
+      <c r="A364" s="38"/>
       <c r="B364" s="26"/>
       <c r="D364" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="34"/>
+      <c r="A365" s="38"/>
       <c r="B365" s="26"/>
       <c r="C365" s="3"/>
       <c r="D365" s="15" t="s">
@@ -8689,14 +8775,14 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="34"/>
+      <c r="A366" s="38"/>
       <c r="B366" s="26"/>
       <c r="D366" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="34"/>
+      <c r="A367" s="38"/>
       <c r="B367" s="20"/>
       <c r="C367" s="3"/>
       <c r="D367" s="15" t="s">
@@ -8704,14 +8790,14 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="34"/>
+      <c r="A368" s="38"/>
       <c r="B368" s="20"/>
       <c r="D368" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="34">
+      <c r="A370" s="38">
         <v>43429</v>
       </c>
       <c r="B370" s="26"/>
@@ -8723,7 +8809,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="34"/>
+      <c r="A371" s="38"/>
       <c r="B371" s="26"/>
       <c r="C371" s="3" t="s">
         <v>619</v>
@@ -8733,7 +8819,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="34"/>
+      <c r="A372" s="38"/>
       <c r="B372" s="26"/>
       <c r="C372" s="3"/>
       <c r="D372" s="15" t="s">
@@ -8741,7 +8827,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="34"/>
+      <c r="A373" s="38"/>
       <c r="B373" s="26"/>
       <c r="C373" s="3"/>
       <c r="D373" s="15" t="s">
@@ -8749,7 +8835,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="34"/>
+      <c r="A374" s="38"/>
       <c r="B374" s="26"/>
       <c r="C374" s="3"/>
       <c r="D374" s="15" t="s">
@@ -8757,7 +8843,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="34"/>
+      <c r="A375" s="38"/>
       <c r="B375" s="26"/>
       <c r="C375" s="15" t="s">
         <v>266</v>
@@ -8767,7 +8853,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="34"/>
+      <c r="A376" s="38"/>
       <c r="B376" s="26"/>
       <c r="C376" s="3"/>
       <c r="D376" s="15" t="s">
@@ -8775,14 +8861,14 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="34"/>
+      <c r="A377" s="38"/>
       <c r="B377" s="26"/>
       <c r="D377" s="15" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="34"/>
+      <c r="A378" s="38"/>
       <c r="B378" s="26"/>
       <c r="C378" s="3"/>
       <c r="D378" s="15" t="s">
@@ -8790,7 +8876,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="34"/>
+      <c r="A379" s="38"/>
       <c r="B379" s="26"/>
       <c r="C379" s="3"/>
       <c r="D379" s="15" t="s">
@@ -8798,14 +8884,14 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="34"/>
+      <c r="A380" s="38"/>
       <c r="B380" s="26"/>
       <c r="D380" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="34"/>
+      <c r="A381" s="38"/>
       <c r="B381" s="20"/>
       <c r="C381" t="s">
         <v>368</v>
@@ -8815,7 +8901,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="34"/>
+      <c r="A382" s="38"/>
       <c r="B382" s="20"/>
       <c r="C382" t="s">
         <v>336</v>
@@ -8825,7 +8911,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="32">
+      <c r="A384" s="35">
         <v>43430</v>
       </c>
       <c r="B384" s="26"/>
@@ -8837,7 +8923,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="32"/>
+      <c r="A385" s="35"/>
       <c r="B385" s="26"/>
       <c r="C385" s="3" t="s">
         <v>640</v>
@@ -8847,7 +8933,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="32"/>
+      <c r="A386" s="35"/>
       <c r="B386" s="26"/>
       <c r="C386" s="3"/>
       <c r="D386" s="15" t="s">
@@ -8855,7 +8941,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="32"/>
+      <c r="A387" s="35"/>
       <c r="B387" s="26"/>
       <c r="C387" s="15" t="s">
         <v>266</v>
@@ -8865,7 +8951,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="32"/>
+      <c r="A388" s="35"/>
       <c r="B388" s="26"/>
       <c r="C388" s="15" t="s">
         <v>616</v>
@@ -8875,8 +8961,8 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="32"/>
-      <c r="B389" s="33" t="s">
+      <c r="A389" s="35"/>
+      <c r="B389" s="37" t="s">
         <v>650</v>
       </c>
       <c r="D389" s="15" t="s">
@@ -8884,48 +8970,48 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="32"/>
-      <c r="B390" s="33"/>
+      <c r="A390" s="35"/>
+      <c r="B390" s="37"/>
       <c r="C390" s="3"/>
       <c r="D390" s="15" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="32"/>
-      <c r="B391" s="33"/>
+      <c r="A391" s="35"/>
+      <c r="B391" s="37"/>
       <c r="C391" s="3"/>
       <c r="D391" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="32"/>
-      <c r="B392" s="33"/>
+      <c r="A392" s="35"/>
+      <c r="B392" s="37"/>
       <c r="D392" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="32"/>
-      <c r="B393" s="33"/>
+      <c r="A393" s="35"/>
+      <c r="B393" s="37"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="32"/>
-      <c r="B394" s="33"/>
+      <c r="A394" s="35"/>
+      <c r="B394" s="37"/>
       <c r="D394" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="32">
+      <c r="A396" s="35">
         <v>43431</v>
       </c>
-      <c r="B396" s="33" t="s">
+      <c r="B396" s="37" t="s">
         <v>649</v>
       </c>
       <c r="C396" t="s">
@@ -8936,8 +9022,8 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="32"/>
-      <c r="B397" s="33"/>
+      <c r="A397" s="35"/>
+      <c r="B397" s="37"/>
       <c r="C397" s="3" t="s">
         <v>640</v>
       </c>
@@ -8946,16 +9032,16 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="32"/>
-      <c r="B398" s="33"/>
+      <c r="A398" s="35"/>
+      <c r="B398" s="37"/>
       <c r="C398" s="3"/>
       <c r="D398" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="32"/>
-      <c r="B399" s="33"/>
+      <c r="A399" s="35"/>
+      <c r="B399" s="37"/>
       <c r="C399" s="15" t="s">
         <v>266</v>
       </c>
@@ -8964,55 +9050,55 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="32"/>
-      <c r="B400" s="33"/>
+      <c r="A400" s="35"/>
+      <c r="B400" s="37"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="32"/>
-      <c r="B401" s="33"/>
+      <c r="A401" s="35"/>
+      <c r="B401" s="37"/>
       <c r="C401" s="3"/>
       <c r="D401" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="32"/>
-      <c r="B402" s="33"/>
+      <c r="A402" s="35"/>
+      <c r="B402" s="37"/>
       <c r="D402" s="15" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="32"/>
-      <c r="B403" s="33"/>
+      <c r="A403" s="35"/>
+      <c r="B403" s="37"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="32"/>
-      <c r="B404" s="33"/>
+      <c r="A404" s="35"/>
+      <c r="B404" s="37"/>
       <c r="C404" s="3"/>
       <c r="D404" s="15" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="32"/>
-      <c r="B405" s="33"/>
+      <c r="A405" s="35"/>
+      <c r="B405" s="37"/>
       <c r="C405" s="3"/>
       <c r="D405" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="32"/>
-      <c r="B406" s="33"/>
+      <c r="A406" s="35"/>
+      <c r="B406" s="37"/>
       <c r="C406" t="s">
         <v>336</v>
       </c>
@@ -9021,10 +9107,10 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="32">
+      <c r="A408" s="35">
         <v>43432</v>
       </c>
-      <c r="B408" s="33"/>
+      <c r="B408" s="37"/>
       <c r="C408" t="s">
         <v>643</v>
       </c>
@@ -9033,8 +9119,8 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" s="32"/>
-      <c r="B409" s="33"/>
+      <c r="A409" s="35"/>
+      <c r="B409" s="37"/>
       <c r="C409" s="3" t="s">
         <v>658</v>
       </c>
@@ -9043,8 +9129,8 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="32"/>
-      <c r="B410" s="33"/>
+      <c r="A410" s="35"/>
+      <c r="B410" s="37"/>
       <c r="C410" s="15" t="s">
         <v>266</v>
       </c>
@@ -9053,63 +9139,63 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="32"/>
-      <c r="B411" s="33"/>
+      <c r="A411" s="35"/>
+      <c r="B411" s="37"/>
       <c r="C411" s="3"/>
       <c r="D411" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="32"/>
-      <c r="B412" s="33"/>
+      <c r="A412" s="35"/>
+      <c r="B412" s="37"/>
       <c r="C412" s="3"/>
       <c r="D412" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="32"/>
-      <c r="B413" s="33"/>
+      <c r="A413" s="35"/>
+      <c r="B413" s="37"/>
       <c r="D413" s="15" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="32"/>
-      <c r="B414" s="33"/>
+      <c r="A414" s="35"/>
+      <c r="B414" s="37"/>
       <c r="D414" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="32"/>
-      <c r="B415" s="33"/>
+      <c r="A415" s="35"/>
+      <c r="B415" s="37"/>
       <c r="C415" s="3"/>
       <c r="D415" s="15" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="32"/>
-      <c r="B416" s="33"/>
+      <c r="A416" s="35"/>
+      <c r="B416" s="37"/>
       <c r="D416" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="32"/>
-      <c r="B417" s="33"/>
+      <c r="A417" s="35"/>
+      <c r="B417" s="37"/>
       <c r="C417" s="3"/>
       <c r="D417" s="15" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="32">
+      <c r="A419" s="35">
         <v>43433</v>
       </c>
-      <c r="B419" s="33" t="s">
+      <c r="B419" s="37" t="s">
         <v>666</v>
       </c>
       <c r="C419" t="s">
@@ -9120,8 +9206,8 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A420" s="32"/>
-      <c r="B420" s="33"/>
+      <c r="A420" s="35"/>
+      <c r="B420" s="37"/>
       <c r="C420" s="3" t="s">
         <v>672</v>
       </c>
@@ -9130,8 +9216,8 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="32"/>
-      <c r="B421" s="33"/>
+      <c r="A421" s="35"/>
+      <c r="B421" s="37"/>
       <c r="C421" s="15" t="s">
         <v>266</v>
       </c>
@@ -9140,70 +9226,70 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="32"/>
-      <c r="B422" s="33"/>
+      <c r="A422" s="35"/>
+      <c r="B422" s="37"/>
       <c r="C422" s="3"/>
       <c r="D422" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="32"/>
-      <c r="B423" s="33"/>
+      <c r="A423" s="35"/>
+      <c r="B423" s="37"/>
       <c r="C423" s="3"/>
       <c r="D423" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="32"/>
-      <c r="B424" s="33"/>
+      <c r="A424" s="35"/>
+      <c r="B424" s="37"/>
       <c r="D424" s="15" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="32"/>
-      <c r="B425" s="33"/>
+      <c r="A425" s="35"/>
+      <c r="B425" s="37"/>
       <c r="D425" s="15" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="32"/>
-      <c r="B426" s="33"/>
+      <c r="A426" s="35"/>
+      <c r="B426" s="37"/>
       <c r="D426" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="32"/>
-      <c r="B427" s="33"/>
+      <c r="A427" s="35"/>
+      <c r="B427" s="37"/>
       <c r="C427" s="3"/>
       <c r="D427" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="32"/>
-      <c r="B428" s="33"/>
+      <c r="A428" s="35"/>
+      <c r="B428" s="37"/>
       <c r="D428" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="32"/>
-      <c r="B429" s="33"/>
+      <c r="A429" s="35"/>
+      <c r="B429" s="37"/>
       <c r="C429" s="3"/>
       <c r="D429" s="15" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="32">
+      <c r="A431" s="35">
         <v>43434</v>
       </c>
-      <c r="B431" s="33"/>
+      <c r="B431" s="37"/>
       <c r="C431" t="s">
         <v>675</v>
       </c>
@@ -9212,8 +9298,8 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A432" s="32"/>
-      <c r="B432" s="33"/>
+      <c r="A432" s="35"/>
+      <c r="B432" s="37"/>
       <c r="C432" t="s">
         <v>677</v>
       </c>
@@ -9222,8 +9308,8 @@
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="32"/>
-      <c r="B433" s="33"/>
+      <c r="A433" s="35"/>
+      <c r="B433" s="37"/>
       <c r="C433" s="15" t="s">
         <v>266</v>
       </c>
@@ -9232,210 +9318,282 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="32"/>
-      <c r="B434" s="33"/>
+      <c r="A434" s="35"/>
+      <c r="B434" s="37"/>
       <c r="D434" s="15" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="32"/>
-      <c r="B435" s="33"/>
+      <c r="A435" s="35"/>
+      <c r="B435" s="37"/>
       <c r="D435" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="32"/>
-      <c r="B436" s="33"/>
+      <c r="A436" s="35"/>
+      <c r="B436" s="37"/>
       <c r="C436" s="3"/>
       <c r="D436" s="15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="32"/>
-      <c r="B437" s="33"/>
+      <c r="A437" s="35"/>
+      <c r="B437" s="37"/>
       <c r="C437" s="3"/>
       <c r="D437" s="15" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="34">
+      <c r="A439" s="38">
         <v>43435</v>
       </c>
-      <c r="B439" s="33"/>
+      <c r="B439" s="37"/>
       <c r="C439" t="s">
         <v>675</v>
       </c>
       <c r="D439" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A440" s="34"/>
-      <c r="B440" s="33"/>
+      <c r="A440" s="38"/>
+      <c r="B440" s="37"/>
       <c r="D440" s="15" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="34"/>
-      <c r="B441" s="33"/>
+      <c r="A441" s="38"/>
+      <c r="B441" s="37"/>
       <c r="D441" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A442" s="34"/>
-      <c r="B442" s="33"/>
+      <c r="A442" s="38"/>
+      <c r="B442" s="37"/>
       <c r="C442" s="3"/>
       <c r="D442" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A443" s="34"/>
-      <c r="B443" s="33"/>
+      <c r="A443" s="38"/>
+      <c r="B443" s="37"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="34"/>
-      <c r="B444" s="33"/>
+      <c r="A444" s="38"/>
+      <c r="B444" s="37"/>
       <c r="C444" s="3"/>
       <c r="D444" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="34"/>
-      <c r="B445" s="33"/>
+      <c r="A445" s="38"/>
+      <c r="B445" s="37"/>
       <c r="D445" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="34"/>
-      <c r="B446" s="33"/>
+      <c r="A446" s="38"/>
+      <c r="B446" s="37"/>
       <c r="D446" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="34"/>
-      <c r="B447" s="33"/>
+      <c r="A447" s="38"/>
+      <c r="B447" s="37"/>
       <c r="C447" s="3"/>
       <c r="D447" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="34"/>
-      <c r="B448" s="33"/>
+      <c r="A448" s="38"/>
+      <c r="B448" s="37"/>
       <c r="C448" s="3"/>
       <c r="D448" s="15" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="34">
+      <c r="A450" s="38">
         <v>43436</v>
       </c>
-      <c r="B450" s="33"/>
+      <c r="B450" s="26"/>
       <c r="C450" t="s">
         <v>675</v>
       </c>
       <c r="D450" s="15" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A451" s="34"/>
-      <c r="B451" s="33"/>
+      <c r="A451" s="38"/>
+      <c r="B451" s="26"/>
       <c r="D451" s="15" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="38"/>
+      <c r="B452" s="26"/>
+      <c r="D452" s="15" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="34"/>
-      <c r="B452" s="33"/>
-      <c r="D452" s="15" t="s">
-        <v>694</v>
-      </c>
-    </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="34"/>
-      <c r="B453" s="33"/>
+      <c r="A453" s="38"/>
+      <c r="B453" s="26"/>
       <c r="C453" s="3"/>
       <c r="D453" s="15" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="34"/>
-      <c r="B454" s="33"/>
+      <c r="A454" s="38"/>
+      <c r="B454" s="26" t="s">
+        <v>705</v>
+      </c>
       <c r="C454" s="3"/>
       <c r="D454" s="15" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="38"/>
+      <c r="B455" s="26"/>
+      <c r="D455" s="15" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="34"/>
-      <c r="B455" s="33"/>
-      <c r="D455" s="15" t="s">
-        <v>699</v>
-      </c>
-    </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="34"/>
-      <c r="B456" s="33"/>
-      <c r="C456" s="3"/>
+      <c r="A456" s="38"/>
+      <c r="B456" s="26"/>
       <c r="D456" s="15" t="s">
-        <v>659</v>
+        <v>704</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="34"/>
-      <c r="B457" s="33"/>
+      <c r="A457" s="38"/>
       <c r="C457" s="3"/>
       <c r="D457" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="38"/>
+      <c r="B458" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="C458" s="3"/>
+      <c r="D458" s="15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="35">
+        <v>43437</v>
+      </c>
+      <c r="B460" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="C460" t="s">
+        <v>675</v>
+      </c>
+      <c r="D460" s="15" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="35"/>
+      <c r="B461" s="37"/>
+      <c r="C461" t="s">
+        <v>702</v>
+      </c>
+      <c r="D461" s="15" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="35"/>
+      <c r="B462" s="37"/>
+      <c r="D462" s="15" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="35"/>
+      <c r="B463" s="37"/>
+      <c r="D463" s="15" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="35"/>
+      <c r="B464" s="37"/>
+      <c r="C464" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D464" s="15" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465" s="35"/>
+      <c r="B465" s="37"/>
+      <c r="C465" s="15"/>
+      <c r="D465" s="15" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466" s="35"/>
+      <c r="B466" s="37"/>
+      <c r="D466" s="15" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467" s="35"/>
+      <c r="B467" s="37"/>
+      <c r="D467" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468" s="35"/>
+      <c r="B468" s="37"/>
+      <c r="C468" s="3"/>
+      <c r="D468" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469" s="35"/>
+      <c r="B469" s="37"/>
+      <c r="C469" s="3"/>
+      <c r="D469" s="15" t="s">
         <v>647</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A439:A448"/>
-    <mergeCell ref="B439:B448"/>
-    <mergeCell ref="A450:A457"/>
-    <mergeCell ref="B450:B457"/>
+  <mergeCells count="47">
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A156:A171"/>
     <mergeCell ref="A267:A277"/>
     <mergeCell ref="A279:A288"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
     <mergeCell ref="B396:B406"/>
     <mergeCell ref="B389:B394"/>
     <mergeCell ref="B317:B328"/>
@@ -9446,6 +9604,26 @@
     <mergeCell ref="A359:A368"/>
     <mergeCell ref="A370:A382"/>
     <mergeCell ref="A384:A394"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A460:A469"/>
+    <mergeCell ref="B460:B469"/>
     <mergeCell ref="A303:A315"/>
     <mergeCell ref="A317:A328"/>
     <mergeCell ref="A431:A437"/>
@@ -9454,6 +9632,11 @@
     <mergeCell ref="B419:B429"/>
     <mergeCell ref="A408:A417"/>
     <mergeCell ref="B408:B417"/>
+    <mergeCell ref="A439:A448"/>
+    <mergeCell ref="B439:B448"/>
+    <mergeCell ref="A450:A458"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9463,14 +9646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -9498,7 +9681,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>588</v>
       </c>
@@ -9652,19 +9835,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -10018,7 +10201,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="32">
         <v>43427</v>
       </c>
       <c r="B26" t="s">
@@ -10035,7 +10218,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="32">
         <v>43428</v>
       </c>
       <c r="B27" t="s">
@@ -10052,7 +10235,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="32">
         <v>43429</v>
       </c>
       <c r="B28" t="s">
@@ -10069,7 +10252,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="32">
         <v>43430</v>
       </c>
       <c r="B29" t="s">
@@ -10086,7 +10269,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="32">
         <v>43431</v>
       </c>
       <c r="B30" t="s">
@@ -10103,7 +10286,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="32">
         <v>43432</v>
       </c>
       <c r="B31" t="s">
@@ -10120,7 +10303,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="32">
         <v>43433</v>
       </c>
       <c r="B32" t="s">
@@ -10136,7 +10319,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>43434</v>
       </c>
@@ -10150,7 +10333,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>43435</v>
       </c>
@@ -10164,12 +10347,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="31">
         <v>43436</v>
       </c>
       <c r="B35" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="C35" s="24">
         <v>36.71</v>
@@ -10177,73 +10360,80 @@
       <c r="D35" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="E35" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="31">
         <v>43437</v>
       </c>
       <c r="B36" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="C36" s="24">
-        <v>39.92</v>
+        <v>36.6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+        <v>709</v>
+      </c>
+      <c r="E36" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="31">
         <v>43438</v>
       </c>
       <c r="B37" t="s">
-        <v>682</v>
-      </c>
-      <c r="C37" s="24">
-        <v>40.92</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="C37" s="24"/>
       <c r="D37" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="E37" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="31">
         <v>43439</v>
       </c>
       <c r="B38" t="s">
-        <v>683</v>
-      </c>
-      <c r="C38" s="24">
-        <v>41.92</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="C38" s="24"/>
       <c r="D38" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="E38" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="31">
         <v>43440</v>
       </c>
       <c r="B39" t="s">
-        <v>684</v>
-      </c>
-      <c r="C39" s="24">
-        <v>42.92</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="C39" s="24"/>
       <c r="D39" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>43441</v>
       </c>
       <c r="B40" t="s">
-        <v>685</v>
-      </c>
-      <c r="C40" s="24">
-        <v>43.92</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="C40" s="24"/>
       <c r="D40" s="3" t="s">
         <v>518</v>
       </c>
@@ -10292,19 +10482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -10354,7 +10544,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
@@ -10365,7 +10555,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -10373,7 +10563,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
     </row>
   </sheetData>
@@ -10384,20 +10574,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>205</v>
       </c>
@@ -10405,7 +10595,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>206</v>
       </c>
@@ -10413,7 +10603,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>207</v>
       </c>
@@ -10421,7 +10611,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>208</v>
       </c>
@@ -10429,11 +10619,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -10441,18 +10631,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -10460,7 +10650,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>
@@ -10478,20 +10668,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.6640625" customWidth="1"/>
+    <col min="4" max="4" width="113.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -10508,8 +10698,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -10523,7 +10713,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
+      <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B2FBBA-07E6-4951-A04B-14051D392EF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83E66D4-A48A-46C5-BF61-2138ABFBEB25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="检查报告" sheetId="9" r:id="rId4"/>
     <sheet name="体温" sheetId="7" r:id="rId5"/>
     <sheet name="月经" sheetId="4" r:id="rId6"/>
-    <sheet name="血型" sheetId="5" r:id="rId7"/>
-    <sheet name="黄帝内经" sheetId="3" r:id="rId8"/>
+    <sheet name="经期记录" sheetId="10" r:id="rId7"/>
+    <sheet name="血型" sheetId="5" r:id="rId8"/>
+    <sheet name="黄帝内经" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">体温!$C$2:$C$36</definedName>
@@ -157,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="735">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3599,9 +3600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.45-7.04</t>
-  </si>
-  <si>
     <t>6.45-7.05</t>
   </si>
   <si>
@@ -3815,9 +3813,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>6.35-6.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>右眼皮浮肿
 小腹痛
-总想上大号</t>
+总想上大号
+经量少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃难受
+经量增多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：拌炒白菜+鸡蛋面包片+豆浆</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35-6.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去医院，抽血查激素，做B超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：山药乌鸡汤+蒸饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：海带红烧肉+菠菜炒鸡蛋+粥</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20-12.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25-10.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右眼皮微微肿
+冷
+胃不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪不佳</t>
+  </si>
+  <si>
+    <t>情绪不佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃地屈孕酮片7天，停药2天后来，无征兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上发现，来，一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天很少，下午到晚上增多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量正常，有血块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经第三天查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做阴道B超，激素六项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天小腹疼，总想上大号，晚上胃难受</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4044,19 +4135,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4068,8 +4159,8 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5561,10 +5652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I469"/>
+  <dimension ref="A1:I479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="E470" sqref="E470"/>
+    <sheetView topLeftCell="A453" workbookViewId="0">
+      <selection activeCell="D478" sqref="D478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5604,7 +5695,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -5613,7 +5704,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -5623,7 +5714,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -5633,56 +5724,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="35">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5693,7 +5784,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -5706,7 +5797,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="40" t="s">
         <v>379</v>
       </c>
@@ -5715,7 +5806,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="41"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
@@ -5725,7 +5816,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="41"/>
       <c r="C17" t="s">
         <v>270</v>
@@ -5735,7 +5826,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -5745,7 +5836,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -5755,7 +5846,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -5765,7 +5856,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>333</v>
@@ -5775,7 +5866,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>310</v>
@@ -5785,7 +5876,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>335</v>
@@ -5795,7 +5886,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>336</v>
@@ -5805,7 +5896,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+      <c r="A26" s="35">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -5816,7 +5907,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="39" t="s">
         <v>370</v>
       </c>
@@ -5828,7 +5919,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="39"/>
       <c r="C28" t="s">
         <v>300</v>
@@ -5838,7 +5929,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="39"/>
       <c r="C29" t="s">
         <v>358</v>
@@ -5848,7 +5939,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="39"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
@@ -5858,7 +5949,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="39"/>
       <c r="C31" s="15" t="s">
         <v>371</v>
@@ -5868,7 +5959,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="39"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
@@ -5881,7 +5972,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="39"/>
       <c r="C33" t="s">
         <v>365</v>
@@ -5891,7 +5982,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="39"/>
       <c r="C34" t="s">
         <v>367</v>
@@ -5901,7 +5992,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="29"/>
       <c r="C35" s="15" t="s">
         <v>280</v>
@@ -5911,7 +6002,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="29"/>
       <c r="C36" s="15" t="s">
         <v>374</v>
@@ -5921,7 +6012,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>368</v>
@@ -5931,7 +6022,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>336</v>
@@ -5941,7 +6032,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
+      <c r="A40" s="35">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -5958,7 +6049,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="21"/>
       <c r="C41" s="15" t="s">
         <v>342</v>
@@ -5968,7 +6059,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="21"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -5978,7 +6069,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -5988,7 +6079,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>397</v>
@@ -5998,7 +6089,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="23" t="s">
         <v>404</v>
       </c>
@@ -6010,7 +6101,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>400</v>
@@ -6020,7 +6111,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -6030,7 +6121,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>401</v>
@@ -6040,7 +6131,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>403</v>
@@ -6050,7 +6141,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -6060,7 +6151,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="34"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -6070,7 +6161,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>407</v>
@@ -6080,7 +6171,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>321</v>
@@ -6090,7 +6181,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -6100,7 +6191,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>368</v>
@@ -6110,10 +6201,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
+      <c r="A57" s="35">
         <v>43406</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="34" t="s">
         <v>409</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -6125,8 +6216,8 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
       </c>
@@ -6135,7 +6226,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="21"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -6145,7 +6236,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -6155,7 +6246,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>397</v>
@@ -6165,7 +6256,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>400</v>
@@ -6175,7 +6266,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>427</v>
@@ -6185,7 +6276,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="34"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>428</v>
@@ -6195,7 +6286,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="34"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -6205,7 +6296,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="34"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>430</v>
@@ -6215,7 +6306,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>431</v>
@@ -6225,7 +6316,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="34"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>433</v>
@@ -6235,7 +6326,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="34"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>432</v>
@@ -6245,7 +6336,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="34"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>336</v>
@@ -6255,7 +6346,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="38">
+      <c r="A72" s="36">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -6268,7 +6359,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="38"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -6279,7 +6370,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -6289,7 +6380,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="38"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -6297,7 +6388,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="38"/>
+      <c r="A76" s="36"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -6307,7 +6398,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="38"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -6317,7 +6408,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="38"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -6327,7 +6418,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="38"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -6337,7 +6428,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="38"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -6347,7 +6438,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="38"/>
+      <c r="A81" s="36"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -6357,7 +6448,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="38"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>471</v>
@@ -6367,7 +6458,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="38"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>472</v>
@@ -6378,7 +6469,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="38"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>473</v>
@@ -6389,7 +6480,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="38">
+      <c r="A86" s="36">
         <v>43408</v>
       </c>
       <c r="B86" s="30" t="s">
@@ -6403,7 +6494,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="38"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="27"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -6411,7 +6502,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="38"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="27"/>
       <c r="C88" s="15" t="s">
         <v>475</v>
@@ -6421,14 +6512,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="38"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="21"/>
       <c r="D89" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="38"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -6436,7 +6527,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="38"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>484</v>
@@ -6446,7 +6537,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="38"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>459</v>
@@ -6456,7 +6547,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="38"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>460</v>
@@ -6466,7 +6557,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="38"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>461</v>
@@ -6476,7 +6567,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="38"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>347</v>
@@ -6486,11 +6577,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="38"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="38"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -6500,7 +6591,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="38"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -6510,7 +6601,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="38"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>310</v>
@@ -6520,7 +6611,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="38"/>
+      <c r="A100" s="36"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -6530,7 +6621,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="38"/>
+      <c r="A101" s="36"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>489</v>
@@ -6540,7 +6631,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="38"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>490</v>
@@ -6550,7 +6641,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="34">
+      <c r="A104" s="35">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -6558,7 +6649,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="34"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="25" t="s">
         <v>409</v>
       </c>
@@ -6570,7 +6661,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="34"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="26"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -6579,7 +6670,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="34"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="26"/>
       <c r="C107" s="15" t="s">
         <v>342</v>
@@ -6589,7 +6680,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="34"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="21"/>
       <c r="C108" s="15" t="s">
         <v>434</v>
@@ -6599,7 +6690,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="34"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -6609,7 +6700,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="34"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -6617,7 +6708,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="34"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>423</v>
@@ -6627,7 +6718,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="34"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>421</v>
@@ -6637,7 +6728,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="34"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>440</v>
@@ -6647,7 +6738,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="34"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>445</v>
@@ -6657,7 +6748,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="34"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>444</v>
@@ -6667,7 +6758,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="34"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>441</v>
@@ -6677,7 +6768,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="34"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>442</v>
@@ -6687,7 +6778,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="34"/>
+      <c r="A118" s="35"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>443</v>
@@ -6697,7 +6788,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="34">
+      <c r="A120" s="35">
         <v>43410</v>
       </c>
       <c r="B120" s="26"/>
@@ -6709,7 +6800,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="34"/>
+      <c r="A121" s="35"/>
       <c r="B121" s="26"/>
       <c r="C121" s="15" t="s">
         <v>437</v>
@@ -6719,7 +6810,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="34"/>
+      <c r="A122" s="35"/>
       <c r="B122" s="21"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -6729,7 +6820,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="34"/>
+      <c r="A123" s="35"/>
       <c r="B123" s="21"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -6737,7 +6828,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="34"/>
+      <c r="A124" s="35"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -6747,7 +6838,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="34"/>
+      <c r="A125" s="35"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>447</v>
@@ -6757,7 +6848,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="34"/>
+      <c r="A126" s="35"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>400</v>
@@ -6767,7 +6858,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="34"/>
+      <c r="A127" s="35"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>449</v>
@@ -6777,7 +6868,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="34"/>
+      <c r="A128" s="35"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>478</v>
@@ -6787,7 +6878,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="34"/>
+      <c r="A129" s="35"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>479</v>
@@ -6797,7 +6888,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="34"/>
+      <c r="A130" s="35"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>480</v>
@@ -6807,7 +6898,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="34"/>
+      <c r="A131" s="35"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>491</v>
@@ -6817,7 +6908,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="34"/>
+      <c r="A132" s="35"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>493</v>
@@ -6827,7 +6918,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="34"/>
+      <c r="A133" s="35"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -6837,7 +6928,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="34"/>
+      <c r="A134" s="35"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -6847,7 +6938,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="34"/>
+      <c r="A135" s="35"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>424</v>
@@ -6857,7 +6948,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="34"/>
+      <c r="A136" s="35"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -6867,7 +6958,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="34">
+      <c r="A138" s="35">
         <v>43411</v>
       </c>
       <c r="B138" s="26"/>
@@ -6879,7 +6970,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="34"/>
+      <c r="A139" s="35"/>
       <c r="B139" s="26"/>
       <c r="C139" s="18" t="s">
         <v>337</v>
@@ -6889,7 +6980,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="34"/>
+      <c r="A140" s="35"/>
       <c r="B140" s="26"/>
       <c r="C140" s="15" t="s">
         <v>342</v>
@@ -6899,7 +6990,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="34"/>
+      <c r="A141" s="35"/>
       <c r="B141" s="21"/>
       <c r="C141" s="3" t="s">
         <v>500</v>
@@ -6909,7 +7000,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="34"/>
+      <c r="A142" s="35"/>
       <c r="B142" s="21"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -6919,7 +7010,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="34"/>
+      <c r="A143" s="35"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>502</v>
@@ -6929,7 +7020,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="34"/>
+      <c r="A144" s="35"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -6937,7 +7028,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="34"/>
+      <c r="A145" s="35"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>449</v>
@@ -6947,7 +7038,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="34"/>
+      <c r="A146" s="35"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>478</v>
@@ -6957,7 +7048,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="34"/>
+      <c r="A147" s="35"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>421</v>
@@ -6967,7 +7058,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="34"/>
+      <c r="A148" s="35"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>440</v>
@@ -6977,7 +7068,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="34"/>
+      <c r="A149" s="35"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>480</v>
@@ -6987,7 +7078,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="34"/>
+      <c r="A150" s="35"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -6997,7 +7088,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="34"/>
+      <c r="A151" s="35"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>294</v>
@@ -7007,7 +7098,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="34"/>
+      <c r="A152" s="35"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>441</v>
@@ -7017,7 +7108,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="34"/>
+      <c r="A153" s="35"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>368</v>
@@ -7027,7 +7118,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="34"/>
+      <c r="A154" s="35"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>336</v>
@@ -7037,7 +7128,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="34">
+      <c r="A156" s="35">
         <v>43412</v>
       </c>
       <c r="B156" s="26"/>
@@ -7049,7 +7140,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="34"/>
+      <c r="A157" s="35"/>
       <c r="B157" s="26"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -7059,7 +7150,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="34"/>
+      <c r="A158" s="35"/>
       <c r="B158" s="21"/>
       <c r="C158" s="3" t="s">
         <v>508</v>
@@ -7069,7 +7160,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="34"/>
+      <c r="A159" s="35"/>
       <c r="B159" s="21"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -7079,7 +7170,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="34"/>
+      <c r="A160" s="35"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>502</v>
@@ -7089,7 +7180,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="34"/>
+      <c r="A161" s="35"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -7097,7 +7188,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="34"/>
+      <c r="A162" s="35"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>449</v>
@@ -7107,7 +7198,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="34"/>
+      <c r="A163" s="35"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -7115,7 +7206,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="34"/>
+      <c r="A164" s="35"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>478</v>
@@ -7125,7 +7216,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="34"/>
+      <c r="A165" s="35"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>421</v>
@@ -7135,7 +7226,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="34"/>
+      <c r="A166" s="35"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>480</v>
@@ -7145,7 +7236,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="34"/>
+      <c r="A167" s="35"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>491</v>
@@ -7155,7 +7246,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="34"/>
+      <c r="A168" s="35"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>493</v>
@@ -7165,7 +7256,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="34"/>
+      <c r="A169" s="35"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>353</v>
@@ -7175,7 +7266,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="34"/>
+      <c r="A170" s="35"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>432</v>
@@ -7185,7 +7276,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="34"/>
+      <c r="A171" s="35"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>336</v>
@@ -7195,7 +7286,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="34">
+      <c r="A173" s="35">
         <v>43413</v>
       </c>
       <c r="B173" s="26"/>
@@ -7207,7 +7298,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="34"/>
+      <c r="A174" s="35"/>
       <c r="B174" s="21"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -7217,7 +7308,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="34"/>
+      <c r="A175" s="35"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>502</v>
@@ -7227,7 +7318,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="34"/>
+      <c r="A176" s="35"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>449</v>
@@ -7237,7 +7328,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="34"/>
+      <c r="A177" s="35"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -7245,7 +7336,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="34"/>
+      <c r="A178" s="35"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>478</v>
@@ -7255,7 +7346,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="34"/>
+      <c r="A179" s="35"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>421</v>
@@ -7265,7 +7356,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="34"/>
+      <c r="A180" s="35"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>480</v>
@@ -7275,7 +7366,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="34"/>
+      <c r="A181" s="35"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>491</v>
@@ -7285,7 +7376,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="34"/>
+      <c r="A182" s="35"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>493</v>
@@ -7295,7 +7386,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="34"/>
+      <c r="A183" s="35"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>353</v>
@@ -7305,7 +7396,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="34"/>
+      <c r="A184" s="35"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>432</v>
@@ -7315,7 +7406,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="34"/>
+      <c r="A185" s="35"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>336</v>
@@ -7325,7 +7416,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="38">
+      <c r="A187" s="36">
         <v>43414</v>
       </c>
       <c r="B187" s="26"/>
@@ -7337,7 +7428,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="38"/>
+      <c r="A188" s="36"/>
       <c r="B188" s="21"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -7345,7 +7436,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="38"/>
+      <c r="A189" s="36"/>
       <c r="B189" s="21"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -7353,7 +7444,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="38"/>
+      <c r="A190" s="36"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -7361,7 +7452,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="38"/>
+      <c r="A191" s="36"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -7369,7 +7460,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="38"/>
+      <c r="A192" s="36"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -7377,7 +7468,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="38"/>
+      <c r="A193" s="36"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -7385,7 +7476,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="38"/>
+      <c r="A194" s="36"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -7393,7 +7484,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="38"/>
+      <c r="A195" s="36"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>432</v>
@@ -7403,7 +7494,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="38"/>
+      <c r="A196" s="36"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>336</v>
@@ -7413,7 +7504,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="38">
+      <c r="A198" s="36">
         <v>43415</v>
       </c>
       <c r="B198" s="26"/>
@@ -7425,7 +7516,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="38"/>
+      <c r="A199" s="36"/>
       <c r="B199" s="26"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -7433,7 +7524,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="38"/>
+      <c r="A200" s="36"/>
       <c r="B200" s="21"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -7443,7 +7534,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="38"/>
+      <c r="A201" s="36"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>449</v>
@@ -7453,7 +7544,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="38"/>
+      <c r="A202" s="36"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>478</v>
@@ -7463,7 +7554,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="38"/>
+      <c r="A203" s="36"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -7473,7 +7564,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="38"/>
+      <c r="A204" s="36"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>480</v>
@@ -7483,7 +7574,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="38"/>
+      <c r="A205" s="36"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>526</v>
@@ -7493,7 +7584,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="38"/>
+      <c r="A206" s="36"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>523</v>
@@ -7503,7 +7594,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="38"/>
+      <c r="A207" s="36"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>524</v>
@@ -7513,7 +7604,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="35">
+      <c r="A209" s="38">
         <v>43416</v>
       </c>
       <c r="B209" s="26"/>
@@ -7525,7 +7616,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="35"/>
+      <c r="A210" s="38"/>
       <c r="B210" s="21"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -7535,7 +7626,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="35"/>
+      <c r="A211" s="38"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -7543,7 +7634,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="35"/>
+      <c r="A212" s="38"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>478</v>
@@ -7553,7 +7644,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="35"/>
+      <c r="A213" s="38"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -7561,7 +7652,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="35"/>
+      <c r="A214" s="38"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -7569,7 +7660,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="35"/>
+      <c r="A215" s="38"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -7577,7 +7668,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="35"/>
+      <c r="A216" s="38"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>353</v>
@@ -7587,7 +7678,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="35"/>
+      <c r="A217" s="38"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>432</v>
@@ -7597,14 +7688,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="35"/>
+      <c r="A218" s="38"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="35">
+      <c r="A220" s="38">
         <v>43417</v>
       </c>
       <c r="B220" s="26"/>
@@ -7616,7 +7707,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="35"/>
+      <c r="A221" s="38"/>
       <c r="B221" s="26"/>
       <c r="C221" s="15" t="s">
         <v>536</v>
@@ -7626,14 +7717,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="35"/>
+      <c r="A222" s="38"/>
       <c r="B222" s="26"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="35"/>
+      <c r="A223" s="38"/>
       <c r="B223" s="21"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -7643,7 +7734,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="35"/>
+      <c r="A224" s="38"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>449</v>
@@ -7653,7 +7744,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="35"/>
+      <c r="A225" s="38"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>478</v>
@@ -7663,7 +7754,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="35"/>
+      <c r="A226" s="38"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>421</v>
@@ -7673,7 +7764,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="35"/>
+      <c r="A227" s="38"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>480</v>
@@ -7683,7 +7774,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="35"/>
+      <c r="A228" s="38"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>353</v>
@@ -7693,7 +7784,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="35"/>
+      <c r="A229" s="38"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>336</v>
@@ -7703,7 +7794,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="35">
+      <c r="A231" s="38">
         <v>43418</v>
       </c>
       <c r="B231" s="26"/>
@@ -7715,14 +7806,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="35"/>
+      <c r="A232" s="38"/>
       <c r="B232" s="26"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="35"/>
+      <c r="A233" s="38"/>
       <c r="B233" s="21"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -7732,7 +7823,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="35"/>
+      <c r="A234" s="38"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -7740,7 +7831,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="35"/>
+      <c r="A235" s="38"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -7748,7 +7839,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="35"/>
+      <c r="A236" s="38"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>478</v>
@@ -7758,7 +7849,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="35"/>
+      <c r="A237" s="38"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -7766,7 +7857,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="35"/>
+      <c r="A238" s="38"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -7774,7 +7865,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="35"/>
+      <c r="A239" s="38"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -7782,7 +7873,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="35"/>
+      <c r="A240" s="38"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -7790,7 +7881,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="35"/>
+      <c r="A241" s="38"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>336</v>
@@ -7800,14 +7891,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="35"/>
+      <c r="A242" s="38"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="35">
+      <c r="A244" s="38">
         <v>43419</v>
       </c>
       <c r="B244" s="26"/>
@@ -7819,14 +7910,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="35"/>
+      <c r="A245" s="38"/>
       <c r="B245" s="26"/>
       <c r="D245" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="35"/>
+      <c r="A246" s="38"/>
       <c r="B246" s="21"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -7836,7 +7927,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="35"/>
+      <c r="A247" s="38"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -7844,7 +7935,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="35"/>
+      <c r="A248" s="38"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>478</v>
@@ -7854,7 +7945,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="35"/>
+      <c r="A249" s="38"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -7862,7 +7953,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="35"/>
+      <c r="A250" s="38"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -7870,7 +7961,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="35"/>
+      <c r="A251" s="38"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -7878,7 +7969,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="35"/>
+      <c r="A252" s="38"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>336</v>
@@ -7888,7 +7979,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="35">
+      <c r="A254" s="38">
         <v>43420</v>
       </c>
       <c r="B254" s="26"/>
@@ -7900,7 +7991,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="35"/>
+      <c r="A255" s="38"/>
       <c r="B255" s="26"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -7908,14 +7999,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="35"/>
+      <c r="A256" s="38"/>
       <c r="B256" s="26"/>
       <c r="D256" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="35"/>
+      <c r="A257" s="38"/>
       <c r="B257" s="21"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -7925,7 +8016,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="35"/>
+      <c r="A258" s="38"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -7933,7 +8024,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="35"/>
+      <c r="A259" s="38"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>478</v>
@@ -7943,14 +8034,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="35"/>
+      <c r="A260" s="38"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="35"/>
+      <c r="A261" s="38"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -7958,7 +8049,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="35"/>
+      <c r="A262" s="38"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -7966,7 +8057,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="35"/>
+      <c r="A263" s="38"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -7974,7 +8065,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="35"/>
+      <c r="A264" s="38"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -7982,7 +8073,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="35"/>
+      <c r="A265" s="38"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>336</v>
@@ -7992,7 +8083,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="38">
+      <c r="A267" s="36">
         <v>43421</v>
       </c>
       <c r="B267" s="26"/>
@@ -8004,7 +8095,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="38"/>
+      <c r="A268" s="36"/>
       <c r="B268" s="26"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -8012,7 +8103,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="38"/>
+      <c r="A269" s="36"/>
       <c r="B269" s="21"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -8020,7 +8111,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="38"/>
+      <c r="A270" s="36"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -8028,14 +8119,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="38"/>
+      <c r="A271" s="36"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="38"/>
+      <c r="A272" s="36"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -8043,7 +8134,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="38"/>
+      <c r="A273" s="36"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -8051,7 +8142,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="38"/>
+      <c r="A274" s="36"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -8059,7 +8150,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="38"/>
+      <c r="A275" s="36"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -8067,7 +8158,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="38"/>
+      <c r="A276" s="36"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>336</v>
@@ -8077,14 +8168,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="38"/>
+      <c r="A277" s="36"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="38">
+      <c r="A279" s="36">
         <v>43422</v>
       </c>
       <c r="B279" s="26"/>
@@ -8096,28 +8187,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="38"/>
+      <c r="A280" s="36"/>
       <c r="B280" s="26"/>
       <c r="D280" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="38"/>
+      <c r="A281" s="36"/>
       <c r="B281" s="26"/>
       <c r="D281" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="38"/>
+      <c r="A282" s="36"/>
       <c r="B282" s="26"/>
       <c r="D282" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="38"/>
+      <c r="A283" s="36"/>
       <c r="B283" s="21"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -8127,7 +8218,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="38"/>
+      <c r="A284" s="36"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -8135,7 +8226,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="38"/>
+      <c r="A285" s="36"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -8143,7 +8234,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="38"/>
+      <c r="A286" s="36"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -8151,7 +8242,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="38"/>
+      <c r="A287" s="36"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -8159,7 +8250,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="38"/>
+      <c r="A288" s="36"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -8169,7 +8260,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="35">
+      <c r="A290" s="38">
         <v>43423</v>
       </c>
       <c r="B290" s="26"/>
@@ -8181,7 +8272,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="35"/>
+      <c r="A291" s="38"/>
       <c r="B291" s="26"/>
       <c r="C291" s="15" t="s">
         <v>250</v>
@@ -8191,14 +8282,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="35"/>
+      <c r="A292" s="38"/>
       <c r="B292" s="26"/>
       <c r="D292" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="35"/>
+      <c r="A293" s="38"/>
       <c r="B293" s="21"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -8208,7 +8299,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="35"/>
+      <c r="A294" s="38"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -8216,7 +8307,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="35"/>
+      <c r="A295" s="38"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>478</v>
@@ -8226,14 +8317,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="35"/>
+      <c r="A296" s="38"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="35"/>
+      <c r="A297" s="38"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -8241,7 +8332,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="35"/>
+      <c r="A298" s="38"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -8249,14 +8340,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="35"/>
+      <c r="A299" s="38"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="35"/>
+      <c r="A300" s="38"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -8264,7 +8355,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="35"/>
+      <c r="A301" s="38"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>336</v>
@@ -8274,7 +8365,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="35">
+      <c r="A303" s="38">
         <v>43424</v>
       </c>
       <c r="B303" s="26"/>
@@ -8286,7 +8377,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="35"/>
+      <c r="A304" s="38"/>
       <c r="B304" s="26"/>
       <c r="C304" s="15" t="s">
         <v>598</v>
@@ -8296,7 +8387,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="35"/>
+      <c r="A305" s="38"/>
       <c r="B305" s="26"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -8304,14 +8395,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="35"/>
+      <c r="A306" s="38"/>
       <c r="B306" s="26"/>
       <c r="D306" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="35"/>
+      <c r="A307" s="38"/>
       <c r="B307" s="21"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -8321,7 +8412,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="35"/>
+      <c r="A308" s="38"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -8329,7 +8420,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="35"/>
+      <c r="A309" s="38"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>478</v>
@@ -8339,21 +8430,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="35"/>
+      <c r="A310" s="38"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="35"/>
+      <c r="A311" s="38"/>
       <c r="B311" s="20"/>
       <c r="D311" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="35"/>
+      <c r="A312" s="38"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -8361,14 +8452,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="35"/>
+      <c r="A313" s="38"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="35"/>
+      <c r="A314" s="38"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -8376,7 +8467,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="35"/>
+      <c r="A315" s="38"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>336</v>
@@ -8386,7 +8477,7 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="35">
+      <c r="A317" s="38">
         <v>43425</v>
       </c>
       <c r="B317" s="37" t="s">
@@ -8400,7 +8491,7 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="35"/>
+      <c r="A318" s="38"/>
       <c r="B318" s="37"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
@@ -8408,7 +8499,7 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="35"/>
+      <c r="A319" s="38"/>
       <c r="B319" s="37"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
@@ -8416,7 +8507,7 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="35"/>
+      <c r="A320" s="38"/>
       <c r="B320" s="37"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
@@ -8426,7 +8517,7 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="35"/>
+      <c r="A321" s="38"/>
       <c r="B321" s="37"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
@@ -8434,14 +8525,14 @@
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="35"/>
+      <c r="A322" s="38"/>
       <c r="B322" s="37"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="35"/>
+      <c r="A323" s="38"/>
       <c r="B323" s="37"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
@@ -8451,14 +8542,14 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="35"/>
+      <c r="A324" s="38"/>
       <c r="B324" s="37"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="35"/>
+      <c r="A325" s="38"/>
       <c r="B325" s="37"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
@@ -8466,14 +8557,14 @@
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="35"/>
+      <c r="A326" s="38"/>
       <c r="B326" s="37"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="35"/>
+      <c r="A327" s="38"/>
       <c r="B327" s="37"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
@@ -8481,7 +8572,7 @@
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="35"/>
+      <c r="A328" s="38"/>
       <c r="B328" s="37"/>
       <c r="C328" t="s">
         <v>336</v>
@@ -8491,7 +8582,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="35">
+      <c r="A330" s="38">
         <v>43426</v>
       </c>
       <c r="B330" s="26"/>
@@ -8503,7 +8594,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="35"/>
+      <c r="A331" s="38"/>
       <c r="B331" s="26"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -8511,7 +8602,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="35"/>
+      <c r="A332" s="38"/>
       <c r="B332" s="26"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -8519,7 +8610,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="35"/>
+      <c r="A333" s="38"/>
       <c r="B333" s="26"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
@@ -8529,7 +8620,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="35"/>
+      <c r="A334" s="38"/>
       <c r="B334" s="26"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -8537,21 +8628,21 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="35"/>
+      <c r="A335" s="38"/>
       <c r="B335" s="26"/>
       <c r="D335" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="35"/>
+      <c r="A336" s="38"/>
       <c r="B336" s="26"/>
       <c r="D336" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="35"/>
+      <c r="A337" s="38"/>
       <c r="B337" s="26"/>
       <c r="C337" s="15" t="s">
         <v>616</v>
@@ -8561,14 +8652,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="35"/>
+      <c r="A338" s="38"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="35"/>
+      <c r="A339" s="38"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
@@ -8576,7 +8667,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="35"/>
+      <c r="A340" s="38"/>
       <c r="B340" s="20"/>
       <c r="C340" s="3"/>
       <c r="D340" s="18" t="s">
@@ -8584,7 +8675,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="35"/>
+      <c r="A341" s="38"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
@@ -8592,7 +8683,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="35"/>
+      <c r="A342" s="38"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>336</v>
@@ -8602,7 +8693,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="35">
+      <c r="A344" s="38">
         <v>43427</v>
       </c>
       <c r="B344" s="26"/>
@@ -8614,7 +8705,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="35"/>
+      <c r="A345" s="38"/>
       <c r="B345" s="26"/>
       <c r="C345" s="3" t="s">
         <v>619</v>
@@ -8624,7 +8715,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="35"/>
+      <c r="A346" s="38"/>
       <c r="B346" s="26"/>
       <c r="C346" s="3"/>
       <c r="D346" s="15" t="s">
@@ -8632,7 +8723,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="35"/>
+      <c r="A347" s="38"/>
       <c r="B347" s="26"/>
       <c r="C347" s="3"/>
       <c r="D347" s="15" t="s">
@@ -8640,7 +8731,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="35"/>
+      <c r="A348" s="38"/>
       <c r="B348" s="26"/>
       <c r="C348" s="3"/>
       <c r="D348" s="15" t="s">
@@ -8648,7 +8739,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="35"/>
+      <c r="A349" s="38"/>
       <c r="B349" s="26"/>
       <c r="C349" s="15" t="s">
         <v>266</v>
@@ -8658,7 +8749,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="35"/>
+      <c r="A350" s="38"/>
       <c r="B350" s="26"/>
       <c r="C350" s="15" t="s">
         <v>616</v>
@@ -8668,14 +8759,14 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="35"/>
+      <c r="A351" s="38"/>
       <c r="B351" s="26"/>
       <c r="D351" s="15" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="35"/>
+      <c r="A352" s="38"/>
       <c r="B352" s="26"/>
       <c r="C352" s="3"/>
       <c r="D352" s="15" t="s">
@@ -8683,22 +8774,22 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="35"/>
+      <c r="A353" s="38"/>
       <c r="B353" s="26"/>
       <c r="D353" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="35"/>
+      <c r="A354" s="38"/>
       <c r="B354" s="20"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="35"/>
+      <c r="A355" s="38"/>
       <c r="B355" s="20"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="35"/>
+      <c r="A356" s="38"/>
       <c r="B356" s="20"/>
       <c r="C356" s="3"/>
       <c r="D356" s="15" t="s">
@@ -8706,7 +8797,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="35"/>
+      <c r="A357" s="38"/>
       <c r="B357" s="20"/>
       <c r="C357" t="s">
         <v>336</v>
@@ -8716,7 +8807,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="38">
+      <c r="A359" s="36">
         <v>43428</v>
       </c>
       <c r="B359" s="26"/>
@@ -8728,7 +8819,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="38"/>
+      <c r="A360" s="36"/>
       <c r="B360" s="26"/>
       <c r="C360" s="3"/>
       <c r="D360" s="15" t="s">
@@ -8736,7 +8827,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="38"/>
+      <c r="A361" s="36"/>
       <c r="B361" s="26"/>
       <c r="C361" s="3"/>
       <c r="D361" s="15" t="s">
@@ -8744,7 +8835,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="38"/>
+      <c r="A362" s="36"/>
       <c r="B362" s="26"/>
       <c r="C362" s="3"/>
       <c r="D362" s="15" t="s">
@@ -8752,7 +8843,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="38"/>
+      <c r="A363" s="36"/>
       <c r="B363" s="26"/>
       <c r="C363" s="3"/>
       <c r="D363" s="15" t="s">
@@ -8760,14 +8851,14 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="38"/>
+      <c r="A364" s="36"/>
       <c r="B364" s="26"/>
       <c r="D364" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="38"/>
+      <c r="A365" s="36"/>
       <c r="B365" s="26"/>
       <c r="C365" s="3"/>
       <c r="D365" s="15" t="s">
@@ -8775,14 +8866,14 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="38"/>
+      <c r="A366" s="36"/>
       <c r="B366" s="26"/>
       <c r="D366" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="38"/>
+      <c r="A367" s="36"/>
       <c r="B367" s="20"/>
       <c r="C367" s="3"/>
       <c r="D367" s="15" t="s">
@@ -8790,14 +8881,14 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="38"/>
+      <c r="A368" s="36"/>
       <c r="B368" s="20"/>
       <c r="D368" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="38">
+      <c r="A370" s="36">
         <v>43429</v>
       </c>
       <c r="B370" s="26"/>
@@ -8809,7 +8900,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="38"/>
+      <c r="A371" s="36"/>
       <c r="B371" s="26"/>
       <c r="C371" s="3" t="s">
         <v>619</v>
@@ -8819,7 +8910,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="38"/>
+      <c r="A372" s="36"/>
       <c r="B372" s="26"/>
       <c r="C372" s="3"/>
       <c r="D372" s="15" t="s">
@@ -8827,7 +8918,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="38"/>
+      <c r="A373" s="36"/>
       <c r="B373" s="26"/>
       <c r="C373" s="3"/>
       <c r="D373" s="15" t="s">
@@ -8835,7 +8926,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="38"/>
+      <c r="A374" s="36"/>
       <c r="B374" s="26"/>
       <c r="C374" s="3"/>
       <c r="D374" s="15" t="s">
@@ -8843,7 +8934,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="38"/>
+      <c r="A375" s="36"/>
       <c r="B375" s="26"/>
       <c r="C375" s="15" t="s">
         <v>266</v>
@@ -8853,7 +8944,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="38"/>
+      <c r="A376" s="36"/>
       <c r="B376" s="26"/>
       <c r="C376" s="3"/>
       <c r="D376" s="15" t="s">
@@ -8861,14 +8952,14 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="38"/>
+      <c r="A377" s="36"/>
       <c r="B377" s="26"/>
       <c r="D377" s="15" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="38"/>
+      <c r="A378" s="36"/>
       <c r="B378" s="26"/>
       <c r="C378" s="3"/>
       <c r="D378" s="15" t="s">
@@ -8876,7 +8967,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="38"/>
+      <c r="A379" s="36"/>
       <c r="B379" s="26"/>
       <c r="C379" s="3"/>
       <c r="D379" s="15" t="s">
@@ -8884,14 +8975,14 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="38"/>
+      <c r="A380" s="36"/>
       <c r="B380" s="26"/>
       <c r="D380" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="38"/>
+      <c r="A381" s="36"/>
       <c r="B381" s="20"/>
       <c r="C381" t="s">
         <v>368</v>
@@ -8901,7 +8992,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="38"/>
+      <c r="A382" s="36"/>
       <c r="B382" s="20"/>
       <c r="C382" t="s">
         <v>336</v>
@@ -8911,7 +9002,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="35">
+      <c r="A384" s="38">
         <v>43430</v>
       </c>
       <c r="B384" s="26"/>
@@ -8923,7 +9014,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="35"/>
+      <c r="A385" s="38"/>
       <c r="B385" s="26"/>
       <c r="C385" s="3" t="s">
         <v>640</v>
@@ -8933,7 +9024,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="35"/>
+      <c r="A386" s="38"/>
       <c r="B386" s="26"/>
       <c r="C386" s="3"/>
       <c r="D386" s="15" t="s">
@@ -8941,7 +9032,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="35"/>
+      <c r="A387" s="38"/>
       <c r="B387" s="26"/>
       <c r="C387" s="15" t="s">
         <v>266</v>
@@ -8951,7 +9042,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="35"/>
+      <c r="A388" s="38"/>
       <c r="B388" s="26"/>
       <c r="C388" s="15" t="s">
         <v>616</v>
@@ -8961,7 +9052,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="35"/>
+      <c r="A389" s="38"/>
       <c r="B389" s="37" t="s">
         <v>650</v>
       </c>
@@ -8970,7 +9061,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="35"/>
+      <c r="A390" s="38"/>
       <c r="B390" s="37"/>
       <c r="C390" s="3"/>
       <c r="D390" s="15" t="s">
@@ -8978,7 +9069,7 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="35"/>
+      <c r="A391" s="38"/>
       <c r="B391" s="37"/>
       <c r="C391" s="3"/>
       <c r="D391" s="15" t="s">
@@ -8986,14 +9077,14 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="35"/>
+      <c r="A392" s="38"/>
       <c r="B392" s="37"/>
       <c r="D392" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="35"/>
+      <c r="A393" s="38"/>
       <c r="B393" s="37"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
@@ -9001,14 +9092,14 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="35"/>
+      <c r="A394" s="38"/>
       <c r="B394" s="37"/>
       <c r="D394" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="35">
+      <c r="A396" s="38">
         <v>43431</v>
       </c>
       <c r="B396" s="37" t="s">
@@ -9022,7 +9113,7 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="35"/>
+      <c r="A397" s="38"/>
       <c r="B397" s="37"/>
       <c r="C397" s="3" t="s">
         <v>640</v>
@@ -9032,7 +9123,7 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="35"/>
+      <c r="A398" s="38"/>
       <c r="B398" s="37"/>
       <c r="C398" s="3"/>
       <c r="D398" s="15" t="s">
@@ -9040,7 +9131,7 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="35"/>
+      <c r="A399" s="38"/>
       <c r="B399" s="37"/>
       <c r="C399" s="15" t="s">
         <v>266</v>
@@ -9050,7 +9141,7 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="35"/>
+      <c r="A400" s="38"/>
       <c r="B400" s="37"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
@@ -9058,7 +9149,7 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="35"/>
+      <c r="A401" s="38"/>
       <c r="B401" s="37"/>
       <c r="C401" s="3"/>
       <c r="D401" s="15" t="s">
@@ -9066,14 +9157,14 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="35"/>
+      <c r="A402" s="38"/>
       <c r="B402" s="37"/>
       <c r="D402" s="15" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="35"/>
+      <c r="A403" s="38"/>
       <c r="B403" s="37"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
@@ -9081,7 +9172,7 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="35"/>
+      <c r="A404" s="38"/>
       <c r="B404" s="37"/>
       <c r="C404" s="3"/>
       <c r="D404" s="15" t="s">
@@ -9089,7 +9180,7 @@
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="35"/>
+      <c r="A405" s="38"/>
       <c r="B405" s="37"/>
       <c r="C405" s="3"/>
       <c r="D405" s="15" t="s">
@@ -9097,7 +9188,7 @@
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="35"/>
+      <c r="A406" s="38"/>
       <c r="B406" s="37"/>
       <c r="C406" t="s">
         <v>336</v>
@@ -9107,7 +9198,7 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="35">
+      <c r="A408" s="38">
         <v>43432</v>
       </c>
       <c r="B408" s="37"/>
@@ -9119,7 +9210,7 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" s="35"/>
+      <c r="A409" s="38"/>
       <c r="B409" s="37"/>
       <c r="C409" s="3" t="s">
         <v>658</v>
@@ -9129,7 +9220,7 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="35"/>
+      <c r="A410" s="38"/>
       <c r="B410" s="37"/>
       <c r="C410" s="15" t="s">
         <v>266</v>
@@ -9139,7 +9230,7 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="35"/>
+      <c r="A411" s="38"/>
       <c r="B411" s="37"/>
       <c r="C411" s="3"/>
       <c r="D411" s="15" t="s">
@@ -9147,7 +9238,7 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="35"/>
+      <c r="A412" s="38"/>
       <c r="B412" s="37"/>
       <c r="C412" s="3"/>
       <c r="D412" s="15" t="s">
@@ -9155,21 +9246,21 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="35"/>
+      <c r="A413" s="38"/>
       <c r="B413" s="37"/>
       <c r="D413" s="15" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="35"/>
+      <c r="A414" s="38"/>
       <c r="B414" s="37"/>
       <c r="D414" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="35"/>
+      <c r="A415" s="38"/>
       <c r="B415" s="37"/>
       <c r="C415" s="3"/>
       <c r="D415" s="15" t="s">
@@ -9177,14 +9268,14 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="35"/>
+      <c r="A416" s="38"/>
       <c r="B416" s="37"/>
       <c r="D416" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="35"/>
+      <c r="A417" s="38"/>
       <c r="B417" s="37"/>
       <c r="C417" s="3"/>
       <c r="D417" s="15" t="s">
@@ -9192,7 +9283,7 @@
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="35">
+      <c r="A419" s="38">
         <v>43433</v>
       </c>
       <c r="B419" s="37" t="s">
@@ -9206,7 +9297,7 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A420" s="35"/>
+      <c r="A420" s="38"/>
       <c r="B420" s="37"/>
       <c r="C420" s="3" t="s">
         <v>672</v>
@@ -9216,7 +9307,7 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="35"/>
+      <c r="A421" s="38"/>
       <c r="B421" s="37"/>
       <c r="C421" s="15" t="s">
         <v>266</v>
@@ -9226,7 +9317,7 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="35"/>
+      <c r="A422" s="38"/>
       <c r="B422" s="37"/>
       <c r="C422" s="3"/>
       <c r="D422" s="15" t="s">
@@ -9234,7 +9325,7 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="35"/>
+      <c r="A423" s="38"/>
       <c r="B423" s="37"/>
       <c r="C423" s="3"/>
       <c r="D423" s="15" t="s">
@@ -9242,28 +9333,28 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="35"/>
+      <c r="A424" s="38"/>
       <c r="B424" s="37"/>
       <c r="D424" s="15" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="35"/>
+      <c r="A425" s="38"/>
       <c r="B425" s="37"/>
       <c r="D425" s="15" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="35"/>
+      <c r="A426" s="38"/>
       <c r="B426" s="37"/>
       <c r="D426" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="35"/>
+      <c r="A427" s="38"/>
       <c r="B427" s="37"/>
       <c r="C427" s="3"/>
       <c r="D427" t="s">
@@ -9271,14 +9362,14 @@
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="35"/>
+      <c r="A428" s="38"/>
       <c r="B428" s="37"/>
       <c r="D428" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="35"/>
+      <c r="A429" s="38"/>
       <c r="B429" s="37"/>
       <c r="C429" s="3"/>
       <c r="D429" s="15" t="s">
@@ -9286,7 +9377,7 @@
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="35">
+      <c r="A431" s="38">
         <v>43434</v>
       </c>
       <c r="B431" s="37"/>
@@ -9298,7 +9389,7 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A432" s="35"/>
+      <c r="A432" s="38"/>
       <c r="B432" s="37"/>
       <c r="C432" t="s">
         <v>677</v>
@@ -9308,7 +9399,7 @@
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="35"/>
+      <c r="A433" s="38"/>
       <c r="B433" s="37"/>
       <c r="C433" s="15" t="s">
         <v>266</v>
@@ -9318,29 +9409,29 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="35"/>
+      <c r="A434" s="38"/>
       <c r="B434" s="37"/>
       <c r="D434" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="35"/>
+      <c r="A435" s="38"/>
       <c r="B435" s="37"/>
       <c r="D435" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="35"/>
+      <c r="A436" s="38"/>
       <c r="B436" s="37"/>
       <c r="C436" s="3"/>
       <c r="D436" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="35"/>
+      <c r="A437" s="38"/>
       <c r="B437" s="37"/>
       <c r="C437" s="3"/>
       <c r="D437" s="15" t="s">
@@ -9348,7 +9439,7 @@
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="38">
+      <c r="A439" s="36">
         <v>43435</v>
       </c>
       <c r="B439" s="37"/>
@@ -9356,41 +9447,41 @@
         <v>675</v>
       </c>
       <c r="D439" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A440" s="38"/>
+      <c r="A440" s="36"/>
       <c r="B440" s="37"/>
       <c r="D440" s="15" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="38"/>
+      <c r="A441" s="36"/>
       <c r="B441" s="37"/>
       <c r="D441" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A442" s="38"/>
+      <c r="A442" s="36"/>
       <c r="B442" s="37"/>
       <c r="C442" s="3"/>
       <c r="D442" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A443" s="38"/>
+      <c r="A443" s="36"/>
       <c r="B443" s="37"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="38"/>
+      <c r="A444" s="36"/>
       <c r="B444" s="37"/>
       <c r="C444" s="3"/>
       <c r="D444" s="15" t="s">
@@ -9398,29 +9489,29 @@
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="38"/>
+      <c r="A445" s="36"/>
       <c r="B445" s="37"/>
       <c r="D445" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="38"/>
+      <c r="A446" s="36"/>
       <c r="B446" s="37"/>
       <c r="D446" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="38"/>
+      <c r="A447" s="36"/>
       <c r="B447" s="37"/>
       <c r="C447" s="3"/>
       <c r="D447" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="38"/>
+      <c r="A448" s="36"/>
       <c r="B448" s="37"/>
       <c r="C448" s="3"/>
       <c r="D448" s="15" t="s">
@@ -9428,7 +9519,7 @@
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="38">
+      <c r="A450" s="36">
         <v>43436</v>
       </c>
       <c r="B450" s="26"/>
@@ -9436,160 +9527,285 @@
         <v>675</v>
       </c>
       <c r="D450" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A451" s="38"/>
+      <c r="A451" s="36"/>
       <c r="B451" s="26"/>
       <c r="D451" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="38"/>
+      <c r="A452" s="36"/>
       <c r="B452" s="26"/>
       <c r="D452" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="38"/>
+      <c r="A453" s="36"/>
       <c r="B453" s="26"/>
       <c r="C453" s="3"/>
       <c r="D453" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="38"/>
+      <c r="A454" s="36"/>
       <c r="B454" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C454" s="3"/>
       <c r="D454" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="38"/>
+      <c r="A455" s="36"/>
       <c r="B455" s="26"/>
       <c r="D455" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="38"/>
+      <c r="A456" s="36"/>
       <c r="B456" s="26"/>
       <c r="D456" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="38"/>
+      <c r="A457" s="36"/>
       <c r="C457" s="3"/>
       <c r="D457" s="15" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A458" s="38"/>
+      <c r="A458" s="36"/>
       <c r="B458" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C458" s="3"/>
       <c r="D458" s="15" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A460" s="35">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="38">
         <v>43437</v>
       </c>
-      <c r="B460" s="36" t="s">
+      <c r="B460" s="42" t="s">
         <v>714</v>
       </c>
       <c r="C460" t="s">
         <v>675</v>
       </c>
       <c r="D460" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A461" s="35"/>
-      <c r="B461" s="37"/>
+      <c r="A461" s="38"/>
+      <c r="B461" s="42"/>
       <c r="C461" t="s">
+        <v>701</v>
+      </c>
+      <c r="D461" s="15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="38"/>
+      <c r="B462" s="42"/>
+      <c r="D462" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="D461" s="15" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A462" s="35"/>
-      <c r="B462" s="37"/>
-      <c r="D462" s="15" t="s">
-        <v>703</v>
-      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="35"/>
-      <c r="B463" s="37"/>
+      <c r="A463" s="38"/>
+      <c r="B463" s="42"/>
       <c r="D463" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A464" s="35"/>
-      <c r="B464" s="37"/>
+      <c r="A464" s="38"/>
+      <c r="B464" s="42"/>
       <c r="C464" s="15" t="s">
         <v>266</v>
       </c>
       <c r="D464" s="15" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A465" s="35"/>
-      <c r="B465" s="37"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" s="38"/>
+      <c r="B465" s="42"/>
       <c r="C465" s="15"/>
       <c r="D465" s="15" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A466" s="35"/>
-      <c r="B466" s="37"/>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" s="38"/>
+      <c r="B466" s="42" t="s">
+        <v>715</v>
+      </c>
       <c r="D466" s="15" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A467" s="35"/>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" s="38"/>
       <c r="B467" s="37"/>
+      <c r="C467" s="3"/>
       <c r="D467" s="15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A468" s="35"/>
+        <v>412</v>
+      </c>
+      <c r="E467" s="43" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" s="38"/>
       <c r="B468" s="37"/>
       <c r="C468" s="3"/>
       <c r="D468" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="E468" s="43"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" s="38">
+        <v>43438</v>
+      </c>
+      <c r="B470" s="42" t="s">
+        <v>724</v>
+      </c>
+      <c r="C470" t="s">
+        <v>718</v>
+      </c>
+      <c r="D470" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="E470" s="43" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" s="38"/>
+      <c r="B471" s="37"/>
+      <c r="D471" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="E471" s="43"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" s="38"/>
+      <c r="B472" s="37"/>
+      <c r="C472" t="s">
+        <v>723</v>
+      </c>
+      <c r="D472" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="E472" s="43"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" s="38"/>
+      <c r="B473" s="37"/>
+      <c r="C473" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="D473" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="E473" s="43"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" s="38"/>
+      <c r="B474" s="37"/>
+      <c r="D474" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="E474" s="43"/>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" s="38"/>
+      <c r="B475" s="37"/>
+      <c r="C475" s="3"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" s="38"/>
+      <c r="B476" s="37"/>
+      <c r="D476" s="15" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" s="38"/>
+      <c r="B477" s="37"/>
+      <c r="D477" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478" s="38"/>
+      <c r="B478" s="37"/>
+      <c r="C478" s="3"/>
+      <c r="D478" s="15" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A469" s="35"/>
-      <c r="B469" s="37"/>
-      <c r="C469" s="3"/>
-      <c r="D469" s="15" t="s">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" s="38"/>
+      <c r="B479" s="37"/>
+      <c r="C479" s="3"/>
+      <c r="D479" s="15" t="s">
         <v>647</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
+    <mergeCell ref="A470:A479"/>
+    <mergeCell ref="B470:B479"/>
+    <mergeCell ref="B460:B465"/>
+    <mergeCell ref="B466:B468"/>
+    <mergeCell ref="E470:E474"/>
+    <mergeCell ref="E467:E468"/>
+    <mergeCell ref="A303:A315"/>
+    <mergeCell ref="A317:A328"/>
+    <mergeCell ref="A431:A437"/>
+    <mergeCell ref="B431:B437"/>
+    <mergeCell ref="A419:A429"/>
+    <mergeCell ref="B419:B429"/>
+    <mergeCell ref="A408:A417"/>
+    <mergeCell ref="B408:B417"/>
+    <mergeCell ref="A439:A448"/>
+    <mergeCell ref="B439:B448"/>
+    <mergeCell ref="A450:A458"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A460:A468"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A156:A171"/>
     <mergeCell ref="A267:A277"/>
@@ -9604,39 +9820,8 @@
     <mergeCell ref="A359:A368"/>
     <mergeCell ref="A370:A382"/>
     <mergeCell ref="A384:A394"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
     <mergeCell ref="A187:A196"/>
     <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A460:A469"/>
-    <mergeCell ref="B460:B469"/>
-    <mergeCell ref="A303:A315"/>
-    <mergeCell ref="A317:A328"/>
-    <mergeCell ref="A431:A437"/>
-    <mergeCell ref="B431:B437"/>
-    <mergeCell ref="A419:A429"/>
-    <mergeCell ref="B419:B429"/>
-    <mergeCell ref="A408:A417"/>
-    <mergeCell ref="B408:B417"/>
-    <mergeCell ref="A439:A448"/>
-    <mergeCell ref="B439:B448"/>
-    <mergeCell ref="A450:A458"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9647,15 +9832,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:I6"/>
+  <dimension ref="B3:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>587</v>
       </c>
@@ -9681,7 +9869,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>588</v>
       </c>
@@ -9704,7 +9892,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>20181013</v>
       </c>
@@ -9730,7 +9918,7 @@
         <v>27.46</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>20181121</v>
       </c>
@@ -9754,6 +9942,35 @@
       </c>
       <c r="I6">
         <v>28.16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>20181204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>731</v>
+      </c>
+      <c r="D7">
+        <v>48.73</v>
+      </c>
+      <c r="E7">
+        <v>75.36</v>
+      </c>
+      <c r="F7">
+        <v>0.18</v>
+      </c>
+      <c r="G7">
+        <v>15.04</v>
+      </c>
+      <c r="H7">
+        <v>6.35</v>
+      </c>
+      <c r="I7">
+        <v>22.72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -9839,7 +10056,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10352,7 +10569,7 @@
         <v>43436</v>
       </c>
       <c r="B35" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C35" s="24">
         <v>36.71</v>
@@ -10361,7 +10578,7 @@
         <v>518</v>
       </c>
       <c r="E35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -10369,16 +10586,16 @@
         <v>43437</v>
       </c>
       <c r="B36" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C36" s="24">
         <v>36.6</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E36" t="s">
         <v>709</v>
-      </c>
-      <c r="E36" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -10386,14 +10603,16 @@
         <v>43438</v>
       </c>
       <c r="B37" t="s">
-        <v>680</v>
-      </c>
-      <c r="C37" s="24"/>
+        <v>713</v>
+      </c>
+      <c r="C37" s="24">
+        <v>36.520000000000003</v>
+      </c>
       <c r="D37" s="3" t="s">
-        <v>518</v>
+        <v>708</v>
       </c>
       <c r="E37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -10401,14 +10620,14 @@
         <v>43439</v>
       </c>
       <c r="B38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C38" s="24"/>
       <c r="D38" s="3" t="s">
         <v>518</v>
       </c>
       <c r="E38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -10416,14 +10635,14 @@
         <v>43440</v>
       </c>
       <c r="B39" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="3" t="s">
         <v>518</v>
       </c>
       <c r="E39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -10431,7 +10650,7 @@
         <v>43441</v>
       </c>
       <c r="B40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="3" t="s">
@@ -10452,7 +10671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26 C28 C32">
+  <conditionalFormatting sqref="C28 C26 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10574,6 +10793,70 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E53634-2A6A-4D3F-A38A-CB1B6FDD5AC1}">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>43436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>43437</v>
+      </c>
+      <c r="B3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>43438</v>
+      </c>
+      <c r="B4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>43440</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -10667,7 +10950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>

--- a/preparate pregnancy.xlsx
+++ b/preparate pregnancy.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83E66D4-A48A-46C5-BF61-2138ABFBEB25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="440" windowWidth="25840" windowHeight="17480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -23,23 +27,23 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,12 +126,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="740">
   <si>
     <t>病毒四项</t>
   </si>
@@ -3267,13 +3271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚餐：</t>
-    <rPh sb="0" eb="1">
-      <t>wan canyou po dao xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>早餐：煎饼+大米粥+霉豆腐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3726,13 +3723,6 @@
   </si>
   <si>
     <t>量体温：36.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐：</t>
-    <rPh sb="0" eb="1">
-      <t>wan canyou po dao xiaojin feng zhuang yuan</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3911,11 +3901,108 @@
     <t>白天小腹疼，总想上大号，晚上胃难受</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>晚餐：黑豆炖棒骨+煎豆腐+炒油麦菜</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hei dou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bang gu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian dou fu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>you mai cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.82 晚上没睡好</t>
+    <rPh sb="10" eb="11">
+      <t>wan shang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shui hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 时长 费劲 少</t>
+    <rPh sb="0" eb="1">
+      <t>pai bian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fei jin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡脚+洗漱+护肤</t>
+    <rPh sb="0" eb="1">
+      <t>pao j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃坚果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA 润滑液</t>
+    <rPh sb="3" eb="4">
+      <t>run hua ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：匈牙利焗肉饭+鸡肉蘑菇汤</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiong ya li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji rou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mo gu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -4135,16 +4222,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4153,10 +4240,10 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4444,24 +4531,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4717,7 +4804,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -4732,7 +4819,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4747,7 +4834,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -4758,7 +4845,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5221,21 +5308,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -5651,27 +5738,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I479"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I480"/>
   <sheetViews>
-    <sheetView topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="D478" sqref="D478"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="D486" sqref="D486"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -5798,7 +5885,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="36" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -5807,7 +5894,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
-      <c r="B16" s="41"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -5817,7 +5904,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
-      <c r="B17" s="41"/>
+      <c r="B17" s="37"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -6204,7 +6291,7 @@
       <c r="A57" s="35">
         <v>43406</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="40" t="s">
         <v>409</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -6217,7 +6304,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
-      <c r="B58" s="34"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
       </c>
@@ -6346,7 +6433,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="36">
+      <c r="A72" s="34">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -6359,7 +6446,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -6370,7 +6457,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="36"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -6380,7 +6467,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -6388,7 +6475,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -6398,7 +6485,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="36"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -6408,7 +6495,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="36"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -6418,7 +6505,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="36"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -6428,7 +6515,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="36"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -6438,7 +6525,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="36"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -6448,7 +6535,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="36"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
    